--- a/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="419">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1456,6 +1456,9 @@
   </si>
   <si>
     <t>Validaciones Generales CompraCartera_GYG /5. Búsqueda contrato principal</t>
+  </si>
+  <si>
+    <t>FLG_OBJ_LIB</t>
   </si>
 </sst>
 </file>
@@ -3062,7 +3065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3070,10 +3073,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R207"/>
+  <dimension ref="B1:R208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="K120" workbookViewId="0">
+      <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7178,17 +7181,17 @@
         <v>164</v>
       </c>
       <c r="O132" s="31" t="s">
-        <v>161</v>
+        <v>418</v>
       </c>
       <c r="P132" s="31" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="Q132" s="31" t="s">
         <v>20</v>
       </c>
       <c r="R132" s="34"/>
     </row>
-    <row r="133" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="54">
         <v>125</v>
       </c>
@@ -7201,25 +7204,25 @@
       <c r="E133" s="24"/>
       <c r="F133" s="55"/>
       <c r="G133" s="56"/>
-      <c r="L133" s="41"/>
+      <c r="L133" s="40"/>
       <c r="M133" s="64">
         <v>142</v>
       </c>
-      <c r="N133" s="63" t="s">
+      <c r="N133" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="O133" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="P133" s="63" t="s">
+      <c r="O133" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="P133" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="Q133" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="61"/>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q133" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="34"/>
+    </row>
+    <row r="134" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B134" s="44">
         <v>126</v>
       </c>
@@ -7232,25 +7235,23 @@
       <c r="E134" s="24"/>
       <c r="F134" s="55"/>
       <c r="G134" s="56"/>
-      <c r="L134" s="60"/>
-      <c r="M134" s="48">
-        <v>135</v>
-      </c>
-      <c r="N134" s="65" t="s">
-        <v>236</v>
-      </c>
-      <c r="O134" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="P134" s="65" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q134" s="65" t="s">
-        <v>17</v>
-      </c>
-      <c r="R134" s="58" t="s">
-        <v>38</v>
-      </c>
+      <c r="L134" s="41"/>
+      <c r="M134" s="64">
+        <v>142</v>
+      </c>
+      <c r="N134" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="O134" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="P134" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q134" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="61"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="44">
@@ -7265,23 +7266,25 @@
       <c r="E135" s="24"/>
       <c r="F135" s="55"/>
       <c r="G135" s="56"/>
-      <c r="L135" s="40"/>
-      <c r="M135" s="33">
-        <v>141</v>
-      </c>
-      <c r="N135" s="31" t="s">
+      <c r="L135" s="60"/>
+      <c r="M135" s="48">
+        <v>135</v>
+      </c>
+      <c r="N135" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="O135" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="P135" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q135" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="36"/>
+      <c r="O135" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="P135" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q135" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="R135" s="58" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="54">
@@ -7297,22 +7300,22 @@
       <c r="F136" s="55"/>
       <c r="G136" s="56"/>
       <c r="L136" s="40"/>
-      <c r="M136" s="64">
-        <v>142</v>
+      <c r="M136" s="33">
+        <v>141</v>
       </c>
       <c r="N136" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O136" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P136" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q136" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R136" s="34"/>
+      <c r="R136" s="36"/>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="44">
@@ -7328,17 +7331,17 @@
       <c r="F137" s="55"/>
       <c r="G137" s="56"/>
       <c r="L137" s="40"/>
-      <c r="M137" s="33">
-        <v>141</v>
+      <c r="M137" s="64">
+        <v>142</v>
       </c>
       <c r="N137" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O137" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P137" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q137" s="31" t="s">
         <v>20</v>
@@ -7359,17 +7362,17 @@
       <c r="F138" s="55"/>
       <c r="G138" s="56"/>
       <c r="L138" s="40"/>
-      <c r="M138" s="64">
-        <v>142</v>
+      <c r="M138" s="33">
+        <v>141</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O138" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P138" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q138" s="31" t="s">
         <v>20</v>
@@ -7390,17 +7393,17 @@
       <c r="F139" s="55"/>
       <c r="G139" s="56"/>
       <c r="L139" s="40"/>
-      <c r="M139" s="33">
-        <v>141</v>
+      <c r="M139" s="64">
+        <v>142</v>
       </c>
       <c r="N139" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P139" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q139" s="31" t="s">
         <v>20</v>
@@ -7421,17 +7424,17 @@
       <c r="F140" s="55"/>
       <c r="G140" s="56"/>
       <c r="L140" s="40"/>
-      <c r="M140" s="64">
-        <v>142</v>
+      <c r="M140" s="33">
+        <v>141</v>
       </c>
       <c r="N140" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P140" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q140" s="31" t="s">
         <v>20</v>
@@ -7452,17 +7455,17 @@
       <c r="F141" s="55"/>
       <c r="G141" s="56"/>
       <c r="L141" s="40"/>
-      <c r="M141" s="33">
-        <v>141</v>
+      <c r="M141" s="64">
+        <v>142</v>
       </c>
       <c r="N141" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P141" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q141" s="31" t="s">
         <v>20</v>
@@ -7483,17 +7486,17 @@
       <c r="F142" s="73"/>
       <c r="G142" s="74"/>
       <c r="L142" s="40"/>
-      <c r="M142" s="64">
-        <v>142</v>
+      <c r="M142" s="33">
+        <v>141</v>
       </c>
       <c r="N142" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P142" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q142" s="31" t="s">
         <v>20</v>
@@ -7509,10 +7512,10 @@
         <v>236</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P143" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q143" s="31" t="s">
         <v>20</v>
@@ -7521,17 +7524,17 @@
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L144" s="40"/>
-      <c r="M144" s="33">
-        <v>141</v>
+      <c r="M144" s="64">
+        <v>142</v>
       </c>
       <c r="N144" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O144" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P144" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q144" s="31" t="s">
         <v>20</v>
@@ -7540,17 +7543,17 @@
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="40"/>
-      <c r="M145" s="64">
-        <v>142</v>
+      <c r="M145" s="33">
+        <v>141</v>
       </c>
       <c r="N145" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O145" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P145" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q145" s="31" t="s">
         <v>20</v>
@@ -7559,17 +7562,17 @@
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="40"/>
-      <c r="M146" s="33">
-        <v>141</v>
+      <c r="M146" s="64">
+        <v>142</v>
       </c>
       <c r="N146" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O146" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P146" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q146" s="31" t="s">
         <v>20</v>
@@ -7578,17 +7581,17 @@
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="40"/>
-      <c r="M147" s="64">
-        <v>142</v>
+      <c r="M147" s="33">
+        <v>141</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O147" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P147" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q147" s="31" t="s">
         <v>20</v>
@@ -7597,17 +7600,17 @@
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="40"/>
-      <c r="M148" s="33">
-        <v>141</v>
+      <c r="M148" s="64">
+        <v>142</v>
       </c>
       <c r="N148" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O148" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P148" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q148" s="31" t="s">
         <v>20</v>
@@ -7616,17 +7619,17 @@
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="40"/>
-      <c r="M149" s="64">
-        <v>142</v>
+      <c r="M149" s="33">
+        <v>141</v>
       </c>
       <c r="N149" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O149" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P149" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q149" s="31" t="s">
         <v>20</v>
@@ -7635,17 +7638,17 @@
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="40"/>
-      <c r="M150" s="33">
-        <v>141</v>
+      <c r="M150" s="64">
+        <v>142</v>
       </c>
       <c r="N150" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O150" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P150" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q150" s="31" t="s">
         <v>20</v>
@@ -7654,17 +7657,17 @@
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="40"/>
-      <c r="M151" s="64">
-        <v>142</v>
+      <c r="M151" s="33">
+        <v>141</v>
       </c>
       <c r="N151" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O151" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P151" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q151" s="31" t="s">
         <v>20</v>
@@ -7673,17 +7676,17 @@
     </row>
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="40"/>
-      <c r="M152" s="33">
-        <v>141</v>
+      <c r="M152" s="64">
+        <v>142</v>
       </c>
       <c r="N152" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O152" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P152" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q152" s="31" t="s">
         <v>20</v>
@@ -7692,17 +7695,17 @@
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="40"/>
-      <c r="M153" s="64">
-        <v>142</v>
+      <c r="M153" s="33">
+        <v>141</v>
       </c>
       <c r="N153" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O153" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P153" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q153" s="31" t="s">
         <v>20</v>
@@ -7711,17 +7714,17 @@
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="40"/>
-      <c r="M154" s="33">
-        <v>141</v>
+      <c r="M154" s="64">
+        <v>142</v>
       </c>
       <c r="N154" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O154" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P154" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q154" s="31" t="s">
         <v>20</v>
@@ -7730,17 +7733,17 @@
     </row>
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="40"/>
-      <c r="M155" s="64">
-        <v>142</v>
+      <c r="M155" s="33">
+        <v>141</v>
       </c>
       <c r="N155" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O155" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P155" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q155" s="31" t="s">
         <v>20</v>
@@ -7749,17 +7752,17 @@
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="40"/>
-      <c r="M156" s="54">
-        <v>8</v>
+      <c r="M156" s="64">
+        <v>142</v>
       </c>
       <c r="N156" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O156" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P156" s="31" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Q156" s="31" t="s">
         <v>20</v>
@@ -7768,17 +7771,17 @@
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="40"/>
-      <c r="M157" s="64">
-        <v>142</v>
+      <c r="M157" s="54">
+        <v>8</v>
       </c>
       <c r="N157" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O157" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P157" s="31" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q157" s="31" t="s">
         <v>20</v>
@@ -7787,36 +7790,36 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="40"/>
-      <c r="M158" s="44">
-        <v>143</v>
+      <c r="M158" s="64">
+        <v>142</v>
       </c>
       <c r="N158" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O158" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P158" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q158" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R158" s="36"/>
+      <c r="R158" s="34"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="40"/>
-      <c r="M159" s="33">
-        <v>141</v>
+      <c r="M159" s="44">
+        <v>143</v>
       </c>
       <c r="N159" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O159" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P159" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q159" s="31" t="s">
         <v>20</v>
@@ -7825,17 +7828,17 @@
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="40"/>
-      <c r="M160" s="64">
-        <v>142</v>
+      <c r="M160" s="33">
+        <v>141</v>
       </c>
       <c r="N160" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O160" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P160" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q160" s="31" t="s">
         <v>20</v>
@@ -7851,7 +7854,7 @@
         <v>236</v>
       </c>
       <c r="O161" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P161" s="31" t="s">
         <v>19</v>
@@ -7863,17 +7866,17 @@
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="40"/>
-      <c r="M162" s="33">
-        <v>141</v>
+      <c r="M162" s="64">
+        <v>142</v>
       </c>
       <c r="N162" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O162" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P162" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q162" s="31" t="s">
         <v>20</v>
@@ -7889,7 +7892,7 @@
         <v>236</v>
       </c>
       <c r="O163" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P163" s="31" t="s">
         <v>16</v>
@@ -7897,80 +7900,80 @@
       <c r="Q163" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R163" s="34"/>
+      <c r="R163" s="36"/>
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="40"/>
       <c r="M164" s="33">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="N164" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O164" s="31" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="P164" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q164" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="R164" s="36" t="s">
-        <v>38</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="R164" s="34"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="40"/>
-      <c r="M165" s="59">
-        <v>142</v>
-      </c>
-      <c r="N165" s="70" t="s">
+      <c r="M165" s="33">
+        <v>136</v>
+      </c>
+      <c r="N165" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="O165" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="P165" s="70" t="s">
+      <c r="O165" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="P165" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="Q165" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="R165" s="49"/>
+      <c r="Q165" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="R165" s="36" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="40"/>
-      <c r="M166" s="64">
-        <v>142</v>
-      </c>
-      <c r="N166" s="31" t="s">
+      <c r="M166" s="59">
+        <v>142</v>
+      </c>
+      <c r="N166" s="70" t="s">
         <v>236</v>
       </c>
-      <c r="O166" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="P166" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q166" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" s="34"/>
+      <c r="O166" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="P166" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q166" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="R166" s="49"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="40"/>
-      <c r="M167" s="33">
-        <v>141</v>
+      <c r="M167" s="64">
+        <v>142</v>
       </c>
       <c r="N167" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O167" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P167" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q167" s="31" t="s">
         <v>20</v>
@@ -7979,17 +7982,17 @@
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="40"/>
-      <c r="M168" s="64">
-        <v>142</v>
+      <c r="M168" s="33">
+        <v>141</v>
       </c>
       <c r="N168" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O168" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P168" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q168" s="31" t="s">
         <v>20</v>
@@ -8005,7 +8008,7 @@
         <v>236</v>
       </c>
       <c r="O169" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P169" s="31" t="s">
         <v>24</v>
@@ -8024,7 +8027,7 @@
         <v>236</v>
       </c>
       <c r="O170" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P170" s="31" t="s">
         <v>24</v>
@@ -8036,17 +8039,17 @@
     </row>
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="40"/>
-      <c r="M171" s="33">
-        <v>141</v>
+      <c r="M171" s="64">
+        <v>142</v>
       </c>
       <c r="N171" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O171" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P171" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q171" s="31" t="s">
         <v>20</v>
@@ -8055,17 +8058,17 @@
     </row>
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="40"/>
-      <c r="M172" s="64">
-        <v>142</v>
+      <c r="M172" s="33">
+        <v>141</v>
       </c>
       <c r="N172" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O172" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P172" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q172" s="31" t="s">
         <v>20</v>
@@ -8081,7 +8084,7 @@
         <v>236</v>
       </c>
       <c r="O173" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P173" s="31" t="s">
         <v>24</v>
@@ -8100,7 +8103,7 @@
         <v>236</v>
       </c>
       <c r="O174" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P174" s="31" t="s">
         <v>24</v>
@@ -8119,10 +8122,10 @@
         <v>236</v>
       </c>
       <c r="O175" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P175" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q175" s="31" t="s">
         <v>20</v>
@@ -8138,10 +8141,10 @@
         <v>236</v>
       </c>
       <c r="O176" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P176" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q176" s="31" t="s">
         <v>20</v>
@@ -8157,7 +8160,7 @@
         <v>236</v>
       </c>
       <c r="O177" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P177" s="31" t="s">
         <v>24</v>
@@ -8176,7 +8179,7 @@
         <v>236</v>
       </c>
       <c r="O178" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P178" s="31" t="s">
         <v>24</v>
@@ -8195,7 +8198,7 @@
         <v>236</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P179" s="31" t="s">
         <v>24</v>
@@ -8214,10 +8217,10 @@
         <v>236</v>
       </c>
       <c r="O180" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P180" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q180" s="31" t="s">
         <v>20</v>
@@ -8226,17 +8229,17 @@
     </row>
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="40"/>
-      <c r="M181" s="33">
-        <v>141</v>
+      <c r="M181" s="64">
+        <v>142</v>
       </c>
       <c r="N181" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O181" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P181" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q181" s="31" t="s">
         <v>20</v>
@@ -8245,17 +8248,17 @@
     </row>
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="40"/>
-      <c r="M182" s="64">
-        <v>142</v>
+      <c r="M182" s="33">
+        <v>141</v>
       </c>
       <c r="N182" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O182" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P182" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q182" s="31" t="s">
         <v>20</v>
@@ -8271,10 +8274,10 @@
         <v>236</v>
       </c>
       <c r="O183" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P183" s="31" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Q183" s="31" t="s">
         <v>20</v>
@@ -8290,10 +8293,10 @@
         <v>236</v>
       </c>
       <c r="O184" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P184" s="31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q184" s="31" t="s">
         <v>20</v>
@@ -8309,7 +8312,7 @@
         <v>236</v>
       </c>
       <c r="O185" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P185" s="31" t="s">
         <v>24</v>
@@ -8328,10 +8331,10 @@
         <v>236</v>
       </c>
       <c r="O186" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P186" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q186" s="31" t="s">
         <v>20</v>
@@ -8347,10 +8350,10 @@
         <v>236</v>
       </c>
       <c r="O187" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P187" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q187" s="31" t="s">
         <v>20</v>
@@ -8359,14 +8362,14 @@
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="40"/>
-      <c r="M188" s="33">
-        <v>141</v>
+      <c r="M188" s="64">
+        <v>142</v>
       </c>
       <c r="N188" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O188" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P188" s="31" t="s">
         <v>16</v>
@@ -8385,10 +8388,10 @@
         <v>236</v>
       </c>
       <c r="O189" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P189" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q189" s="31" t="s">
         <v>20</v>
@@ -8404,10 +8407,10 @@
         <v>236</v>
       </c>
       <c r="O190" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P190" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q190" s="31" t="s">
         <v>20</v>
@@ -8423,7 +8426,7 @@
         <v>236</v>
       </c>
       <c r="O191" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P191" s="31" t="s">
         <v>16</v>
@@ -8435,17 +8438,17 @@
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L192" s="40"/>
-      <c r="M192" s="64">
-        <v>142</v>
+      <c r="M192" s="33">
+        <v>141</v>
       </c>
       <c r="N192" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O192" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P192" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q192" s="31" t="s">
         <v>20</v>
@@ -8454,17 +8457,17 @@
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="40"/>
-      <c r="M193" s="33">
-        <v>141</v>
+      <c r="M193" s="64">
+        <v>142</v>
       </c>
       <c r="N193" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O193" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P193" s="31" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="Q193" s="31" t="s">
         <v>20</v>
@@ -8473,17 +8476,17 @@
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="40"/>
-      <c r="M194" s="64">
-        <v>142</v>
+      <c r="M194" s="33">
+        <v>141</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O194" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P194" s="31" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="Q194" s="31" t="s">
         <v>20</v>
@@ -8499,10 +8502,10 @@
         <v>236</v>
       </c>
       <c r="O195" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P195" s="31" t="s">
-        <v>135</v>
+        <v>16</v>
       </c>
       <c r="Q195" s="31" t="s">
         <v>20</v>
@@ -8518,7 +8521,7 @@
         <v>236</v>
       </c>
       <c r="O196" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P196" s="31" t="s">
         <v>135</v>
@@ -8530,17 +8533,17 @@
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="40"/>
-      <c r="M197" s="33">
-        <v>141</v>
+      <c r="M197" s="64">
+        <v>142</v>
       </c>
       <c r="N197" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O197" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P197" s="31" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="Q197" s="31" t="s">
         <v>20</v>
@@ -8556,7 +8559,7 @@
         <v>236</v>
       </c>
       <c r="O198" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P198" s="31" t="s">
         <v>16</v>
@@ -8568,17 +8571,17 @@
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="40"/>
-      <c r="M199" s="64">
-        <v>142</v>
+      <c r="M199" s="33">
+        <v>141</v>
       </c>
       <c r="N199" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O199" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P199" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q199" s="31" t="s">
         <v>20</v>
@@ -8587,17 +8590,17 @@
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="40"/>
-      <c r="M200" s="33">
-        <v>141</v>
+      <c r="M200" s="64">
+        <v>142</v>
       </c>
       <c r="N200" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O200" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P200" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q200" s="31" t="s">
         <v>20</v>
@@ -8606,17 +8609,17 @@
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="40"/>
-      <c r="M201" s="64">
-        <v>142</v>
+      <c r="M201" s="33">
+        <v>141</v>
       </c>
       <c r="N201" s="31" t="s">
         <v>236</v>
       </c>
       <c r="O201" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P201" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q201" s="31" t="s">
         <v>20</v>
@@ -8632,7 +8635,7 @@
         <v>236</v>
       </c>
       <c r="O202" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P202" s="31" t="s">
         <v>24</v>
@@ -8651,7 +8654,7 @@
         <v>236</v>
       </c>
       <c r="O203" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P203" s="31" t="s">
         <v>24</v>
@@ -8670,7 +8673,7 @@
         <v>236</v>
       </c>
       <c r="O204" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P204" s="31" t="s">
         <v>24</v>
@@ -8689,10 +8692,10 @@
         <v>236</v>
       </c>
       <c r="O205" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P205" s="31" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="Q205" s="31" t="s">
         <v>20</v>
@@ -8708,34 +8711,53 @@
         <v>236</v>
       </c>
       <c r="O206" s="31" t="s">
+        <v>233</v>
+      </c>
+      <c r="P206" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q206" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R206" s="34"/>
+    </row>
+    <row r="207" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L207" s="40"/>
+      <c r="M207" s="64">
+        <v>142</v>
+      </c>
+      <c r="N207" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O207" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="P206" s="31" t="s">
+      <c r="P207" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q206" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R206" s="34"/>
-    </row>
-    <row r="207" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L207" s="41"/>
-      <c r="M207" s="88">
-        <v>142</v>
-      </c>
-      <c r="N207" s="38" t="s">
+      <c r="Q207" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="34"/>
+    </row>
+    <row r="208" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L208" s="41"/>
+      <c r="M208" s="88">
+        <v>142</v>
+      </c>
+      <c r="N208" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="O207" s="38" t="s">
+      <c r="O208" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="P207" s="38" t="s">
+      <c r="P208" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q207" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="35"/>
+      <c r="Q208" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="423">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1459,6 +1459,18 @@
   </si>
   <si>
     <t>FLG_OBJ_LIB</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Proceso</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Proceso (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Asignar parametro Fecha Default</t>
+  </si>
+  <si>
+    <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -2275,6 +2287,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2364,7 +2396,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2445,18 +2477,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2528,7 +2553,6 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2587,6 +2611,20 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3065,7 +3103,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3075,8 +3113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K120" workbookViewId="0">
-      <selection activeCell="N132" sqref="N132"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M166" sqref="M166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3084,7 +3122,7 @@
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="82" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -3105,7 +3143,7 @@
     <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="81"/>
+      <c r="D1" s="78"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3115,28 +3153,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="92" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="91"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="52"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
@@ -3147,13 +3185,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="104"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="100"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="53"/>
+      <c r="H4" s="50"/>
       <c r="I4" s="42" t="s">
         <v>35</v>
       </c>
@@ -3164,45 +3202,45 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="103"/>
-      <c r="F5" s="104"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="100"/>
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="81"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="107" t="s">
+      <c r="I7" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="108"/>
-      <c r="K7" s="109"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="91" t="s">
+      <c r="M7" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="92"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3211,7 +3249,7 @@
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="79" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -3257,39 +3295,39 @@
       <c r="B9" s="43">
         <v>1</v>
       </c>
-      <c r="C9" s="79" t="s">
+      <c r="C9" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="80" t="s">
         <v>372</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="48">
+      <c r="G9" s="107"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="46">
         <v>135</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="K9" s="87" t="s">
+      <c r="K9" s="84" t="s">
         <v>413</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="66">
+      <c r="L9" s="112"/>
+      <c r="M9" s="63">
         <v>135</v>
       </c>
-      <c r="N9" s="65" t="s">
+      <c r="N9" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="O9" s="65" t="s">
+      <c r="O9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="P9" s="65" t="s">
+      <c r="P9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="62" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="39" t="s">
@@ -3300,16 +3338,16 @@
       <c r="B10" s="44">
         <v>2</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="75" t="s">
         <v>239</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="81" t="s">
         <v>373</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="40"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="110"/>
       <c r="I10" s="33">
         <v>136</v>
       </c>
@@ -3319,7 +3357,7 @@
       <c r="K10" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="L10" s="51"/>
+      <c r="L10" s="112"/>
       <c r="M10" s="33">
         <v>136</v>
       </c>
@@ -3335,22 +3373,22 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="62"/>
+      <c r="R10" s="59"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="44">
         <v>3</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="81" t="s">
         <v>374</v>
       </c>
       <c r="E11" s="37"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="110"/>
       <c r="I11" s="33">
         <v>137</v>
       </c>
@@ -3360,7 +3398,7 @@
       <c r="K11" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="L11" s="51"/>
+      <c r="L11" s="112"/>
       <c r="M11" s="33">
         <v>137</v>
       </c>
@@ -3382,27 +3420,27 @@
       <c r="B12" s="44">
         <v>4</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="75" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="84" t="s">
+      <c r="D12" s="81" t="s">
         <v>375</v>
       </c>
       <c r="E12" s="37"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="110"/>
       <c r="I12" s="33">
         <v>138</v>
       </c>
       <c r="J12" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="K12" s="89" t="s">
+      <c r="K12" s="83" t="s">
         <v>414</v>
       </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="68">
+      <c r="L12" s="112"/>
+      <c r="M12" s="65">
         <v>138</v>
       </c>
       <c r="N12" s="31" t="s">
@@ -3420,30 +3458,30 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="54">
+      <c r="B13" s="51">
         <v>5</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="81" t="s">
         <v>376</v>
       </c>
       <c r="E13" s="37"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="33">
         <v>139</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="83" t="s">
         <v>415</v>
       </c>
-      <c r="L13" s="40"/>
-      <c r="M13" s="68">
+      <c r="L13" s="113"/>
+      <c r="M13" s="65">
         <v>4</v>
       </c>
       <c r="N13" s="31" t="s">
@@ -3464,27 +3502,27 @@
       <c r="B14" s="44">
         <v>6</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="D14" s="84" t="s">
+      <c r="D14" s="81" t="s">
         <v>376</v>
       </c>
       <c r="E14" s="37"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="64">
+      <c r="F14" s="52"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="61">
         <v>140</v>
       </c>
       <c r="J14" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="59" t="s">
         <v>416</v>
       </c>
-      <c r="L14" s="40"/>
-      <c r="M14" s="68">
+      <c r="L14" s="113"/>
+      <c r="M14" s="65">
         <v>139</v>
       </c>
       <c r="N14" s="31" t="s">
@@ -3505,26 +3543,26 @@
       <c r="B15" s="44">
         <v>7</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="81" t="s">
         <v>39</v>
       </c>
       <c r="E15" s="37"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="40"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="110"/>
       <c r="I15" s="33">
         <v>141</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>407</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="83" t="s">
         <v>408</v>
       </c>
-      <c r="L15" s="40"/>
+      <c r="L15" s="113"/>
       <c r="M15" s="33">
         <v>141</v>
       </c>
@@ -3543,20 +3581,20 @@
       <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="54">
+      <c r="B16" s="51">
         <v>8</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="D16" s="84" t="s">
+      <c r="D16" s="81" t="s">
         <v>371</v>
       </c>
       <c r="E16" s="37"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="64">
+      <c r="F16" s="52"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="61">
         <v>142</v>
       </c>
       <c r="J16" s="28" t="s">
@@ -3565,8 +3603,8 @@
       <c r="K16" s="34" t="s">
         <v>410</v>
       </c>
-      <c r="L16" s="40"/>
-      <c r="M16" s="64">
+      <c r="L16" s="113"/>
+      <c r="M16" s="61">
         <v>141</v>
       </c>
       <c r="N16" s="31" t="s">
@@ -3583,31 +3621,31 @@
       </c>
       <c r="R16" s="36"/>
     </row>
-    <row r="17" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="44">
         <v>9</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E17" s="37"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="32">
+      <c r="F17" s="52"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="33">
         <v>143</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="J17" s="24" t="s">
         <v>412</v>
       </c>
-      <c r="K17" s="90" t="s">
+      <c r="K17" s="83" t="s">
         <v>417</v>
       </c>
-      <c r="L17" s="40"/>
-      <c r="M17" s="64">
+      <c r="L17" s="113"/>
+      <c r="M17" s="61">
         <v>142</v>
       </c>
       <c r="N17" s="31" t="s">
@@ -3622,22 +3660,32 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="62"/>
+      <c r="R17" s="59"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="44">
         <v>10</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="56"/>
-      <c r="L18" s="40"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="33">
+        <v>144</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="K18" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="L18" s="113"/>
       <c r="M18" s="33">
         <v>141</v>
       </c>
@@ -3655,21 +3703,31 @@
       </c>
       <c r="R18" s="36"/>
     </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B19" s="54">
+    <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="51">
         <v>11</v>
       </c>
-      <c r="C19" s="78" t="s">
+      <c r="C19" s="75" t="s">
         <v>248</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="56"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="64">
+      <c r="F19" s="52"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="32">
+        <v>145</v>
+      </c>
+      <c r="J19" s="106" t="s">
+        <v>421</v>
+      </c>
+      <c r="K19" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="L19" s="113"/>
+      <c r="M19" s="61">
         <v>142</v>
       </c>
       <c r="N19" s="31" t="s">
@@ -3690,15 +3748,15 @@
       <c r="B20" s="44">
         <v>12</v>
       </c>
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="D20" s="84" t="s">
+      <c r="D20" s="81" t="s">
         <v>377</v>
       </c>
       <c r="E20" s="37"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="L20" s="40"/>
       <c r="M20" s="33">
         <v>141</v>
@@ -3715,23 +3773,23 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="62"/>
+      <c r="R20" s="59"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="44">
         <v>13</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="75" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="84" t="s">
+      <c r="D21" s="81" t="s">
         <v>373</v>
       </c>
       <c r="E21" s="37"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="64">
+      <c r="M21" s="61">
         <v>142</v>
       </c>
       <c r="N21" s="31" t="s">
@@ -3746,21 +3804,21 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="62"/>
+      <c r="R21" s="59"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="54">
+      <c r="B22" s="51">
         <v>14</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="75" t="s">
         <v>251</v>
       </c>
-      <c r="D22" s="84" t="s">
+      <c r="D22" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="L22" s="40"/>
       <c r="M22" s="33">
         <v>141</v>
@@ -3783,17 +3841,17 @@
       <c r="B23" s="44">
         <v>15</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="D23" s="84" t="s">
+      <c r="D23" s="81" t="s">
         <v>373</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="64">
+      <c r="M23" s="61">
         <v>142</v>
       </c>
       <c r="N23" s="31" t="s">
@@ -3814,15 +3872,15 @@
       <c r="B24" s="44">
         <v>16</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="75" t="s">
         <v>253</v>
       </c>
-      <c r="D24" s="84" t="s">
+      <c r="D24" s="81" t="s">
         <v>373</v>
       </c>
-      <c r="E24" s="71"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
       <c r="L24" s="40"/>
       <c r="M24" s="33">
         <v>141</v>
@@ -3842,20 +3900,20 @@
       <c r="R24" s="36"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="54">
+      <c r="B25" s="51">
         <v>17</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="75" t="s">
         <v>254</v>
       </c>
-      <c r="D25" s="84" t="s">
+      <c r="D25" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="E25" s="72"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="56"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="64">
+      <c r="M25" s="61">
         <v>142</v>
       </c>
       <c r="N25" s="31" t="s">
@@ -3876,15 +3934,15 @@
       <c r="B26" s="44">
         <v>18</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="D26" s="84" t="s">
+      <c r="D26" s="81" t="s">
         <v>378</v>
       </c>
-      <c r="E26" s="72"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="56"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="53"/>
       <c r="L26" s="40"/>
       <c r="M26" s="33">
         <v>141</v>
@@ -3907,17 +3965,17 @@
       <c r="B27" s="44">
         <v>19</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="75" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="84" t="s">
+      <c r="D27" s="81" t="s">
         <v>378</v>
       </c>
-      <c r="E27" s="72"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="56"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="53"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="64">
+      <c r="M27" s="61">
         <v>142</v>
       </c>
       <c r="N27" s="31" t="s">
@@ -3935,18 +3993,18 @@
       <c r="R27" s="36"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="54">
-        <v>20</v>
-      </c>
-      <c r="C28" s="78" t="s">
+      <c r="B28" s="51">
+        <v>20</v>
+      </c>
+      <c r="C28" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="D28" s="84" t="s">
+      <c r="D28" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="E28" s="72"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="53"/>
       <c r="L28" s="40"/>
       <c r="M28" s="33">
         <v>141</v>
@@ -3963,23 +4021,23 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="62"/>
+      <c r="R28" s="59"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="44">
         <v>21</v>
       </c>
-      <c r="C29" s="78" t="s">
+      <c r="C29" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="D29" s="84" t="s">
+      <c r="D29" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="E29" s="72"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="53"/>
       <c r="L29" s="40"/>
-      <c r="M29" s="64">
+      <c r="M29" s="61">
         <v>142</v>
       </c>
       <c r="N29" s="31" t="s">
@@ -4000,15 +4058,15 @@
       <c r="B30" s="44">
         <v>22</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="81" t="s">
         <v>372</v>
       </c>
-      <c r="E30" s="72"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="53"/>
       <c r="L30" s="40"/>
       <c r="M30" s="33">
         <v>141</v>
@@ -4028,20 +4086,20 @@
       <c r="R30" s="36"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="54">
+      <c r="B31" s="51">
         <v>23</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="75" t="s">
         <v>260</v>
       </c>
-      <c r="D31" s="84" t="s">
+      <c r="D31" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="72"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="56"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="53"/>
       <c r="L31" s="40"/>
-      <c r="M31" s="64">
+      <c r="M31" s="61">
         <v>142</v>
       </c>
       <c r="N31" s="31" t="s">
@@ -4056,21 +4114,21 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="62"/>
+      <c r="R31" s="59"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="44">
         <v>24</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="84" t="s">
+      <c r="D32" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="72"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="56"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="53"/>
       <c r="L32" s="40"/>
       <c r="M32" s="33">
         <v>141</v>
@@ -4087,23 +4145,23 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="62"/>
+      <c r="R32" s="59"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="44">
         <v>25</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="84" t="s">
+      <c r="D33" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="56"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="53"/>
       <c r="L33" s="40"/>
-      <c r="M33" s="64">
+      <c r="M33" s="61">
         <v>142</v>
       </c>
       <c r="N33" s="31" t="s">
@@ -4121,20 +4179,20 @@
       <c r="R33" s="36"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="54">
+      <c r="B34" s="51">
         <v>26</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="75" t="s">
         <v>263</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="81" t="s">
         <v>377</v>
       </c>
-      <c r="E34" s="72"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="56"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="53"/>
       <c r="L34" s="40"/>
-      <c r="M34" s="67">
+      <c r="M34" s="64">
         <v>7</v>
       </c>
       <c r="N34" s="31" t="s">
@@ -4155,17 +4213,17 @@
       <c r="B35" s="44">
         <v>27</v>
       </c>
-      <c r="C35" s="78" t="s">
+      <c r="C35" s="75" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="84" t="s">
+      <c r="D35" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="E35" s="72"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="56"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="53"/>
       <c r="L35" s="40"/>
-      <c r="M35" s="64">
+      <c r="M35" s="61">
         <v>142</v>
       </c>
       <c r="N35" s="31" t="s">
@@ -4186,17 +4244,17 @@
       <c r="B36" s="44">
         <v>28</v>
       </c>
-      <c r="C36" s="78" t="s">
+      <c r="C36" s="75" t="s">
         <v>265</v>
       </c>
-      <c r="D36" s="84" t="s">
+      <c r="D36" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="E36" s="72"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="56"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="53"/>
       <c r="L36" s="40"/>
-      <c r="M36" s="64">
+      <c r="M36" s="61">
         <v>142</v>
       </c>
       <c r="N36" s="31" t="s">
@@ -4214,20 +4272,20 @@
       <c r="R36" s="36"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="54">
+      <c r="B37" s="51">
         <v>29</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="75" t="s">
         <v>266</v>
       </c>
-      <c r="D37" s="84" t="s">
+      <c r="D37" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="56"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="53"/>
       <c r="L37" s="40"/>
-      <c r="M37" s="64">
+      <c r="M37" s="61">
         <v>142</v>
       </c>
       <c r="N37" s="31" t="s">
@@ -4248,17 +4306,17 @@
       <c r="B38" s="44">
         <v>30</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="75" t="s">
         <v>267</v>
       </c>
-      <c r="D38" s="84" t="s">
+      <c r="D38" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="E38" s="72"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="53"/>
       <c r="L38" s="40"/>
-      <c r="M38" s="64">
+      <c r="M38" s="61">
         <v>142</v>
       </c>
       <c r="N38" s="31" t="s">
@@ -4279,17 +4337,17 @@
       <c r="B39" s="44">
         <v>31</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="75" t="s">
         <v>268</v>
       </c>
-      <c r="D39" s="84" t="s">
+      <c r="D39" s="81" t="s">
         <v>379</v>
       </c>
-      <c r="E39" s="72"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="56"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53"/>
       <c r="L39" s="40"/>
-      <c r="M39" s="64">
+      <c r="M39" s="61">
         <v>142</v>
       </c>
       <c r="N39" s="31" t="s">
@@ -4304,23 +4362,23 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="62"/>
+      <c r="R39" s="59"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="54">
+      <c r="B40" s="51">
         <v>32</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="75" t="s">
         <v>269</v>
       </c>
-      <c r="D40" s="84" t="s">
+      <c r="D40" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E40" s="37"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="56"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="53"/>
       <c r="L40" s="40"/>
-      <c r="M40" s="64">
+      <c r="M40" s="61">
         <v>142</v>
       </c>
       <c r="N40" s="31" t="s">
@@ -4341,15 +4399,15 @@
       <c r="B41" s="44">
         <v>33</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="D41" s="84" t="s">
+      <c r="D41" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E41" s="37"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="56"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="53"/>
       <c r="L41" s="40"/>
       <c r="M41" s="33">
         <v>141</v>
@@ -4372,17 +4430,17 @@
       <c r="B42" s="44">
         <v>34</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="75" t="s">
         <v>271</v>
       </c>
-      <c r="D42" s="84" t="s">
+      <c r="D42" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E42" s="37"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="56"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="53"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="64">
+      <c r="M42" s="61">
         <v>142</v>
       </c>
       <c r="N42" s="31" t="s">
@@ -4397,23 +4455,23 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="62"/>
+      <c r="R42" s="59"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="54">
+      <c r="B43" s="51">
         <v>35</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="75" t="s">
         <v>272</v>
       </c>
-      <c r="D43" s="84" t="s">
+      <c r="D43" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E43" s="37"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="56"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="53"/>
       <c r="L43" s="40"/>
-      <c r="M43" s="64">
+      <c r="M43" s="61">
         <v>142</v>
       </c>
       <c r="N43" s="31" t="s">
@@ -4428,23 +4486,23 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="62"/>
+      <c r="R43" s="59"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="44">
         <v>36</v>
       </c>
-      <c r="C44" s="78" t="s">
+      <c r="C44" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D44" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E44" s="37"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="56"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="53"/>
       <c r="L44" s="40"/>
-      <c r="M44" s="64">
+      <c r="M44" s="61">
         <v>142</v>
       </c>
       <c r="N44" s="31" t="s">
@@ -4465,17 +4523,17 @@
       <c r="B45" s="44">
         <v>37</v>
       </c>
-      <c r="C45" s="78" t="s">
+      <c r="C45" s="75" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="84" t="s">
+      <c r="D45" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E45" s="37"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="53"/>
       <c r="L45" s="40"/>
-      <c r="M45" s="64">
+      <c r="M45" s="61">
         <v>142</v>
       </c>
       <c r="N45" s="31" t="s">
@@ -4493,20 +4551,20 @@
       <c r="R45" s="36"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="54">
+      <c r="B46" s="51">
         <v>38</v>
       </c>
-      <c r="C46" s="78" t="s">
+      <c r="C46" s="75" t="s">
         <v>275</v>
       </c>
-      <c r="D46" s="84" t="s">
+      <c r="D46" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E46" s="37"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="56"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="53"/>
       <c r="L46" s="40"/>
-      <c r="M46" s="64">
+      <c r="M46" s="61">
         <v>142</v>
       </c>
       <c r="N46" s="31" t="s">
@@ -4527,17 +4585,17 @@
       <c r="B47" s="44">
         <v>39</v>
       </c>
-      <c r="C47" s="78" t="s">
+      <c r="C47" s="75" t="s">
         <v>276</v>
       </c>
-      <c r="D47" s="84" t="s">
+      <c r="D47" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="56"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="53"/>
       <c r="L47" s="40"/>
-      <c r="M47" s="64">
+      <c r="M47" s="61">
         <v>142</v>
       </c>
       <c r="N47" s="31" t="s">
@@ -4558,17 +4616,17 @@
       <c r="B48" s="44">
         <v>40</v>
       </c>
-      <c r="C48" s="78" t="s">
+      <c r="C48" s="75" t="s">
         <v>277</v>
       </c>
-      <c r="D48" s="84" t="s">
+      <c r="D48" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="56"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="53"/>
       <c r="L48" s="40"/>
-      <c r="M48" s="64">
+      <c r="M48" s="61">
         <v>142</v>
       </c>
       <c r="N48" s="31" t="s">
@@ -4586,20 +4644,20 @@
       <c r="R48" s="36"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="54">
+      <c r="B49" s="51">
         <v>41</v>
       </c>
-      <c r="C49" s="78" t="s">
+      <c r="C49" s="75" t="s">
         <v>278</v>
       </c>
-      <c r="D49" s="84" t="s">
+      <c r="D49" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="56"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="53"/>
       <c r="L49" s="40"/>
-      <c r="M49" s="64">
+      <c r="M49" s="61">
         <v>142</v>
       </c>
       <c r="N49" s="31" t="s">
@@ -4620,17 +4678,17 @@
       <c r="B50" s="44">
         <v>42</v>
       </c>
-      <c r="C50" s="78" t="s">
+      <c r="C50" s="75" t="s">
         <v>279</v>
       </c>
-      <c r="D50" s="84" t="s">
+      <c r="D50" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="56"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="53"/>
       <c r="L50" s="40"/>
-      <c r="M50" s="64">
+      <c r="M50" s="61">
         <v>142</v>
       </c>
       <c r="N50" s="31" t="s">
@@ -4645,24 +4703,24 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="62"/>
+      <c r="R50" s="59"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="44">
         <v>43</v>
       </c>
-      <c r="C51" s="78" t="s">
+      <c r="C51" s="75" t="s">
         <v>280</v>
       </c>
-      <c r="D51" s="84" t="s">
+      <c r="D51" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="56"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="53"/>
       <c r="L51" s="40"/>
-      <c r="M51" s="67">
-        <v>136</v>
+      <c r="M51" s="64">
+        <v>144</v>
       </c>
       <c r="N51" s="31" t="s">
         <v>163</v>
@@ -4679,51 +4737,51 @@
       <c r="R51" s="36"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="54">
+      <c r="B52" s="51">
         <v>44</v>
       </c>
-      <c r="C52" s="78" t="s">
+      <c r="C52" s="75" t="s">
         <v>281</v>
       </c>
-      <c r="D52" s="84" t="s">
+      <c r="D52" s="81" t="s">
         <v>380</v>
       </c>
       <c r="E52" s="24"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="53"/>
       <c r="L52" s="40"/>
-      <c r="M52" s="69">
-        <v>142</v>
-      </c>
-      <c r="N52" s="70" t="s">
+      <c r="M52" s="66">
+        <v>145</v>
+      </c>
+      <c r="N52" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="O52" s="70" t="s">
+      <c r="O52" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="70" t="s">
+      <c r="P52" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="Q52" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="49"/>
+      <c r="Q52" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="47"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B53" s="44">
         <v>45</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="D53" s="84" t="s">
+      <c r="D53" s="81" t="s">
         <v>381</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="53"/>
       <c r="L53" s="40"/>
-      <c r="M53" s="64">
+      <c r="M53" s="61">
         <v>142</v>
       </c>
       <c r="N53" s="31" t="s">
@@ -4738,23 +4796,23 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="62"/>
+      <c r="R53" s="59"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="44">
         <v>46</v>
       </c>
-      <c r="C54" s="78" t="s">
+      <c r="C54" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="D54" s="84" t="s">
+      <c r="D54" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="56"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="53"/>
       <c r="L54" s="40"/>
-      <c r="M54" s="67">
+      <c r="M54" s="64">
         <v>140</v>
       </c>
       <c r="N54" s="31" t="s">
@@ -4769,23 +4827,23 @@
       <c r="Q54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="62"/>
+      <c r="R54" s="59"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="54">
+      <c r="B55" s="51">
         <v>47</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="D55" s="84" t="s">
+      <c r="D55" s="81" t="s">
         <v>381</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="55"/>
-      <c r="G55" s="56"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="53"/>
       <c r="L55" s="40"/>
-      <c r="M55" s="67">
+      <c r="M55" s="64">
         <v>4</v>
       </c>
       <c r="N55" s="31" t="s">
@@ -4806,17 +4864,17 @@
       <c r="B56" s="44">
         <v>48</v>
       </c>
-      <c r="C56" s="78" t="s">
+      <c r="C56" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="D56" s="84" t="s">
+      <c r="D56" s="81" t="s">
         <v>382</v>
       </c>
       <c r="E56" s="24"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="56"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="53"/>
       <c r="L56" s="40"/>
-      <c r="M56" s="64">
+      <c r="M56" s="61">
         <v>142</v>
       </c>
       <c r="N56" s="31" t="s">
@@ -4837,63 +4895,63 @@
       <c r="B57" s="44">
         <v>49</v>
       </c>
-      <c r="C57" s="78" t="s">
+      <c r="C57" s="75" t="s">
         <v>286</v>
       </c>
-      <c r="D57" s="84" t="s">
+      <c r="D57" s="81" t="s">
         <v>378</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="56"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="53"/>
       <c r="L57" s="41"/>
-      <c r="M57" s="64">
-        <v>142</v>
-      </c>
-      <c r="N57" s="63" t="s">
+      <c r="M57" s="61">
+        <v>142</v>
+      </c>
+      <c r="N57" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="O57" s="63" t="s">
+      <c r="O57" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="P57" s="63" t="s">
+      <c r="P57" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="Q57" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="57"/>
+      <c r="Q57" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="54"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="54">
+      <c r="B58" s="51">
         <v>50</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C58" s="75" t="s">
         <v>287</v>
       </c>
-      <c r="D58" s="84" t="s">
+      <c r="D58" s="81" t="s">
         <v>383</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="56"/>
-      <c r="L58" s="60"/>
-      <c r="M58" s="48">
+      <c r="F58" s="52"/>
+      <c r="G58" s="53"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="46">
         <v>135</v>
       </c>
-      <c r="N58" s="65" t="s">
+      <c r="N58" s="62" t="s">
         <v>164</v>
       </c>
-      <c r="O58" s="65" t="s">
+      <c r="O58" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="P58" s="65" t="s">
+      <c r="P58" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="65" t="s">
+      <c r="Q58" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="58" t="s">
+      <c r="R58" s="55" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4901,15 +4959,15 @@
       <c r="B59" s="44">
         <v>51</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D59" s="84" t="s">
+      <c r="D59" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="56"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="53"/>
       <c r="L59" s="40"/>
       <c r="M59" s="33">
         <v>141</v>
@@ -4932,15 +4990,15 @@
       <c r="B60" s="44">
         <v>52</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="75" t="s">
         <v>289</v>
       </c>
-      <c r="D60" s="84" t="s">
+      <c r="D60" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="55"/>
-      <c r="G60" s="56"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="53"/>
       <c r="L60" s="40"/>
       <c r="M60" s="33">
         <v>141</v>
@@ -4960,18 +5018,18 @@
       <c r="R60" s="34"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="54">
+      <c r="B61" s="51">
         <v>53</v>
       </c>
-      <c r="C61" s="78" t="s">
+      <c r="C61" s="75" t="s">
         <v>290</v>
       </c>
-      <c r="D61" s="84" t="s">
+      <c r="D61" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="56"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="53"/>
       <c r="L61" s="40"/>
       <c r="M61" s="33">
         <v>67</v>
@@ -4994,17 +5052,17 @@
       <c r="B62" s="44">
         <v>54</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="D62" s="84" t="s">
+      <c r="D62" s="81" t="s">
         <v>384</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="56"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="53"/>
       <c r="L62" s="40"/>
-      <c r="M62" s="64">
+      <c r="M62" s="61">
         <v>142</v>
       </c>
       <c r="N62" s="31" t="s">
@@ -5025,17 +5083,17 @@
       <c r="B63" s="44">
         <v>55</v>
       </c>
-      <c r="C63" s="78" t="s">
+      <c r="C63" s="75" t="s">
         <v>292</v>
       </c>
-      <c r="D63" s="84" t="s">
+      <c r="D63" s="81" t="s">
         <v>380</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="56"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="53"/>
       <c r="L63" s="40"/>
-      <c r="M63" s="64">
+      <c r="M63" s="61">
         <v>142</v>
       </c>
       <c r="N63" s="31" t="s">
@@ -5053,18 +5111,18 @@
       <c r="R63" s="34"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="54">
+      <c r="B64" s="51">
         <v>56</v>
       </c>
-      <c r="C64" s="78" t="s">
+      <c r="C64" s="75" t="s">
         <v>293</v>
       </c>
-      <c r="D64" s="84" t="s">
+      <c r="D64" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="56"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="53"/>
       <c r="L64" s="40"/>
       <c r="M64" s="33">
         <v>141</v>
@@ -5087,17 +5145,17 @@
       <c r="B65" s="44">
         <v>57</v>
       </c>
-      <c r="C65" s="78" t="s">
+      <c r="C65" s="75" t="s">
         <v>294</v>
       </c>
-      <c r="D65" s="84" t="s">
+      <c r="D65" s="81" t="s">
         <v>385</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="56"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="53"/>
       <c r="L65" s="40"/>
-      <c r="M65" s="64">
+      <c r="M65" s="61">
         <v>142</v>
       </c>
       <c r="N65" s="31" t="s">
@@ -5118,15 +5176,15 @@
       <c r="B66" s="44">
         <v>58</v>
       </c>
-      <c r="C66" s="78" t="s">
+      <c r="C66" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="D66" s="84" t="s">
+      <c r="D66" s="81" t="s">
         <v>377</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="56"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="53"/>
       <c r="L66" s="40"/>
       <c r="M66" s="33">
         <v>141</v>
@@ -5146,20 +5204,20 @@
       <c r="R66" s="34"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="54">
+      <c r="B67" s="51">
         <v>59</v>
       </c>
-      <c r="C67" s="78" t="s">
+      <c r="C67" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="D67" s="84" t="s">
+      <c r="D67" s="81" t="s">
         <v>386</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="55"/>
-      <c r="G67" s="56"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="53"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="64">
+      <c r="M67" s="61">
         <v>142</v>
       </c>
       <c r="N67" s="31" t="s">
@@ -5180,15 +5238,15 @@
       <c r="B68" s="44">
         <v>60</v>
       </c>
-      <c r="C68" s="78" t="s">
+      <c r="C68" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="D68" s="84" t="s">
+      <c r="D68" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="56"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="53"/>
       <c r="L68" s="40"/>
       <c r="M68" s="33">
         <v>141</v>
@@ -5211,17 +5269,17 @@
       <c r="B69" s="44">
         <v>61</v>
       </c>
-      <c r="C69" s="78" t="s">
+      <c r="C69" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="D69" s="84" t="s">
+      <c r="D69" s="81" t="s">
         <v>387</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="56"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="53"/>
       <c r="L69" s="40"/>
-      <c r="M69" s="64">
+      <c r="M69" s="61">
         <v>142</v>
       </c>
       <c r="N69" s="31" t="s">
@@ -5239,18 +5297,18 @@
       <c r="R69" s="34"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="54">
+      <c r="B70" s="51">
         <v>62</v>
       </c>
-      <c r="C70" s="78" t="s">
+      <c r="C70" s="75" t="s">
         <v>299</v>
       </c>
-      <c r="D70" s="84" t="s">
+      <c r="D70" s="81" t="s">
         <v>388</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="56"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="53"/>
       <c r="L70" s="40"/>
       <c r="M70" s="33">
         <v>141</v>
@@ -5273,15 +5331,15 @@
       <c r="B71" s="44">
         <v>63</v>
       </c>
-      <c r="C71" s="78" t="s">
+      <c r="C71" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="D71" s="84" t="s">
+      <c r="D71" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="55"/>
-      <c r="G71" s="56"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
       <c r="L71" s="40"/>
       <c r="M71" s="33">
         <v>141</v>
@@ -5304,17 +5362,17 @@
       <c r="B72" s="44">
         <v>64</v>
       </c>
-      <c r="C72" s="78" t="s">
+      <c r="C72" s="75" t="s">
         <v>301</v>
       </c>
-      <c r="D72" s="84" t="s">
+      <c r="D72" s="81" t="s">
         <v>388</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="56"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="53"/>
       <c r="L72" s="40"/>
-      <c r="M72" s="64">
+      <c r="M72" s="61">
         <v>142</v>
       </c>
       <c r="N72" s="31" t="s">
@@ -5332,18 +5390,18 @@
       <c r="R72" s="34"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="54">
+      <c r="B73" s="51">
         <v>65</v>
       </c>
-      <c r="C73" s="78" t="s">
+      <c r="C73" s="75" t="s">
         <v>302</v>
       </c>
-      <c r="D73" s="84" t="s">
+      <c r="D73" s="81" t="s">
         <v>388</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="56"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="53"/>
       <c r="L73" s="40"/>
       <c r="M73" s="33">
         <v>141</v>
@@ -5366,17 +5424,17 @@
       <c r="B74" s="44">
         <v>66</v>
       </c>
-      <c r="C74" s="78" t="s">
+      <c r="C74" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="D74" s="84" t="s">
+      <c r="D74" s="81" t="s">
         <v>372</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="56"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="53"/>
       <c r="L74" s="40"/>
-      <c r="M74" s="64">
+      <c r="M74" s="61">
         <v>142</v>
       </c>
       <c r="N74" s="31" t="s">
@@ -5397,15 +5455,15 @@
       <c r="B75" s="44">
         <v>67</v>
       </c>
-      <c r="C75" s="78" t="s">
+      <c r="C75" s="75" t="s">
         <v>304</v>
       </c>
-      <c r="D75" s="84" t="s">
+      <c r="D75" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="56"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="53"/>
       <c r="L75" s="40"/>
       <c r="M75" s="33">
         <v>141</v>
@@ -5425,20 +5483,20 @@
       <c r="R75" s="34"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="54">
+      <c r="B76" s="51">
         <v>68</v>
       </c>
-      <c r="C76" s="78" t="s">
+      <c r="C76" s="75" t="s">
         <v>305</v>
       </c>
-      <c r="D76" s="84" t="s">
+      <c r="D76" s="81" t="s">
         <v>389</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="56"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="53"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="64">
+      <c r="M76" s="61">
         <v>142</v>
       </c>
       <c r="N76" s="31" t="s">
@@ -5459,15 +5517,15 @@
       <c r="B77" s="44">
         <v>69</v>
       </c>
-      <c r="C77" s="78" t="s">
+      <c r="C77" s="75" t="s">
         <v>306</v>
       </c>
-      <c r="D77" s="84" t="s">
+      <c r="D77" s="81" t="s">
         <v>390</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="55"/>
-      <c r="G77" s="56"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="53"/>
       <c r="L77" s="40"/>
       <c r="M77" s="33">
         <v>141</v>
@@ -5490,17 +5548,17 @@
       <c r="B78" s="44">
         <v>70</v>
       </c>
-      <c r="C78" s="78" t="s">
+      <c r="C78" s="75" t="s">
         <v>307</v>
       </c>
-      <c r="D78" s="84" t="s">
+      <c r="D78" s="81" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="56"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="53"/>
       <c r="L78" s="40"/>
-      <c r="M78" s="64">
+      <c r="M78" s="61">
         <v>142</v>
       </c>
       <c r="N78" s="31" t="s">
@@ -5518,18 +5576,18 @@
       <c r="R78" s="34"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="54">
+      <c r="B79" s="51">
         <v>71</v>
       </c>
-      <c r="C79" s="78" t="s">
+      <c r="C79" s="75" t="s">
         <v>308</v>
       </c>
-      <c r="D79" s="84" t="s">
+      <c r="D79" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="53"/>
       <c r="L79" s="40"/>
       <c r="M79" s="33">
         <v>141</v>
@@ -5552,17 +5610,17 @@
       <c r="B80" s="44">
         <v>72</v>
       </c>
-      <c r="C80" s="78" t="s">
+      <c r="C80" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="D80" s="84" t="s">
+      <c r="D80" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="56"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="53"/>
       <c r="L80" s="40"/>
-      <c r="M80" s="64">
+      <c r="M80" s="61">
         <v>142</v>
       </c>
       <c r="N80" s="31" t="s">
@@ -5583,15 +5641,15 @@
       <c r="B81" s="44">
         <v>73</v>
       </c>
-      <c r="C81" s="78" t="s">
+      <c r="C81" s="75" t="s">
         <v>310</v>
       </c>
-      <c r="D81" s="84" t="s">
+      <c r="D81" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E81" s="24"/>
-      <c r="F81" s="55"/>
-      <c r="G81" s="56"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="53"/>
       <c r="L81" s="40"/>
       <c r="M81" s="33">
         <v>141</v>
@@ -5611,20 +5669,20 @@
       <c r="R81" s="34"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="54">
+      <c r="B82" s="51">
         <v>74</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="75" t="s">
         <v>311</v>
       </c>
-      <c r="D82" s="84" t="s">
+      <c r="D82" s="81" t="s">
         <v>379</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="56"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="53"/>
       <c r="L82" s="40"/>
-      <c r="M82" s="64">
+      <c r="M82" s="61">
         <v>142</v>
       </c>
       <c r="N82" s="31" t="s">
@@ -5645,15 +5703,15 @@
       <c r="B83" s="44">
         <v>75</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C83" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="D83" s="84" t="s">
+      <c r="D83" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="55"/>
-      <c r="G83" s="56"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="53"/>
       <c r="L83" s="40"/>
       <c r="M83" s="33">
         <v>141</v>
@@ -5676,17 +5734,17 @@
       <c r="B84" s="44">
         <v>76</v>
       </c>
-      <c r="C84" s="78" t="s">
+      <c r="C84" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="D84" s="84" t="s">
+      <c r="D84" s="81" t="s">
         <v>388</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="55"/>
-      <c r="G84" s="56"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="53"/>
       <c r="L84" s="40"/>
-      <c r="M84" s="64">
+      <c r="M84" s="61">
         <v>142</v>
       </c>
       <c r="N84" s="31" t="s">
@@ -5704,18 +5762,18 @@
       <c r="R84" s="34"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="54">
+      <c r="B85" s="51">
         <v>77</v>
       </c>
-      <c r="C85" s="78" t="s">
+      <c r="C85" s="75" t="s">
         <v>314</v>
       </c>
-      <c r="D85" s="84" t="s">
+      <c r="D85" s="81" t="s">
         <v>388</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="55"/>
-      <c r="G85" s="56"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="53"/>
       <c r="L85" s="40"/>
       <c r="M85" s="33">
         <v>141</v>
@@ -5738,17 +5796,17 @@
       <c r="B86" s="44">
         <v>78</v>
       </c>
-      <c r="C86" s="78" t="s">
+      <c r="C86" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="D86" s="84" t="s">
+      <c r="D86" s="81" t="s">
         <v>388</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="55"/>
-      <c r="G86" s="56"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="53"/>
       <c r="L86" s="40"/>
-      <c r="M86" s="64">
+      <c r="M86" s="61">
         <v>142</v>
       </c>
       <c r="N86" s="31" t="s">
@@ -5769,15 +5827,15 @@
       <c r="B87" s="44">
         <v>79</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="D87" s="84" t="s">
+      <c r="D87" s="81" t="s">
         <v>373</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="55"/>
-      <c r="G87" s="56"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="53"/>
       <c r="L87" s="40"/>
       <c r="M87" s="33">
         <v>141</v>
@@ -5797,20 +5855,20 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="54">
+      <c r="B88" s="51">
         <v>80</v>
       </c>
-      <c r="C88" s="78" t="s">
+      <c r="C88" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="D88" s="84" t="s">
+      <c r="D88" s="81" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="56"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="53"/>
       <c r="L88" s="40"/>
-      <c r="M88" s="64">
+      <c r="M88" s="61">
         <v>142</v>
       </c>
       <c r="N88" s="31" t="s">
@@ -5831,15 +5889,15 @@
       <c r="B89" s="44">
         <v>81</v>
       </c>
-      <c r="C89" s="78" t="s">
+      <c r="C89" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="D89" s="84" t="s">
+      <c r="D89" s="81" t="s">
         <v>394</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="55"/>
-      <c r="G89" s="56"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="53"/>
       <c r="L89" s="40"/>
       <c r="M89" s="33">
         <v>141</v>
@@ -5862,17 +5920,17 @@
       <c r="B90" s="44">
         <v>82</v>
       </c>
-      <c r="C90" s="78" t="s">
+      <c r="C90" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="D90" s="84" t="s">
+      <c r="D90" s="81" t="s">
         <v>381</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="56"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="53"/>
       <c r="L90" s="40"/>
-      <c r="M90" s="64">
+      <c r="M90" s="61">
         <v>142</v>
       </c>
       <c r="N90" s="31" t="s">
@@ -5890,18 +5948,18 @@
       <c r="R90" s="34"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="54">
+      <c r="B91" s="51">
         <v>83</v>
       </c>
-      <c r="C91" s="75" t="s">
+      <c r="C91" s="72" t="s">
         <v>320</v>
       </c>
-      <c r="D91" s="75" t="s">
+      <c r="D91" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="56"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="53"/>
       <c r="L91" s="40"/>
       <c r="M91" s="33">
         <v>141</v>
@@ -5924,17 +5982,17 @@
       <c r="B92" s="44">
         <v>84</v>
       </c>
-      <c r="C92" s="75" t="s">
+      <c r="C92" s="72" t="s">
         <v>321</v>
       </c>
-      <c r="D92" s="75" t="s">
+      <c r="D92" s="72" t="s">
         <v>372</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="56"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="53"/>
       <c r="L92" s="40"/>
-      <c r="M92" s="64">
+      <c r="M92" s="61">
         <v>142</v>
       </c>
       <c r="N92" s="31" t="s">
@@ -5955,17 +6013,17 @@
       <c r="B93" s="44">
         <v>85</v>
       </c>
-      <c r="C93" s="75" t="s">
+      <c r="C93" s="72" t="s">
         <v>322</v>
       </c>
-      <c r="D93" s="75" t="s">
+      <c r="D93" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="56"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="53"/>
       <c r="L93" s="40"/>
-      <c r="M93" s="64">
+      <c r="M93" s="61">
         <v>142</v>
       </c>
       <c r="N93" s="31" t="s">
@@ -5983,18 +6041,18 @@
       <c r="R93" s="34"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="54">
+      <c r="B94" s="51">
         <v>86</v>
       </c>
-      <c r="C94" s="75" t="s">
+      <c r="C94" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="D94" s="75" t="s">
+      <c r="D94" s="72" t="s">
         <v>391</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="56"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="53"/>
       <c r="L94" s="40"/>
       <c r="M94" s="33">
         <v>141</v>
@@ -6017,17 +6075,17 @@
       <c r="B95" s="44">
         <v>87</v>
       </c>
-      <c r="C95" s="75" t="s">
+      <c r="C95" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="D95" s="75" t="s">
+      <c r="D95" s="72" t="s">
         <v>388</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="55"/>
-      <c r="G95" s="56"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="53"/>
       <c r="L95" s="40"/>
-      <c r="M95" s="64">
+      <c r="M95" s="61">
         <v>142</v>
       </c>
       <c r="N95" s="31" t="s">
@@ -6048,17 +6106,17 @@
       <c r="B96" s="44">
         <v>88</v>
       </c>
-      <c r="C96" s="75" t="s">
+      <c r="C96" s="72" t="s">
         <v>325</v>
       </c>
-      <c r="D96" s="75" t="s">
+      <c r="D96" s="72" t="s">
         <v>372</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="56"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="53"/>
       <c r="L96" s="40"/>
-      <c r="M96" s="64">
+      <c r="M96" s="61">
         <v>142</v>
       </c>
       <c r="N96" s="31" t="s">
@@ -6076,20 +6134,20 @@
       <c r="R96" s="34"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="54">
+      <c r="B97" s="51">
         <v>89</v>
       </c>
-      <c r="C97" s="75" t="s">
+      <c r="C97" s="72" t="s">
         <v>326</v>
       </c>
-      <c r="D97" s="75" t="s">
+      <c r="D97" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="56"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="53"/>
       <c r="L97" s="40"/>
-      <c r="M97" s="64">
+      <c r="M97" s="61">
         <v>142</v>
       </c>
       <c r="N97" s="31" t="s">
@@ -6110,17 +6168,17 @@
       <c r="B98" s="44">
         <v>90</v>
       </c>
-      <c r="C98" s="75" t="s">
+      <c r="C98" s="72" t="s">
         <v>327</v>
       </c>
-      <c r="D98" s="75" t="s">
+      <c r="D98" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="56"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="53"/>
       <c r="L98" s="40"/>
-      <c r="M98" s="54">
+      <c r="M98" s="51">
         <v>9</v>
       </c>
       <c r="N98" s="31" t="s">
@@ -6141,17 +6199,17 @@
       <c r="B99" s="44">
         <v>91</v>
       </c>
-      <c r="C99" s="75" t="s">
+      <c r="C99" s="72" t="s">
         <v>328</v>
       </c>
-      <c r="D99" s="75" t="s">
+      <c r="D99" s="72" t="s">
         <v>392</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="55"/>
-      <c r="G99" s="56"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="53"/>
       <c r="L99" s="40"/>
-      <c r="M99" s="54">
+      <c r="M99" s="51">
         <v>4</v>
       </c>
       <c r="N99" s="31" t="s">
@@ -6169,20 +6227,20 @@
       <c r="R99" s="34"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="54">
+      <c r="B100" s="51">
         <v>92</v>
       </c>
-      <c r="C100" s="75" t="s">
+      <c r="C100" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="D100" s="75" t="s">
+      <c r="D100" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="55"/>
-      <c r="G100" s="56"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="53"/>
       <c r="L100" s="40"/>
-      <c r="M100" s="64">
+      <c r="M100" s="61">
         <v>142</v>
       </c>
       <c r="N100" s="31" t="s">
@@ -6203,17 +6261,17 @@
       <c r="B101" s="44">
         <v>93</v>
       </c>
-      <c r="C101" s="75" t="s">
+      <c r="C101" s="72" t="s">
         <v>330</v>
       </c>
-      <c r="D101" s="75" t="s">
+      <c r="D101" s="72" t="s">
         <v>373</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="56"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="53"/>
       <c r="L101" s="40"/>
-      <c r="M101" s="64">
+      <c r="M101" s="61">
         <v>142</v>
       </c>
       <c r="N101" s="31" t="s">
@@ -6234,17 +6292,17 @@
       <c r="B102" s="44">
         <v>94</v>
       </c>
-      <c r="C102" s="75" t="s">
+      <c r="C102" s="72" t="s">
         <v>331</v>
       </c>
-      <c r="D102" s="75" t="s">
+      <c r="D102" s="72" t="s">
         <v>379</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="56"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="53"/>
       <c r="L102" s="40"/>
-      <c r="M102" s="64">
+      <c r="M102" s="61">
         <v>142</v>
       </c>
       <c r="N102" s="31" t="s">
@@ -6262,18 +6320,18 @@
       <c r="R102" s="34"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="54">
+      <c r="B103" s="51">
         <v>95</v>
       </c>
-      <c r="C103" s="75" t="s">
+      <c r="C103" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="D103" s="75" t="s">
+      <c r="D103" s="72" t="s">
         <v>379</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="55"/>
-      <c r="G103" s="56"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="53"/>
       <c r="L103" s="40"/>
       <c r="M103" s="33">
         <v>7</v>
@@ -6296,17 +6354,17 @@
       <c r="B104" s="44">
         <v>96</v>
       </c>
-      <c r="C104" s="75" t="s">
+      <c r="C104" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="D104" s="75" t="s">
+      <c r="D104" s="72" t="s">
         <v>379</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="56"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="53"/>
       <c r="L104" s="40"/>
-      <c r="M104" s="64">
+      <c r="M104" s="61">
         <v>142</v>
       </c>
       <c r="N104" s="31" t="s">
@@ -6327,15 +6385,15 @@
       <c r="B105" s="44">
         <v>97</v>
       </c>
-      <c r="C105" s="75" t="s">
+      <c r="C105" s="72" t="s">
         <v>334</v>
       </c>
-      <c r="D105" s="75" t="s">
+      <c r="D105" s="72" t="s">
         <v>379</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="55"/>
-      <c r="G105" s="56"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="53"/>
       <c r="L105" s="40"/>
       <c r="M105" s="33">
         <v>5</v>
@@ -6355,18 +6413,18 @@
       <c r="R105" s="34"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="54">
+      <c r="B106" s="51">
         <v>98</v>
       </c>
-      <c r="C106" s="75" t="s">
+      <c r="C106" s="72" t="s">
         <v>335</v>
       </c>
-      <c r="D106" s="75" t="s">
+      <c r="D106" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="56"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="53"/>
       <c r="L106" s="40"/>
       <c r="M106" s="33">
         <v>6</v>
@@ -6389,17 +6447,17 @@
       <c r="B107" s="44">
         <v>99</v>
       </c>
-      <c r="C107" s="75" t="s">
+      <c r="C107" s="72" t="s">
         <v>336</v>
       </c>
-      <c r="D107" s="75" t="s">
+      <c r="D107" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="56"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="53"/>
       <c r="L107" s="40"/>
-      <c r="M107" s="64">
+      <c r="M107" s="61">
         <v>142</v>
       </c>
       <c r="N107" s="31" t="s">
@@ -6420,17 +6478,17 @@
       <c r="B108" s="44">
         <v>100</v>
       </c>
-      <c r="C108" s="75" t="s">
+      <c r="C108" s="72" t="s">
         <v>337</v>
       </c>
-      <c r="D108" s="75" t="s">
+      <c r="D108" s="72" t="s">
         <v>371</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="56"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="53"/>
       <c r="L108" s="40"/>
-      <c r="M108" s="64">
+      <c r="M108" s="61">
         <v>142</v>
       </c>
       <c r="N108" s="31" t="s">
@@ -6448,20 +6506,20 @@
       <c r="R108" s="34"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="54">
+      <c r="B109" s="51">
         <v>101</v>
       </c>
-      <c r="C109" s="76" t="s">
+      <c r="C109" s="73" t="s">
         <v>338</v>
       </c>
-      <c r="D109" s="75" t="s">
+      <c r="D109" s="72" t="s">
         <v>375</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="56"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="53"/>
       <c r="L109" s="40"/>
-      <c r="M109" s="64">
+      <c r="M109" s="61">
         <v>142</v>
       </c>
       <c r="N109" s="31" t="s">
@@ -6482,17 +6540,17 @@
       <c r="B110" s="44">
         <v>102</v>
       </c>
-      <c r="C110" s="76" t="s">
+      <c r="C110" s="73" t="s">
         <v>339</v>
       </c>
-      <c r="D110" s="75" t="s">
+      <c r="D110" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="56"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="53"/>
       <c r="L110" s="40"/>
-      <c r="M110" s="64">
+      <c r="M110" s="61">
         <v>142</v>
       </c>
       <c r="N110" s="31" t="s">
@@ -6513,17 +6571,17 @@
       <c r="B111" s="44">
         <v>103</v>
       </c>
-      <c r="C111" s="76" t="s">
+      <c r="C111" s="73" t="s">
         <v>340</v>
       </c>
-      <c r="D111" s="75" t="s">
+      <c r="D111" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="55"/>
-      <c r="G111" s="56"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="53"/>
       <c r="L111" s="40"/>
-      <c r="M111" s="64">
+      <c r="M111" s="61">
         <v>142</v>
       </c>
       <c r="N111" s="31" t="s">
@@ -6541,20 +6599,20 @@
       <c r="R111" s="34"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="54">
+      <c r="B112" s="51">
         <v>104</v>
       </c>
-      <c r="C112" s="76" t="s">
+      <c r="C112" s="73" t="s">
         <v>341</v>
       </c>
-      <c r="D112" s="75" t="s">
+      <c r="D112" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="55"/>
-      <c r="G112" s="56"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="53"/>
       <c r="L112" s="40"/>
-      <c r="M112" s="64">
+      <c r="M112" s="61">
         <v>142</v>
       </c>
       <c r="N112" s="31" t="s">
@@ -6575,17 +6633,17 @@
       <c r="B113" s="44">
         <v>105</v>
       </c>
-      <c r="C113" s="76" t="s">
+      <c r="C113" s="73" t="s">
         <v>342</v>
       </c>
-      <c r="D113" s="75" t="s">
+      <c r="D113" s="72" t="s">
         <v>397</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="55"/>
-      <c r="G113" s="56"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="53"/>
       <c r="L113" s="40"/>
-      <c r="M113" s="64">
+      <c r="M113" s="61">
         <v>142</v>
       </c>
       <c r="N113" s="31" t="s">
@@ -6606,17 +6664,17 @@
       <c r="B114" s="44">
         <v>106</v>
       </c>
-      <c r="C114" s="77" t="s">
+      <c r="C114" s="74" t="s">
         <v>343</v>
       </c>
-      <c r="D114" s="75" t="s">
+      <c r="D114" s="72" t="s">
         <v>397</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="56"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="53"/>
       <c r="L114" s="40"/>
-      <c r="M114" s="64">
+      <c r="M114" s="61">
         <v>142</v>
       </c>
       <c r="N114" s="31" t="s">
@@ -6634,18 +6692,18 @@
       <c r="R114" s="34"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="54">
+      <c r="B115" s="51">
         <v>107</v>
       </c>
-      <c r="C115" s="76" t="s">
+      <c r="C115" s="73" t="s">
         <v>344</v>
       </c>
-      <c r="D115" s="75" t="s">
+      <c r="D115" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="55"/>
-      <c r="G115" s="56"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="53"/>
       <c r="L115" s="40"/>
       <c r="M115" s="33">
         <v>141</v>
@@ -6668,17 +6726,17 @@
       <c r="B116" s="44">
         <v>108</v>
       </c>
-      <c r="C116" s="76" t="s">
+      <c r="C116" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="D116" s="75" t="s">
+      <c r="D116" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="55"/>
-      <c r="G116" s="56"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="53"/>
       <c r="L116" s="40"/>
-      <c r="M116" s="64">
+      <c r="M116" s="61">
         <v>142</v>
       </c>
       <c r="N116" s="31" t="s">
@@ -6699,15 +6757,15 @@
       <c r="B117" s="44">
         <v>109</v>
       </c>
-      <c r="C117" s="76" t="s">
+      <c r="C117" s="73" t="s">
         <v>346</v>
       </c>
-      <c r="D117" s="75" t="s">
+      <c r="D117" s="72" t="s">
         <v>395</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="55"/>
-      <c r="G117" s="56"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="53"/>
       <c r="L117" s="40"/>
       <c r="M117" s="33">
         <v>141</v>
@@ -6727,20 +6785,20 @@
       <c r="R117" s="36"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="54">
+      <c r="B118" s="51">
         <v>110</v>
       </c>
-      <c r="C118" s="76" t="s">
+      <c r="C118" s="73" t="s">
         <v>347</v>
       </c>
-      <c r="D118" s="75" t="s">
+      <c r="D118" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="56"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="53"/>
       <c r="L118" s="40"/>
-      <c r="M118" s="64">
+      <c r="M118" s="61">
         <v>142</v>
       </c>
       <c r="N118" s="31" t="s">
@@ -6761,17 +6819,17 @@
       <c r="B119" s="44">
         <v>111</v>
       </c>
-      <c r="C119" s="76" t="s">
+      <c r="C119" s="73" t="s">
         <v>348</v>
       </c>
-      <c r="D119" s="75" t="s">
+      <c r="D119" s="72" t="s">
         <v>371</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="55"/>
-      <c r="G119" s="56"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="53"/>
       <c r="L119" s="40"/>
-      <c r="M119" s="64">
+      <c r="M119" s="61">
         <v>142</v>
       </c>
       <c r="N119" s="31" t="s">
@@ -6792,15 +6850,15 @@
       <c r="B120" s="44">
         <v>112</v>
       </c>
-      <c r="C120" s="76" t="s">
+      <c r="C120" s="73" t="s">
         <v>349</v>
       </c>
-      <c r="D120" s="75" t="s">
+      <c r="D120" s="72" t="s">
         <v>393</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="56"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="53"/>
       <c r="L120" s="40"/>
       <c r="M120" s="33">
         <v>141</v>
@@ -6820,20 +6878,20 @@
       <c r="R120" s="34"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="54">
+      <c r="B121" s="51">
         <v>113</v>
       </c>
-      <c r="C121" s="76" t="s">
+      <c r="C121" s="73" t="s">
         <v>350</v>
       </c>
-      <c r="D121" s="75" t="s">
+      <c r="D121" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="56"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="53"/>
       <c r="L121" s="40"/>
-      <c r="M121" s="64">
+      <c r="M121" s="61">
         <v>142</v>
       </c>
       <c r="N121" s="31" t="s">
@@ -6854,17 +6912,17 @@
       <c r="B122" s="44">
         <v>114</v>
       </c>
-      <c r="C122" s="76" t="s">
+      <c r="C122" s="73" t="s">
         <v>351</v>
       </c>
-      <c r="D122" s="75" t="s">
+      <c r="D122" s="72" t="s">
         <v>375</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="56"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="53"/>
       <c r="L122" s="40"/>
-      <c r="M122" s="64">
+      <c r="M122" s="61">
         <v>142</v>
       </c>
       <c r="N122" s="31" t="s">
@@ -6885,15 +6943,15 @@
       <c r="B123" s="44">
         <v>115</v>
       </c>
-      <c r="C123" s="76" t="s">
+      <c r="C123" s="73" t="s">
         <v>352</v>
       </c>
-      <c r="D123" s="75" t="s">
+      <c r="D123" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="55"/>
-      <c r="G123" s="56"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="53"/>
       <c r="L123" s="40"/>
       <c r="M123" s="33">
         <v>141</v>
@@ -6913,18 +6971,18 @@
       <c r="R123" s="34"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="54">
+      <c r="B124" s="51">
         <v>116</v>
       </c>
-      <c r="C124" s="76" t="s">
+      <c r="C124" s="73" t="s">
         <v>353</v>
       </c>
-      <c r="D124" s="75" t="s">
+      <c r="D124" s="72" t="s">
         <v>375</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="55"/>
-      <c r="G124" s="56"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="53"/>
       <c r="L124" s="40"/>
       <c r="M124" s="33">
         <v>141</v>
@@ -6947,15 +7005,15 @@
       <c r="B125" s="44">
         <v>117</v>
       </c>
-      <c r="C125" s="75" t="s">
+      <c r="C125" s="72" t="s">
         <v>354</v>
       </c>
-      <c r="D125" s="75" t="s">
+      <c r="D125" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E125" s="24"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="56"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="53"/>
       <c r="L125" s="40"/>
       <c r="M125" s="33">
         <v>141</v>
@@ -6978,15 +7036,15 @@
       <c r="B126" s="44">
         <v>118</v>
       </c>
-      <c r="C126" s="75" t="s">
+      <c r="C126" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D126" s="75" t="s">
+      <c r="D126" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="56"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="53"/>
       <c r="L126" s="40"/>
       <c r="M126" s="33">
         <v>141</v>
@@ -7006,20 +7064,20 @@
       <c r="R126" s="34"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="54">
+      <c r="B127" s="51">
         <v>119</v>
       </c>
-      <c r="C127" s="75" t="s">
+      <c r="C127" s="72" t="s">
         <v>356</v>
       </c>
-      <c r="D127" s="75" t="s">
+      <c r="D127" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E127" s="24"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="56"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="53"/>
       <c r="L127" s="40"/>
-      <c r="M127" s="64">
+      <c r="M127" s="61">
         <v>142</v>
       </c>
       <c r="N127" s="31" t="s">
@@ -7040,15 +7098,15 @@
       <c r="B128" s="44">
         <v>120</v>
       </c>
-      <c r="C128" s="75" t="s">
+      <c r="C128" s="72" t="s">
         <v>357</v>
       </c>
-      <c r="D128" s="75" t="s">
+      <c r="D128" s="72" t="s">
         <v>377</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="56"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="53"/>
       <c r="L128" s="40"/>
       <c r="M128" s="33">
         <v>141</v>
@@ -7071,17 +7129,17 @@
       <c r="B129" s="44">
         <v>121</v>
       </c>
-      <c r="C129" s="75" t="s">
+      <c r="C129" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="D129" s="75" t="s">
+      <c r="D129" s="72" t="s">
         <v>396</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="55"/>
-      <c r="G129" s="56"/>
+      <c r="F129" s="52"/>
+      <c r="G129" s="53"/>
       <c r="L129" s="40"/>
-      <c r="M129" s="64">
+      <c r="M129" s="61">
         <v>142</v>
       </c>
       <c r="N129" s="31" t="s">
@@ -7099,20 +7157,20 @@
       <c r="R129" s="34"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="54">
+      <c r="B130" s="51">
         <v>122</v>
       </c>
-      <c r="C130" s="75" t="s">
+      <c r="C130" s="72" t="s">
         <v>359</v>
       </c>
-      <c r="D130" s="75" t="s">
+      <c r="D130" s="72" t="s">
         <v>377</v>
       </c>
       <c r="E130" s="24"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="56"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="53"/>
       <c r="L130" s="40"/>
-      <c r="M130" s="64">
+      <c r="M130" s="61">
         <v>142</v>
       </c>
       <c r="N130" s="31" t="s">
@@ -7133,17 +7191,17 @@
       <c r="B131" s="44">
         <v>123</v>
       </c>
-      <c r="C131" s="75" t="s">
+      <c r="C131" s="72" t="s">
         <v>360</v>
       </c>
-      <c r="D131" s="75" t="s">
+      <c r="D131" s="72" t="s">
         <v>394</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="55"/>
-      <c r="G131" s="56"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="53"/>
       <c r="L131" s="40"/>
-      <c r="M131" s="64">
+      <c r="M131" s="61">
         <v>142</v>
       </c>
       <c r="N131" s="31" t="s">
@@ -7164,17 +7222,17 @@
       <c r="B132" s="44">
         <v>124</v>
       </c>
-      <c r="C132" s="75" t="s">
+      <c r="C132" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="D132" s="75" t="s">
+      <c r="D132" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="55"/>
-      <c r="G132" s="56"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="53"/>
       <c r="L132" s="40"/>
-      <c r="M132" s="64">
+      <c r="M132" s="61">
         <v>142</v>
       </c>
       <c r="N132" s="31" t="s">
@@ -7192,20 +7250,20 @@
       <c r="R132" s="34"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="54">
+      <c r="B133" s="51">
         <v>125</v>
       </c>
-      <c r="C133" s="75" t="s">
+      <c r="C133" s="72" t="s">
         <v>362</v>
       </c>
-      <c r="D133" s="75" t="s">
+      <c r="D133" s="72" t="s">
         <v>19</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="56"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="53"/>
       <c r="L133" s="40"/>
-      <c r="M133" s="64">
+      <c r="M133" s="61">
         <v>142</v>
       </c>
       <c r="N133" s="31" t="s">
@@ -7226,79 +7284,79 @@
       <c r="B134" s="44">
         <v>126</v>
       </c>
-      <c r="C134" s="75" t="s">
+      <c r="C134" s="72" t="s">
         <v>411</v>
       </c>
-      <c r="D134" s="75" t="s">
+      <c r="D134" s="72" t="s">
         <v>388</v>
       </c>
       <c r="E134" s="24"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="56"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="53"/>
       <c r="L134" s="41"/>
-      <c r="M134" s="64">
-        <v>142</v>
-      </c>
-      <c r="N134" s="63" t="s">
+      <c r="M134" s="61">
+        <v>142</v>
+      </c>
+      <c r="N134" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="O134" s="63" t="s">
+      <c r="O134" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="P134" s="63" t="s">
+      <c r="P134" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="Q134" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="61"/>
+      <c r="Q134" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="58"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="44">
         <v>127</v>
       </c>
-      <c r="C135" s="75" t="s">
+      <c r="C135" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="D135" s="75" t="s">
+      <c r="D135" s="72" t="s">
         <v>388</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="55"/>
-      <c r="G135" s="56"/>
-      <c r="L135" s="60"/>
-      <c r="M135" s="48">
+      <c r="F135" s="52"/>
+      <c r="G135" s="53"/>
+      <c r="L135" s="57"/>
+      <c r="M135" s="46">
         <v>135</v>
       </c>
-      <c r="N135" s="65" t="s">
+      <c r="N135" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="O135" s="65" t="s">
+      <c r="O135" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="P135" s="65" t="s">
+      <c r="P135" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="65" t="s">
+      <c r="Q135" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="R135" s="58" t="s">
+      <c r="R135" s="55" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="54">
+      <c r="B136" s="51">
         <v>128</v>
       </c>
-      <c r="C136" s="75" t="s">
+      <c r="C136" s="72" t="s">
         <v>364</v>
       </c>
-      <c r="D136" s="75" t="s">
+      <c r="D136" s="72" t="s">
         <v>398</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="55"/>
-      <c r="G136" s="56"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="53"/>
       <c r="L136" s="40"/>
       <c r="M136" s="33">
         <v>141</v>
@@ -7321,17 +7379,17 @@
       <c r="B137" s="44">
         <v>129</v>
       </c>
-      <c r="C137" s="75" t="s">
+      <c r="C137" s="72" t="s">
         <v>365</v>
       </c>
-      <c r="D137" s="75" t="s">
+      <c r="D137" s="72" t="s">
         <v>398</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="55"/>
-      <c r="G137" s="56"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="53"/>
       <c r="L137" s="40"/>
-      <c r="M137" s="64">
+      <c r="M137" s="61">
         <v>142</v>
       </c>
       <c r="N137" s="31" t="s">
@@ -7352,15 +7410,15 @@
       <c r="B138" s="44">
         <v>130</v>
       </c>
-      <c r="C138" s="75" t="s">
+      <c r="C138" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="D138" s="75" t="s">
+      <c r="D138" s="72" t="s">
         <v>399</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="56"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="53"/>
       <c r="L138" s="40"/>
       <c r="M138" s="33">
         <v>141</v>
@@ -7380,20 +7438,20 @@
       <c r="R138" s="34"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="54">
+      <c r="B139" s="51">
         <v>131</v>
       </c>
-      <c r="C139" s="75" t="s">
+      <c r="C139" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="D139" s="75" t="s">
+      <c r="D139" s="72" t="s">
         <v>372</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="55"/>
-      <c r="G139" s="56"/>
+      <c r="F139" s="52"/>
+      <c r="G139" s="53"/>
       <c r="L139" s="40"/>
-      <c r="M139" s="64">
+      <c r="M139" s="61">
         <v>142</v>
       </c>
       <c r="N139" s="31" t="s">
@@ -7414,15 +7472,15 @@
       <c r="B140" s="44">
         <v>132</v>
       </c>
-      <c r="C140" s="75" t="s">
+      <c r="C140" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="D140" s="75" t="s">
+      <c r="D140" s="72" t="s">
         <v>39</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="55"/>
-      <c r="G140" s="56"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="53"/>
       <c r="L140" s="40"/>
       <c r="M140" s="33">
         <v>141</v>
@@ -7445,17 +7503,17 @@
       <c r="B141" s="44">
         <v>133</v>
       </c>
-      <c r="C141" s="75" t="s">
+      <c r="C141" s="72" t="s">
         <v>369</v>
       </c>
-      <c r="D141" s="75" t="s">
+      <c r="D141" s="72" t="s">
         <v>371</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="55"/>
-      <c r="G141" s="56"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="53"/>
       <c r="L141" s="40"/>
-      <c r="M141" s="64">
+      <c r="M141" s="61">
         <v>142</v>
       </c>
       <c r="N141" s="31" t="s">
@@ -7473,18 +7531,18 @@
       <c r="R141" s="34"/>
     </row>
     <row r="142" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="54">
+      <c r="B142" s="51">
         <v>134</v>
       </c>
-      <c r="C142" s="80" t="s">
+      <c r="C142" s="77" t="s">
         <v>370</v>
       </c>
-      <c r="D142" s="80" t="s">
+      <c r="D142" s="77" t="s">
         <v>371</v>
       </c>
       <c r="E142" s="42"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="74"/>
+      <c r="F142" s="70"/>
+      <c r="G142" s="71"/>
       <c r="L142" s="40"/>
       <c r="M142" s="33">
         <v>141</v>
@@ -7505,7 +7563,7 @@
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L143" s="40"/>
-      <c r="M143" s="64">
+      <c r="M143" s="61">
         <v>142</v>
       </c>
       <c r="N143" s="31" t="s">
@@ -7524,7 +7582,7 @@
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L144" s="40"/>
-      <c r="M144" s="64">
+      <c r="M144" s="61">
         <v>142</v>
       </c>
       <c r="N144" s="31" t="s">
@@ -7562,7 +7620,7 @@
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="40"/>
-      <c r="M146" s="64">
+      <c r="M146" s="61">
         <v>142</v>
       </c>
       <c r="N146" s="31" t="s">
@@ -7600,7 +7658,7 @@
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="40"/>
-      <c r="M148" s="64">
+      <c r="M148" s="61">
         <v>142</v>
       </c>
       <c r="N148" s="31" t="s">
@@ -7638,7 +7696,7 @@
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="40"/>
-      <c r="M150" s="64">
+      <c r="M150" s="61">
         <v>142</v>
       </c>
       <c r="N150" s="31" t="s">
@@ -7676,7 +7734,7 @@
     </row>
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="40"/>
-      <c r="M152" s="64">
+      <c r="M152" s="61">
         <v>142</v>
       </c>
       <c r="N152" s="31" t="s">
@@ -7714,7 +7772,7 @@
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="40"/>
-      <c r="M154" s="64">
+      <c r="M154" s="61">
         <v>142</v>
       </c>
       <c r="N154" s="31" t="s">
@@ -7752,7 +7810,7 @@
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="40"/>
-      <c r="M156" s="64">
+      <c r="M156" s="61">
         <v>142</v>
       </c>
       <c r="N156" s="31" t="s">
@@ -7771,7 +7829,7 @@
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="40"/>
-      <c r="M157" s="54">
+      <c r="M157" s="51">
         <v>8</v>
       </c>
       <c r="N157" s="31" t="s">
@@ -7790,7 +7848,7 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="40"/>
-      <c r="M158" s="64">
+      <c r="M158" s="61">
         <v>142</v>
       </c>
       <c r="N158" s="31" t="s">
@@ -7847,7 +7905,7 @@
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="40"/>
-      <c r="M161" s="64">
+      <c r="M161" s="61">
         <v>142</v>
       </c>
       <c r="N161" s="31" t="s">
@@ -7866,7 +7924,7 @@
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="40"/>
-      <c r="M162" s="64">
+      <c r="M162" s="61">
         <v>142</v>
       </c>
       <c r="N162" s="31" t="s">
@@ -7924,7 +7982,7 @@
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="40"/>
       <c r="M165" s="33">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="N165" s="31" t="s">
         <v>236</v>
@@ -7944,26 +8002,26 @@
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="40"/>
-      <c r="M166" s="59">
-        <v>142</v>
-      </c>
-      <c r="N166" s="70" t="s">
+      <c r="M166" s="56">
+        <v>145</v>
+      </c>
+      <c r="N166" s="67" t="s">
         <v>236</v>
       </c>
-      <c r="O166" s="70" t="s">
+      <c r="O166" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="P166" s="70" t="s">
+      <c r="P166" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="Q166" s="70" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" s="49"/>
+      <c r="Q166" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R166" s="47"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="40"/>
-      <c r="M167" s="64">
+      <c r="M167" s="61">
         <v>142</v>
       </c>
       <c r="N167" s="31" t="s">
@@ -8001,7 +8059,7 @@
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="40"/>
-      <c r="M169" s="64">
+      <c r="M169" s="61">
         <v>142</v>
       </c>
       <c r="N169" s="31" t="s">
@@ -8020,7 +8078,7 @@
     </row>
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="40"/>
-      <c r="M170" s="64">
+      <c r="M170" s="61">
         <v>142</v>
       </c>
       <c r="N170" s="31" t="s">
@@ -8039,7 +8097,7 @@
     </row>
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="40"/>
-      <c r="M171" s="64">
+      <c r="M171" s="61">
         <v>142</v>
       </c>
       <c r="N171" s="31" t="s">
@@ -8077,7 +8135,7 @@
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="40"/>
-      <c r="M173" s="64">
+      <c r="M173" s="61">
         <v>142</v>
       </c>
       <c r="N173" s="31" t="s">
@@ -8096,7 +8154,7 @@
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="40"/>
-      <c r="M174" s="64">
+      <c r="M174" s="61">
         <v>142</v>
       </c>
       <c r="N174" s="31" t="s">
@@ -8115,7 +8173,7 @@
     </row>
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="40"/>
-      <c r="M175" s="64">
+      <c r="M175" s="61">
         <v>142</v>
       </c>
       <c r="N175" s="31" t="s">
@@ -8134,7 +8192,7 @@
     </row>
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="40"/>
-      <c r="M176" s="64">
+      <c r="M176" s="61">
         <v>142</v>
       </c>
       <c r="N176" s="31" t="s">
@@ -8153,7 +8211,7 @@
     </row>
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="40"/>
-      <c r="M177" s="64">
+      <c r="M177" s="61">
         <v>142</v>
       </c>
       <c r="N177" s="31" t="s">
@@ -8172,7 +8230,7 @@
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="40"/>
-      <c r="M178" s="64">
+      <c r="M178" s="61">
         <v>142</v>
       </c>
       <c r="N178" s="31" t="s">
@@ -8191,7 +8249,7 @@
     </row>
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="40"/>
-      <c r="M179" s="64">
+      <c r="M179" s="61">
         <v>142</v>
       </c>
       <c r="N179" s="31" t="s">
@@ -8210,7 +8268,7 @@
     </row>
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="40"/>
-      <c r="M180" s="64">
+      <c r="M180" s="61">
         <v>142</v>
       </c>
       <c r="N180" s="31" t="s">
@@ -8229,7 +8287,7 @@
     </row>
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="40"/>
-      <c r="M181" s="64">
+      <c r="M181" s="61">
         <v>142</v>
       </c>
       <c r="N181" s="31" t="s">
@@ -8267,7 +8325,7 @@
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="40"/>
-      <c r="M183" s="64">
+      <c r="M183" s="61">
         <v>142</v>
       </c>
       <c r="N183" s="31" t="s">
@@ -8286,7 +8344,7 @@
     </row>
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="40"/>
-      <c r="M184" s="64">
+      <c r="M184" s="61">
         <v>142</v>
       </c>
       <c r="N184" s="31" t="s">
@@ -8305,7 +8363,7 @@
     </row>
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="40"/>
-      <c r="M185" s="64">
+      <c r="M185" s="61">
         <v>142</v>
       </c>
       <c r="N185" s="31" t="s">
@@ -8324,7 +8382,7 @@
     </row>
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="40"/>
-      <c r="M186" s="64">
+      <c r="M186" s="61">
         <v>142</v>
       </c>
       <c r="N186" s="31" t="s">
@@ -8343,7 +8401,7 @@
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="40"/>
-      <c r="M187" s="64">
+      <c r="M187" s="61">
         <v>142</v>
       </c>
       <c r="N187" s="31" t="s">
@@ -8362,7 +8420,7 @@
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="40"/>
-      <c r="M188" s="64">
+      <c r="M188" s="61">
         <v>142</v>
       </c>
       <c r="N188" s="31" t="s">
@@ -8457,7 +8515,7 @@
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="40"/>
-      <c r="M193" s="64">
+      <c r="M193" s="61">
         <v>142</v>
       </c>
       <c r="N193" s="31" t="s">
@@ -8495,7 +8553,7 @@
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="40"/>
-      <c r="M195" s="64">
+      <c r="M195" s="61">
         <v>142</v>
       </c>
       <c r="N195" s="31" t="s">
@@ -8514,7 +8572,7 @@
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="40"/>
-      <c r="M196" s="64">
+      <c r="M196" s="61">
         <v>142</v>
       </c>
       <c r="N196" s="31" t="s">
@@ -8533,7 +8591,7 @@
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="40"/>
-      <c r="M197" s="64">
+      <c r="M197" s="61">
         <v>142</v>
       </c>
       <c r="N197" s="31" t="s">
@@ -8590,7 +8648,7 @@
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="40"/>
-      <c r="M200" s="64">
+      <c r="M200" s="61">
         <v>142</v>
       </c>
       <c r="N200" s="31" t="s">
@@ -8628,7 +8686,7 @@
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="40"/>
-      <c r="M202" s="64">
+      <c r="M202" s="61">
         <v>142</v>
       </c>
       <c r="N202" s="31" t="s">
@@ -8647,7 +8705,7 @@
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="40"/>
-      <c r="M203" s="64">
+      <c r="M203" s="61">
         <v>142</v>
       </c>
       <c r="N203" s="31" t="s">
@@ -8666,7 +8724,7 @@
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="40"/>
-      <c r="M204" s="64">
+      <c r="M204" s="61">
         <v>142</v>
       </c>
       <c r="N204" s="31" t="s">
@@ -8685,7 +8743,7 @@
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="40"/>
-      <c r="M205" s="64">
+      <c r="M205" s="61">
         <v>142</v>
       </c>
       <c r="N205" s="31" t="s">
@@ -8704,7 +8762,7 @@
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="40"/>
-      <c r="M206" s="64">
+      <c r="M206" s="61">
         <v>142</v>
       </c>
       <c r="N206" s="31" t="s">
@@ -8723,7 +8781,7 @@
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="40"/>
-      <c r="M207" s="64">
+      <c r="M207" s="61">
         <v>142</v>
       </c>
       <c r="N207" s="31" t="s">
@@ -8742,7 +8800,7 @@
     </row>
     <row r="208" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L208" s="41"/>
-      <c r="M208" s="88">
+      <c r="M208" s="85">
         <v>142</v>
       </c>
       <c r="N208" s="38" t="s">

--- a/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="424">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -309,9 +309,6 @@
     <t>Cargados por otra fuente</t>
   </si>
   <si>
-    <t>Fecha de fin para cierre de registros</t>
-  </si>
-  <si>
     <t>ID_UBI</t>
   </si>
   <si>
@@ -1471,6 +1468,12 @@
   </si>
   <si>
     <t>Poner aquí: Fecha_Default (Variable de ambiente)</t>
+  </si>
+  <si>
+    <t>Fecha de fin del registro</t>
+  </si>
+  <si>
+    <t>Fecha de inicio del registro</t>
   </si>
 </sst>
 </file>
@@ -1639,7 +1642,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="31">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1795,6 +1798,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2396,7 +2405,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -2482,12 +2491,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="34" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2554,6 +2557,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2611,20 +2628,17 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3103,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3113,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M166" sqref="M166"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M165" sqref="M165:R165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3122,7 +3136,7 @@
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="82" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="80" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -3143,7 +3157,7 @@
     <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="78"/>
+      <c r="D1" s="76"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3153,94 +3167,99 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="92" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="D2" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="E2" s="99"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="91"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="97"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="97"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="49"/>
+      <c r="H3" s="112"/>
       <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="4" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B4" s="27" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="99"/>
-      <c r="F4" s="100"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="106"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="35"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="J4" s="28"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="99"/>
-      <c r="F5" s="100"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="106"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="78"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="101" t="s">
+      <c r="B7" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="104"/>
-      <c r="K7" s="105"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="111"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
-      <c r="Q7" s="88"/>
-      <c r="R7" s="88"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3249,7 +3268,7 @@
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="77" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -3295,74 +3314,74 @@
       <c r="B9" s="43">
         <v>1</v>
       </c>
-      <c r="C9" s="76" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>372</v>
+      <c r="C9" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D9" s="78" t="s">
+        <v>371</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="110"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="46">
         <v>135</v>
       </c>
       <c r="J9" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="K9" s="84" t="s">
-        <v>413</v>
-      </c>
-      <c r="L9" s="112"/>
-      <c r="M9" s="63">
+        <v>85</v>
+      </c>
+      <c r="K9" s="82" t="s">
+        <v>412</v>
+      </c>
+      <c r="L9" s="91"/>
+      <c r="M9" s="61">
         <v>135</v>
       </c>
-      <c r="N9" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="O9" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="62" t="s">
+      <c r="N9" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="62" t="s">
+      <c r="Q9" s="60" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B10" s="44">
         <v>2</v>
       </c>
-      <c r="C10" s="75" t="s">
-        <v>239</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>373</v>
+      <c r="C10" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>372</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="110"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="89"/>
       <c r="I10" s="33">
         <v>136</v>
       </c>
       <c r="J10" s="37" t="s">
+        <v>399</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>401</v>
-      </c>
-      <c r="L10" s="112"/>
+      <c r="L10" s="91"/>
       <c r="M10" s="33">
         <v>136</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>18</v>
@@ -3373,37 +3392,37 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="59"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="44">
         <v>3</v>
       </c>
-      <c r="C11" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="D11" s="81" t="s">
-        <v>374</v>
+      <c r="C11" s="73" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" s="79" t="s">
+        <v>373</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="110"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="33">
         <v>137</v>
       </c>
       <c r="J11" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="K11" s="34" t="s">
         <v>402</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="L11" s="112"/>
+      <c r="L11" s="91"/>
       <c r="M11" s="33">
         <v>137</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>21</v>
@@ -3420,31 +3439,31 @@
       <c r="B12" s="44">
         <v>4</v>
       </c>
-      <c r="C12" s="75" t="s">
-        <v>241</v>
-      </c>
-      <c r="D12" s="81" t="s">
-        <v>375</v>
+      <c r="C12" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="79" t="s">
+        <v>374</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="110"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="89"/>
       <c r="I12" s="33">
         <v>138</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>404</v>
-      </c>
-      <c r="K12" s="83" t="s">
-        <v>414</v>
-      </c>
-      <c r="L12" s="112"/>
-      <c r="M12" s="65">
+        <v>403</v>
+      </c>
+      <c r="K12" s="81" t="s">
+        <v>413</v>
+      </c>
+      <c r="L12" s="91"/>
+      <c r="M12" s="63">
         <v>138</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>23</v>
@@ -3458,40 +3477,40 @@
       <c r="R12" s="36"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="51">
+      <c r="B13" s="49">
         <v>5</v>
       </c>
-      <c r="C13" s="75" t="s">
-        <v>242</v>
-      </c>
-      <c r="D13" s="81" t="s">
-        <v>376</v>
+      <c r="C13" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>375</v>
       </c>
       <c r="E13" s="37"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="89"/>
       <c r="I13" s="33">
         <v>139</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="K13" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="65">
+        <v>404</v>
+      </c>
+      <c r="K13" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="L13" s="92"/>
+      <c r="M13" s="63">
         <v>4</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" s="31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q13" s="31" t="s">
         <v>20</v>
@@ -3502,34 +3521,34 @@
       <c r="B14" s="44">
         <v>6</v>
       </c>
-      <c r="C14" s="75" t="s">
-        <v>243</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>376</v>
+      <c r="C14" s="73" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>375</v>
       </c>
       <c r="E14" s="37"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="61">
+      <c r="F14" s="50"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="59">
         <v>140</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>406</v>
-      </c>
-      <c r="K14" s="59" t="s">
-        <v>416</v>
-      </c>
-      <c r="L14" s="113"/>
-      <c r="M14" s="65">
+        <v>405</v>
+      </c>
+      <c r="K14" s="57" t="s">
+        <v>415</v>
+      </c>
+      <c r="L14" s="92"/>
+      <c r="M14" s="63">
         <v>139</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" s="31" t="s">
         <v>24</v>
@@ -3543,34 +3562,34 @@
       <c r="B15" s="44">
         <v>7</v>
       </c>
-      <c r="C15" s="75" t="s">
-        <v>244</v>
-      </c>
-      <c r="D15" s="81" t="s">
-        <v>39</v>
+      <c r="C15" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>38</v>
       </c>
       <c r="E15" s="37"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="110"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="88"/>
+      <c r="H15" s="89"/>
       <c r="I15" s="33">
         <v>141</v>
       </c>
       <c r="J15" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="K15" s="81" t="s">
         <v>407</v>
       </c>
-      <c r="K15" s="83" t="s">
-        <v>408</v>
-      </c>
-      <c r="L15" s="113"/>
+      <c r="L15" s="92"/>
       <c r="M15" s="33">
         <v>141</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O15" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" s="31" t="s">
         <v>24</v>
@@ -3581,37 +3600,37 @@
       <c r="R15" s="36"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="51">
+      <c r="B16" s="49">
         <v>8</v>
       </c>
-      <c r="C16" s="75" t="s">
-        <v>245</v>
-      </c>
-      <c r="D16" s="81" t="s">
-        <v>371</v>
+      <c r="C16" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>370</v>
       </c>
       <c r="E16" s="37"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="61">
+      <c r="F16" s="50"/>
+      <c r="G16" s="88"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="59">
         <v>142</v>
       </c>
       <c r="J16" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="K16" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="K16" s="34" t="s">
-        <v>410</v>
-      </c>
-      <c r="L16" s="113"/>
-      <c r="M16" s="61">
+      <c r="L16" s="92"/>
+      <c r="M16" s="59">
         <v>141</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O16" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16" s="31" t="s">
         <v>24</v>
@@ -3625,78 +3644,78 @@
       <c r="B17" s="44">
         <v>9</v>
       </c>
-      <c r="C17" s="75" t="s">
-        <v>246</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>372</v>
+      <c r="C17" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E17" s="37"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="89"/>
       <c r="I17" s="33">
         <v>143</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>412</v>
-      </c>
-      <c r="K17" s="83" t="s">
-        <v>417</v>
-      </c>
-      <c r="L17" s="113"/>
-      <c r="M17" s="61">
+        <v>411</v>
+      </c>
+      <c r="K17" s="81" t="s">
+        <v>416</v>
+      </c>
+      <c r="L17" s="92"/>
+      <c r="M17" s="59">
         <v>142</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O17" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="P17" s="31" t="s">
-        <v>47</v>
-      </c>
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="59"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="44">
         <v>10</v>
       </c>
-      <c r="C18" s="75" t="s">
-        <v>247</v>
-      </c>
-      <c r="D18" s="81" t="s">
+      <c r="C18" s="73" t="s">
+        <v>246</v>
+      </c>
+      <c r="D18" s="79" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="37"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="89"/>
       <c r="I18" s="33">
         <v>144</v>
       </c>
       <c r="J18" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="K18" s="34" t="s">
         <v>419</v>
       </c>
-      <c r="K18" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="L18" s="113"/>
+      <c r="L18" s="92"/>
       <c r="M18" s="33">
         <v>141</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q18" s="31" t="s">
         <v>20</v>
@@ -3704,40 +3723,40 @@
       <c r="R18" s="36"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="51">
+      <c r="B19" s="49">
         <v>11</v>
       </c>
-      <c r="C19" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="D19" s="81" t="s">
+      <c r="C19" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="D19" s="79" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="37"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="111"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="32">
         <v>145</v>
       </c>
-      <c r="J19" s="106" t="s">
+      <c r="J19" s="85" t="s">
+        <v>420</v>
+      </c>
+      <c r="K19" s="84" t="s">
         <v>421</v>
       </c>
-      <c r="K19" s="86" t="s">
-        <v>422</v>
-      </c>
-      <c r="L19" s="113"/>
-      <c r="M19" s="61">
+      <c r="L19" s="92"/>
+      <c r="M19" s="59">
         <v>142</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="31" t="s">
         <v>20</v>
@@ -3748,89 +3767,89 @@
       <c r="B20" s="44">
         <v>12</v>
       </c>
-      <c r="C20" s="75" t="s">
-        <v>249</v>
-      </c>
-      <c r="D20" s="81" t="s">
-        <v>377</v>
+      <c r="C20" s="73" t="s">
+        <v>248</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>376</v>
       </c>
       <c r="E20" s="37"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
       <c r="L20" s="40"/>
       <c r="M20" s="33">
         <v>141</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="59"/>
+      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="44">
         <v>13</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="73" t="s">
+        <v>249</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="E21" s="37"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="59">
+        <v>142</v>
+      </c>
+      <c r="N21" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O21" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="P21" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="57"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B22" s="49">
+        <v>14</v>
+      </c>
+      <c r="C22" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="D21" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="61">
-        <v>142</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O21" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="59"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="51">
-        <v>14</v>
-      </c>
-      <c r="C22" s="75" t="s">
-        <v>251</v>
-      </c>
-      <c r="D22" s="81" t="s">
-        <v>372</v>
+      <c r="D22" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E22" s="37"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
       <c r="L22" s="40"/>
       <c r="M22" s="33">
         <v>141</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P22" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q22" s="31" t="s">
         <v>20</v>
@@ -3841,27 +3860,27 @@
       <c r="B23" s="44">
         <v>15</v>
       </c>
-      <c r="C23" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="D23" s="81" t="s">
-        <v>373</v>
+      <c r="C23" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>372</v>
       </c>
       <c r="E23" s="37"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="51"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="61">
+      <c r="M23" s="59">
         <v>142</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P23" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q23" s="31" t="s">
         <v>20</v>
@@ -3872,58 +3891,58 @@
       <c r="B24" s="44">
         <v>16</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>253</v>
-      </c>
-      <c r="D24" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
+      <c r="C24" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="E24" s="66"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="51"/>
       <c r="L24" s="40"/>
       <c r="M24" s="33">
         <v>141</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q24" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="36"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B25" s="49">
+        <v>17</v>
+      </c>
+      <c r="C25" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="67"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="51"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="59">
+        <v>142</v>
+      </c>
+      <c r="N25" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="P24" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="36"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="51">
-        <v>17</v>
-      </c>
-      <c r="C25" s="75" t="s">
-        <v>254</v>
-      </c>
-      <c r="D25" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="E25" s="69"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="61">
-        <v>142</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O25" s="31" t="s">
-        <v>55</v>
-      </c>
       <c r="P25" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="31" t="s">
         <v>20</v>
@@ -3934,24 +3953,24 @@
       <c r="B26" s="44">
         <v>18</v>
       </c>
-      <c r="C26" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>378</v>
-      </c>
-      <c r="E26" s="69"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="53"/>
+      <c r="C26" s="73" t="s">
+        <v>254</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="E26" s="67"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="51"/>
       <c r="L26" s="40"/>
       <c r="M26" s="33">
         <v>141</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P26" s="31" t="s">
         <v>24</v>
@@ -3965,89 +3984,89 @@
       <c r="B27" s="44">
         <v>19</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="73" t="s">
+        <v>255</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="51"/>
+      <c r="L27" s="40"/>
+      <c r="M27" s="59">
+        <v>142</v>
+      </c>
+      <c r="N27" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="P27" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="36"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B28" s="49">
+        <v>20</v>
+      </c>
+      <c r="C28" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="D27" s="81" t="s">
+      <c r="D28" s="79" t="s">
         <v>378</v>
       </c>
-      <c r="E27" s="69"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="53"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="61">
-        <v>142</v>
-      </c>
-      <c r="N27" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O27" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="36"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="51">
-        <v>20</v>
-      </c>
-      <c r="C28" s="75" t="s">
-        <v>257</v>
-      </c>
-      <c r="D28" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E28" s="69"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="53"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="51"/>
       <c r="L28" s="40"/>
       <c r="M28" s="33">
         <v>141</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O28" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P28" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="59"/>
+      <c r="R28" s="57"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="44">
         <v>21</v>
       </c>
-      <c r="C29" s="75" t="s">
-        <v>258</v>
-      </c>
-      <c r="D29" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E29" s="69"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="53"/>
+      <c r="C29" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E29" s="67"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="51"/>
       <c r="L29" s="40"/>
-      <c r="M29" s="61">
+      <c r="M29" s="59">
         <v>142</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O29" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P29" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q29" s="31" t="s">
         <v>20</v>
@@ -4058,86 +4077,86 @@
       <c r="B30" s="44">
         <v>22</v>
       </c>
-      <c r="C30" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="D30" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="69"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="53"/>
+      <c r="C30" s="73" t="s">
+        <v>258</v>
+      </c>
+      <c r="D30" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="E30" s="67"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="51"/>
       <c r="L30" s="40"/>
       <c r="M30" s="33">
         <v>141</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O30" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="36"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B31" s="49">
+        <v>23</v>
+      </c>
+      <c r="C31" s="73" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="67"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="51"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="59">
+        <v>142</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O31" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="36"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="51">
-        <v>23</v>
-      </c>
-      <c r="C31" s="75" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="69"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="53"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="61">
-        <v>142</v>
-      </c>
-      <c r="N31" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O31" s="31" t="s">
-        <v>61</v>
-      </c>
       <c r="P31" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="59"/>
+      <c r="R31" s="57"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="44">
         <v>24</v>
       </c>
-      <c r="C32" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="D32" s="81" t="s">
+      <c r="C32" s="73" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="69"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="53"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="51"/>
       <c r="L32" s="40"/>
       <c r="M32" s="33">
         <v>141</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O32" s="31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P32" s="31" t="s">
         <v>24</v>
@@ -4145,64 +4164,64 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="59"/>
+      <c r="R32" s="57"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="44">
         <v>25</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="73" t="s">
+        <v>261</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="67"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="51"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="59">
+        <v>142</v>
+      </c>
+      <c r="N33" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="36"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B34" s="49">
+        <v>26</v>
+      </c>
+      <c r="C34" s="73" t="s">
         <v>262</v>
       </c>
-      <c r="D33" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="69"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="53"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="61">
-        <v>142</v>
-      </c>
-      <c r="N33" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O33" s="31" t="s">
+      <c r="D34" s="79" t="s">
+        <v>376</v>
+      </c>
+      <c r="E34" s="67"/>
+      <c r="F34" s="50"/>
+      <c r="G34" s="51"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="62">
+        <v>7</v>
+      </c>
+      <c r="N34" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O34" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="P33" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="36"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="51">
-        <v>26</v>
-      </c>
-      <c r="C34" s="75" t="s">
-        <v>263</v>
-      </c>
-      <c r="D34" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="E34" s="69"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="53"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="64">
-        <v>7</v>
-      </c>
-      <c r="N34" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O34" s="31" t="s">
-        <v>64</v>
-      </c>
       <c r="P34" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q34" s="31" t="s">
         <v>20</v>
@@ -4213,27 +4232,27 @@
       <c r="B35" s="44">
         <v>27</v>
       </c>
-      <c r="C35" s="75" t="s">
-        <v>264</v>
-      </c>
-      <c r="D35" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E35" s="69"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="53"/>
+      <c r="C35" s="73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E35" s="67"/>
+      <c r="F35" s="50"/>
+      <c r="G35" s="51"/>
       <c r="L35" s="40"/>
-      <c r="M35" s="61">
+      <c r="M35" s="59">
         <v>142</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O35" s="31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P35" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q35" s="31" t="s">
         <v>20</v>
@@ -4244,58 +4263,58 @@
       <c r="B36" s="44">
         <v>28</v>
       </c>
-      <c r="C36" s="75" t="s">
+      <c r="C36" s="73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E36" s="67"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="51"/>
+      <c r="L36" s="40"/>
+      <c r="M36" s="59">
+        <v>142</v>
+      </c>
+      <c r="N36" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O36" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P36" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="36"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B37" s="49">
+        <v>29</v>
+      </c>
+      <c r="C37" s="73" t="s">
         <v>265</v>
       </c>
-      <c r="D36" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="53"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="61">
-        <v>142</v>
-      </c>
-      <c r="N36" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O36" s="31" t="s">
+      <c r="D37" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E37" s="67"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="51"/>
+      <c r="L37" s="40"/>
+      <c r="M37" s="59">
+        <v>142</v>
+      </c>
+      <c r="N37" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O37" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="P36" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="36"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="51">
-        <v>29</v>
-      </c>
-      <c r="C37" s="75" t="s">
-        <v>266</v>
-      </c>
-      <c r="D37" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E37" s="69"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="53"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="61">
-        <v>142</v>
-      </c>
-      <c r="N37" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O37" s="31" t="s">
-        <v>67</v>
-      </c>
       <c r="P37" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q37" s="31" t="s">
         <v>20</v>
@@ -4306,27 +4325,27 @@
       <c r="B38" s="44">
         <v>30</v>
       </c>
-      <c r="C38" s="75" t="s">
-        <v>267</v>
-      </c>
-      <c r="D38" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="53"/>
+      <c r="C38" s="73" t="s">
+        <v>266</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E38" s="67"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="51"/>
       <c r="L38" s="40"/>
-      <c r="M38" s="61">
+      <c r="M38" s="59">
         <v>142</v>
       </c>
       <c r="N38" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O38" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P38" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="31" t="s">
         <v>20</v>
@@ -4337,58 +4356,58 @@
       <c r="B39" s="44">
         <v>31</v>
       </c>
-      <c r="C39" s="75" t="s">
+      <c r="C39" s="73" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E39" s="67"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="59">
+        <v>142</v>
+      </c>
+      <c r="N39" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O39" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="57"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B40" s="49">
+        <v>32</v>
+      </c>
+      <c r="C40" s="73" t="s">
         <v>268</v>
       </c>
-      <c r="D39" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="52"/>
-      <c r="G39" s="53"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="61">
-        <v>142</v>
-      </c>
-      <c r="N39" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O39" s="31" t="s">
+      <c r="D40" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="51"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="59">
+        <v>142</v>
+      </c>
+      <c r="N40" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O40" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="P39" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="59"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="51">
-        <v>32</v>
-      </c>
-      <c r="C40" s="75" t="s">
-        <v>269</v>
-      </c>
-      <c r="D40" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="53"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="61">
-        <v>142</v>
-      </c>
-      <c r="N40" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O40" s="31" t="s">
-        <v>70</v>
-      </c>
       <c r="P40" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q40" s="31" t="s">
         <v>20</v>
@@ -4399,27 +4418,27 @@
       <c r="B41" s="44">
         <v>33</v>
       </c>
-      <c r="C41" s="75" t="s">
-        <v>270</v>
-      </c>
-      <c r="D41" s="81" t="s">
-        <v>379</v>
+      <c r="C41" s="73" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>378</v>
       </c>
       <c r="E41" s="37"/>
-      <c r="F41" s="52"/>
-      <c r="G41" s="53"/>
+      <c r="F41" s="50"/>
+      <c r="G41" s="51"/>
       <c r="L41" s="40"/>
       <c r="M41" s="33">
         <v>141</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O41" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P41" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q41" s="31" t="s">
         <v>20</v>
@@ -4430,89 +4449,89 @@
       <c r="B42" s="44">
         <v>34</v>
       </c>
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="51"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="59">
+        <v>142</v>
+      </c>
+      <c r="N42" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O42" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="P42" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="57"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B43" s="49">
+        <v>35</v>
+      </c>
+      <c r="C43" s="73" t="s">
         <v>271</v>
       </c>
-      <c r="D42" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="53"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="61">
-        <v>142</v>
-      </c>
-      <c r="N42" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O42" s="31" t="s">
+      <c r="D43" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="51"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="59">
+        <v>142</v>
+      </c>
+      <c r="N43" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O43" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="P42" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="59"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="51">
-        <v>35</v>
-      </c>
-      <c r="C43" s="75" t="s">
-        <v>272</v>
-      </c>
-      <c r="D43" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="53"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="61">
-        <v>142</v>
-      </c>
-      <c r="N43" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O43" s="31" t="s">
-        <v>73</v>
-      </c>
       <c r="P43" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="59"/>
+      <c r="R43" s="57"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="44">
         <v>36</v>
       </c>
-      <c r="C44" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="D44" s="81" t="s">
-        <v>379</v>
+      <c r="C44" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="D44" s="79" t="s">
+        <v>378</v>
       </c>
       <c r="E44" s="37"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="53"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="51"/>
       <c r="L44" s="40"/>
-      <c r="M44" s="61">
+      <c r="M44" s="59">
         <v>142</v>
       </c>
       <c r="N44" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O44" s="31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P44" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q44" s="31" t="s">
         <v>20</v>
@@ -4523,58 +4542,58 @@
       <c r="B45" s="44">
         <v>37</v>
       </c>
-      <c r="C45" s="75" t="s">
+      <c r="C45" s="73" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="51"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="59">
+        <v>142</v>
+      </c>
+      <c r="N45" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O45" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="36"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B46" s="49">
+        <v>38</v>
+      </c>
+      <c r="C46" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="D45" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="53"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="61">
-        <v>142</v>
-      </c>
-      <c r="N45" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O45" s="31" t="s">
+      <c r="D46" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="51"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="59">
+        <v>142</v>
+      </c>
+      <c r="N46" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O46" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="P45" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="36"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="51">
-        <v>38</v>
-      </c>
-      <c r="C46" s="75" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="53"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="61">
-        <v>142</v>
-      </c>
-      <c r="N46" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O46" s="31" t="s">
-        <v>76</v>
-      </c>
       <c r="P46" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q46" s="31" t="s">
         <v>20</v>
@@ -4585,27 +4604,27 @@
       <c r="B47" s="44">
         <v>39</v>
       </c>
-      <c r="C47" s="75" t="s">
-        <v>276</v>
-      </c>
-      <c r="D47" s="81" t="s">
-        <v>379</v>
+      <c r="C47" s="73" t="s">
+        <v>275</v>
+      </c>
+      <c r="D47" s="79" t="s">
+        <v>378</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="53"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="51"/>
       <c r="L47" s="40"/>
-      <c r="M47" s="61">
+      <c r="M47" s="59">
         <v>142</v>
       </c>
       <c r="N47" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O47" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P47" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="31" t="s">
         <v>20</v>
@@ -4616,58 +4635,58 @@
       <c r="B48" s="44">
         <v>40</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="73" t="s">
+        <v>276</v>
+      </c>
+      <c r="D48" s="79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48" s="24"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="51"/>
+      <c r="L48" s="40"/>
+      <c r="M48" s="59">
+        <v>142</v>
+      </c>
+      <c r="N48" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="36"/>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B49" s="49">
+        <v>41</v>
+      </c>
+      <c r="C49" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="D48" s="81" t="s">
-        <v>379</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="52"/>
-      <c r="G48" s="53"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="61">
-        <v>142</v>
-      </c>
-      <c r="N48" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O48" s="31" t="s">
+      <c r="D49" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="24"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="51"/>
+      <c r="L49" s="40"/>
+      <c r="M49" s="59">
+        <v>142</v>
+      </c>
+      <c r="N49" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O49" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="P48" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="36"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="51">
-        <v>41</v>
-      </c>
-      <c r="C49" s="75" t="s">
-        <v>278</v>
-      </c>
-      <c r="D49" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="24"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="53"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="61">
-        <v>142</v>
-      </c>
-      <c r="N49" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O49" s="31" t="s">
-        <v>79</v>
-      </c>
       <c r="P49" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q49" s="31" t="s">
         <v>20</v>
@@ -4678,91 +4697,91 @@
       <c r="B50" s="44">
         <v>42</v>
       </c>
-      <c r="C50" s="75" t="s">
-        <v>279</v>
-      </c>
-      <c r="D50" s="81" t="s">
+      <c r="C50" s="73" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="79" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="53"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="51"/>
       <c r="L50" s="40"/>
-      <c r="M50" s="61">
+      <c r="M50" s="59">
         <v>142</v>
       </c>
       <c r="N50" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O50" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P50" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="59"/>
+      <c r="R50" s="57"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="44">
         <v>43</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="73" t="s">
+        <v>279</v>
+      </c>
+      <c r="D51" s="79" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="24"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="L51" s="40"/>
+      <c r="M51" s="115">
+        <v>144</v>
+      </c>
+      <c r="N51" s="116" t="s">
+        <v>162</v>
+      </c>
+      <c r="O51" s="116" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" s="116" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51" s="116" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="117"/>
+    </row>
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B52" s="49">
+        <v>44</v>
+      </c>
+      <c r="C52" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="D51" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="24"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="53"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="64">
-        <v>144</v>
-      </c>
-      <c r="N51" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O51" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="P51" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q51" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="36"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="51">
-        <v>44</v>
-      </c>
-      <c r="C52" s="75" t="s">
-        <v>281</v>
-      </c>
-      <c r="D52" s="81" t="s">
-        <v>380</v>
+      <c r="D52" s="79" t="s">
+        <v>379</v>
       </c>
       <c r="E52" s="24"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="53"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="51"/>
       <c r="L52" s="40"/>
-      <c r="M52" s="66">
+      <c r="M52" s="64">
         <v>145</v>
       </c>
-      <c r="N52" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="O52" s="67" t="s">
+      <c r="N52" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="O52" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q52" s="67" t="s">
+      <c r="P52" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="65" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="47"/>
@@ -4771,89 +4790,89 @@
       <c r="B53" s="44">
         <v>45</v>
       </c>
-      <c r="C53" s="75" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="81" t="s">
-        <v>381</v>
+      <c r="C53" s="73" t="s">
+        <v>281</v>
+      </c>
+      <c r="D53" s="79" t="s">
+        <v>380</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="53"/>
+      <c r="F53" s="50"/>
+      <c r="G53" s="51"/>
       <c r="L53" s="40"/>
-      <c r="M53" s="61">
+      <c r="M53" s="59">
         <v>142</v>
       </c>
       <c r="N53" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="31" t="s">
         <v>26</v>
       </c>
       <c r="P53" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="59"/>
+      <c r="R53" s="57"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="44">
         <v>46</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C54" s="73" t="s">
+        <v>282</v>
+      </c>
+      <c r="D54" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54" s="24"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="51"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="62">
+        <v>140</v>
+      </c>
+      <c r="N54" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O54" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="P54" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="57"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B55" s="49">
+        <v>47</v>
+      </c>
+      <c r="C55" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="D54" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="53"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="64">
-        <v>140</v>
-      </c>
-      <c r="N54" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O54" s="31" t="s">
+      <c r="D55" s="79" t="s">
+        <v>380</v>
+      </c>
+      <c r="E55" s="24"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="51"/>
+      <c r="L55" s="40"/>
+      <c r="M55" s="62">
+        <v>4</v>
+      </c>
+      <c r="N55" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="O55" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="P54" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="59"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="51">
-        <v>47</v>
-      </c>
-      <c r="C55" s="75" t="s">
-        <v>284</v>
-      </c>
-      <c r="D55" s="81" t="s">
-        <v>381</v>
-      </c>
-      <c r="E55" s="24"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="53"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="64">
-        <v>4</v>
-      </c>
-      <c r="N55" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O55" s="31" t="s">
-        <v>83</v>
-      </c>
       <c r="P55" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q55" s="31" t="s">
         <v>20</v>
@@ -4864,27 +4883,27 @@
       <c r="B56" s="44">
         <v>48</v>
       </c>
-      <c r="C56" s="75" t="s">
-        <v>285</v>
-      </c>
-      <c r="D56" s="81" t="s">
-        <v>382</v>
+      <c r="C56" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" s="79" t="s">
+        <v>381</v>
       </c>
       <c r="E56" s="24"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="53"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="51"/>
       <c r="L56" s="40"/>
-      <c r="M56" s="61">
+      <c r="M56" s="59">
         <v>142</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P56" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q56" s="31" t="s">
         <v>20</v>
@@ -4895,88 +4914,88 @@
       <c r="B57" s="44">
         <v>49</v>
       </c>
-      <c r="C57" s="75" t="s">
+      <c r="C57" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="79" t="s">
+        <v>377</v>
+      </c>
+      <c r="E57" s="24"/>
+      <c r="F57" s="50"/>
+      <c r="G57" s="51"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="59">
+        <v>142</v>
+      </c>
+      <c r="N57" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="O57" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P57" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q57" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="52"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" s="49">
+        <v>50</v>
+      </c>
+      <c r="C58" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="D57" s="81" t="s">
-        <v>378</v>
-      </c>
-      <c r="E57" s="24"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="53"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="61">
-        <v>142</v>
-      </c>
-      <c r="N57" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="O57" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="P57" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q57" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="54"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B58" s="51">
-        <v>50</v>
-      </c>
-      <c r="C58" s="75" t="s">
-        <v>287</v>
-      </c>
-      <c r="D58" s="81" t="s">
-        <v>383</v>
+      <c r="D58" s="79" t="s">
+        <v>382</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="53"/>
-      <c r="L58" s="57"/>
+      <c r="F58" s="50"/>
+      <c r="G58" s="51"/>
+      <c r="L58" s="55"/>
       <c r="M58" s="46">
         <v>135</v>
       </c>
-      <c r="N58" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="O58" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="P58" s="62" t="s">
+      <c r="N58" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="O58" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="P58" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="62" t="s">
+      <c r="Q58" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R58" s="55" t="s">
-        <v>38</v>
+      <c r="R58" s="53" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="44">
         <v>51</v>
       </c>
-      <c r="C59" s="75" t="s">
-        <v>288</v>
-      </c>
-      <c r="D59" s="81" t="s">
-        <v>372</v>
+      <c r="C59" s="73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="53"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="51"/>
       <c r="L59" s="40"/>
       <c r="M59" s="33">
         <v>141</v>
       </c>
       <c r="N59" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O59" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P59" s="31" t="s">
         <v>24</v>
@@ -4990,24 +5009,24 @@
       <c r="B60" s="44">
         <v>52</v>
       </c>
-      <c r="C60" s="75" t="s">
-        <v>289</v>
-      </c>
-      <c r="D60" s="81" t="s">
-        <v>372</v>
+      <c r="C60" s="73" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="53"/>
+      <c r="F60" s="50"/>
+      <c r="G60" s="51"/>
       <c r="L60" s="40"/>
       <c r="M60" s="33">
         <v>141</v>
       </c>
       <c r="N60" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P60" s="31" t="s">
         <v>24</v>
@@ -5018,27 +5037,27 @@
       <c r="R60" s="34"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="51">
+      <c r="B61" s="49">
         <v>53</v>
       </c>
-      <c r="C61" s="75" t="s">
-        <v>290</v>
-      </c>
-      <c r="D61" s="81" t="s">
-        <v>372</v>
+      <c r="C61" s="73" t="s">
+        <v>289</v>
+      </c>
+      <c r="D61" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="53"/>
+      <c r="F61" s="50"/>
+      <c r="G61" s="51"/>
       <c r="L61" s="40"/>
       <c r="M61" s="33">
         <v>67</v>
       </c>
       <c r="N61" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O61" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P61" s="31" t="s">
         <v>19</v>
@@ -5052,24 +5071,24 @@
       <c r="B62" s="44">
         <v>54</v>
       </c>
-      <c r="C62" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="D62" s="81" t="s">
-        <v>384</v>
+      <c r="C62" s="73" t="s">
+        <v>290</v>
+      </c>
+      <c r="D62" s="79" t="s">
+        <v>383</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="53"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="51"/>
       <c r="L62" s="40"/>
-      <c r="M62" s="61">
+      <c r="M62" s="59">
         <v>142</v>
       </c>
       <c r="N62" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P62" s="31" t="s">
         <v>19</v>
@@ -5083,24 +5102,24 @@
       <c r="B63" s="44">
         <v>55</v>
       </c>
-      <c r="C63" s="75" t="s">
-        <v>292</v>
-      </c>
-      <c r="D63" s="81" t="s">
-        <v>380</v>
+      <c r="C63" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="D63" s="79" t="s">
+        <v>379</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="53"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="51"/>
       <c r="L63" s="40"/>
-      <c r="M63" s="61">
+      <c r="M63" s="59">
         <v>142</v>
       </c>
       <c r="N63" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P63" s="31" t="s">
         <v>19</v>
@@ -5111,27 +5130,27 @@
       <c r="R63" s="34"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="51">
+      <c r="B64" s="49">
         <v>56</v>
       </c>
-      <c r="C64" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="D64" s="81" t="s">
-        <v>372</v>
+      <c r="C64" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="D64" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="51"/>
       <c r="L64" s="40"/>
       <c r="M64" s="33">
         <v>141</v>
       </c>
       <c r="N64" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P64" s="31" t="s">
         <v>24</v>
@@ -5145,24 +5164,24 @@
       <c r="B65" s="44">
         <v>57</v>
       </c>
-      <c r="C65" s="75" t="s">
-        <v>294</v>
-      </c>
-      <c r="D65" s="81" t="s">
-        <v>385</v>
+      <c r="C65" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="D65" s="79" t="s">
+        <v>384</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="53"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="51"/>
       <c r="L65" s="40"/>
-      <c r="M65" s="61">
+      <c r="M65" s="59">
         <v>142</v>
       </c>
       <c r="N65" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P65" s="31" t="s">
         <v>19</v>
@@ -5176,24 +5195,24 @@
       <c r="B66" s="44">
         <v>58</v>
       </c>
-      <c r="C66" s="75" t="s">
-        <v>295</v>
-      </c>
-      <c r="D66" s="81" t="s">
-        <v>377</v>
+      <c r="C66" s="73" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="79" t="s">
+        <v>376</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="53"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="51"/>
       <c r="L66" s="40"/>
       <c r="M66" s="33">
         <v>141</v>
       </c>
       <c r="N66" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P66" s="31" t="s">
         <v>24</v>
@@ -5204,27 +5223,27 @@
       <c r="R66" s="34"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="51">
+      <c r="B67" s="49">
         <v>59</v>
       </c>
-      <c r="C67" s="75" t="s">
-        <v>296</v>
-      </c>
-      <c r="D67" s="81" t="s">
-        <v>386</v>
+      <c r="C67" s="73" t="s">
+        <v>295</v>
+      </c>
+      <c r="D67" s="79" t="s">
+        <v>385</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="53"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="51"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="61">
+      <c r="M67" s="59">
         <v>142</v>
       </c>
       <c r="N67" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P67" s="31" t="s">
         <v>19</v>
@@ -5238,24 +5257,24 @@
       <c r="B68" s="44">
         <v>60</v>
       </c>
-      <c r="C68" s="75" t="s">
-        <v>297</v>
-      </c>
-      <c r="D68" s="81" t="s">
-        <v>372</v>
+      <c r="C68" s="73" t="s">
+        <v>296</v>
+      </c>
+      <c r="D68" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="53"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="51"/>
       <c r="L68" s="40"/>
       <c r="M68" s="33">
         <v>141</v>
       </c>
       <c r="N68" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P68" s="31" t="s">
         <v>24</v>
@@ -5269,24 +5288,24 @@
       <c r="B69" s="44">
         <v>61</v>
       </c>
-      <c r="C69" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="D69" s="81" t="s">
-        <v>387</v>
+      <c r="C69" s="73" t="s">
+        <v>297</v>
+      </c>
+      <c r="D69" s="79" t="s">
+        <v>386</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="53"/>
+      <c r="F69" s="50"/>
+      <c r="G69" s="51"/>
       <c r="L69" s="40"/>
-      <c r="M69" s="61">
+      <c r="M69" s="59">
         <v>142</v>
       </c>
       <c r="N69" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P69" s="31" t="s">
         <v>19</v>
@@ -5297,27 +5316,27 @@
       <c r="R69" s="34"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="51">
+      <c r="B70" s="49">
         <v>62</v>
       </c>
-      <c r="C70" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="D70" s="81" t="s">
-        <v>388</v>
+      <c r="C70" s="73" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="79" t="s">
+        <v>387</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="53"/>
+      <c r="F70" s="50"/>
+      <c r="G70" s="51"/>
       <c r="L70" s="40"/>
       <c r="M70" s="33">
         <v>141</v>
       </c>
       <c r="N70" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O70" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P70" s="31" t="s">
         <v>24</v>
@@ -5331,24 +5350,24 @@
       <c r="B71" s="44">
         <v>63</v>
       </c>
-      <c r="C71" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="D71" s="81" t="s">
-        <v>372</v>
+      <c r="C71" s="73" t="s">
+        <v>299</v>
+      </c>
+      <c r="D71" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="53"/>
+      <c r="F71" s="50"/>
+      <c r="G71" s="51"/>
       <c r="L71" s="40"/>
       <c r="M71" s="33">
         <v>141</v>
       </c>
       <c r="N71" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O71" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P71" s="31" t="s">
         <v>24</v>
@@ -5362,24 +5381,24 @@
       <c r="B72" s="44">
         <v>64</v>
       </c>
-      <c r="C72" s="75" t="s">
-        <v>301</v>
-      </c>
-      <c r="D72" s="81" t="s">
-        <v>388</v>
+      <c r="C72" s="73" t="s">
+        <v>300</v>
+      </c>
+      <c r="D72" s="79" t="s">
+        <v>387</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="53"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="51"/>
       <c r="L72" s="40"/>
-      <c r="M72" s="61">
+      <c r="M72" s="59">
         <v>142</v>
       </c>
       <c r="N72" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O72" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P72" s="31" t="s">
         <v>19</v>
@@ -5390,27 +5409,27 @@
       <c r="R72" s="34"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="51">
+      <c r="B73" s="49">
         <v>65</v>
       </c>
-      <c r="C73" s="75" t="s">
-        <v>302</v>
-      </c>
-      <c r="D73" s="81" t="s">
-        <v>388</v>
+      <c r="C73" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="D73" s="79" t="s">
+        <v>387</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="53"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="51"/>
       <c r="L73" s="40"/>
       <c r="M73" s="33">
         <v>141</v>
       </c>
       <c r="N73" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O73" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P73" s="31" t="s">
         <v>24</v>
@@ -5424,24 +5443,24 @@
       <c r="B74" s="44">
         <v>66</v>
       </c>
-      <c r="C74" s="75" t="s">
-        <v>303</v>
-      </c>
-      <c r="D74" s="81" t="s">
-        <v>372</v>
+      <c r="C74" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="79" t="s">
+        <v>371</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="53"/>
+      <c r="F74" s="50"/>
+      <c r="G74" s="51"/>
       <c r="L74" s="40"/>
-      <c r="M74" s="61">
+      <c r="M74" s="59">
         <v>142</v>
       </c>
       <c r="N74" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O74" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P74" s="31" t="s">
         <v>19</v>
@@ -5455,24 +5474,24 @@
       <c r="B75" s="44">
         <v>67</v>
       </c>
-      <c r="C75" s="75" t="s">
-        <v>304</v>
-      </c>
-      <c r="D75" s="81" t="s">
+      <c r="C75" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="D75" s="79" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="53"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="51"/>
       <c r="L75" s="40"/>
       <c r="M75" s="33">
         <v>141</v>
       </c>
       <c r="N75" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P75" s="31" t="s">
         <v>24</v>
@@ -5483,27 +5502,27 @@
       <c r="R75" s="34"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="51">
+      <c r="B76" s="49">
         <v>68</v>
       </c>
-      <c r="C76" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="D76" s="81" t="s">
-        <v>389</v>
+      <c r="C76" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="79" t="s">
+        <v>388</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="53"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="51"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="61">
+      <c r="M76" s="59">
         <v>142</v>
       </c>
       <c r="N76" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O76" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P76" s="31" t="s">
         <v>19</v>
@@ -5517,24 +5536,24 @@
       <c r="B77" s="44">
         <v>69</v>
       </c>
-      <c r="C77" s="75" t="s">
-        <v>306</v>
-      </c>
-      <c r="D77" s="81" t="s">
-        <v>390</v>
+      <c r="C77" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="D77" s="79" t="s">
+        <v>389</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="53"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="51"/>
       <c r="L77" s="40"/>
       <c r="M77" s="33">
         <v>141</v>
       </c>
       <c r="N77" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O77" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P77" s="31" t="s">
         <v>24</v>
@@ -5548,24 +5567,24 @@
       <c r="B78" s="44">
         <v>70</v>
       </c>
-      <c r="C78" s="75" t="s">
-        <v>307</v>
-      </c>
-      <c r="D78" s="81" t="s">
-        <v>39</v>
+      <c r="C78" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" s="79" t="s">
+        <v>38</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="52"/>
-      <c r="G78" s="53"/>
+      <c r="F78" s="50"/>
+      <c r="G78" s="51"/>
       <c r="L78" s="40"/>
-      <c r="M78" s="61">
+      <c r="M78" s="59">
         <v>142</v>
       </c>
       <c r="N78" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O78" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P78" s="31" t="s">
         <v>19</v>
@@ -5576,27 +5595,27 @@
       <c r="R78" s="34"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="51">
+      <c r="B79" s="49">
         <v>71</v>
       </c>
-      <c r="C79" s="75" t="s">
-        <v>308</v>
-      </c>
-      <c r="D79" s="81" t="s">
-        <v>379</v>
+      <c r="C79" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="D79" s="79" t="s">
+        <v>378</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="52"/>
-      <c r="G79" s="53"/>
+      <c r="F79" s="50"/>
+      <c r="G79" s="51"/>
       <c r="L79" s="40"/>
       <c r="M79" s="33">
         <v>141</v>
       </c>
       <c r="N79" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O79" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P79" s="31" t="s">
         <v>24</v>
@@ -5610,24 +5629,24 @@
       <c r="B80" s="44">
         <v>72</v>
       </c>
-      <c r="C80" s="75" t="s">
-        <v>309</v>
-      </c>
-      <c r="D80" s="81" t="s">
-        <v>379</v>
+      <c r="C80" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="D80" s="79" t="s">
+        <v>378</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="53"/>
+      <c r="F80" s="50"/>
+      <c r="G80" s="51"/>
       <c r="L80" s="40"/>
-      <c r="M80" s="61">
+      <c r="M80" s="59">
         <v>142</v>
       </c>
       <c r="N80" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O80" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P80" s="31" t="s">
         <v>19</v>
@@ -5641,24 +5660,24 @@
       <c r="B81" s="44">
         <v>73</v>
       </c>
-      <c r="C81" s="75" t="s">
-        <v>310</v>
-      </c>
-      <c r="D81" s="81" t="s">
-        <v>379</v>
+      <c r="C81" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D81" s="79" t="s">
+        <v>378</v>
       </c>
       <c r="E81" s="24"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="53"/>
+      <c r="F81" s="50"/>
+      <c r="G81" s="51"/>
       <c r="L81" s="40"/>
       <c r="M81" s="33">
         <v>141</v>
       </c>
       <c r="N81" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P81" s="31" t="s">
         <v>24</v>
@@ -5669,27 +5688,27 @@
       <c r="R81" s="34"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="51">
+      <c r="B82" s="49">
         <v>74</v>
       </c>
-      <c r="C82" s="75" t="s">
-        <v>311</v>
-      </c>
-      <c r="D82" s="81" t="s">
-        <v>379</v>
+      <c r="C82" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="D82" s="79" t="s">
+        <v>378</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="53"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="51"/>
       <c r="L82" s="40"/>
-      <c r="M82" s="61">
+      <c r="M82" s="59">
         <v>142</v>
       </c>
       <c r="N82" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O82" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P82" s="31" t="s">
         <v>19</v>
@@ -5703,24 +5722,24 @@
       <c r="B83" s="44">
         <v>75</v>
       </c>
-      <c r="C83" s="75" t="s">
-        <v>312</v>
-      </c>
-      <c r="D83" s="81" t="s">
+      <c r="C83" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="D83" s="79" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="53"/>
+      <c r="F83" s="50"/>
+      <c r="G83" s="51"/>
       <c r="L83" s="40"/>
       <c r="M83" s="33">
         <v>141</v>
       </c>
       <c r="N83" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O83" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P83" s="31" t="s">
         <v>24</v>
@@ -5734,24 +5753,24 @@
       <c r="B84" s="44">
         <v>76</v>
       </c>
-      <c r="C84" s="75" t="s">
-        <v>313</v>
-      </c>
-      <c r="D84" s="81" t="s">
-        <v>388</v>
+      <c r="C84" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" s="79" t="s">
+        <v>387</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="53"/>
+      <c r="F84" s="50"/>
+      <c r="G84" s="51"/>
       <c r="L84" s="40"/>
-      <c r="M84" s="61">
+      <c r="M84" s="59">
         <v>142</v>
       </c>
       <c r="N84" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O84" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P84" s="31" t="s">
         <v>19</v>
@@ -5762,27 +5781,27 @@
       <c r="R84" s="34"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="51">
+      <c r="B85" s="49">
         <v>77</v>
       </c>
-      <c r="C85" s="75" t="s">
-        <v>314</v>
-      </c>
-      <c r="D85" s="81" t="s">
-        <v>388</v>
+      <c r="C85" s="73" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="79" t="s">
+        <v>387</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="52"/>
-      <c r="G85" s="53"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="51"/>
       <c r="L85" s="40"/>
       <c r="M85" s="33">
         <v>141</v>
       </c>
       <c r="N85" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O85" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P85" s="31" t="s">
         <v>24</v>
@@ -5796,24 +5815,24 @@
       <c r="B86" s="44">
         <v>78</v>
       </c>
-      <c r="C86" s="75" t="s">
-        <v>315</v>
-      </c>
-      <c r="D86" s="81" t="s">
-        <v>388</v>
+      <c r="C86" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" s="79" t="s">
+        <v>387</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="52"/>
-      <c r="G86" s="53"/>
+      <c r="F86" s="50"/>
+      <c r="G86" s="51"/>
       <c r="L86" s="40"/>
-      <c r="M86" s="61">
+      <c r="M86" s="59">
         <v>142</v>
       </c>
       <c r="N86" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P86" s="31" t="s">
         <v>19</v>
@@ -5827,24 +5846,24 @@
       <c r="B87" s="44">
         <v>79</v>
       </c>
-      <c r="C87" s="75" t="s">
-        <v>316</v>
-      </c>
-      <c r="D87" s="81" t="s">
-        <v>373</v>
+      <c r="C87" s="73" t="s">
+        <v>315</v>
+      </c>
+      <c r="D87" s="79" t="s">
+        <v>372</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="52"/>
-      <c r="G87" s="53"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="51"/>
       <c r="L87" s="40"/>
       <c r="M87" s="33">
         <v>141</v>
       </c>
       <c r="N87" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O87" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P87" s="31" t="s">
         <v>24</v>
@@ -5855,27 +5874,27 @@
       <c r="R87" s="36"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="51">
+      <c r="B88" s="49">
         <v>80</v>
       </c>
-      <c r="C88" s="75" t="s">
-        <v>317</v>
-      </c>
-      <c r="D88" s="81" t="s">
+      <c r="C88" s="73" t="s">
+        <v>316</v>
+      </c>
+      <c r="D88" s="79" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="52"/>
-      <c r="G88" s="53"/>
+      <c r="F88" s="50"/>
+      <c r="G88" s="51"/>
       <c r="L88" s="40"/>
-      <c r="M88" s="61">
+      <c r="M88" s="59">
         <v>142</v>
       </c>
       <c r="N88" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P88" s="31" t="s">
         <v>19</v>
@@ -5889,24 +5908,24 @@
       <c r="B89" s="44">
         <v>81</v>
       </c>
-      <c r="C89" s="75" t="s">
-        <v>318</v>
-      </c>
-      <c r="D89" s="81" t="s">
-        <v>394</v>
+      <c r="C89" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="D89" s="79" t="s">
+        <v>393</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="52"/>
-      <c r="G89" s="53"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="51"/>
       <c r="L89" s="40"/>
       <c r="M89" s="33">
         <v>141</v>
       </c>
       <c r="N89" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O89" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P89" s="31" t="s">
         <v>16</v>
@@ -5920,24 +5939,24 @@
       <c r="B90" s="44">
         <v>82</v>
       </c>
-      <c r="C90" s="75" t="s">
-        <v>319</v>
-      </c>
-      <c r="D90" s="81" t="s">
-        <v>381</v>
+      <c r="C90" s="73" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" s="79" t="s">
+        <v>380</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="53"/>
+      <c r="F90" s="50"/>
+      <c r="G90" s="51"/>
       <c r="L90" s="40"/>
-      <c r="M90" s="61">
+      <c r="M90" s="59">
         <v>142</v>
       </c>
       <c r="N90" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O90" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P90" s="31" t="s">
         <v>19</v>
@@ -5948,30 +5967,30 @@
       <c r="R90" s="34"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="51">
+      <c r="B91" s="49">
         <v>83</v>
       </c>
-      <c r="C91" s="72" t="s">
-        <v>320</v>
-      </c>
-      <c r="D91" s="72" t="s">
-        <v>394</v>
+      <c r="C91" s="70" t="s">
+        <v>319</v>
+      </c>
+      <c r="D91" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="52"/>
-      <c r="G91" s="53"/>
+      <c r="F91" s="50"/>
+      <c r="G91" s="51"/>
       <c r="L91" s="40"/>
       <c r="M91" s="33">
         <v>141</v>
       </c>
       <c r="N91" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O91" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P91" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q91" s="31" t="s">
         <v>20</v>
@@ -5982,24 +6001,24 @@
       <c r="B92" s="44">
         <v>84</v>
       </c>
-      <c r="C92" s="72" t="s">
-        <v>321</v>
-      </c>
-      <c r="D92" s="72" t="s">
-        <v>372</v>
+      <c r="C92" s="70" t="s">
+        <v>320</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>371</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="52"/>
-      <c r="G92" s="53"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="51"/>
       <c r="L92" s="40"/>
-      <c r="M92" s="61">
+      <c r="M92" s="59">
         <v>142</v>
       </c>
       <c r="N92" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O92" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P92" s="31" t="s">
         <v>19</v>
@@ -6013,24 +6032,24 @@
       <c r="B93" s="44">
         <v>85</v>
       </c>
-      <c r="C93" s="72" t="s">
-        <v>322</v>
-      </c>
-      <c r="D93" s="72" t="s">
-        <v>394</v>
+      <c r="C93" s="70" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="52"/>
-      <c r="G93" s="53"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="51"/>
       <c r="L93" s="40"/>
-      <c r="M93" s="61">
+      <c r="M93" s="59">
         <v>142</v>
       </c>
       <c r="N93" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O93" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P93" s="31" t="s">
         <v>19</v>
@@ -6041,27 +6060,27 @@
       <c r="R93" s="34"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="51">
+      <c r="B94" s="49">
         <v>86</v>
       </c>
-      <c r="C94" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="D94" s="72" t="s">
-        <v>391</v>
+      <c r="C94" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>390</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="52"/>
-      <c r="G94" s="53"/>
+      <c r="F94" s="50"/>
+      <c r="G94" s="51"/>
       <c r="L94" s="40"/>
       <c r="M94" s="33">
         <v>141</v>
       </c>
       <c r="N94" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O94" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P94" s="31" t="s">
         <v>16</v>
@@ -6075,24 +6094,24 @@
       <c r="B95" s="44">
         <v>87</v>
       </c>
-      <c r="C95" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="D95" s="72" t="s">
-        <v>388</v>
+      <c r="C95" s="70" t="s">
+        <v>323</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>387</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="52"/>
-      <c r="G95" s="53"/>
+      <c r="F95" s="50"/>
+      <c r="G95" s="51"/>
       <c r="L95" s="40"/>
-      <c r="M95" s="61">
+      <c r="M95" s="59">
         <v>142</v>
       </c>
       <c r="N95" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P95" s="31" t="s">
         <v>24</v>
@@ -6106,24 +6125,24 @@
       <c r="B96" s="44">
         <v>88</v>
       </c>
-      <c r="C96" s="72" t="s">
-        <v>325</v>
-      </c>
-      <c r="D96" s="72" t="s">
-        <v>372</v>
+      <c r="C96" s="70" t="s">
+        <v>324</v>
+      </c>
+      <c r="D96" s="70" t="s">
+        <v>371</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="53"/>
+      <c r="F96" s="50"/>
+      <c r="G96" s="51"/>
       <c r="L96" s="40"/>
-      <c r="M96" s="61">
+      <c r="M96" s="59">
         <v>142</v>
       </c>
       <c r="N96" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O96" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P96" s="31" t="s">
         <v>19</v>
@@ -6134,27 +6153,27 @@
       <c r="R96" s="34"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="51">
+      <c r="B97" s="49">
         <v>89</v>
       </c>
-      <c r="C97" s="72" t="s">
-        <v>326</v>
-      </c>
-      <c r="D97" s="72" t="s">
+      <c r="C97" s="70" t="s">
+        <v>325</v>
+      </c>
+      <c r="D97" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="52"/>
-      <c r="G97" s="53"/>
+      <c r="F97" s="50"/>
+      <c r="G97" s="51"/>
       <c r="L97" s="40"/>
-      <c r="M97" s="61">
+      <c r="M97" s="59">
         <v>142</v>
       </c>
       <c r="N97" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O97" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P97" s="31" t="s">
         <v>19</v>
@@ -6168,24 +6187,24 @@
       <c r="B98" s="44">
         <v>90</v>
       </c>
-      <c r="C98" s="72" t="s">
-        <v>327</v>
-      </c>
-      <c r="D98" s="72" t="s">
+      <c r="C98" s="70" t="s">
+        <v>326</v>
+      </c>
+      <c r="D98" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="53"/>
+      <c r="F98" s="50"/>
+      <c r="G98" s="51"/>
       <c r="L98" s="40"/>
-      <c r="M98" s="51">
+      <c r="M98" s="49">
         <v>9</v>
       </c>
       <c r="N98" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O98" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P98" s="31" t="s">
         <v>16</v>
@@ -6199,55 +6218,55 @@
       <c r="B99" s="44">
         <v>91</v>
       </c>
-      <c r="C99" s="72" t="s">
+      <c r="C99" s="70" t="s">
+        <v>327</v>
+      </c>
+      <c r="D99" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="E99" s="24"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="51"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="49">
+        <v>4</v>
+      </c>
+      <c r="N99" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O99" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="P99" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q99" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R99" s="34"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B100" s="49">
+        <v>92</v>
+      </c>
+      <c r="C100" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="D99" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="E99" s="24"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="53"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="51">
-        <v>4</v>
-      </c>
-      <c r="N99" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O99" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="P99" s="31" t="s">
+      <c r="D100" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="51"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="59">
+        <v>142</v>
+      </c>
+      <c r="N100" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O100" s="31" t="s">
         <v>128</v>
-      </c>
-      <c r="Q99" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R99" s="34"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="51">
-        <v>92</v>
-      </c>
-      <c r="C100" s="72" t="s">
-        <v>329</v>
-      </c>
-      <c r="D100" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="53"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="61">
-        <v>142</v>
-      </c>
-      <c r="N100" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O100" s="31" t="s">
-        <v>129</v>
       </c>
       <c r="P100" s="31" t="s">
         <v>19</v>
@@ -6261,27 +6280,27 @@
       <c r="B101" s="44">
         <v>93</v>
       </c>
-      <c r="C101" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="D101" s="72" t="s">
-        <v>373</v>
+      <c r="C101" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="D101" s="70" t="s">
+        <v>372</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="53"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="51"/>
       <c r="L101" s="40"/>
-      <c r="M101" s="61">
+      <c r="M101" s="59">
         <v>142</v>
       </c>
       <c r="N101" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O101" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P101" s="31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q101" s="31" t="s">
         <v>20</v>
@@ -6292,58 +6311,58 @@
       <c r="B102" s="44">
         <v>94</v>
       </c>
-      <c r="C102" s="72" t="s">
+      <c r="C102" s="70" t="s">
+        <v>330</v>
+      </c>
+      <c r="D102" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="E102" s="24"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="51"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="59">
+        <v>142</v>
+      </c>
+      <c r="N102" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O102" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="P102" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q102" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R102" s="34"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B103" s="49">
+        <v>95</v>
+      </c>
+      <c r="C103" s="70" t="s">
         <v>331</v>
       </c>
-      <c r="D102" s="72" t="s">
-        <v>379</v>
-      </c>
-      <c r="E102" s="24"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="53"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="61">
-        <v>142</v>
-      </c>
-      <c r="N102" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O102" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="P102" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q102" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R102" s="34"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="51">
-        <v>95</v>
-      </c>
-      <c r="C103" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="D103" s="72" t="s">
-        <v>379</v>
+      <c r="D103" s="70" t="s">
+        <v>378</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="53"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="51"/>
       <c r="L103" s="40"/>
       <c r="M103" s="33">
         <v>7</v>
       </c>
       <c r="N103" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O103" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P103" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q103" s="31" t="s">
         <v>20</v>
@@ -6354,27 +6373,27 @@
       <c r="B104" s="44">
         <v>96</v>
       </c>
-      <c r="C104" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="D104" s="72" t="s">
-        <v>379</v>
+      <c r="C104" s="70" t="s">
+        <v>332</v>
+      </c>
+      <c r="D104" s="70" t="s">
+        <v>378</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="52"/>
-      <c r="G104" s="53"/>
+      <c r="F104" s="50"/>
+      <c r="G104" s="51"/>
       <c r="L104" s="40"/>
-      <c r="M104" s="61">
+      <c r="M104" s="59">
         <v>142</v>
       </c>
       <c r="N104" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O104" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P104" s="31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q104" s="31" t="s">
         <v>20</v>
@@ -6385,58 +6404,58 @@
       <c r="B105" s="44">
         <v>97</v>
       </c>
-      <c r="C105" s="72" t="s">
-        <v>334</v>
-      </c>
-      <c r="D105" s="72" t="s">
-        <v>379</v>
+      <c r="C105" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D105" s="70" t="s">
+        <v>378</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="52"/>
-      <c r="G105" s="53"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="51"/>
       <c r="L105" s="40"/>
       <c r="M105" s="33">
         <v>5</v>
       </c>
       <c r="N105" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O105" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="P105" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="P105" s="31" t="s">
-        <v>135</v>
-      </c>
       <c r="Q105" s="31" t="s">
         <v>20</v>
       </c>
       <c r="R105" s="34"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="51">
+      <c r="B106" s="49">
         <v>98</v>
       </c>
-      <c r="C106" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="D106" s="72" t="s">
+      <c r="C106" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="52"/>
-      <c r="G106" s="53"/>
+      <c r="F106" s="50"/>
+      <c r="G106" s="51"/>
       <c r="L106" s="40"/>
       <c r="M106" s="33">
         <v>6</v>
       </c>
       <c r="N106" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O106" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P106" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q106" s="31" t="s">
         <v>20</v>
@@ -6447,24 +6466,24 @@
       <c r="B107" s="44">
         <v>99</v>
       </c>
-      <c r="C107" s="72" t="s">
-        <v>336</v>
-      </c>
-      <c r="D107" s="72" t="s">
-        <v>39</v>
+      <c r="C107" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="D107" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="52"/>
-      <c r="G107" s="53"/>
+      <c r="F107" s="50"/>
+      <c r="G107" s="51"/>
       <c r="L107" s="40"/>
-      <c r="M107" s="61">
+      <c r="M107" s="59">
         <v>142</v>
       </c>
       <c r="N107" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O107" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P107" s="31" t="s">
         <v>32</v>
@@ -6478,58 +6497,58 @@
       <c r="B108" s="44">
         <v>100</v>
       </c>
-      <c r="C108" s="72" t="s">
+      <c r="C108" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="E108" s="24"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="51"/>
+      <c r="L108" s="40"/>
+      <c r="M108" s="59">
+        <v>142</v>
+      </c>
+      <c r="N108" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O108" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="P108" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q108" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R108" s="34"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B109" s="49">
+        <v>101</v>
+      </c>
+      <c r="C109" s="71" t="s">
         <v>337</v>
       </c>
-      <c r="D108" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="E108" s="24"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="53"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="61">
-        <v>142</v>
-      </c>
-      <c r="N108" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O108" s="31" t="s">
+      <c r="D109" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="E109" s="24"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="51"/>
+      <c r="L109" s="40"/>
+      <c r="M109" s="59">
+        <v>142</v>
+      </c>
+      <c r="N109" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O109" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="P108" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q108" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R108" s="34"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="51">
-        <v>101</v>
-      </c>
-      <c r="C109" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="E109" s="24"/>
-      <c r="F109" s="52"/>
-      <c r="G109" s="53"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="61">
-        <v>142</v>
-      </c>
-      <c r="N109" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O109" s="31" t="s">
-        <v>139</v>
-      </c>
       <c r="P109" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q109" s="31" t="s">
         <v>20</v>
@@ -6540,27 +6559,27 @@
       <c r="B110" s="44">
         <v>102</v>
       </c>
-      <c r="C110" s="73" t="s">
-        <v>339</v>
-      </c>
-      <c r="D110" s="72" t="s">
-        <v>394</v>
+      <c r="C110" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="D110" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="52"/>
-      <c r="G110" s="53"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="51"/>
       <c r="L110" s="40"/>
-      <c r="M110" s="61">
+      <c r="M110" s="59">
         <v>142</v>
       </c>
       <c r="N110" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O110" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P110" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q110" s="31" t="s">
         <v>20</v>
@@ -6571,58 +6590,58 @@
       <c r="B111" s="44">
         <v>103</v>
       </c>
-      <c r="C111" s="73" t="s">
+      <c r="C111" s="71" t="s">
+        <v>339</v>
+      </c>
+      <c r="D111" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="E111" s="24"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="51"/>
+      <c r="L111" s="40"/>
+      <c r="M111" s="59">
+        <v>142</v>
+      </c>
+      <c r="N111" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O111" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="P111" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q111" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R111" s="34"/>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B112" s="49">
+        <v>104</v>
+      </c>
+      <c r="C112" s="71" t="s">
         <v>340</v>
       </c>
-      <c r="D111" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="E111" s="24"/>
-      <c r="F111" s="52"/>
-      <c r="G111" s="53"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="61">
-        <v>142</v>
-      </c>
-      <c r="N111" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O111" s="31" t="s">
+      <c r="D112" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="E112" s="24"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="51"/>
+      <c r="L112" s="40"/>
+      <c r="M112" s="59">
+        <v>142</v>
+      </c>
+      <c r="N112" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="O112" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="P111" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q111" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R111" s="34"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="51">
-        <v>104</v>
-      </c>
-      <c r="C112" s="73" t="s">
-        <v>341</v>
-      </c>
-      <c r="D112" s="72" t="s">
-        <v>394</v>
-      </c>
-      <c r="E112" s="24"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="53"/>
-      <c r="L112" s="40"/>
-      <c r="M112" s="61">
-        <v>142</v>
-      </c>
-      <c r="N112" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="O112" s="31" t="s">
-        <v>142</v>
-      </c>
       <c r="P112" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q112" s="31" t="s">
         <v>20</v>
@@ -6633,27 +6652,27 @@
       <c r="B113" s="44">
         <v>105</v>
       </c>
-      <c r="C113" s="73" t="s">
-        <v>342</v>
-      </c>
-      <c r="D113" s="72" t="s">
-        <v>397</v>
+      <c r="C113" s="71" t="s">
+        <v>341</v>
+      </c>
+      <c r="D113" s="70" t="s">
+        <v>396</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="52"/>
-      <c r="G113" s="53"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="51"/>
       <c r="L113" s="40"/>
-      <c r="M113" s="61">
+      <c r="M113" s="59">
         <v>142</v>
       </c>
       <c r="N113" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O113" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P113" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q113" s="31" t="s">
         <v>20</v>
@@ -6664,24 +6683,24 @@
       <c r="B114" s="44">
         <v>106</v>
       </c>
-      <c r="C114" s="74" t="s">
-        <v>343</v>
-      </c>
-      <c r="D114" s="72" t="s">
-        <v>397</v>
+      <c r="C114" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="D114" s="70" t="s">
+        <v>396</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="53"/>
+      <c r="F114" s="50"/>
+      <c r="G114" s="51"/>
       <c r="L114" s="40"/>
-      <c r="M114" s="61">
+      <c r="M114" s="59">
         <v>142</v>
       </c>
       <c r="N114" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O114" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P114" s="31" t="s">
         <v>24</v>
@@ -6692,27 +6711,27 @@
       <c r="R114" s="34"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="51">
+      <c r="B115" s="49">
         <v>107</v>
       </c>
-      <c r="C115" s="73" t="s">
-        <v>344</v>
-      </c>
-      <c r="D115" s="72" t="s">
-        <v>394</v>
+      <c r="C115" s="71" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="52"/>
-      <c r="G115" s="53"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="51"/>
       <c r="L115" s="40"/>
       <c r="M115" s="33">
         <v>141</v>
       </c>
       <c r="N115" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O115" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P115" s="31" t="s">
         <v>16</v>
@@ -6726,24 +6745,24 @@
       <c r="B116" s="44">
         <v>108</v>
       </c>
-      <c r="C116" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="D116" s="72" t="s">
-        <v>394</v>
+      <c r="C116" s="71" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="53"/>
+      <c r="F116" s="50"/>
+      <c r="G116" s="51"/>
       <c r="L116" s="40"/>
-      <c r="M116" s="61">
+      <c r="M116" s="59">
         <v>142</v>
       </c>
       <c r="N116" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O116" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P116" s="31" t="s">
         <v>16</v>
@@ -6757,24 +6776,24 @@
       <c r="B117" s="44">
         <v>109</v>
       </c>
-      <c r="C117" s="73" t="s">
-        <v>346</v>
-      </c>
-      <c r="D117" s="72" t="s">
-        <v>395</v>
+      <c r="C117" s="71" t="s">
+        <v>345</v>
+      </c>
+      <c r="D117" s="70" t="s">
+        <v>394</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="52"/>
-      <c r="G117" s="53"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="51"/>
       <c r="L117" s="40"/>
       <c r="M117" s="33">
         <v>141</v>
       </c>
       <c r="N117" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O117" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P117" s="31" t="s">
         <v>16</v>
@@ -6785,27 +6804,27 @@
       <c r="R117" s="36"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="51">
+      <c r="B118" s="49">
         <v>110</v>
       </c>
-      <c r="C118" s="73" t="s">
-        <v>347</v>
-      </c>
-      <c r="D118" s="72" t="s">
-        <v>394</v>
+      <c r="C118" s="71" t="s">
+        <v>346</v>
+      </c>
+      <c r="D118" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="53"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="51"/>
       <c r="L118" s="40"/>
-      <c r="M118" s="61">
+      <c r="M118" s="59">
         <v>142</v>
       </c>
       <c r="N118" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O118" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P118" s="31" t="s">
         <v>19</v>
@@ -6819,24 +6838,24 @@
       <c r="B119" s="44">
         <v>111</v>
       </c>
-      <c r="C119" s="73" t="s">
-        <v>348</v>
-      </c>
-      <c r="D119" s="72" t="s">
-        <v>371</v>
+      <c r="C119" s="71" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="70" t="s">
+        <v>370</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="52"/>
-      <c r="G119" s="53"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="51"/>
       <c r="L119" s="40"/>
-      <c r="M119" s="61">
+      <c r="M119" s="59">
         <v>142</v>
       </c>
       <c r="N119" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P119" s="31" t="s">
         <v>16</v>
@@ -6850,24 +6869,24 @@
       <c r="B120" s="44">
         <v>112</v>
       </c>
-      <c r="C120" s="73" t="s">
-        <v>349</v>
-      </c>
-      <c r="D120" s="72" t="s">
-        <v>393</v>
+      <c r="C120" s="71" t="s">
+        <v>348</v>
+      </c>
+      <c r="D120" s="70" t="s">
+        <v>392</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="53"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="51"/>
       <c r="L120" s="40"/>
       <c r="M120" s="33">
         <v>141</v>
       </c>
       <c r="N120" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O120" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P120" s="31" t="s">
         <v>16</v>
@@ -6878,27 +6897,27 @@
       <c r="R120" s="34"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="51">
+      <c r="B121" s="49">
         <v>113</v>
       </c>
-      <c r="C121" s="73" t="s">
-        <v>350</v>
-      </c>
-      <c r="D121" s="72" t="s">
-        <v>39</v>
+      <c r="C121" s="71" t="s">
+        <v>349</v>
+      </c>
+      <c r="D121" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="52"/>
-      <c r="G121" s="53"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="51"/>
       <c r="L121" s="40"/>
-      <c r="M121" s="61">
+      <c r="M121" s="59">
         <v>142</v>
       </c>
       <c r="N121" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O121" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P121" s="31" t="s">
         <v>24</v>
@@ -6912,24 +6931,24 @@
       <c r="B122" s="44">
         <v>114</v>
       </c>
-      <c r="C122" s="73" t="s">
-        <v>351</v>
-      </c>
-      <c r="D122" s="72" t="s">
-        <v>375</v>
+      <c r="C122" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" s="70" t="s">
+        <v>374</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="52"/>
-      <c r="G122" s="53"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="51"/>
       <c r="L122" s="40"/>
-      <c r="M122" s="61">
+      <c r="M122" s="59">
         <v>142</v>
       </c>
       <c r="N122" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O122" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P122" s="31" t="s">
         <v>16</v>
@@ -6943,24 +6962,24 @@
       <c r="B123" s="44">
         <v>115</v>
       </c>
-      <c r="C123" s="73" t="s">
-        <v>352</v>
-      </c>
-      <c r="D123" s="72" t="s">
-        <v>394</v>
+      <c r="C123" s="71" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="52"/>
-      <c r="G123" s="53"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="51"/>
       <c r="L123" s="40"/>
       <c r="M123" s="33">
         <v>141</v>
       </c>
       <c r="N123" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O123" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P123" s="31" t="s">
         <v>16</v>
@@ -6971,27 +6990,27 @@
       <c r="R123" s="34"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="51">
+      <c r="B124" s="49">
         <v>116</v>
       </c>
-      <c r="C124" s="73" t="s">
-        <v>353</v>
-      </c>
-      <c r="D124" s="72" t="s">
-        <v>375</v>
+      <c r="C124" s="71" t="s">
+        <v>352</v>
+      </c>
+      <c r="D124" s="70" t="s">
+        <v>374</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="52"/>
-      <c r="G124" s="53"/>
+      <c r="F124" s="50"/>
+      <c r="G124" s="51"/>
       <c r="L124" s="40"/>
       <c r="M124" s="33">
         <v>141</v>
       </c>
       <c r="N124" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O124" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P124" s="31" t="s">
         <v>16</v>
@@ -7005,24 +7024,24 @@
       <c r="B125" s="44">
         <v>117</v>
       </c>
-      <c r="C125" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="D125" s="72" t="s">
-        <v>394</v>
+      <c r="C125" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="D125" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E125" s="24"/>
-      <c r="F125" s="52"/>
-      <c r="G125" s="53"/>
+      <c r="F125" s="50"/>
+      <c r="G125" s="51"/>
       <c r="L125" s="40"/>
       <c r="M125" s="33">
         <v>141</v>
       </c>
       <c r="N125" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O125" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P125" s="31" t="s">
         <v>16</v>
@@ -7036,24 +7055,24 @@
       <c r="B126" s="44">
         <v>118</v>
       </c>
-      <c r="C126" s="72" t="s">
-        <v>355</v>
-      </c>
-      <c r="D126" s="72" t="s">
-        <v>394</v>
+      <c r="C126" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="D126" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="52"/>
-      <c r="G126" s="53"/>
+      <c r="F126" s="50"/>
+      <c r="G126" s="51"/>
       <c r="L126" s="40"/>
       <c r="M126" s="33">
         <v>141</v>
       </c>
       <c r="N126" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O126" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P126" s="31" t="s">
         <v>16</v>
@@ -7064,27 +7083,27 @@
       <c r="R126" s="34"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="51">
+      <c r="B127" s="49">
         <v>119</v>
       </c>
-      <c r="C127" s="72" t="s">
-        <v>356</v>
-      </c>
-      <c r="D127" s="72" t="s">
-        <v>394</v>
+      <c r="C127" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="D127" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E127" s="24"/>
-      <c r="F127" s="52"/>
-      <c r="G127" s="53"/>
+      <c r="F127" s="50"/>
+      <c r="G127" s="51"/>
       <c r="L127" s="40"/>
-      <c r="M127" s="61">
+      <c r="M127" s="59">
         <v>142</v>
       </c>
       <c r="N127" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O127" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P127" s="31" t="s">
         <v>24</v>
@@ -7098,24 +7117,24 @@
       <c r="B128" s="44">
         <v>120</v>
       </c>
-      <c r="C128" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="D128" s="72" t="s">
-        <v>377</v>
+      <c r="C128" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="D128" s="70" t="s">
+        <v>376</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="52"/>
-      <c r="G128" s="53"/>
+      <c r="F128" s="50"/>
+      <c r="G128" s="51"/>
       <c r="L128" s="40"/>
       <c r="M128" s="33">
         <v>141</v>
       </c>
       <c r="N128" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O128" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P128" s="31" t="s">
         <v>16</v>
@@ -7129,24 +7148,24 @@
       <c r="B129" s="44">
         <v>121</v>
       </c>
-      <c r="C129" s="72" t="s">
-        <v>358</v>
-      </c>
-      <c r="D129" s="72" t="s">
-        <v>396</v>
+      <c r="C129" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="D129" s="70" t="s">
+        <v>395</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="52"/>
-      <c r="G129" s="53"/>
+      <c r="F129" s="50"/>
+      <c r="G129" s="51"/>
       <c r="L129" s="40"/>
-      <c r="M129" s="61">
+      <c r="M129" s="59">
         <v>142</v>
       </c>
       <c r="N129" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O129" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P129" s="31" t="s">
         <v>16</v>
@@ -7157,27 +7176,27 @@
       <c r="R129" s="34"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="51">
+      <c r="B130" s="49">
         <v>122</v>
       </c>
-      <c r="C130" s="72" t="s">
-        <v>359</v>
-      </c>
-      <c r="D130" s="72" t="s">
-        <v>377</v>
+      <c r="C130" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="D130" s="70" t="s">
+        <v>376</v>
       </c>
       <c r="E130" s="24"/>
-      <c r="F130" s="52"/>
-      <c r="G130" s="53"/>
+      <c r="F130" s="50"/>
+      <c r="G130" s="51"/>
       <c r="L130" s="40"/>
-      <c r="M130" s="61">
+      <c r="M130" s="59">
         <v>142</v>
       </c>
       <c r="N130" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O130" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P130" s="31" t="s">
         <v>16</v>
@@ -7191,24 +7210,24 @@
       <c r="B131" s="44">
         <v>123</v>
       </c>
-      <c r="C131" s="72" t="s">
-        <v>360</v>
-      </c>
-      <c r="D131" s="72" t="s">
-        <v>394</v>
+      <c r="C131" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="D131" s="70" t="s">
+        <v>393</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="52"/>
-      <c r="G131" s="53"/>
+      <c r="F131" s="50"/>
+      <c r="G131" s="51"/>
       <c r="L131" s="40"/>
-      <c r="M131" s="61">
+      <c r="M131" s="59">
         <v>142</v>
       </c>
       <c r="N131" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O131" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P131" s="31" t="s">
         <v>24</v>
@@ -7222,24 +7241,24 @@
       <c r="B132" s="44">
         <v>124</v>
       </c>
-      <c r="C132" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="D132" s="72" t="s">
+      <c r="C132" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="52"/>
-      <c r="G132" s="53"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="51"/>
       <c r="L132" s="40"/>
-      <c r="M132" s="61">
+      <c r="M132" s="59">
         <v>142</v>
       </c>
       <c r="N132" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O132" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P132" s="31" t="s">
         <v>24</v>
@@ -7250,30 +7269,30 @@
       <c r="R132" s="34"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="51">
+      <c r="B133" s="49">
         <v>125</v>
       </c>
-      <c r="C133" s="72" t="s">
-        <v>362</v>
-      </c>
-      <c r="D133" s="72" t="s">
+      <c r="C133" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="D133" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="52"/>
-      <c r="G133" s="53"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="51"/>
       <c r="L133" s="40"/>
-      <c r="M133" s="61">
+      <c r="M133" s="59">
         <v>142</v>
       </c>
       <c r="N133" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O133" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P133" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q133" s="31" t="s">
         <v>20</v>
@@ -7284,88 +7303,88 @@
       <c r="B134" s="44">
         <v>126</v>
       </c>
-      <c r="C134" s="72" t="s">
-        <v>411</v>
-      </c>
-      <c r="D134" s="72" t="s">
-        <v>388</v>
+      <c r="C134" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="D134" s="70" t="s">
+        <v>387</v>
       </c>
       <c r="E134" s="24"/>
-      <c r="F134" s="52"/>
-      <c r="G134" s="53"/>
+      <c r="F134" s="50"/>
+      <c r="G134" s="51"/>
       <c r="L134" s="41"/>
-      <c r="M134" s="61">
-        <v>142</v>
-      </c>
-      <c r="N134" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="O134" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="P134" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q134" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="58"/>
+      <c r="M134" s="59">
+        <v>142</v>
+      </c>
+      <c r="N134" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="O134" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="P134" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q134" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="56"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="44">
         <v>127</v>
       </c>
-      <c r="C135" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="D135" s="72" t="s">
-        <v>388</v>
+      <c r="C135" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="D135" s="70" t="s">
+        <v>387</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="52"/>
-      <c r="G135" s="53"/>
-      <c r="L135" s="57"/>
+      <c r="F135" s="50"/>
+      <c r="G135" s="51"/>
+      <c r="L135" s="55"/>
       <c r="M135" s="46">
         <v>135</v>
       </c>
-      <c r="N135" s="62" t="s">
-        <v>236</v>
-      </c>
-      <c r="O135" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="P135" s="62" t="s">
+      <c r="N135" s="60" t="s">
+        <v>235</v>
+      </c>
+      <c r="O135" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="P135" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q135" s="62" t="s">
+      <c r="Q135" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R135" s="55" t="s">
-        <v>38</v>
+      <c r="R135" s="53" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="51">
+      <c r="B136" s="49">
         <v>128</v>
       </c>
-      <c r="C136" s="72" t="s">
-        <v>364</v>
-      </c>
-      <c r="D136" s="72" t="s">
-        <v>398</v>
+      <c r="C136" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="D136" s="70" t="s">
+        <v>397</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="52"/>
-      <c r="G136" s="53"/>
+      <c r="F136" s="50"/>
+      <c r="G136" s="51"/>
       <c r="L136" s="40"/>
       <c r="M136" s="33">
         <v>141</v>
       </c>
       <c r="N136" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O136" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P136" s="31" t="s">
         <v>24</v>
@@ -7379,24 +7398,24 @@
       <c r="B137" s="44">
         <v>129</v>
       </c>
-      <c r="C137" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="D137" s="72" t="s">
-        <v>398</v>
+      <c r="C137" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="D137" s="70" t="s">
+        <v>397</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="52"/>
-      <c r="G137" s="53"/>
+      <c r="F137" s="50"/>
+      <c r="G137" s="51"/>
       <c r="L137" s="40"/>
-      <c r="M137" s="61">
+      <c r="M137" s="59">
         <v>142</v>
       </c>
       <c r="N137" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O137" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P137" s="31" t="s">
         <v>19</v>
@@ -7410,24 +7429,24 @@
       <c r="B138" s="44">
         <v>130</v>
       </c>
-      <c r="C138" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="D138" s="72" t="s">
-        <v>399</v>
+      <c r="C138" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="D138" s="70" t="s">
+        <v>398</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="52"/>
-      <c r="G138" s="53"/>
+      <c r="F138" s="50"/>
+      <c r="G138" s="51"/>
       <c r="L138" s="40"/>
       <c r="M138" s="33">
         <v>141</v>
       </c>
       <c r="N138" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O138" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P138" s="31" t="s">
         <v>24</v>
@@ -7438,27 +7457,27 @@
       <c r="R138" s="34"/>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="51">
+      <c r="B139" s="49">
         <v>131</v>
       </c>
-      <c r="C139" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="D139" s="72" t="s">
-        <v>372</v>
+      <c r="C139" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="D139" s="70" t="s">
+        <v>371</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="52"/>
-      <c r="G139" s="53"/>
+      <c r="F139" s="50"/>
+      <c r="G139" s="51"/>
       <c r="L139" s="40"/>
-      <c r="M139" s="61">
+      <c r="M139" s="59">
         <v>142</v>
       </c>
       <c r="N139" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P139" s="31" t="s">
         <v>19</v>
@@ -7472,24 +7491,24 @@
       <c r="B140" s="44">
         <v>132</v>
       </c>
-      <c r="C140" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="D140" s="72" t="s">
-        <v>39</v>
+      <c r="C140" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="D140" s="70" t="s">
+        <v>38</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="52"/>
-      <c r="G140" s="53"/>
+      <c r="F140" s="50"/>
+      <c r="G140" s="51"/>
       <c r="L140" s="40"/>
       <c r="M140" s="33">
         <v>141</v>
       </c>
       <c r="N140" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P140" s="31" t="s">
         <v>24</v>
@@ -7503,24 +7522,24 @@
       <c r="B141" s="44">
         <v>133</v>
       </c>
-      <c r="C141" s="72" t="s">
-        <v>369</v>
-      </c>
-      <c r="D141" s="72" t="s">
-        <v>371</v>
+      <c r="C141" s="70" t="s">
+        <v>368</v>
+      </c>
+      <c r="D141" s="70" t="s">
+        <v>370</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="52"/>
-      <c r="G141" s="53"/>
+      <c r="F141" s="50"/>
+      <c r="G141" s="51"/>
       <c r="L141" s="40"/>
-      <c r="M141" s="61">
+      <c r="M141" s="59">
         <v>142</v>
       </c>
       <c r="N141" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P141" s="31" t="s">
         <v>19</v>
@@ -7531,27 +7550,27 @@
       <c r="R141" s="34"/>
     </row>
     <row r="142" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="51">
+      <c r="B142" s="49">
         <v>134</v>
       </c>
-      <c r="C142" s="77" t="s">
+      <c r="C142" s="75" t="s">
+        <v>369</v>
+      </c>
+      <c r="D142" s="75" t="s">
         <v>370</v>
       </c>
-      <c r="D142" s="77" t="s">
-        <v>371</v>
-      </c>
       <c r="E142" s="42"/>
-      <c r="F142" s="70"/>
-      <c r="G142" s="71"/>
+      <c r="F142" s="68"/>
+      <c r="G142" s="69"/>
       <c r="L142" s="40"/>
       <c r="M142" s="33">
         <v>141</v>
       </c>
       <c r="N142" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P142" s="31" t="s">
         <v>24</v>
@@ -7563,14 +7582,14 @@
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L143" s="40"/>
-      <c r="M143" s="61">
+      <c r="M143" s="59">
         <v>142</v>
       </c>
       <c r="N143" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P143" s="31" t="s">
         <v>19</v>
@@ -7582,14 +7601,14 @@
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L144" s="40"/>
-      <c r="M144" s="61">
+      <c r="M144" s="59">
         <v>142</v>
       </c>
       <c r="N144" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O144" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P144" s="31" t="s">
         <v>16</v>
@@ -7605,10 +7624,10 @@
         <v>141</v>
       </c>
       <c r="N145" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O145" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P145" s="31" t="s">
         <v>24</v>
@@ -7620,14 +7639,14 @@
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="40"/>
-      <c r="M146" s="61">
+      <c r="M146" s="59">
         <v>142</v>
       </c>
       <c r="N146" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O146" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P146" s="31" t="s">
         <v>19</v>
@@ -7643,10 +7662,10 @@
         <v>141</v>
       </c>
       <c r="N147" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O147" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P147" s="31" t="s">
         <v>24</v>
@@ -7658,14 +7677,14 @@
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="40"/>
-      <c r="M148" s="61">
+      <c r="M148" s="59">
         <v>142</v>
       </c>
       <c r="N148" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O148" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P148" s="31" t="s">
         <v>19</v>
@@ -7681,10 +7700,10 @@
         <v>141</v>
       </c>
       <c r="N149" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O149" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P149" s="31" t="s">
         <v>24</v>
@@ -7696,14 +7715,14 @@
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="40"/>
-      <c r="M150" s="61">
+      <c r="M150" s="59">
         <v>142</v>
       </c>
       <c r="N150" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O150" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P150" s="31" t="s">
         <v>19</v>
@@ -7719,10 +7738,10 @@
         <v>141</v>
       </c>
       <c r="N151" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O151" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P151" s="31" t="s">
         <v>24</v>
@@ -7734,14 +7753,14 @@
     </row>
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="40"/>
-      <c r="M152" s="61">
+      <c r="M152" s="59">
         <v>142</v>
       </c>
       <c r="N152" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O152" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P152" s="31" t="s">
         <v>19</v>
@@ -7757,10 +7776,10 @@
         <v>141</v>
       </c>
       <c r="N153" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O153" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P153" s="31" t="s">
         <v>24</v>
@@ -7772,14 +7791,14 @@
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="40"/>
-      <c r="M154" s="61">
+      <c r="M154" s="59">
         <v>142</v>
       </c>
       <c r="N154" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O154" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P154" s="31" t="s">
         <v>19</v>
@@ -7795,10 +7814,10 @@
         <v>141</v>
       </c>
       <c r="N155" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O155" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P155" s="31" t="s">
         <v>24</v>
@@ -7810,14 +7829,14 @@
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="40"/>
-      <c r="M156" s="61">
+      <c r="M156" s="59">
         <v>142</v>
       </c>
       <c r="N156" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O156" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P156" s="31" t="s">
         <v>19</v>
@@ -7829,14 +7848,14 @@
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="40"/>
-      <c r="M157" s="51">
+      <c r="M157" s="49">
         <v>8</v>
       </c>
       <c r="N157" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O157" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P157" s="31" t="s">
         <v>32</v>
@@ -7848,14 +7867,14 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="40"/>
-      <c r="M158" s="61">
+      <c r="M158" s="59">
         <v>142</v>
       </c>
       <c r="N158" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O158" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P158" s="31" t="s">
         <v>19</v>
@@ -7871,10 +7890,10 @@
         <v>143</v>
       </c>
       <c r="N159" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O159" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P159" s="31" t="s">
         <v>16</v>
@@ -7890,10 +7909,10 @@
         <v>141</v>
       </c>
       <c r="N160" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O160" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P160" s="31" t="s">
         <v>24</v>
@@ -7905,14 +7924,14 @@
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="40"/>
-      <c r="M161" s="61">
+      <c r="M161" s="59">
         <v>142</v>
       </c>
       <c r="N161" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O161" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P161" s="31" t="s">
         <v>19</v>
@@ -7924,14 +7943,14 @@
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="40"/>
-      <c r="M162" s="61">
+      <c r="M162" s="59">
         <v>142</v>
       </c>
       <c r="N162" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O162" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P162" s="31" t="s">
         <v>19</v>
@@ -7947,10 +7966,10 @@
         <v>141</v>
       </c>
       <c r="N163" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O163" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P163" s="31" t="s">
         <v>16</v>
@@ -7966,10 +7985,10 @@
         <v>141</v>
       </c>
       <c r="N164" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O164" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P164" s="31" t="s">
         <v>16</v>
@@ -7981,54 +8000,54 @@
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="40"/>
-      <c r="M165" s="33">
+      <c r="M165" s="118">
         <v>144</v>
       </c>
-      <c r="N165" s="31" t="s">
-        <v>236</v>
-      </c>
-      <c r="O165" s="31" t="s">
+      <c r="N165" s="116" t="s">
+        <v>235</v>
+      </c>
+      <c r="O165" s="116" t="s">
         <v>31</v>
       </c>
-      <c r="P165" s="31" t="s">
+      <c r="P165" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="Q165" s="31" t="s">
+      <c r="Q165" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="R165" s="36" t="s">
-        <v>38</v>
+      <c r="R165" s="117" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="40"/>
-      <c r="M166" s="56">
+      <c r="M166" s="54">
         <v>145</v>
       </c>
-      <c r="N166" s="67" t="s">
-        <v>236</v>
-      </c>
-      <c r="O166" s="67" t="s">
+      <c r="N166" s="65" t="s">
+        <v>235</v>
+      </c>
+      <c r="O166" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="P166" s="67" t="s">
+      <c r="P166" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="Q166" s="67" t="s">
+      <c r="Q166" s="65" t="s">
         <v>20</v>
       </c>
       <c r="R166" s="47"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="40"/>
-      <c r="M167" s="61">
+      <c r="M167" s="59">
         <v>142</v>
       </c>
       <c r="N167" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O167" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P167" s="31" t="s">
         <v>24</v>
@@ -8044,10 +8063,10 @@
         <v>141</v>
       </c>
       <c r="N168" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O168" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P168" s="31" t="s">
         <v>16</v>
@@ -8059,14 +8078,14 @@
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="40"/>
-      <c r="M169" s="61">
+      <c r="M169" s="59">
         <v>142</v>
       </c>
       <c r="N169" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O169" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P169" s="31" t="s">
         <v>24</v>
@@ -8078,14 +8097,14 @@
     </row>
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="40"/>
-      <c r="M170" s="61">
+      <c r="M170" s="59">
         <v>142</v>
       </c>
       <c r="N170" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O170" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P170" s="31" t="s">
         <v>24</v>
@@ -8097,14 +8116,14 @@
     </row>
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="40"/>
-      <c r="M171" s="61">
+      <c r="M171" s="59">
         <v>142</v>
       </c>
       <c r="N171" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O171" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P171" s="31" t="s">
         <v>24</v>
@@ -8120,10 +8139,10 @@
         <v>141</v>
       </c>
       <c r="N172" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O172" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P172" s="31" t="s">
         <v>16</v>
@@ -8135,14 +8154,14 @@
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="40"/>
-      <c r="M173" s="61">
+      <c r="M173" s="59">
         <v>142</v>
       </c>
       <c r="N173" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O173" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P173" s="31" t="s">
         <v>24</v>
@@ -8154,14 +8173,14 @@
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="40"/>
-      <c r="M174" s="61">
+      <c r="M174" s="59">
         <v>142</v>
       </c>
       <c r="N174" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O174" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P174" s="31" t="s">
         <v>24</v>
@@ -8173,14 +8192,14 @@
     </row>
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="40"/>
-      <c r="M175" s="61">
+      <c r="M175" s="59">
         <v>142</v>
       </c>
       <c r="N175" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O175" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P175" s="31" t="s">
         <v>24</v>
@@ -8192,14 +8211,14 @@
     </row>
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="40"/>
-      <c r="M176" s="61">
+      <c r="M176" s="59">
         <v>142</v>
       </c>
       <c r="N176" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O176" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P176" s="31" t="s">
         <v>16</v>
@@ -8211,14 +8230,14 @@
     </row>
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="40"/>
-      <c r="M177" s="61">
+      <c r="M177" s="59">
         <v>142</v>
       </c>
       <c r="N177" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O177" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P177" s="31" t="s">
         <v>24</v>
@@ -8230,14 +8249,14 @@
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="40"/>
-      <c r="M178" s="61">
+      <c r="M178" s="59">
         <v>142</v>
       </c>
       <c r="N178" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O178" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P178" s="31" t="s">
         <v>24</v>
@@ -8249,14 +8268,14 @@
     </row>
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="40"/>
-      <c r="M179" s="61">
+      <c r="M179" s="59">
         <v>142</v>
       </c>
       <c r="N179" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P179" s="31" t="s">
         <v>24</v>
@@ -8268,14 +8287,14 @@
     </row>
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="40"/>
-      <c r="M180" s="61">
+      <c r="M180" s="59">
         <v>142</v>
       </c>
       <c r="N180" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O180" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P180" s="31" t="s">
         <v>24</v>
@@ -8287,14 +8306,14 @@
     </row>
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="40"/>
-      <c r="M181" s="61">
+      <c r="M181" s="59">
         <v>142</v>
       </c>
       <c r="N181" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O181" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P181" s="31" t="s">
         <v>19</v>
@@ -8310,10 +8329,10 @@
         <v>141</v>
       </c>
       <c r="N182" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O182" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P182" s="31" t="s">
         <v>16</v>
@@ -8325,14 +8344,14 @@
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="40"/>
-      <c r="M183" s="61">
+      <c r="M183" s="59">
         <v>142</v>
       </c>
       <c r="N183" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O183" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P183" s="31" t="s">
         <v>19</v>
@@ -8344,14 +8363,14 @@
     </row>
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="40"/>
-      <c r="M184" s="61">
+      <c r="M184" s="59">
         <v>142</v>
       </c>
       <c r="N184" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O184" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P184" s="31" t="s">
         <v>32</v>
@@ -8363,14 +8382,14 @@
     </row>
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="40"/>
-      <c r="M185" s="61">
+      <c r="M185" s="59">
         <v>142</v>
       </c>
       <c r="N185" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O185" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P185" s="31" t="s">
         <v>24</v>
@@ -8382,14 +8401,14 @@
     </row>
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="40"/>
-      <c r="M186" s="61">
+      <c r="M186" s="59">
         <v>142</v>
       </c>
       <c r="N186" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O186" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P186" s="31" t="s">
         <v>24</v>
@@ -8401,14 +8420,14 @@
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="40"/>
-      <c r="M187" s="61">
+      <c r="M187" s="59">
         <v>142</v>
       </c>
       <c r="N187" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O187" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P187" s="31" t="s">
         <v>19</v>
@@ -8420,14 +8439,14 @@
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="40"/>
-      <c r="M188" s="61">
+      <c r="M188" s="59">
         <v>142</v>
       </c>
       <c r="N188" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O188" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P188" s="31" t="s">
         <v>16</v>
@@ -8443,10 +8462,10 @@
         <v>141</v>
       </c>
       <c r="N189" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O189" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P189" s="31" t="s">
         <v>16</v>
@@ -8462,10 +8481,10 @@
         <v>141</v>
       </c>
       <c r="N190" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O190" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P190" s="31" t="s">
         <v>24</v>
@@ -8481,10 +8500,10 @@
         <v>141</v>
       </c>
       <c r="N191" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O191" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P191" s="31" t="s">
         <v>16</v>
@@ -8500,10 +8519,10 @@
         <v>141</v>
       </c>
       <c r="N192" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O192" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P192" s="31" t="s">
         <v>16</v>
@@ -8515,14 +8534,14 @@
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="40"/>
-      <c r="M193" s="61">
+      <c r="M193" s="59">
         <v>142</v>
       </c>
       <c r="N193" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O193" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P193" s="31" t="s">
         <v>24</v>
@@ -8538,13 +8557,13 @@
         <v>141</v>
       </c>
       <c r="N194" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O194" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P194" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q194" s="31" t="s">
         <v>20</v>
@@ -8553,14 +8572,14 @@
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="40"/>
-      <c r="M195" s="61">
+      <c r="M195" s="59">
         <v>142</v>
       </c>
       <c r="N195" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O195" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P195" s="31" t="s">
         <v>16</v>
@@ -8572,17 +8591,17 @@
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="40"/>
-      <c r="M196" s="61">
+      <c r="M196" s="59">
         <v>142</v>
       </c>
       <c r="N196" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O196" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P196" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q196" s="31" t="s">
         <v>20</v>
@@ -8591,17 +8610,17 @@
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="40"/>
-      <c r="M197" s="61">
+      <c r="M197" s="59">
         <v>142</v>
       </c>
       <c r="N197" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O197" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P197" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q197" s="31" t="s">
         <v>20</v>
@@ -8614,10 +8633,10 @@
         <v>141</v>
       </c>
       <c r="N198" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O198" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P198" s="31" t="s">
         <v>16</v>
@@ -8633,10 +8652,10 @@
         <v>141</v>
       </c>
       <c r="N199" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O199" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P199" s="31" t="s">
         <v>16</v>
@@ -8648,14 +8667,14 @@
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="40"/>
-      <c r="M200" s="61">
+      <c r="M200" s="59">
         <v>142</v>
       </c>
       <c r="N200" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O200" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P200" s="31" t="s">
         <v>19</v>
@@ -8671,10 +8690,10 @@
         <v>141</v>
       </c>
       <c r="N201" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O201" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P201" s="31" t="s">
         <v>16</v>
@@ -8686,14 +8705,14 @@
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="40"/>
-      <c r="M202" s="61">
+      <c r="M202" s="59">
         <v>142</v>
       </c>
       <c r="N202" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O202" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P202" s="31" t="s">
         <v>24</v>
@@ -8705,14 +8724,14 @@
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="40"/>
-      <c r="M203" s="61">
+      <c r="M203" s="59">
         <v>142</v>
       </c>
       <c r="N203" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O203" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P203" s="31" t="s">
         <v>24</v>
@@ -8724,14 +8743,14 @@
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="40"/>
-      <c r="M204" s="61">
+      <c r="M204" s="59">
         <v>142</v>
       </c>
       <c r="N204" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O204" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P204" s="31" t="s">
         <v>24</v>
@@ -8743,14 +8762,14 @@
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="40"/>
-      <c r="M205" s="61">
+      <c r="M205" s="59">
         <v>142</v>
       </c>
       <c r="N205" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O205" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P205" s="31" t="s">
         <v>24</v>
@@ -8762,17 +8781,17 @@
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="40"/>
-      <c r="M206" s="61">
+      <c r="M206" s="59">
         <v>142</v>
       </c>
       <c r="N206" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O206" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P206" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q206" s="31" t="s">
         <v>20</v>
@@ -8781,14 +8800,14 @@
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="40"/>
-      <c r="M207" s="61">
+      <c r="M207" s="59">
         <v>142</v>
       </c>
       <c r="N207" s="31" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O207" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P207" s="31" t="s">
         <v>16</v>
@@ -8800,14 +8819,14 @@
     </row>
     <row r="208" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="L208" s="41"/>
-      <c r="M208" s="85">
+      <c r="M208" s="83">
         <v>142</v>
       </c>
       <c r="N208" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O208" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P208" s="38" t="s">
         <v>16</v>

--- a/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="424">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -2571,6 +2571,17 @@
     <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2628,17 +2639,6 @@
     <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="86">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3117,7 +3117,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3127,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M165" sqref="M165:R165"/>
+    <sheetView tabSelected="1" topLeftCell="K196" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3167,28 +3167,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="E2" s="99"/>
-      <c r="F2" s="100"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="96"/>
-      <c r="J2" s="97"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="110"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="112"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
@@ -3199,13 +3199,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="113"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="113"/>
+      <c r="H4" s="94"/>
       <c r="I4" s="24" t="s">
         <v>422</v>
       </c>
@@ -3216,13 +3216,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="111" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="105"/>
-      <c r="F5" s="106"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="114"/>
+      <c r="H5" s="95"/>
       <c r="I5" s="28" t="s">
         <v>423</v>
       </c>
@@ -3237,29 +3237,29 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="111"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="93" t="s">
+      <c r="M7" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="101"/>
+      <c r="P7" s="101"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="101"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3406,7 +3406,9 @@
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="87"/>
+      <c r="G11" s="87" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" s="89"/>
       <c r="I11" s="33">
         <v>137</v>
@@ -4738,22 +4740,22 @@
       <c r="F51" s="50"/>
       <c r="G51" s="51"/>
       <c r="L51" s="40"/>
-      <c r="M51" s="115">
+      <c r="M51" s="96">
         <v>144</v>
       </c>
-      <c r="N51" s="116" t="s">
+      <c r="N51" s="97" t="s">
         <v>162</v>
       </c>
-      <c r="O51" s="116" t="s">
+      <c r="O51" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="116" t="s">
+      <c r="P51" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="Q51" s="116" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="117"/>
+      <c r="Q51" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="98"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="49">
@@ -8000,22 +8002,22 @@
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="40"/>
-      <c r="M165" s="118">
+      <c r="M165" s="99">
         <v>144</v>
       </c>
-      <c r="N165" s="116" t="s">
+      <c r="N165" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="O165" s="116" t="s">
+      <c r="O165" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="P165" s="116" t="s">
+      <c r="P165" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q165" s="116" t="s">
+      <c r="Q165" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="R165" s="117" t="s">
+      <c r="R165" s="98" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="425">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1474,6 +1474,9 @@
   </si>
   <si>
     <t>Fecha de inicio del registro</t>
+  </si>
+  <si>
+    <t>COD_PRTF</t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3125,10 +3128,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R208"/>
+  <dimension ref="B1:R209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K196" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4895,14 +4898,14 @@
       <c r="F56" s="50"/>
       <c r="G56" s="51"/>
       <c r="L56" s="40"/>
-      <c r="M56" s="59">
+      <c r="M56" s="62">
         <v>142</v>
       </c>
       <c r="N56" s="31" t="s">
         <v>162</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>46</v>
@@ -4912,7 +4915,7 @@
       </c>
       <c r="R56" s="36"/>
     </row>
-    <row r="57" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B57" s="44">
         <v>49</v>
       </c>
@@ -4925,25 +4928,25 @@
       <c r="E57" s="24"/>
       <c r="F57" s="50"/>
       <c r="G57" s="51"/>
-      <c r="L57" s="41"/>
+      <c r="L57" s="40"/>
       <c r="M57" s="59">
         <v>142</v>
       </c>
-      <c r="N57" s="58" t="s">
+      <c r="N57" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="O57" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="P57" s="58" t="s">
+      <c r="O57" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P57" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="Q57" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="52"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="36"/>
+    </row>
+    <row r="58" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B58" s="49">
         <v>50</v>
       </c>
@@ -4956,25 +4959,23 @@
       <c r="E58" s="24"/>
       <c r="F58" s="50"/>
       <c r="G58" s="51"/>
-      <c r="L58" s="55"/>
-      <c r="M58" s="46">
-        <v>135</v>
-      </c>
-      <c r="N58" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="O58" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="P58" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q58" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="R58" s="53" t="s">
-        <v>37</v>
-      </c>
+      <c r="L58" s="41"/>
+      <c r="M58" s="59">
+        <v>142</v>
+      </c>
+      <c r="N58" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="O58" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="P58" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="52"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B59" s="44">
@@ -4989,23 +4990,25 @@
       <c r="E59" s="24"/>
       <c r="F59" s="50"/>
       <c r="G59" s="51"/>
-      <c r="L59" s="40"/>
-      <c r="M59" s="33">
-        <v>141</v>
-      </c>
-      <c r="N59" s="31" t="s">
+      <c r="L59" s="55"/>
+      <c r="M59" s="46">
+        <v>135</v>
+      </c>
+      <c r="N59" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="O59" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="P59" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="34"/>
+      <c r="O59" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="P59" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="R59" s="53" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B60" s="44">
@@ -5028,7 +5031,7 @@
         <v>163</v>
       </c>
       <c r="O60" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P60" s="31" t="s">
         <v>24</v>
@@ -5053,16 +5056,16 @@
       <c r="G61" s="51"/>
       <c r="L61" s="40"/>
       <c r="M61" s="33">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="N61" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O61" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P61" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q61" s="31" t="s">
         <v>20</v>
@@ -5083,14 +5086,14 @@
       <c r="F62" s="50"/>
       <c r="G62" s="51"/>
       <c r="L62" s="40"/>
-      <c r="M62" s="59">
-        <v>142</v>
+      <c r="M62" s="33">
+        <v>67</v>
       </c>
       <c r="N62" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O62" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P62" s="31" t="s">
         <v>19</v>
@@ -5121,7 +5124,7 @@
         <v>163</v>
       </c>
       <c r="O63" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P63" s="31" t="s">
         <v>19</v>
@@ -5145,17 +5148,17 @@
       <c r="F64" s="50"/>
       <c r="G64" s="51"/>
       <c r="L64" s="40"/>
-      <c r="M64" s="33">
-        <v>141</v>
+      <c r="M64" s="59">
+        <v>142</v>
       </c>
       <c r="N64" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O64" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P64" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q64" s="31" t="s">
         <v>20</v>
@@ -5176,17 +5179,17 @@
       <c r="F65" s="50"/>
       <c r="G65" s="51"/>
       <c r="L65" s="40"/>
-      <c r="M65" s="59">
-        <v>142</v>
+      <c r="M65" s="33">
+        <v>141</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O65" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P65" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q65" s="31" t="s">
         <v>20</v>
@@ -5207,17 +5210,17 @@
       <c r="F66" s="50"/>
       <c r="G66" s="51"/>
       <c r="L66" s="40"/>
-      <c r="M66" s="33">
-        <v>141</v>
+      <c r="M66" s="59">
+        <v>142</v>
       </c>
       <c r="N66" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O66" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P66" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q66" s="31" t="s">
         <v>20</v>
@@ -5238,17 +5241,17 @@
       <c r="F67" s="50"/>
       <c r="G67" s="51"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="59">
-        <v>142</v>
+      <c r="M67" s="33">
+        <v>141</v>
       </c>
       <c r="N67" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O67" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P67" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q67" s="31" t="s">
         <v>20</v>
@@ -5269,17 +5272,17 @@
       <c r="F68" s="50"/>
       <c r="G68" s="51"/>
       <c r="L68" s="40"/>
-      <c r="M68" s="33">
-        <v>141</v>
+      <c r="M68" s="59">
+        <v>142</v>
       </c>
       <c r="N68" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O68" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P68" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q68" s="31" t="s">
         <v>20</v>
@@ -5300,17 +5303,17 @@
       <c r="F69" s="50"/>
       <c r="G69" s="51"/>
       <c r="L69" s="40"/>
-      <c r="M69" s="59">
-        <v>142</v>
+      <c r="M69" s="33">
+        <v>141</v>
       </c>
       <c r="N69" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O69" s="31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P69" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q69" s="31" t="s">
         <v>20</v>
@@ -5331,17 +5334,17 @@
       <c r="F70" s="50"/>
       <c r="G70" s="51"/>
       <c r="L70" s="40"/>
-      <c r="M70" s="33">
-        <v>141</v>
+      <c r="M70" s="59">
+        <v>142</v>
       </c>
       <c r="N70" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O70" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P70" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q70" s="31" t="s">
         <v>20</v>
@@ -5369,7 +5372,7 @@
         <v>163</v>
       </c>
       <c r="O71" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P71" s="31" t="s">
         <v>24</v>
@@ -5393,17 +5396,17 @@
       <c r="F72" s="50"/>
       <c r="G72" s="51"/>
       <c r="L72" s="40"/>
-      <c r="M72" s="59">
-        <v>142</v>
+      <c r="M72" s="33">
+        <v>141</v>
       </c>
       <c r="N72" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O72" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P72" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q72" s="31" t="s">
         <v>20</v>
@@ -5424,17 +5427,17 @@
       <c r="F73" s="50"/>
       <c r="G73" s="51"/>
       <c r="L73" s="40"/>
-      <c r="M73" s="33">
-        <v>141</v>
+      <c r="M73" s="59">
+        <v>142</v>
       </c>
       <c r="N73" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O73" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P73" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q73" s="31" t="s">
         <v>20</v>
@@ -5455,17 +5458,17 @@
       <c r="F74" s="50"/>
       <c r="G74" s="51"/>
       <c r="L74" s="40"/>
-      <c r="M74" s="59">
-        <v>142</v>
+      <c r="M74" s="33">
+        <v>141</v>
       </c>
       <c r="N74" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O74" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P74" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q74" s="31" t="s">
         <v>20</v>
@@ -5486,17 +5489,17 @@
       <c r="F75" s="50"/>
       <c r="G75" s="51"/>
       <c r="L75" s="40"/>
-      <c r="M75" s="33">
-        <v>141</v>
+      <c r="M75" s="59">
+        <v>142</v>
       </c>
       <c r="N75" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O75" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P75" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q75" s="31" t="s">
         <v>20</v>
@@ -5517,17 +5520,17 @@
       <c r="F76" s="50"/>
       <c r="G76" s="51"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="59">
-        <v>142</v>
+      <c r="M76" s="33">
+        <v>141</v>
       </c>
       <c r="N76" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O76" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P76" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q76" s="31" t="s">
         <v>20</v>
@@ -5548,17 +5551,17 @@
       <c r="F77" s="50"/>
       <c r="G77" s="51"/>
       <c r="L77" s="40"/>
-      <c r="M77" s="33">
-        <v>141</v>
+      <c r="M77" s="59">
+        <v>142</v>
       </c>
       <c r="N77" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O77" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P77" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q77" s="31" t="s">
         <v>20</v>
@@ -5579,17 +5582,17 @@
       <c r="F78" s="50"/>
       <c r="G78" s="51"/>
       <c r="L78" s="40"/>
-      <c r="M78" s="59">
-        <v>142</v>
+      <c r="M78" s="33">
+        <v>141</v>
       </c>
       <c r="N78" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O78" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P78" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q78" s="31" t="s">
         <v>20</v>
@@ -5610,17 +5613,17 @@
       <c r="F79" s="50"/>
       <c r="G79" s="51"/>
       <c r="L79" s="40"/>
-      <c r="M79" s="33">
-        <v>141</v>
+      <c r="M79" s="59">
+        <v>142</v>
       </c>
       <c r="N79" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O79" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P79" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q79" s="31" t="s">
         <v>20</v>
@@ -5641,17 +5644,17 @@
       <c r="F80" s="50"/>
       <c r="G80" s="51"/>
       <c r="L80" s="40"/>
-      <c r="M80" s="59">
-        <v>142</v>
+      <c r="M80" s="33">
+        <v>141</v>
       </c>
       <c r="N80" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O80" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P80" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q80" s="31" t="s">
         <v>20</v>
@@ -5672,17 +5675,17 @@
       <c r="F81" s="50"/>
       <c r="G81" s="51"/>
       <c r="L81" s="40"/>
-      <c r="M81" s="33">
-        <v>141</v>
+      <c r="M81" s="59">
+        <v>142</v>
       </c>
       <c r="N81" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O81" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P81" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q81" s="31" t="s">
         <v>20</v>
@@ -5703,22 +5706,22 @@
       <c r="F82" s="50"/>
       <c r="G82" s="51"/>
       <c r="L82" s="40"/>
-      <c r="M82" s="59">
-        <v>142</v>
+      <c r="M82" s="33">
+        <v>141</v>
       </c>
       <c r="N82" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O82" s="31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P82" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q82" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R82" s="36"/>
+      <c r="R82" s="34"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="44">
@@ -5734,22 +5737,22 @@
       <c r="F83" s="50"/>
       <c r="G83" s="51"/>
       <c r="L83" s="40"/>
-      <c r="M83" s="33">
-        <v>141</v>
+      <c r="M83" s="59">
+        <v>142</v>
       </c>
       <c r="N83" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O83" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P83" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q83" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R83" s="34"/>
+      <c r="R83" s="36"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="44">
@@ -5765,17 +5768,17 @@
       <c r="F84" s="50"/>
       <c r="G84" s="51"/>
       <c r="L84" s="40"/>
-      <c r="M84" s="59">
-        <v>142</v>
+      <c r="M84" s="33">
+        <v>141</v>
       </c>
       <c r="N84" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O84" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P84" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q84" s="31" t="s">
         <v>20</v>
@@ -5796,22 +5799,22 @@
       <c r="F85" s="50"/>
       <c r="G85" s="51"/>
       <c r="L85" s="40"/>
-      <c r="M85" s="33">
-        <v>141</v>
+      <c r="M85" s="59">
+        <v>142</v>
       </c>
       <c r="N85" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O85" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P85" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q85" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R85" s="36"/>
+      <c r="R85" s="34"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="44">
@@ -5827,22 +5830,22 @@
       <c r="F86" s="50"/>
       <c r="G86" s="51"/>
       <c r="L86" s="40"/>
-      <c r="M86" s="59">
-        <v>142</v>
+      <c r="M86" s="33">
+        <v>141</v>
       </c>
       <c r="N86" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O86" s="31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P86" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q86" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R86" s="34"/>
+      <c r="R86" s="36"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="44">
@@ -5858,22 +5861,22 @@
       <c r="F87" s="50"/>
       <c r="G87" s="51"/>
       <c r="L87" s="40"/>
-      <c r="M87" s="33">
-        <v>141</v>
+      <c r="M87" s="59">
+        <v>142</v>
       </c>
       <c r="N87" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O87" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P87" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q87" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R87" s="36"/>
+      <c r="R87" s="34"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="49">
@@ -5889,17 +5892,17 @@
       <c r="F88" s="50"/>
       <c r="G88" s="51"/>
       <c r="L88" s="40"/>
-      <c r="M88" s="59">
-        <v>142</v>
+      <c r="M88" s="33">
+        <v>141</v>
       </c>
       <c r="N88" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O88" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P88" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q88" s="31" t="s">
         <v>20</v>
@@ -5920,22 +5923,22 @@
       <c r="F89" s="50"/>
       <c r="G89" s="51"/>
       <c r="L89" s="40"/>
-      <c r="M89" s="33">
-        <v>141</v>
+      <c r="M89" s="59">
+        <v>142</v>
       </c>
       <c r="N89" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O89" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P89" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q89" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R89" s="34"/>
+      <c r="R89" s="36"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="44">
@@ -5951,17 +5954,17 @@
       <c r="F90" s="50"/>
       <c r="G90" s="51"/>
       <c r="L90" s="40"/>
-      <c r="M90" s="59">
-        <v>142</v>
+      <c r="M90" s="33">
+        <v>141</v>
       </c>
       <c r="N90" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O90" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P90" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q90" s="31" t="s">
         <v>20</v>
@@ -5982,17 +5985,17 @@
       <c r="F91" s="50"/>
       <c r="G91" s="51"/>
       <c r="L91" s="40"/>
-      <c r="M91" s="33">
-        <v>141</v>
+      <c r="M91" s="59">
+        <v>142</v>
       </c>
       <c r="N91" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O91" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P91" s="31" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="Q91" s="31" t="s">
         <v>20</v>
@@ -6013,17 +6016,17 @@
       <c r="F92" s="50"/>
       <c r="G92" s="51"/>
       <c r="L92" s="40"/>
-      <c r="M92" s="59">
-        <v>142</v>
+      <c r="M92" s="33">
+        <v>141</v>
       </c>
       <c r="N92" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O92" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P92" s="31" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q92" s="31" t="s">
         <v>20</v>
@@ -6051,7 +6054,7 @@
         <v>163</v>
       </c>
       <c r="O93" s="31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P93" s="31" t="s">
         <v>19</v>
@@ -6075,17 +6078,17 @@
       <c r="F94" s="50"/>
       <c r="G94" s="51"/>
       <c r="L94" s="40"/>
-      <c r="M94" s="33">
-        <v>141</v>
+      <c r="M94" s="59">
+        <v>142</v>
       </c>
       <c r="N94" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O94" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P94" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q94" s="31" t="s">
         <v>20</v>
@@ -6106,17 +6109,17 @@
       <c r="F95" s="50"/>
       <c r="G95" s="51"/>
       <c r="L95" s="40"/>
-      <c r="M95" s="59">
-        <v>142</v>
+      <c r="M95" s="33">
+        <v>141</v>
       </c>
       <c r="N95" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O95" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P95" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q95" s="31" t="s">
         <v>20</v>
@@ -6144,10 +6147,10 @@
         <v>163</v>
       </c>
       <c r="O96" s="31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P96" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q96" s="31" t="s">
         <v>20</v>
@@ -6175,7 +6178,7 @@
         <v>163</v>
       </c>
       <c r="O97" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P97" s="31" t="s">
         <v>19</v>
@@ -6199,17 +6202,17 @@
       <c r="F98" s="50"/>
       <c r="G98" s="51"/>
       <c r="L98" s="40"/>
-      <c r="M98" s="49">
-        <v>9</v>
+      <c r="M98" s="59">
+        <v>142</v>
       </c>
       <c r="N98" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O98" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P98" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q98" s="31" t="s">
         <v>20</v>
@@ -6231,16 +6234,16 @@
       <c r="G99" s="51"/>
       <c r="L99" s="40"/>
       <c r="M99" s="49">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N99" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O99" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P99" s="31" t="s">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="Q99" s="31" t="s">
         <v>20</v>
@@ -6261,17 +6264,17 @@
       <c r="F100" s="50"/>
       <c r="G100" s="51"/>
       <c r="L100" s="40"/>
-      <c r="M100" s="59">
-        <v>142</v>
+      <c r="M100" s="49">
+        <v>4</v>
       </c>
       <c r="N100" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O100" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P100" s="31" t="s">
-        <v>19</v>
+        <v>127</v>
       </c>
       <c r="Q100" s="31" t="s">
         <v>20</v>
@@ -6299,10 +6302,10 @@
         <v>163</v>
       </c>
       <c r="O101" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P101" s="31" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="Q101" s="31" t="s">
         <v>20</v>
@@ -6330,7 +6333,7 @@
         <v>163</v>
       </c>
       <c r="O102" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P102" s="31" t="s">
         <v>39</v>
@@ -6354,17 +6357,17 @@
       <c r="F103" s="50"/>
       <c r="G103" s="51"/>
       <c r="L103" s="40"/>
-      <c r="M103" s="33">
-        <v>7</v>
+      <c r="M103" s="59">
+        <v>142</v>
       </c>
       <c r="N103" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O103" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P103" s="31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q103" s="31" t="s">
         <v>20</v>
@@ -6385,14 +6388,14 @@
       <c r="F104" s="50"/>
       <c r="G104" s="51"/>
       <c r="L104" s="40"/>
-      <c r="M104" s="59">
-        <v>142</v>
+      <c r="M104" s="33">
+        <v>7</v>
       </c>
       <c r="N104" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O104" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P104" s="31" t="s">
         <v>36</v>
@@ -6416,17 +6419,17 @@
       <c r="F105" s="50"/>
       <c r="G105" s="51"/>
       <c r="L105" s="40"/>
-      <c r="M105" s="33">
-        <v>5</v>
+      <c r="M105" s="59">
+        <v>142</v>
       </c>
       <c r="N105" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O105" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P105" s="31" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="Q105" s="31" t="s">
         <v>20</v>
@@ -6448,13 +6451,13 @@
       <c r="G106" s="51"/>
       <c r="L106" s="40"/>
       <c r="M106" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N106" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O106" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P106" s="31" t="s">
         <v>134</v>
@@ -6478,17 +6481,17 @@
       <c r="F107" s="50"/>
       <c r="G107" s="51"/>
       <c r="L107" s="40"/>
-      <c r="M107" s="59">
-        <v>142</v>
+      <c r="M107" s="33">
+        <v>6</v>
       </c>
       <c r="N107" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O107" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P107" s="31" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
       <c r="Q107" s="31" t="s">
         <v>20</v>
@@ -6516,10 +6519,10 @@
         <v>163</v>
       </c>
       <c r="O108" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="P108" s="31" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="Q108" s="31" t="s">
         <v>20</v>
@@ -6547,7 +6550,7 @@
         <v>163</v>
       </c>
       <c r="O109" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="P109" s="31" t="s">
         <v>127</v>
@@ -6578,7 +6581,7 @@
         <v>163</v>
       </c>
       <c r="O110" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P110" s="31" t="s">
         <v>127</v>
@@ -6609,7 +6612,7 @@
         <v>163</v>
       </c>
       <c r="O111" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P111" s="31" t="s">
         <v>127</v>
@@ -6640,7 +6643,7 @@
         <v>163</v>
       </c>
       <c r="O112" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P112" s="31" t="s">
         <v>127</v>
@@ -6671,7 +6674,7 @@
         <v>163</v>
       </c>
       <c r="O113" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P113" s="31" t="s">
         <v>127</v>
@@ -6702,10 +6705,10 @@
         <v>163</v>
       </c>
       <c r="O114" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P114" s="31" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="Q114" s="31" t="s">
         <v>20</v>
@@ -6726,17 +6729,17 @@
       <c r="F115" s="50"/>
       <c r="G115" s="51"/>
       <c r="L115" s="40"/>
-      <c r="M115" s="33">
-        <v>141</v>
+      <c r="M115" s="59">
+        <v>142</v>
       </c>
       <c r="N115" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O115" s="31" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="P115" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q115" s="31" t="s">
         <v>20</v>
@@ -6757,14 +6760,14 @@
       <c r="F116" s="50"/>
       <c r="G116" s="51"/>
       <c r="L116" s="40"/>
-      <c r="M116" s="59">
-        <v>142</v>
+      <c r="M116" s="33">
+        <v>141</v>
       </c>
       <c r="N116" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O116" s="31" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="P116" s="31" t="s">
         <v>16</v>
@@ -6788,14 +6791,14 @@
       <c r="F117" s="50"/>
       <c r="G117" s="51"/>
       <c r="L117" s="40"/>
-      <c r="M117" s="33">
-        <v>141</v>
+      <c r="M117" s="59">
+        <v>142</v>
       </c>
       <c r="N117" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O117" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P117" s="31" t="s">
         <v>16</v>
@@ -6803,7 +6806,7 @@
       <c r="Q117" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R117" s="36"/>
+      <c r="R117" s="34"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B118" s="49">
@@ -6819,17 +6822,17 @@
       <c r="F118" s="50"/>
       <c r="G118" s="51"/>
       <c r="L118" s="40"/>
-      <c r="M118" s="59">
-        <v>142</v>
+      <c r="M118" s="33">
+        <v>141</v>
       </c>
       <c r="N118" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O118" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P118" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q118" s="31" t="s">
         <v>20</v>
@@ -6857,10 +6860,10 @@
         <v>163</v>
       </c>
       <c r="O119" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P119" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q119" s="31" t="s">
         <v>20</v>
@@ -6881,14 +6884,14 @@
       <c r="F120" s="50"/>
       <c r="G120" s="51"/>
       <c r="L120" s="40"/>
-      <c r="M120" s="33">
-        <v>141</v>
+      <c r="M120" s="59">
+        <v>142</v>
       </c>
       <c r="N120" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O120" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P120" s="31" t="s">
         <v>16</v>
@@ -6896,7 +6899,7 @@
       <c r="Q120" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R120" s="34"/>
+      <c r="R120" s="36"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B121" s="49">
@@ -6912,17 +6915,17 @@
       <c r="F121" s="50"/>
       <c r="G121" s="51"/>
       <c r="L121" s="40"/>
-      <c r="M121" s="59">
-        <v>142</v>
+      <c r="M121" s="33">
+        <v>141</v>
       </c>
       <c r="N121" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O121" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P121" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q121" s="31" t="s">
         <v>20</v>
@@ -6950,10 +6953,10 @@
         <v>163</v>
       </c>
       <c r="O122" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P122" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q122" s="31" t="s">
         <v>20</v>
@@ -6974,14 +6977,14 @@
       <c r="F123" s="50"/>
       <c r="G123" s="51"/>
       <c r="L123" s="40"/>
-      <c r="M123" s="33">
-        <v>141</v>
+      <c r="M123" s="59">
+        <v>142</v>
       </c>
       <c r="N123" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O123" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P123" s="31" t="s">
         <v>16</v>
@@ -7012,7 +7015,7 @@
         <v>163</v>
       </c>
       <c r="O124" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P124" s="31" t="s">
         <v>16</v>
@@ -7043,7 +7046,7 @@
         <v>163</v>
       </c>
       <c r="O125" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P125" s="31" t="s">
         <v>16</v>
@@ -7074,7 +7077,7 @@
         <v>163</v>
       </c>
       <c r="O126" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P126" s="31" t="s">
         <v>16</v>
@@ -7098,17 +7101,17 @@
       <c r="F127" s="50"/>
       <c r="G127" s="51"/>
       <c r="L127" s="40"/>
-      <c r="M127" s="59">
-        <v>142</v>
+      <c r="M127" s="33">
+        <v>141</v>
       </c>
       <c r="N127" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O127" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P127" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q127" s="31" t="s">
         <v>20</v>
@@ -7129,17 +7132,17 @@
       <c r="F128" s="50"/>
       <c r="G128" s="51"/>
       <c r="L128" s="40"/>
-      <c r="M128" s="33">
-        <v>141</v>
+      <c r="M128" s="59">
+        <v>142</v>
       </c>
       <c r="N128" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O128" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P128" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q128" s="31" t="s">
         <v>20</v>
@@ -7160,14 +7163,14 @@
       <c r="F129" s="50"/>
       <c r="G129" s="51"/>
       <c r="L129" s="40"/>
-      <c r="M129" s="59">
-        <v>142</v>
+      <c r="M129" s="33">
+        <v>141</v>
       </c>
       <c r="N129" s="31" t="s">
         <v>163</v>
       </c>
       <c r="O129" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P129" s="31" t="s">
         <v>16</v>
@@ -7198,7 +7201,7 @@
         <v>163</v>
       </c>
       <c r="O130" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P130" s="31" t="s">
         <v>16</v>
@@ -7229,10 +7232,10 @@
         <v>163</v>
       </c>
       <c r="O131" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P131" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q131" s="31" t="s">
         <v>20</v>
@@ -7260,7 +7263,7 @@
         <v>163</v>
       </c>
       <c r="O132" s="31" t="s">
-        <v>417</v>
+        <v>159</v>
       </c>
       <c r="P132" s="31" t="s">
         <v>24</v>
@@ -7291,17 +7294,17 @@
         <v>163</v>
       </c>
       <c r="O133" s="31" t="s">
-        <v>160</v>
+        <v>417</v>
       </c>
       <c r="P133" s="31" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="Q133" s="31" t="s">
         <v>20</v>
       </c>
       <c r="R133" s="34"/>
     </row>
-    <row r="134" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="44">
         <v>126</v>
       </c>
@@ -7314,25 +7317,25 @@
       <c r="E134" s="24"/>
       <c r="F134" s="50"/>
       <c r="G134" s="51"/>
-      <c r="L134" s="41"/>
+      <c r="L134" s="40"/>
       <c r="M134" s="59">
         <v>142</v>
       </c>
-      <c r="N134" s="58" t="s">
+      <c r="N134" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="O134" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="P134" s="58" t="s">
+      <c r="O134" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="P134" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="Q134" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="56"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q134" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="34"/>
+    </row>
+    <row r="135" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B135" s="44">
         <v>127</v>
       </c>
@@ -7345,25 +7348,23 @@
       <c r="E135" s="24"/>
       <c r="F135" s="50"/>
       <c r="G135" s="51"/>
-      <c r="L135" s="55"/>
-      <c r="M135" s="46">
-        <v>135</v>
-      </c>
-      <c r="N135" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="O135" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="P135" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q135" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="R135" s="53" t="s">
-        <v>37</v>
-      </c>
+      <c r="L135" s="41"/>
+      <c r="M135" s="59">
+        <v>142</v>
+      </c>
+      <c r="N135" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="O135" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="P135" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q135" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="56"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="49">
@@ -7378,23 +7379,25 @@
       <c r="E136" s="24"/>
       <c r="F136" s="50"/>
       <c r="G136" s="51"/>
-      <c r="L136" s="40"/>
-      <c r="M136" s="33">
-        <v>141</v>
-      </c>
-      <c r="N136" s="31" t="s">
+      <c r="L136" s="55"/>
+      <c r="M136" s="46">
+        <v>135</v>
+      </c>
+      <c r="N136" s="60" t="s">
         <v>235</v>
       </c>
-      <c r="O136" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="P136" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q136" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R136" s="36"/>
+      <c r="O136" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="P136" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q136" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="R136" s="53" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="137" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B137" s="44">
@@ -7410,22 +7413,22 @@
       <c r="F137" s="50"/>
       <c r="G137" s="51"/>
       <c r="L137" s="40"/>
-      <c r="M137" s="59">
-        <v>142</v>
+      <c r="M137" s="33">
+        <v>141</v>
       </c>
       <c r="N137" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O137" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P137" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q137" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R137" s="34"/>
+      <c r="R137" s="36"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="44">
@@ -7441,17 +7444,17 @@
       <c r="F138" s="50"/>
       <c r="G138" s="51"/>
       <c r="L138" s="40"/>
-      <c r="M138" s="33">
-        <v>141</v>
+      <c r="M138" s="59">
+        <v>142</v>
       </c>
       <c r="N138" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O138" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P138" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q138" s="31" t="s">
         <v>20</v>
@@ -7472,17 +7475,17 @@
       <c r="F139" s="50"/>
       <c r="G139" s="51"/>
       <c r="L139" s="40"/>
-      <c r="M139" s="59">
-        <v>142</v>
+      <c r="M139" s="33">
+        <v>141</v>
       </c>
       <c r="N139" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P139" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q139" s="31" t="s">
         <v>20</v>
@@ -7503,17 +7506,17 @@
       <c r="F140" s="50"/>
       <c r="G140" s="51"/>
       <c r="L140" s="40"/>
-      <c r="M140" s="33">
-        <v>141</v>
+      <c r="M140" s="59">
+        <v>142</v>
       </c>
       <c r="N140" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P140" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q140" s="31" t="s">
         <v>20</v>
@@ -7534,17 +7537,17 @@
       <c r="F141" s="50"/>
       <c r="G141" s="51"/>
       <c r="L141" s="40"/>
-      <c r="M141" s="59">
-        <v>142</v>
+      <c r="M141" s="33">
+        <v>141</v>
       </c>
       <c r="N141" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P141" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q141" s="31" t="s">
         <v>20</v>
@@ -7565,17 +7568,17 @@
       <c r="F142" s="68"/>
       <c r="G142" s="69"/>
       <c r="L142" s="40"/>
-      <c r="M142" s="33">
-        <v>141</v>
+      <c r="M142" s="59">
+        <v>142</v>
       </c>
       <c r="N142" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P142" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q142" s="31" t="s">
         <v>20</v>
@@ -7584,17 +7587,17 @@
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L143" s="40"/>
-      <c r="M143" s="59">
-        <v>142</v>
+      <c r="M143" s="33">
+        <v>141</v>
       </c>
       <c r="N143" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P143" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q143" s="31" t="s">
         <v>20</v>
@@ -7610,10 +7613,10 @@
         <v>235</v>
       </c>
       <c r="O144" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P144" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q144" s="31" t="s">
         <v>20</v>
@@ -7622,17 +7625,17 @@
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="40"/>
-      <c r="M145" s="33">
-        <v>141</v>
+      <c r="M145" s="59">
+        <v>142</v>
       </c>
       <c r="N145" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O145" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P145" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q145" s="31" t="s">
         <v>20</v>
@@ -7641,17 +7644,17 @@
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="40"/>
-      <c r="M146" s="59">
-        <v>142</v>
+      <c r="M146" s="33">
+        <v>141</v>
       </c>
       <c r="N146" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O146" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P146" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q146" s="31" t="s">
         <v>20</v>
@@ -7660,17 +7663,17 @@
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="40"/>
-      <c r="M147" s="33">
-        <v>141</v>
+      <c r="M147" s="59">
+        <v>142</v>
       </c>
       <c r="N147" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O147" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P147" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q147" s="31" t="s">
         <v>20</v>
@@ -7679,17 +7682,17 @@
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L148" s="40"/>
-      <c r="M148" s="59">
-        <v>142</v>
+      <c r="M148" s="33">
+        <v>141</v>
       </c>
       <c r="N148" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O148" s="31" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P148" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q148" s="31" t="s">
         <v>20</v>
@@ -7698,17 +7701,17 @@
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="40"/>
-      <c r="M149" s="33">
-        <v>141</v>
+      <c r="M149" s="59">
+        <v>142</v>
       </c>
       <c r="N149" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O149" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P149" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q149" s="31" t="s">
         <v>20</v>
@@ -7717,17 +7720,17 @@
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L150" s="40"/>
-      <c r="M150" s="59">
-        <v>142</v>
+      <c r="M150" s="33">
+        <v>141</v>
       </c>
       <c r="N150" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O150" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P150" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q150" s="31" t="s">
         <v>20</v>
@@ -7736,17 +7739,17 @@
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="40"/>
-      <c r="M151" s="33">
-        <v>141</v>
+      <c r="M151" s="59">
+        <v>142</v>
       </c>
       <c r="N151" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O151" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P151" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q151" s="31" t="s">
         <v>20</v>
@@ -7755,17 +7758,17 @@
     </row>
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L152" s="40"/>
-      <c r="M152" s="59">
-        <v>142</v>
+      <c r="M152" s="33">
+        <v>141</v>
       </c>
       <c r="N152" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O152" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P152" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q152" s="31" t="s">
         <v>20</v>
@@ -7774,17 +7777,17 @@
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="40"/>
-      <c r="M153" s="33">
-        <v>141</v>
+      <c r="M153" s="59">
+        <v>142</v>
       </c>
       <c r="N153" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O153" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P153" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q153" s="31" t="s">
         <v>20</v>
@@ -7793,17 +7796,17 @@
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L154" s="40"/>
-      <c r="M154" s="59">
-        <v>142</v>
+      <c r="M154" s="33">
+        <v>141</v>
       </c>
       <c r="N154" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O154" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P154" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q154" s="31" t="s">
         <v>20</v>
@@ -7812,17 +7815,17 @@
     </row>
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="40"/>
-      <c r="M155" s="33">
-        <v>141</v>
+      <c r="M155" s="59">
+        <v>142</v>
       </c>
       <c r="N155" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O155" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P155" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q155" s="31" t="s">
         <v>20</v>
@@ -7831,17 +7834,17 @@
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L156" s="40"/>
-      <c r="M156" s="59">
-        <v>142</v>
+      <c r="M156" s="33">
+        <v>141</v>
       </c>
       <c r="N156" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O156" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P156" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q156" s="31" t="s">
         <v>20</v>
@@ -7850,17 +7853,17 @@
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="40"/>
-      <c r="M157" s="49">
-        <v>8</v>
+      <c r="M157" s="59">
+        <v>142</v>
       </c>
       <c r="N157" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O157" s="31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P157" s="31" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Q157" s="31" t="s">
         <v>20</v>
@@ -7869,17 +7872,17 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="40"/>
-      <c r="M158" s="59">
-        <v>142</v>
+      <c r="M158" s="49">
+        <v>8</v>
       </c>
       <c r="N158" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O158" s="31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P158" s="31" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="Q158" s="31" t="s">
         <v>20</v>
@@ -7888,36 +7891,36 @@
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="40"/>
-      <c r="M159" s="44">
-        <v>143</v>
+      <c r="M159" s="59">
+        <v>142</v>
       </c>
       <c r="N159" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O159" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P159" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q159" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R159" s="36"/>
+      <c r="R159" s="34"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="40"/>
-      <c r="M160" s="33">
-        <v>141</v>
+      <c r="M160" s="44">
+        <v>143</v>
       </c>
       <c r="N160" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O160" s="31" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P160" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q160" s="31" t="s">
         <v>20</v>
@@ -7926,17 +7929,17 @@
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="40"/>
-      <c r="M161" s="59">
-        <v>142</v>
+      <c r="M161" s="33">
+        <v>141</v>
       </c>
       <c r="N161" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O161" s="31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P161" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q161" s="31" t="s">
         <v>20</v>
@@ -7952,7 +7955,7 @@
         <v>235</v>
       </c>
       <c r="O162" s="31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P162" s="31" t="s">
         <v>19</v>
@@ -7964,17 +7967,17 @@
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="40"/>
-      <c r="M163" s="33">
-        <v>141</v>
+      <c r="M163" s="59">
+        <v>142</v>
       </c>
       <c r="N163" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O163" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P163" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q163" s="31" t="s">
         <v>20</v>
@@ -7990,7 +7993,7 @@
         <v>235</v>
       </c>
       <c r="O164" s="31" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P164" s="31" t="s">
         <v>16</v>
@@ -7998,80 +8001,80 @@
       <c r="Q164" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R164" s="34"/>
+      <c r="R164" s="36"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="40"/>
-      <c r="M165" s="99">
-        <v>144</v>
-      </c>
-      <c r="N165" s="97" t="s">
+      <c r="M165" s="33">
+        <v>141</v>
+      </c>
+      <c r="N165" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="O165" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="P165" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q165" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="R165" s="98" t="s">
-        <v>37</v>
-      </c>
+      <c r="O165" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="P165" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q165" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R165" s="34"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="40"/>
-      <c r="M166" s="54">
-        <v>145</v>
-      </c>
-      <c r="N166" s="65" t="s">
+      <c r="M166" s="99">
+        <v>144</v>
+      </c>
+      <c r="N166" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="O166" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="P166" s="65" t="s">
+      <c r="O166" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="P166" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="Q166" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" s="47"/>
+      <c r="Q166" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="R166" s="98" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="40"/>
-      <c r="M167" s="59">
-        <v>142</v>
-      </c>
-      <c r="N167" s="31" t="s">
+      <c r="M167" s="54">
+        <v>145</v>
+      </c>
+      <c r="N167" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="O167" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="P167" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q167" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R167" s="34"/>
+      <c r="O167" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="P167" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q167" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="R167" s="47"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="40"/>
-      <c r="M168" s="33">
-        <v>141</v>
+      <c r="M168" s="59">
+        <v>142</v>
       </c>
       <c r="N168" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O168" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P168" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q168" s="31" t="s">
         <v>20</v>
@@ -8080,17 +8083,17 @@
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="40"/>
-      <c r="M169" s="59">
-        <v>142</v>
+      <c r="M169" s="33">
+        <v>141</v>
       </c>
       <c r="N169" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O169" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P169" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q169" s="31" t="s">
         <v>20</v>
@@ -8106,7 +8109,7 @@
         <v>235</v>
       </c>
       <c r="O170" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P170" s="31" t="s">
         <v>24</v>
@@ -8125,7 +8128,7 @@
         <v>235</v>
       </c>
       <c r="O171" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P171" s="31" t="s">
         <v>24</v>
@@ -8137,17 +8140,17 @@
     </row>
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="40"/>
-      <c r="M172" s="33">
-        <v>141</v>
+      <c r="M172" s="59">
+        <v>142</v>
       </c>
       <c r="N172" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O172" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P172" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q172" s="31" t="s">
         <v>20</v>
@@ -8156,17 +8159,17 @@
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="40"/>
-      <c r="M173" s="59">
-        <v>142</v>
+      <c r="M173" s="33">
+        <v>141</v>
       </c>
       <c r="N173" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O173" s="31" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P173" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q173" s="31" t="s">
         <v>20</v>
@@ -8182,7 +8185,7 @@
         <v>235</v>
       </c>
       <c r="O174" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P174" s="31" t="s">
         <v>24</v>
@@ -8201,7 +8204,7 @@
         <v>235</v>
       </c>
       <c r="O175" s="31" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P175" s="31" t="s">
         <v>24</v>
@@ -8220,10 +8223,10 @@
         <v>235</v>
       </c>
       <c r="O176" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P176" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q176" s="31" t="s">
         <v>20</v>
@@ -8239,10 +8242,10 @@
         <v>235</v>
       </c>
       <c r="O177" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P177" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q177" s="31" t="s">
         <v>20</v>
@@ -8258,7 +8261,7 @@
         <v>235</v>
       </c>
       <c r="O178" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P178" s="31" t="s">
         <v>24</v>
@@ -8277,7 +8280,7 @@
         <v>235</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P179" s="31" t="s">
         <v>24</v>
@@ -8296,7 +8299,7 @@
         <v>235</v>
       </c>
       <c r="O180" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P180" s="31" t="s">
         <v>24</v>
@@ -8315,10 +8318,10 @@
         <v>235</v>
       </c>
       <c r="O181" s="31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P181" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q181" s="31" t="s">
         <v>20</v>
@@ -8327,17 +8330,17 @@
     </row>
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="40"/>
-      <c r="M182" s="33">
-        <v>141</v>
+      <c r="M182" s="59">
+        <v>142</v>
       </c>
       <c r="N182" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O182" s="31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P182" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q182" s="31" t="s">
         <v>20</v>
@@ -8346,17 +8349,17 @@
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="40"/>
-      <c r="M183" s="59">
-        <v>142</v>
+      <c r="M183" s="33">
+        <v>141</v>
       </c>
       <c r="N183" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O183" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P183" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q183" s="31" t="s">
         <v>20</v>
@@ -8372,10 +8375,10 @@
         <v>235</v>
       </c>
       <c r="O184" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P184" s="31" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="Q184" s="31" t="s">
         <v>20</v>
@@ -8391,10 +8394,10 @@
         <v>235</v>
       </c>
       <c r="O185" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P185" s="31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q185" s="31" t="s">
         <v>20</v>
@@ -8410,7 +8413,7 @@
         <v>235</v>
       </c>
       <c r="O186" s="31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P186" s="31" t="s">
         <v>24</v>
@@ -8429,10 +8432,10 @@
         <v>235</v>
       </c>
       <c r="O187" s="31" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P187" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q187" s="31" t="s">
         <v>20</v>
@@ -8448,10 +8451,10 @@
         <v>235</v>
       </c>
       <c r="O188" s="31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P188" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q188" s="31" t="s">
         <v>20</v>
@@ -8460,14 +8463,14 @@
     </row>
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="40"/>
-      <c r="M189" s="33">
-        <v>141</v>
+      <c r="M189" s="59">
+        <v>142</v>
       </c>
       <c r="N189" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O189" s="31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P189" s="31" t="s">
         <v>16</v>
@@ -8486,10 +8489,10 @@
         <v>235</v>
       </c>
       <c r="O190" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P190" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q190" s="31" t="s">
         <v>20</v>
@@ -8505,10 +8508,10 @@
         <v>235</v>
       </c>
       <c r="O191" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P191" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q191" s="31" t="s">
         <v>20</v>
@@ -8524,7 +8527,7 @@
         <v>235</v>
       </c>
       <c r="O192" s="31" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P192" s="31" t="s">
         <v>16</v>
@@ -8536,17 +8539,17 @@
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L193" s="40"/>
-      <c r="M193" s="59">
-        <v>142</v>
+      <c r="M193" s="33">
+        <v>141</v>
       </c>
       <c r="N193" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O193" s="31" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P193" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q193" s="31" t="s">
         <v>20</v>
@@ -8555,17 +8558,17 @@
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="40"/>
-      <c r="M194" s="33">
-        <v>141</v>
+      <c r="M194" s="59">
+        <v>142</v>
       </c>
       <c r="N194" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O194" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P194" s="31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q194" s="31" t="s">
         <v>20</v>
@@ -8574,17 +8577,17 @@
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L195" s="40"/>
-      <c r="M195" s="59">
-        <v>142</v>
+      <c r="M195" s="33">
+        <v>141</v>
       </c>
       <c r="N195" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O195" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P195" s="31" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="Q195" s="31" t="s">
         <v>20</v>
@@ -8600,10 +8603,10 @@
         <v>235</v>
       </c>
       <c r="O196" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P196" s="31" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="Q196" s="31" t="s">
         <v>20</v>
@@ -8619,7 +8622,7 @@
         <v>235</v>
       </c>
       <c r="O197" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P197" s="31" t="s">
         <v>134</v>
@@ -8631,17 +8634,17 @@
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="40"/>
-      <c r="M198" s="33">
-        <v>141</v>
+      <c r="M198" s="59">
+        <v>142</v>
       </c>
       <c r="N198" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O198" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P198" s="31" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="Q198" s="31" t="s">
         <v>20</v>
@@ -8657,7 +8660,7 @@
         <v>235</v>
       </c>
       <c r="O199" s="31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P199" s="31" t="s">
         <v>16</v>
@@ -8669,17 +8672,17 @@
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="40"/>
-      <c r="M200" s="59">
-        <v>142</v>
+      <c r="M200" s="33">
+        <v>141</v>
       </c>
       <c r="N200" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O200" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P200" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q200" s="31" t="s">
         <v>20</v>
@@ -8688,17 +8691,17 @@
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="40"/>
-      <c r="M201" s="33">
-        <v>141</v>
+      <c r="M201" s="59">
+        <v>142</v>
       </c>
       <c r="N201" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O201" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P201" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q201" s="31" t="s">
         <v>20</v>
@@ -8707,17 +8710,17 @@
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L202" s="40"/>
-      <c r="M202" s="59">
-        <v>142</v>
+      <c r="M202" s="33">
+        <v>141</v>
       </c>
       <c r="N202" s="31" t="s">
         <v>235</v>
       </c>
       <c r="O202" s="31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P202" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q202" s="31" t="s">
         <v>20</v>
@@ -8733,7 +8736,7 @@
         <v>235</v>
       </c>
       <c r="O203" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P203" s="31" t="s">
         <v>24</v>
@@ -8752,7 +8755,7 @@
         <v>235</v>
       </c>
       <c r="O204" s="31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P204" s="31" t="s">
         <v>24</v>
@@ -8771,7 +8774,7 @@
         <v>235</v>
       </c>
       <c r="O205" s="31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P205" s="31" t="s">
         <v>24</v>
@@ -8790,10 +8793,10 @@
         <v>235</v>
       </c>
       <c r="O206" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P206" s="31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q206" s="31" t="s">
         <v>20</v>
@@ -8809,34 +8812,53 @@
         <v>235</v>
       </c>
       <c r="O207" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="P207" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q207" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="34"/>
+    </row>
+    <row r="208" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L208" s="40"/>
+      <c r="M208" s="59">
+        <v>142</v>
+      </c>
+      <c r="N208" s="31" t="s">
+        <v>235</v>
+      </c>
+      <c r="O208" s="31" t="s">
         <v>233</v>
       </c>
-      <c r="P207" s="31" t="s">
+      <c r="P208" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q207" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="34"/>
-    </row>
-    <row r="208" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L208" s="41"/>
-      <c r="M208" s="83">
-        <v>142</v>
-      </c>
-      <c r="N208" s="38" t="s">
+      <c r="Q208" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="34"/>
+    </row>
+    <row r="209" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L209" s="41"/>
+      <c r="M209" s="83">
+        <v>142</v>
+      </c>
+      <c r="N209" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="O208" s="38" t="s">
+      <c r="O209" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="P208" s="38" t="s">
+      <c r="P209" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q208" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="R208" s="35"/>
+      <c r="Q209" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R209" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="428">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -510,9 +510,6 @@
     <t>FEC_CL_BCO_CNTL</t>
   </si>
   <si>
-    <t>ID_TIP_D_TEN_D_VIV</t>
-  </si>
-  <si>
     <t>FEC_D_TEN_D_VIV</t>
   </si>
   <si>
@@ -540,9 +537,6 @@
     <t>FEC_OCPN_PER</t>
   </si>
   <si>
-    <t>ID_TIP_D_EST_TRAB_PER</t>
-  </si>
-  <si>
     <t>FEC_EST_TRAB_PER</t>
   </si>
   <si>
@@ -567,9 +561,6 @@
     <t>FEC_CDDNA</t>
   </si>
   <si>
-    <t>ID_UBI_D_VIV</t>
-  </si>
-  <si>
     <t>JF_D_HGR</t>
   </si>
   <si>
@@ -639,9 +630,6 @@
     <t>TIE_EN_VIV_ACTL</t>
   </si>
   <si>
-    <t>ID_CGO_EN_EMPSA</t>
-  </si>
-  <si>
     <t>FEC_CGO_EN_EMPSA</t>
   </si>
   <si>
@@ -1477,16 +1465,44 @@
   </si>
   <si>
     <t>COD_PRTF</t>
+  </si>
+  <si>
+    <t>ID_TIP_TEN_VIV</t>
+  </si>
+  <si>
+    <t>ID_TIP_EST_TRAB_PER</t>
+  </si>
+  <si>
+    <t>ID_UBI_VIV</t>
+  </si>
+  <si>
+    <t>ID_CGO_EMPSA</t>
+  </si>
+  <si>
+    <t>FLG_REQ_TUT</t>
+  </si>
+  <si>
+    <t>ID_D_EMPDR</t>
+  </si>
+  <si>
+    <t>DECIMAL(20)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1642,6 +1658,12 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2320,278 +2342,321 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="86">
+  <cellStyleXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2600,50 +2665,60 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="86" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="86">
+  <cellStyles count="130">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -2651,11 +2726,17 @@
     <cellStyle name="20% - Accent5" xfId="5"/>
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="88"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="89"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="90"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="91"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="92"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="93"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -2663,11 +2744,17 @@
     <cellStyle name="40% - Accent5" xfId="17"/>
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="94"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="95"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="96"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="97"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="98"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="99"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -2675,11 +2762,17 @@
     <cellStyle name="60% - Accent5" xfId="29"/>
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="100"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="101"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="102"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="103"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="104"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="105"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -2688,19 +2781,31 @@
     <cellStyle name="Accent6" xfId="42"/>
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Buena 2" xfId="106"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cálculo 2" xfId="107"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación 2" xfId="108"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada 2" xfId="109"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4 2" xfId="110"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis1 2" xfId="111"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis2 2" xfId="112"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis3 2" xfId="113"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis4 2" xfId="114"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis5 2" xfId="115"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Énfasis6 2" xfId="116"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Entrada 2" xfId="117"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -2708,27 +2813,41 @@
     <cellStyle name="Heading 3" xfId="62"/>
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Incorrecto 2" xfId="118"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="119"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Normal 3" xfId="85"/>
+    <cellStyle name="Normal 4" xfId="87"/>
+    <cellStyle name="Normal 5" xfId="129"/>
+    <cellStyle name="Normal 6" xfId="86"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Notas 2" xfId="120"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Salida 2" xfId="121"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia 2" xfId="122"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo 2" xfId="123"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
+    <cellStyle name="Título 1 2" xfId="125"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 2 2" xfId="126"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 3 2" xfId="127"/>
+    <cellStyle name="Título 4" xfId="124"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Total 2" xfId="128"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3128,10 +3247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R209"/>
+  <dimension ref="B1:R211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I37" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView tabSelected="1" topLeftCell="L116" workbookViewId="0">
+      <selection activeCell="O59" sqref="O59:O137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3139,7 +3258,7 @@
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="79" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -3160,7 +3279,7 @@
     <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="76"/>
+      <c r="D1" s="75"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3170,28 +3289,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="105" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="106"/>
-      <c r="F2" s="107"/>
+      <c r="D2" s="104" t="s">
+        <v>232</v>
+      </c>
+      <c r="E2" s="105"/>
+      <c r="F2" s="106"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="102" t="s">
+      <c r="H2" s="101" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="103"/>
-      <c r="J2" s="104"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="103"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="110"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="109"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="93"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
@@ -3202,15 +3321,15 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="94"/>
+      <c r="H4" s="93"/>
       <c r="I4" s="24" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J4" s="28"/>
     </row>
@@ -3219,50 +3338,50 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="112"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="95"/>
+      <c r="H5" s="94"/>
       <c r="I5" s="28" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="76"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
+      <c r="C7" s="114"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="116" t="s">
+      <c r="I7" s="115" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="117"/>
-      <c r="K7" s="118"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="117"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="100" t="s">
+      <c r="M7" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="101"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="101"/>
-      <c r="Q7" s="101"/>
-      <c r="R7" s="101"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="100"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="100"/>
+      <c r="R7" s="100"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3271,7 +3390,7 @@
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="76" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -3317,39 +3436,39 @@
       <c r="B9" s="43">
         <v>1</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>237</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>371</v>
+      <c r="C9" s="73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="77" t="s">
+        <v>367</v>
       </c>
       <c r="E9" s="45"/>
       <c r="F9" s="45"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="89"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="46">
         <v>135</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="82" t="s">
-        <v>412</v>
-      </c>
-      <c r="L9" s="91"/>
-      <c r="M9" s="61">
+      <c r="K9" s="81" t="s">
+        <v>408</v>
+      </c>
+      <c r="L9" s="90"/>
+      <c r="M9" s="60">
         <v>135</v>
       </c>
-      <c r="N9" s="60" t="s">
-        <v>162</v>
-      </c>
-      <c r="O9" s="60" t="s">
+      <c r="N9" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="60" t="s">
+      <c r="P9" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="60" t="s">
+      <c r="Q9" s="59" t="s">
         <v>17</v>
       </c>
       <c r="R9" s="39" t="s">
@@ -3360,31 +3479,31 @@
       <c r="B10" s="44">
         <v>2</v>
       </c>
-      <c r="C10" s="73" t="s">
-        <v>238</v>
-      </c>
-      <c r="D10" s="79" t="s">
-        <v>372</v>
+      <c r="C10" s="72" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>368</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="89"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="33">
         <v>136</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>400</v>
-      </c>
-      <c r="L10" s="91"/>
+        <v>396</v>
+      </c>
+      <c r="L10" s="90"/>
       <c r="M10" s="33">
         <v>136</v>
       </c>
       <c r="N10" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O10" s="31" t="s">
         <v>18</v>
@@ -3395,39 +3514,39 @@
       <c r="Q10" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="57"/>
+      <c r="R10" s="56"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="44">
         <v>3</v>
       </c>
-      <c r="C11" s="73" t="s">
-        <v>239</v>
-      </c>
-      <c r="D11" s="79" t="s">
-        <v>373</v>
+      <c r="C11" s="72" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="78" t="s">
+        <v>369</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="48"/>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="89"/>
+      <c r="H11" s="88"/>
       <c r="I11" s="33">
         <v>137</v>
       </c>
       <c r="J11" s="24" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K11" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="L11" s="91"/>
+        <v>398</v>
+      </c>
+      <c r="L11" s="90"/>
       <c r="M11" s="33">
         <v>137</v>
       </c>
       <c r="N11" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O11" s="31" t="s">
         <v>21</v>
@@ -3444,31 +3563,31 @@
       <c r="B12" s="44">
         <v>4</v>
       </c>
-      <c r="C12" s="73" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="79" t="s">
-        <v>374</v>
+      <c r="C12" s="72" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>370</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="89"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="88"/>
       <c r="I12" s="33">
         <v>138</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>403</v>
-      </c>
-      <c r="K12" s="81" t="s">
-        <v>413</v>
-      </c>
-      <c r="L12" s="91"/>
-      <c r="M12" s="63">
+        <v>399</v>
+      </c>
+      <c r="K12" s="80" t="s">
+        <v>409</v>
+      </c>
+      <c r="L12" s="90"/>
+      <c r="M12" s="62">
         <v>138</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O12" s="31" t="s">
         <v>23</v>
@@ -3485,31 +3604,31 @@
       <c r="B13" s="49">
         <v>5</v>
       </c>
-      <c r="C13" s="73" t="s">
-        <v>241</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>375</v>
+      <c r="C13" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D13" s="78" t="s">
+        <v>371</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="50"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="89"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="88"/>
       <c r="I13" s="33">
         <v>139</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>404</v>
-      </c>
-      <c r="K13" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="L13" s="92"/>
-      <c r="M13" s="63">
+        <v>400</v>
+      </c>
+      <c r="K13" s="80" t="s">
+        <v>410</v>
+      </c>
+      <c r="L13" s="91"/>
+      <c r="M13" s="62">
         <v>4</v>
       </c>
       <c r="N13" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O13" s="31" t="s">
         <v>41</v>
@@ -3526,31 +3645,31 @@
       <c r="B14" s="44">
         <v>6</v>
       </c>
-      <c r="C14" s="73" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>375</v>
+      <c r="C14" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>371</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="50"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="59">
+      <c r="G14" s="87"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="58">
         <v>140</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>405</v>
-      </c>
-      <c r="K14" s="57" t="s">
-        <v>415</v>
-      </c>
-      <c r="L14" s="92"/>
-      <c r="M14" s="63">
+        <v>401</v>
+      </c>
+      <c r="K14" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L14" s="91"/>
+      <c r="M14" s="62">
         <v>139</v>
       </c>
       <c r="N14" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O14" s="31" t="s">
         <v>42</v>
@@ -3567,31 +3686,31 @@
       <c r="B15" s="44">
         <v>7</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>243</v>
-      </c>
-      <c r="D15" s="79" t="s">
+      <c r="C15" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="78" t="s">
         <v>38</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="50"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="89"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="88"/>
       <c r="I15" s="33">
         <v>141</v>
       </c>
       <c r="J15" s="28" t="s">
-        <v>406</v>
-      </c>
-      <c r="K15" s="81" t="s">
-        <v>407</v>
-      </c>
-      <c r="L15" s="92"/>
+        <v>402</v>
+      </c>
+      <c r="K15" s="80" t="s">
+        <v>403</v>
+      </c>
+      <c r="L15" s="91"/>
       <c r="M15" s="33">
         <v>141</v>
       </c>
       <c r="N15" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O15" s="31" t="s">
         <v>43</v>
@@ -3608,31 +3727,31 @@
       <c r="B16" s="49">
         <v>8</v>
       </c>
-      <c r="C16" s="73" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="79" t="s">
-        <v>370</v>
+      <c r="C16" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>366</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="50"/>
-      <c r="G16" s="88"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="59">
+      <c r="G16" s="87"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="58">
         <v>142</v>
       </c>
       <c r="J16" s="28" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="L16" s="92"/>
-      <c r="M16" s="59">
+        <v>405</v>
+      </c>
+      <c r="L16" s="91"/>
+      <c r="M16" s="58">
         <v>141</v>
       </c>
       <c r="N16" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O16" s="31" t="s">
         <v>44</v>
@@ -3649,31 +3768,31 @@
       <c r="B17" s="44">
         <v>9</v>
       </c>
-      <c r="C17" s="73" t="s">
-        <v>245</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>371</v>
+      <c r="C17" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D17" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="50"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="89"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="88"/>
       <c r="I17" s="33">
         <v>143</v>
       </c>
       <c r="J17" s="24" t="s">
-        <v>411</v>
-      </c>
-      <c r="K17" s="81" t="s">
-        <v>416</v>
-      </c>
-      <c r="L17" s="92"/>
-      <c r="M17" s="59">
+        <v>407</v>
+      </c>
+      <c r="K17" s="80" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" s="91"/>
+      <c r="M17" s="58">
         <v>142</v>
       </c>
       <c r="N17" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O17" s="31" t="s">
         <v>45</v>
@@ -3684,37 +3803,37 @@
       <c r="Q17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R17" s="57"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B18" s="44">
         <v>10</v>
       </c>
-      <c r="C18" s="73" t="s">
-        <v>246</v>
-      </c>
-      <c r="D18" s="79" t="s">
+      <c r="C18" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D18" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="50"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="89"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="88"/>
       <c r="I18" s="33">
         <v>144</v>
       </c>
       <c r="J18" s="28" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K18" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="L18" s="92"/>
+        <v>415</v>
+      </c>
+      <c r="L18" s="91"/>
       <c r="M18" s="33">
         <v>141</v>
       </c>
       <c r="N18" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O18" s="31" t="s">
         <v>47</v>
@@ -3731,31 +3850,31 @@
       <c r="B19" s="49">
         <v>11</v>
       </c>
-      <c r="C19" s="73" t="s">
-        <v>247</v>
-      </c>
-      <c r="D19" s="79" t="s">
+      <c r="C19" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="37"/>
       <c r="F19" s="50"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="90"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="32">
         <v>145</v>
       </c>
-      <c r="J19" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="K19" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="L19" s="92"/>
-      <c r="M19" s="59">
+      <c r="J19" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="K19" s="83" t="s">
+        <v>417</v>
+      </c>
+      <c r="L19" s="91"/>
+      <c r="M19" s="58">
         <v>142</v>
       </c>
       <c r="N19" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O19" s="31" t="s">
         <v>48</v>
@@ -3772,11 +3891,11 @@
       <c r="B20" s="44">
         <v>12</v>
       </c>
-      <c r="C20" s="73" t="s">
-        <v>248</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>376</v>
+      <c r="C20" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="78" t="s">
+        <v>372</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="50"/>
@@ -3786,7 +3905,7 @@
         <v>141</v>
       </c>
       <c r="N20" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O20" s="31" t="s">
         <v>49</v>
@@ -3797,27 +3916,27 @@
       <c r="Q20" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R20" s="57"/>
+      <c r="R20" s="56"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="44">
         <v>13</v>
       </c>
-      <c r="C21" s="73" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="79" t="s">
-        <v>372</v>
+      <c r="C21" s="72" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="78" t="s">
+        <v>368</v>
       </c>
       <c r="E21" s="37"/>
       <c r="F21" s="50"/>
       <c r="G21" s="51"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="59">
+      <c r="M21" s="58">
         <v>142</v>
       </c>
       <c r="N21" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O21" s="31" t="s">
         <v>50</v>
@@ -3828,17 +3947,17 @@
       <c r="Q21" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R21" s="57"/>
+      <c r="R21" s="56"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="49">
         <v>14</v>
       </c>
-      <c r="C22" s="73" t="s">
-        <v>250</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>371</v>
+      <c r="C22" s="72" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E22" s="37"/>
       <c r="F22" s="50"/>
@@ -3848,7 +3967,7 @@
         <v>141</v>
       </c>
       <c r="N22" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O22" s="31" t="s">
         <v>51</v>
@@ -3865,21 +3984,21 @@
       <c r="B23" s="44">
         <v>15</v>
       </c>
-      <c r="C23" s="73" t="s">
-        <v>251</v>
-      </c>
-      <c r="D23" s="79" t="s">
-        <v>372</v>
+      <c r="C23" s="72" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="78" t="s">
+        <v>368</v>
       </c>
       <c r="E23" s="37"/>
       <c r="F23" s="50"/>
       <c r="G23" s="51"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="59">
+      <c r="M23" s="58">
         <v>142</v>
       </c>
       <c r="N23" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O23" s="31" t="s">
         <v>52</v>
@@ -3896,13 +4015,13 @@
       <c r="B24" s="44">
         <v>16</v>
       </c>
-      <c r="C24" s="73" t="s">
-        <v>252</v>
-      </c>
-      <c r="D24" s="79" t="s">
-        <v>372</v>
-      </c>
-      <c r="E24" s="66"/>
+      <c r="C24" s="72" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="78" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="65"/>
       <c r="F24" s="50"/>
       <c r="G24" s="51"/>
       <c r="L24" s="40"/>
@@ -3910,7 +4029,7 @@
         <v>141</v>
       </c>
       <c r="N24" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O24" s="31" t="s">
         <v>53</v>
@@ -3927,21 +4046,21 @@
       <c r="B25" s="49">
         <v>17</v>
       </c>
-      <c r="C25" s="73" t="s">
-        <v>253</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>371</v>
-      </c>
-      <c r="E25" s="67"/>
+      <c r="C25" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="66"/>
       <c r="F25" s="50"/>
       <c r="G25" s="51"/>
       <c r="L25" s="40"/>
-      <c r="M25" s="59">
+      <c r="M25" s="58">
         <v>142</v>
       </c>
       <c r="N25" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O25" s="31" t="s">
         <v>54</v>
@@ -3958,13 +4077,13 @@
       <c r="B26" s="44">
         <v>18</v>
       </c>
-      <c r="C26" s="73" t="s">
-        <v>254</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>377</v>
-      </c>
-      <c r="E26" s="67"/>
+      <c r="C26" s="72" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E26" s="66"/>
       <c r="F26" s="50"/>
       <c r="G26" s="51"/>
       <c r="L26" s="40"/>
@@ -3972,7 +4091,7 @@
         <v>141</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O26" s="31" t="s">
         <v>55</v>
@@ -3989,21 +4108,21 @@
       <c r="B27" s="44">
         <v>19</v>
       </c>
-      <c r="C27" s="73" t="s">
-        <v>255</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>377</v>
-      </c>
-      <c r="E27" s="67"/>
+      <c r="C27" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E27" s="66"/>
       <c r="F27" s="50"/>
       <c r="G27" s="51"/>
       <c r="L27" s="40"/>
-      <c r="M27" s="59">
+      <c r="M27" s="58">
         <v>142</v>
       </c>
       <c r="N27" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O27" s="31" t="s">
         <v>56</v>
@@ -4020,13 +4139,13 @@
       <c r="B28" s="49">
         <v>20</v>
       </c>
-      <c r="C28" s="73" t="s">
-        <v>256</v>
-      </c>
-      <c r="D28" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E28" s="67"/>
+      <c r="C28" s="72" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="E28" s="66"/>
       <c r="F28" s="50"/>
       <c r="G28" s="51"/>
       <c r="L28" s="40"/>
@@ -4034,7 +4153,7 @@
         <v>141</v>
       </c>
       <c r="N28" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O28" s="31" t="s">
         <v>57</v>
@@ -4045,27 +4164,27 @@
       <c r="Q28" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R28" s="57"/>
+      <c r="R28" s="56"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B29" s="44">
         <v>21</v>
       </c>
-      <c r="C29" s="73" t="s">
-        <v>257</v>
-      </c>
-      <c r="D29" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E29" s="67"/>
+      <c r="C29" s="72" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="E29" s="66"/>
       <c r="F29" s="50"/>
       <c r="G29" s="51"/>
       <c r="L29" s="40"/>
-      <c r="M29" s="59">
+      <c r="M29" s="58">
         <v>142</v>
       </c>
       <c r="N29" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O29" s="31" t="s">
         <v>58</v>
@@ -4082,13 +4201,13 @@
       <c r="B30" s="44">
         <v>22</v>
       </c>
-      <c r="C30" s="73" t="s">
-        <v>258</v>
-      </c>
-      <c r="D30" s="79" t="s">
-        <v>371</v>
-      </c>
-      <c r="E30" s="67"/>
+      <c r="C30" s="72" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="78" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="66"/>
       <c r="F30" s="50"/>
       <c r="G30" s="51"/>
       <c r="L30" s="40"/>
@@ -4096,7 +4215,7 @@
         <v>141</v>
       </c>
       <c r="N30" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O30" s="31" t="s">
         <v>59</v>
@@ -4113,21 +4232,21 @@
       <c r="B31" s="49">
         <v>23</v>
       </c>
-      <c r="C31" s="73" t="s">
-        <v>259</v>
-      </c>
-      <c r="D31" s="79" t="s">
+      <c r="C31" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="67"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="50"/>
       <c r="G31" s="51"/>
       <c r="L31" s="40"/>
-      <c r="M31" s="59">
+      <c r="M31" s="58">
         <v>142</v>
       </c>
       <c r="N31" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O31" s="31" t="s">
         <v>60</v>
@@ -4138,19 +4257,19 @@
       <c r="Q31" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R31" s="57"/>
+      <c r="R31" s="56"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B32" s="44">
         <v>24</v>
       </c>
-      <c r="C32" s="73" t="s">
-        <v>260</v>
-      </c>
-      <c r="D32" s="79" t="s">
+      <c r="C32" s="72" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="67"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="50"/>
       <c r="G32" s="51"/>
       <c r="L32" s="40"/>
@@ -4158,7 +4277,7 @@
         <v>141</v>
       </c>
       <c r="N32" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O32" s="31" t="s">
         <v>61</v>
@@ -4169,27 +4288,27 @@
       <c r="Q32" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R32" s="57"/>
+      <c r="R32" s="56"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B33" s="44">
         <v>25</v>
       </c>
-      <c r="C33" s="73" t="s">
-        <v>261</v>
-      </c>
-      <c r="D33" s="79" t="s">
+      <c r="C33" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="67"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="50"/>
       <c r="G33" s="51"/>
       <c r="L33" s="40"/>
-      <c r="M33" s="59">
+      <c r="M33" s="58">
         <v>142</v>
       </c>
       <c r="N33" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O33" s="31" t="s">
         <v>62</v>
@@ -4206,21 +4325,21 @@
       <c r="B34" s="49">
         <v>26</v>
       </c>
-      <c r="C34" s="73" t="s">
-        <v>262</v>
-      </c>
-      <c r="D34" s="79" t="s">
-        <v>376</v>
-      </c>
-      <c r="E34" s="67"/>
+      <c r="C34" s="72" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="66"/>
       <c r="F34" s="50"/>
       <c r="G34" s="51"/>
       <c r="L34" s="40"/>
-      <c r="M34" s="62">
+      <c r="M34" s="61">
         <v>7</v>
       </c>
       <c r="N34" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O34" s="31" t="s">
         <v>63</v>
@@ -4237,21 +4356,21 @@
       <c r="B35" s="44">
         <v>27</v>
       </c>
-      <c r="C35" s="73" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E35" s="67"/>
+      <c r="C35" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="66"/>
       <c r="F35" s="50"/>
       <c r="G35" s="51"/>
       <c r="L35" s="40"/>
-      <c r="M35" s="59">
+      <c r="M35" s="58">
         <v>142</v>
       </c>
       <c r="N35" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O35" s="31" t="s">
         <v>64</v>
@@ -4268,21 +4387,21 @@
       <c r="B36" s="44">
         <v>28</v>
       </c>
-      <c r="C36" s="73" t="s">
-        <v>264</v>
-      </c>
-      <c r="D36" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E36" s="67"/>
+      <c r="C36" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="E36" s="66"/>
       <c r="F36" s="50"/>
       <c r="G36" s="51"/>
       <c r="L36" s="40"/>
-      <c r="M36" s="59">
+      <c r="M36" s="58">
         <v>142</v>
       </c>
       <c r="N36" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O36" s="31" t="s">
         <v>65</v>
@@ -4299,21 +4418,21 @@
       <c r="B37" s="49">
         <v>29</v>
       </c>
-      <c r="C37" s="73" t="s">
-        <v>265</v>
-      </c>
-      <c r="D37" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E37" s="67"/>
+      <c r="C37" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="E37" s="66"/>
       <c r="F37" s="50"/>
       <c r="G37" s="51"/>
       <c r="L37" s="40"/>
-      <c r="M37" s="59">
+      <c r="M37" s="58">
         <v>142</v>
       </c>
       <c r="N37" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O37" s="31" t="s">
         <v>66</v>
@@ -4330,21 +4449,21 @@
       <c r="B38" s="44">
         <v>30</v>
       </c>
-      <c r="C38" s="73" t="s">
-        <v>266</v>
-      </c>
-      <c r="D38" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E38" s="67"/>
+      <c r="C38" s="72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="66"/>
       <c r="F38" s="50"/>
       <c r="G38" s="51"/>
       <c r="L38" s="40"/>
-      <c r="M38" s="59">
+      <c r="M38" s="58">
         <v>142</v>
       </c>
       <c r="N38" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O38" s="31" t="s">
         <v>67</v>
@@ -4361,21 +4480,21 @@
       <c r="B39" s="44">
         <v>31</v>
       </c>
-      <c r="C39" s="73" t="s">
-        <v>267</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E39" s="67"/>
+      <c r="C39" s="72" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>374</v>
+      </c>
+      <c r="E39" s="66"/>
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
       <c r="L39" s="40"/>
-      <c r="M39" s="59">
+      <c r="M39" s="58">
         <v>142</v>
       </c>
       <c r="N39" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O39" s="31" t="s">
         <v>68</v>
@@ -4386,27 +4505,27 @@
       <c r="Q39" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R39" s="57"/>
+      <c r="R39" s="56"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B40" s="49">
         <v>32</v>
       </c>
-      <c r="C40" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>378</v>
+      <c r="C40" s="72" t="s">
+        <v>264</v>
+      </c>
+      <c r="D40" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E40" s="37"/>
       <c r="F40" s="50"/>
       <c r="G40" s="51"/>
       <c r="L40" s="40"/>
-      <c r="M40" s="59">
+      <c r="M40" s="58">
         <v>142</v>
       </c>
       <c r="N40" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O40" s="31" t="s">
         <v>69</v>
@@ -4423,11 +4542,11 @@
       <c r="B41" s="44">
         <v>33</v>
       </c>
-      <c r="C41" s="73" t="s">
-        <v>269</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>378</v>
+      <c r="C41" s="72" t="s">
+        <v>265</v>
+      </c>
+      <c r="D41" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E41" s="37"/>
       <c r="F41" s="50"/>
@@ -4437,7 +4556,7 @@
         <v>141</v>
       </c>
       <c r="N41" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O41" s="31" t="s">
         <v>70</v>
@@ -4454,21 +4573,21 @@
       <c r="B42" s="44">
         <v>34</v>
       </c>
-      <c r="C42" s="73" t="s">
-        <v>270</v>
-      </c>
-      <c r="D42" s="79" t="s">
-        <v>378</v>
+      <c r="C42" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="D42" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E42" s="37"/>
       <c r="F42" s="50"/>
       <c r="G42" s="51"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="59">
+      <c r="M42" s="58">
         <v>142</v>
       </c>
       <c r="N42" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O42" s="31" t="s">
         <v>71</v>
@@ -4479,27 +4598,27 @@
       <c r="Q42" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="57"/>
+      <c r="R42" s="56"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="49">
         <v>35</v>
       </c>
-      <c r="C43" s="73" t="s">
-        <v>271</v>
-      </c>
-      <c r="D43" s="79" t="s">
-        <v>378</v>
+      <c r="C43" s="72" t="s">
+        <v>267</v>
+      </c>
+      <c r="D43" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E43" s="37"/>
       <c r="F43" s="50"/>
       <c r="G43" s="51"/>
       <c r="L43" s="40"/>
-      <c r="M43" s="59">
+      <c r="M43" s="58">
         <v>142</v>
       </c>
       <c r="N43" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O43" s="31" t="s">
         <v>72</v>
@@ -4510,27 +4629,27 @@
       <c r="Q43" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R43" s="57"/>
+      <c r="R43" s="56"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B44" s="44">
         <v>36</v>
       </c>
-      <c r="C44" s="73" t="s">
-        <v>272</v>
-      </c>
-      <c r="D44" s="79" t="s">
-        <v>378</v>
+      <c r="C44" s="72" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="50"/>
       <c r="G44" s="51"/>
       <c r="L44" s="40"/>
-      <c r="M44" s="59">
+      <c r="M44" s="58">
         <v>142</v>
       </c>
       <c r="N44" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O44" s="31" t="s">
         <v>73</v>
@@ -4547,21 +4666,21 @@
       <c r="B45" s="44">
         <v>37</v>
       </c>
-      <c r="C45" s="73" t="s">
-        <v>273</v>
-      </c>
-      <c r="D45" s="79" t="s">
-        <v>378</v>
+      <c r="C45" s="72" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E45" s="37"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
       <c r="L45" s="40"/>
-      <c r="M45" s="59">
+      <c r="M45" s="58">
         <v>142</v>
       </c>
       <c r="N45" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O45" s="31" t="s">
         <v>74</v>
@@ -4578,21 +4697,21 @@
       <c r="B46" s="49">
         <v>38</v>
       </c>
-      <c r="C46" s="73" t="s">
-        <v>274</v>
-      </c>
-      <c r="D46" s="79" t="s">
-        <v>378</v>
+      <c r="C46" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="50"/>
       <c r="G46" s="51"/>
       <c r="L46" s="40"/>
-      <c r="M46" s="59">
+      <c r="M46" s="58">
         <v>142</v>
       </c>
       <c r="N46" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O46" s="31" t="s">
         <v>75</v>
@@ -4609,21 +4728,21 @@
       <c r="B47" s="44">
         <v>39</v>
       </c>
-      <c r="C47" s="73" t="s">
-        <v>275</v>
-      </c>
-      <c r="D47" s="79" t="s">
-        <v>378</v>
+      <c r="C47" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="D47" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="50"/>
       <c r="G47" s="51"/>
       <c r="L47" s="40"/>
-      <c r="M47" s="59">
+      <c r="M47" s="58">
         <v>142</v>
       </c>
       <c r="N47" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O47" s="31" t="s">
         <v>76</v>
@@ -4640,21 +4759,21 @@
       <c r="B48" s="44">
         <v>40</v>
       </c>
-      <c r="C48" s="73" t="s">
-        <v>276</v>
-      </c>
-      <c r="D48" s="79" t="s">
-        <v>378</v>
+      <c r="C48" s="72" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="50"/>
       <c r="G48" s="51"/>
       <c r="L48" s="40"/>
-      <c r="M48" s="59">
+      <c r="M48" s="58">
         <v>142</v>
       </c>
       <c r="N48" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O48" s="31" t="s">
         <v>77</v>
@@ -4671,21 +4790,21 @@
       <c r="B49" s="49">
         <v>41</v>
       </c>
-      <c r="C49" s="73" t="s">
-        <v>277</v>
-      </c>
-      <c r="D49" s="79" t="s">
+      <c r="C49" s="72" t="s">
+        <v>273</v>
+      </c>
+      <c r="D49" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="50"/>
       <c r="G49" s="51"/>
       <c r="L49" s="40"/>
-      <c r="M49" s="59">
+      <c r="M49" s="58">
         <v>142</v>
       </c>
       <c r="N49" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O49" s="31" t="s">
         <v>78</v>
@@ -4702,21 +4821,21 @@
       <c r="B50" s="44">
         <v>42</v>
       </c>
-      <c r="C50" s="73" t="s">
-        <v>278</v>
-      </c>
-      <c r="D50" s="79" t="s">
+      <c r="C50" s="72" t="s">
+        <v>274</v>
+      </c>
+      <c r="D50" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="50"/>
       <c r="G50" s="51"/>
       <c r="L50" s="40"/>
-      <c r="M50" s="59">
+      <c r="M50" s="58">
         <v>142</v>
       </c>
       <c r="N50" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O50" s="31" t="s">
         <v>79</v>
@@ -4727,66 +4846,66 @@
       <c r="Q50" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R50" s="57"/>
+      <c r="R50" s="56"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="44">
         <v>43</v>
       </c>
-      <c r="C51" s="73" t="s">
-        <v>279</v>
-      </c>
-      <c r="D51" s="79" t="s">
+      <c r="C51" s="72" t="s">
+        <v>275</v>
+      </c>
+      <c r="D51" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="24"/>
       <c r="F51" s="50"/>
       <c r="G51" s="51"/>
       <c r="L51" s="40"/>
-      <c r="M51" s="96">
+      <c r="M51" s="95">
         <v>144</v>
       </c>
-      <c r="N51" s="97" t="s">
-        <v>162</v>
-      </c>
-      <c r="O51" s="97" t="s">
+      <c r="N51" s="96" t="s">
+        <v>158</v>
+      </c>
+      <c r="O51" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="97" t="s">
+      <c r="P51" s="96" t="s">
         <v>46</v>
       </c>
-      <c r="Q51" s="97" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="98"/>
+      <c r="Q51" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="97"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="49">
         <v>44</v>
       </c>
-      <c r="C52" s="73" t="s">
-        <v>280</v>
-      </c>
-      <c r="D52" s="79" t="s">
-        <v>379</v>
+      <c r="C52" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="78" t="s">
+        <v>375</v>
       </c>
       <c r="E52" s="24"/>
       <c r="F52" s="50"/>
       <c r="G52" s="51"/>
       <c r="L52" s="40"/>
-      <c r="M52" s="64">
+      <c r="M52" s="63">
         <v>145</v>
       </c>
-      <c r="N52" s="65" t="s">
-        <v>162</v>
-      </c>
-      <c r="O52" s="65" t="s">
+      <c r="N52" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="O52" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="65" t="s">
+      <c r="P52" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="Q52" s="65" t="s">
+      <c r="Q52" s="64" t="s">
         <v>20</v>
       </c>
       <c r="R52" s="47"/>
@@ -4795,21 +4914,21 @@
       <c r="B53" s="44">
         <v>45</v>
       </c>
-      <c r="C53" s="73" t="s">
-        <v>281</v>
-      </c>
-      <c r="D53" s="79" t="s">
-        <v>380</v>
+      <c r="C53" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="78" t="s">
+        <v>376</v>
       </c>
       <c r="E53" s="24"/>
       <c r="F53" s="50"/>
       <c r="G53" s="51"/>
       <c r="L53" s="40"/>
-      <c r="M53" s="59">
+      <c r="M53" s="58">
         <v>142</v>
       </c>
       <c r="N53" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O53" s="31" t="s">
         <v>26</v>
@@ -4820,27 +4939,27 @@
       <c r="Q53" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R53" s="57"/>
+      <c r="R53" s="56"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="44">
         <v>46</v>
       </c>
-      <c r="C54" s="73" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="79" t="s">
-        <v>371</v>
+      <c r="C54" s="72" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E54" s="24"/>
       <c r="F54" s="50"/>
       <c r="G54" s="51"/>
       <c r="L54" s="40"/>
-      <c r="M54" s="62">
+      <c r="M54" s="61">
         <v>140</v>
       </c>
       <c r="N54" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O54" s="31" t="s">
         <v>81</v>
@@ -4851,27 +4970,27 @@
       <c r="Q54" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R54" s="57"/>
+      <c r="R54" s="56"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="49">
         <v>47</v>
       </c>
-      <c r="C55" s="73" t="s">
-        <v>283</v>
-      </c>
-      <c r="D55" s="79" t="s">
-        <v>380</v>
+      <c r="C55" s="72" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="78" t="s">
+        <v>376</v>
       </c>
       <c r="E55" s="24"/>
       <c r="F55" s="50"/>
       <c r="G55" s="51"/>
       <c r="L55" s="40"/>
-      <c r="M55" s="62">
+      <c r="M55" s="61">
         <v>4</v>
       </c>
       <c r="N55" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O55" s="31" t="s">
         <v>82</v>
@@ -4888,24 +5007,24 @@
       <c r="B56" s="44">
         <v>48</v>
       </c>
-      <c r="C56" s="73" t="s">
-        <v>284</v>
-      </c>
-      <c r="D56" s="79" t="s">
-        <v>381</v>
+      <c r="C56" s="72" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="78" t="s">
+        <v>377</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="50"/>
       <c r="G56" s="51"/>
       <c r="L56" s="40"/>
-      <c r="M56" s="62">
+      <c r="M56" s="61">
         <v>142</v>
       </c>
       <c r="N56" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O56" s="31" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P56" s="31" t="s">
         <v>46</v>
@@ -4919,21 +5038,21 @@
       <c r="B57" s="44">
         <v>49</v>
       </c>
-      <c r="C57" s="73" t="s">
-        <v>285</v>
-      </c>
-      <c r="D57" s="79" t="s">
-        <v>377</v>
+      <c r="C57" s="72" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="78" t="s">
+        <v>373</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="50"/>
       <c r="G57" s="51"/>
       <c r="L57" s="40"/>
-      <c r="M57" s="59">
+      <c r="M57" s="58">
         <v>142</v>
       </c>
       <c r="N57" s="31" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O57" s="31" t="s">
         <v>83</v>
@@ -4950,29 +5069,29 @@
       <c r="B58" s="49">
         <v>50</v>
       </c>
-      <c r="C58" s="73" t="s">
-        <v>286</v>
-      </c>
-      <c r="D58" s="79" t="s">
-        <v>382</v>
+      <c r="C58" s="72" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="78" t="s">
+        <v>378</v>
       </c>
       <c r="E58" s="24"/>
       <c r="F58" s="50"/>
       <c r="G58" s="51"/>
       <c r="L58" s="41"/>
-      <c r="M58" s="59">
-        <v>142</v>
-      </c>
-      <c r="N58" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="O58" s="58" t="s">
+      <c r="M58" s="58">
+        <v>142</v>
+      </c>
+      <c r="N58" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="O58" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="58" t="s">
+      <c r="P58" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="Q58" s="58" t="s">
+      <c r="Q58" s="57" t="s">
         <v>20</v>
       </c>
       <c r="R58" s="52"/>
@@ -4981,32 +5100,32 @@
       <c r="B59" s="44">
         <v>51</v>
       </c>
-      <c r="C59" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="D59" s="79" t="s">
-        <v>371</v>
+      <c r="C59" s="72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E59" s="24"/>
       <c r="F59" s="50"/>
       <c r="G59" s="51"/>
       <c r="L59" s="55"/>
-      <c r="M59" s="46">
+      <c r="M59" s="123">
         <v>135</v>
       </c>
-      <c r="N59" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="O59" s="60" t="s">
+      <c r="N59" s="45" t="s">
+        <v>159</v>
+      </c>
+      <c r="O59" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="P59" s="60" t="s">
+      <c r="P59" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="60" t="s">
+      <c r="Q59" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="R59" s="53" t="s">
+      <c r="R59" s="122" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5014,1220 +5133,1220 @@
       <c r="B60" s="44">
         <v>52</v>
       </c>
-      <c r="C60" s="73" t="s">
-        <v>288</v>
-      </c>
-      <c r="D60" s="79" t="s">
-        <v>371</v>
+      <c r="C60" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="D60" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="50"/>
       <c r="G60" s="51"/>
       <c r="L60" s="40"/>
-      <c r="M60" s="33">
+      <c r="M60" s="49">
         <v>141</v>
       </c>
-      <c r="N60" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O60" s="31" t="s">
+      <c r="N60" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O60" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="P60" s="31" t="s">
+      <c r="P60" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q60" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="34"/>
+      <c r="Q60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="80"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B61" s="49">
         <v>53</v>
       </c>
-      <c r="C61" s="73" t="s">
-        <v>289</v>
-      </c>
-      <c r="D61" s="79" t="s">
-        <v>371</v>
+      <c r="C61" s="72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D61" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E61" s="24"/>
       <c r="F61" s="50"/>
       <c r="G61" s="51"/>
       <c r="L61" s="40"/>
-      <c r="M61" s="33">
+      <c r="M61" s="49">
         <v>141</v>
       </c>
-      <c r="N61" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O61" s="31" t="s">
+      <c r="N61" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O61" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="P61" s="31" t="s">
+      <c r="P61" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q61" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="34"/>
+      <c r="Q61" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="80"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B62" s="44">
         <v>54</v>
       </c>
-      <c r="C62" s="73" t="s">
-        <v>290</v>
-      </c>
-      <c r="D62" s="79" t="s">
-        <v>383</v>
+      <c r="C62" s="72" t="s">
+        <v>286</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>379</v>
       </c>
       <c r="E62" s="24"/>
       <c r="F62" s="50"/>
       <c r="G62" s="51"/>
       <c r="L62" s="40"/>
-      <c r="M62" s="33">
+      <c r="M62" s="49">
         <v>67</v>
       </c>
-      <c r="N62" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O62" s="31" t="s">
+      <c r="N62" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O62" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="P62" s="31" t="s">
+      <c r="P62" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="34"/>
+      <c r="Q62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="80"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B63" s="44">
         <v>55</v>
       </c>
-      <c r="C63" s="73" t="s">
-        <v>291</v>
-      </c>
-      <c r="D63" s="79" t="s">
-        <v>379</v>
+      <c r="C63" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="D63" s="78" t="s">
+        <v>375</v>
       </c>
       <c r="E63" s="24"/>
       <c r="F63" s="50"/>
       <c r="G63" s="51"/>
       <c r="L63" s="40"/>
-      <c r="M63" s="59">
-        <v>142</v>
-      </c>
-      <c r="N63" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O63" s="31" t="s">
+      <c r="M63" s="44">
+        <v>142</v>
+      </c>
+      <c r="N63" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O63" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="P63" s="31" t="s">
+      <c r="P63" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q63" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="34"/>
+      <c r="Q63" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="80"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B64" s="49">
         <v>56</v>
       </c>
-      <c r="C64" s="73" t="s">
-        <v>292</v>
-      </c>
-      <c r="D64" s="79" t="s">
-        <v>371</v>
+      <c r="C64" s="72" t="s">
+        <v>288</v>
+      </c>
+      <c r="D64" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E64" s="24"/>
       <c r="F64" s="50"/>
       <c r="G64" s="51"/>
       <c r="L64" s="40"/>
-      <c r="M64" s="59">
-        <v>142</v>
-      </c>
-      <c r="N64" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O64" s="31" t="s">
+      <c r="M64" s="44">
+        <v>142</v>
+      </c>
+      <c r="N64" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O64" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="P64" s="31" t="s">
+      <c r="P64" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q64" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R64" s="34"/>
+      <c r="Q64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="80"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B65" s="44">
         <v>57</v>
       </c>
-      <c r="C65" s="73" t="s">
-        <v>293</v>
-      </c>
-      <c r="D65" s="79" t="s">
-        <v>384</v>
+      <c r="C65" s="72" t="s">
+        <v>289</v>
+      </c>
+      <c r="D65" s="78" t="s">
+        <v>380</v>
       </c>
       <c r="E65" s="24"/>
       <c r="F65" s="50"/>
       <c r="G65" s="51"/>
       <c r="L65" s="40"/>
-      <c r="M65" s="33">
+      <c r="M65" s="49">
         <v>141</v>
       </c>
-      <c r="N65" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O65" s="31" t="s">
+      <c r="N65" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O65" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="P65" s="31" t="s">
+      <c r="P65" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q65" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="34"/>
+      <c r="Q65" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="80"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B66" s="44">
         <v>58</v>
       </c>
-      <c r="C66" s="73" t="s">
-        <v>294</v>
-      </c>
-      <c r="D66" s="79" t="s">
-        <v>376</v>
+      <c r="C66" s="72" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="78" t="s">
+        <v>372</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="50"/>
       <c r="G66" s="51"/>
       <c r="L66" s="40"/>
-      <c r="M66" s="59">
-        <v>142</v>
-      </c>
-      <c r="N66" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O66" s="31" t="s">
+      <c r="M66" s="44">
+        <v>142</v>
+      </c>
+      <c r="N66" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O66" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="P66" s="31" t="s">
+      <c r="P66" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q66" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="34"/>
+      <c r="Q66" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="80"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B67" s="49">
         <v>59</v>
       </c>
-      <c r="C67" s="73" t="s">
-        <v>295</v>
-      </c>
-      <c r="D67" s="79" t="s">
-        <v>385</v>
+      <c r="C67" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="D67" s="78" t="s">
+        <v>381</v>
       </c>
       <c r="E67" s="24"/>
       <c r="F67" s="50"/>
       <c r="G67" s="51"/>
       <c r="L67" s="40"/>
-      <c r="M67" s="33">
+      <c r="M67" s="49">
         <v>141</v>
       </c>
-      <c r="N67" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O67" s="31" t="s">
+      <c r="N67" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O67" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="P67" s="31" t="s">
+      <c r="P67" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q67" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="34"/>
+      <c r="Q67" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="80"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B68" s="44">
         <v>60</v>
       </c>
-      <c r="C68" s="73" t="s">
-        <v>296</v>
-      </c>
-      <c r="D68" s="79" t="s">
-        <v>371</v>
+      <c r="C68" s="72" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E68" s="24"/>
       <c r="F68" s="50"/>
       <c r="G68" s="51"/>
       <c r="L68" s="40"/>
-      <c r="M68" s="59">
-        <v>142</v>
-      </c>
-      <c r="N68" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O68" s="31" t="s">
+      <c r="M68" s="44">
+        <v>142</v>
+      </c>
+      <c r="N68" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O68" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="P68" s="31" t="s">
+      <c r="P68" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q68" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="34"/>
+      <c r="Q68" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="80"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B69" s="44">
         <v>61</v>
       </c>
-      <c r="C69" s="73" t="s">
-        <v>297</v>
-      </c>
-      <c r="D69" s="79" t="s">
-        <v>386</v>
+      <c r="C69" s="72" t="s">
+        <v>293</v>
+      </c>
+      <c r="D69" s="78" t="s">
+        <v>382</v>
       </c>
       <c r="E69" s="24"/>
       <c r="F69" s="50"/>
       <c r="G69" s="51"/>
       <c r="L69" s="40"/>
-      <c r="M69" s="33">
+      <c r="M69" s="49">
         <v>141</v>
       </c>
-      <c r="N69" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O69" s="31" t="s">
+      <c r="N69" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O69" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="31" t="s">
+      <c r="P69" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q69" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="34"/>
+      <c r="Q69" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="80"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B70" s="49">
         <v>62</v>
       </c>
-      <c r="C70" s="73" t="s">
-        <v>298</v>
-      </c>
-      <c r="D70" s="79" t="s">
-        <v>387</v>
+      <c r="C70" s="72" t="s">
+        <v>294</v>
+      </c>
+      <c r="D70" s="78" t="s">
+        <v>383</v>
       </c>
       <c r="E70" s="24"/>
       <c r="F70" s="50"/>
       <c r="G70" s="51"/>
       <c r="L70" s="40"/>
-      <c r="M70" s="59">
-        <v>142</v>
-      </c>
-      <c r="N70" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O70" s="31" t="s">
+      <c r="M70" s="44">
+        <v>142</v>
+      </c>
+      <c r="N70" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O70" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="31" t="s">
+      <c r="P70" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q70" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="34"/>
+      <c r="Q70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="80"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B71" s="44">
         <v>63</v>
       </c>
-      <c r="C71" s="73" t="s">
-        <v>299</v>
-      </c>
-      <c r="D71" s="79" t="s">
-        <v>371</v>
+      <c r="C71" s="72" t="s">
+        <v>295</v>
+      </c>
+      <c r="D71" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E71" s="24"/>
       <c r="F71" s="50"/>
       <c r="G71" s="51"/>
       <c r="L71" s="40"/>
-      <c r="M71" s="33">
+      <c r="M71" s="49">
         <v>141</v>
       </c>
-      <c r="N71" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O71" s="31" t="s">
+      <c r="N71" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O71" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="P71" s="31" t="s">
+      <c r="P71" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q71" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="34"/>
+      <c r="Q71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="80"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B72" s="44">
         <v>64</v>
       </c>
-      <c r="C72" s="73" t="s">
-        <v>300</v>
-      </c>
-      <c r="D72" s="79" t="s">
-        <v>387</v>
+      <c r="C72" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="D72" s="78" t="s">
+        <v>383</v>
       </c>
       <c r="E72" s="24"/>
       <c r="F72" s="50"/>
       <c r="G72" s="51"/>
       <c r="L72" s="40"/>
-      <c r="M72" s="33">
+      <c r="M72" s="49">
         <v>141</v>
       </c>
-      <c r="N72" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O72" s="31" t="s">
+      <c r="N72" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O72" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="P72" s="31" t="s">
+      <c r="P72" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q72" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" s="34"/>
+      <c r="Q72" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="80"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B73" s="49">
         <v>65</v>
       </c>
-      <c r="C73" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="D73" s="79" t="s">
-        <v>387</v>
+      <c r="C73" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="D73" s="78" t="s">
+        <v>383</v>
       </c>
       <c r="E73" s="24"/>
       <c r="F73" s="50"/>
       <c r="G73" s="51"/>
       <c r="L73" s="40"/>
-      <c r="M73" s="59">
-        <v>142</v>
-      </c>
-      <c r="N73" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O73" s="31" t="s">
+      <c r="M73" s="44">
+        <v>142</v>
+      </c>
+      <c r="N73" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O73" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="P73" s="31" t="s">
+      <c r="P73" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q73" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="34"/>
+      <c r="Q73" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="80"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B74" s="44">
         <v>66</v>
       </c>
-      <c r="C74" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="D74" s="79" t="s">
-        <v>371</v>
+      <c r="C74" s="72" t="s">
+        <v>298</v>
+      </c>
+      <c r="D74" s="78" t="s">
+        <v>367</v>
       </c>
       <c r="E74" s="24"/>
       <c r="F74" s="50"/>
       <c r="G74" s="51"/>
       <c r="L74" s="40"/>
-      <c r="M74" s="33">
+      <c r="M74" s="49">
         <v>141</v>
       </c>
-      <c r="N74" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O74" s="31" t="s">
+      <c r="N74" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O74" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="P74" s="31" t="s">
+      <c r="P74" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q74" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R74" s="34"/>
+      <c r="Q74" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="80"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B75" s="44">
         <v>67</v>
       </c>
-      <c r="C75" s="73" t="s">
-        <v>303</v>
-      </c>
-      <c r="D75" s="79" t="s">
+      <c r="C75" s="72" t="s">
+        <v>299</v>
+      </c>
+      <c r="D75" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="24"/>
       <c r="F75" s="50"/>
       <c r="G75" s="51"/>
       <c r="L75" s="40"/>
-      <c r="M75" s="59">
-        <v>142</v>
-      </c>
-      <c r="N75" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O75" s="31" t="s">
+      <c r="M75" s="44">
+        <v>142</v>
+      </c>
+      <c r="N75" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O75" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="P75" s="31" t="s">
+      <c r="P75" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q75" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R75" s="34"/>
+      <c r="Q75" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="80"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B76" s="49">
         <v>68</v>
       </c>
-      <c r="C76" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="D76" s="79" t="s">
-        <v>388</v>
+      <c r="C76" s="72" t="s">
+        <v>300</v>
+      </c>
+      <c r="D76" s="78" t="s">
+        <v>384</v>
       </c>
       <c r="E76" s="24"/>
       <c r="F76" s="50"/>
       <c r="G76" s="51"/>
       <c r="L76" s="40"/>
-      <c r="M76" s="33">
+      <c r="M76" s="49">
         <v>141</v>
       </c>
-      <c r="N76" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O76" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="P76" s="31" t="s">
+      <c r="N76" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O76" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="P76" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q76" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="34"/>
+      <c r="Q76" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="80"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B77" s="44">
         <v>69</v>
       </c>
-      <c r="C77" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="D77" s="79" t="s">
-        <v>389</v>
+      <c r="C77" s="72" t="s">
+        <v>301</v>
+      </c>
+      <c r="D77" s="78" t="s">
+        <v>385</v>
       </c>
       <c r="E77" s="24"/>
       <c r="F77" s="50"/>
       <c r="G77" s="51"/>
       <c r="L77" s="40"/>
-      <c r="M77" s="59">
-        <v>142</v>
-      </c>
-      <c r="N77" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O77" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="P77" s="31" t="s">
+      <c r="M77" s="44">
+        <v>142</v>
+      </c>
+      <c r="N77" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O77" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="P77" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q77" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R77" s="34"/>
+      <c r="Q77" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="80"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B78" s="44">
         <v>70</v>
       </c>
-      <c r="C78" s="73" t="s">
-        <v>306</v>
-      </c>
-      <c r="D78" s="79" t="s">
+      <c r="C78" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" s="78" t="s">
         <v>38</v>
       </c>
       <c r="E78" s="24"/>
       <c r="F78" s="50"/>
       <c r="G78" s="51"/>
       <c r="L78" s="40"/>
-      <c r="M78" s="33">
+      <c r="M78" s="49">
         <v>141</v>
       </c>
-      <c r="N78" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O78" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="P78" s="31" t="s">
+      <c r="N78" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O78" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="P78" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q78" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R78" s="34"/>
+      <c r="Q78" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="80"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="49">
         <v>71</v>
       </c>
-      <c r="C79" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="D79" s="79" t="s">
-        <v>378</v>
+      <c r="C79" s="72" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E79" s="24"/>
       <c r="F79" s="50"/>
       <c r="G79" s="51"/>
       <c r="L79" s="40"/>
-      <c r="M79" s="59">
-        <v>142</v>
-      </c>
-      <c r="N79" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O79" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="P79" s="31" t="s">
+      <c r="M79" s="44">
+        <v>142</v>
+      </c>
+      <c r="N79" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O79" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="P79" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q79" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" s="34"/>
+      <c r="Q79" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="80"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B80" s="44">
         <v>72</v>
       </c>
-      <c r="C80" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="D80" s="79" t="s">
-        <v>378</v>
+      <c r="C80" s="72" t="s">
+        <v>304</v>
+      </c>
+      <c r="D80" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E80" s="24"/>
       <c r="F80" s="50"/>
       <c r="G80" s="51"/>
       <c r="L80" s="40"/>
-      <c r="M80" s="33">
+      <c r="M80" s="49">
         <v>141</v>
       </c>
-      <c r="N80" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O80" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="P80" s="31" t="s">
+      <c r="N80" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O80" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="P80" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q80" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" s="34"/>
+      <c r="Q80" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="80"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B81" s="44">
         <v>73</v>
       </c>
-      <c r="C81" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="D81" s="79" t="s">
-        <v>378</v>
+      <c r="C81" s="72" t="s">
+        <v>305</v>
+      </c>
+      <c r="D81" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E81" s="24"/>
       <c r="F81" s="50"/>
       <c r="G81" s="51"/>
       <c r="L81" s="40"/>
-      <c r="M81" s="59">
-        <v>142</v>
-      </c>
-      <c r="N81" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O81" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="P81" s="31" t="s">
+      <c r="M81" s="44">
+        <v>142</v>
+      </c>
+      <c r="N81" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O81" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P81" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q81" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R81" s="34"/>
+      <c r="Q81" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R81" s="80"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B82" s="49">
         <v>74</v>
       </c>
-      <c r="C82" s="73" t="s">
-        <v>310</v>
-      </c>
-      <c r="D82" s="79" t="s">
-        <v>378</v>
+      <c r="C82" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82" s="78" t="s">
+        <v>374</v>
       </c>
       <c r="E82" s="24"/>
       <c r="F82" s="50"/>
       <c r="G82" s="51"/>
       <c r="L82" s="40"/>
-      <c r="M82" s="33">
+      <c r="M82" s="49">
         <v>141</v>
       </c>
-      <c r="N82" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O82" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="P82" s="31" t="s">
+      <c r="N82" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O82" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P82" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q82" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R82" s="34"/>
+      <c r="Q82" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="80"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B83" s="44">
         <v>75</v>
       </c>
-      <c r="C83" s="73" t="s">
-        <v>311</v>
-      </c>
-      <c r="D83" s="79" t="s">
+      <c r="C83" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="D83" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="24"/>
       <c r="F83" s="50"/>
       <c r="G83" s="51"/>
       <c r="L83" s="40"/>
-      <c r="M83" s="59">
-        <v>142</v>
-      </c>
-      <c r="N83" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O83" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="P83" s="31" t="s">
+      <c r="M83" s="44">
+        <v>142</v>
+      </c>
+      <c r="N83" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O83" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="P83" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q83" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R83" s="36"/>
+      <c r="Q83" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R83" s="56"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B84" s="44">
         <v>76</v>
       </c>
-      <c r="C84" s="73" t="s">
-        <v>312</v>
-      </c>
-      <c r="D84" s="79" t="s">
-        <v>387</v>
+      <c r="C84" s="72" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" s="78" t="s">
+        <v>383</v>
       </c>
       <c r="E84" s="24"/>
       <c r="F84" s="50"/>
       <c r="G84" s="51"/>
       <c r="L84" s="40"/>
-      <c r="M84" s="33">
+      <c r="M84" s="49">
         <v>141</v>
       </c>
-      <c r="N84" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O84" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="P84" s="31" t="s">
+      <c r="N84" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O84" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="P84" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q84" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R84" s="34"/>
+      <c r="Q84" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R84" s="80"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B85" s="49">
         <v>77</v>
       </c>
-      <c r="C85" s="73" t="s">
-        <v>313</v>
-      </c>
-      <c r="D85" s="79" t="s">
-        <v>387</v>
+      <c r="C85" s="72" t="s">
+        <v>309</v>
+      </c>
+      <c r="D85" s="78" t="s">
+        <v>383</v>
       </c>
       <c r="E85" s="24"/>
       <c r="F85" s="50"/>
       <c r="G85" s="51"/>
       <c r="L85" s="40"/>
-      <c r="M85" s="59">
-        <v>142</v>
-      </c>
-      <c r="N85" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O85" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="P85" s="31" t="s">
+      <c r="M85" s="44">
+        <v>142</v>
+      </c>
+      <c r="N85" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O85" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="P85" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q85" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R85" s="34"/>
+      <c r="Q85" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R85" s="80"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B86" s="44">
         <v>78</v>
       </c>
-      <c r="C86" s="73" t="s">
-        <v>314</v>
-      </c>
-      <c r="D86" s="79" t="s">
-        <v>387</v>
+      <c r="C86" s="72" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" s="78" t="s">
+        <v>383</v>
       </c>
       <c r="E86" s="24"/>
       <c r="F86" s="50"/>
       <c r="G86" s="51"/>
       <c r="L86" s="40"/>
-      <c r="M86" s="33">
+      <c r="M86" s="49">
         <v>141</v>
       </c>
-      <c r="N86" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O86" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="P86" s="31" t="s">
+      <c r="N86" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O86" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="P86" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q86" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R86" s="36"/>
+      <c r="Q86" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R86" s="56"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B87" s="44">
         <v>79</v>
       </c>
-      <c r="C87" s="73" t="s">
-        <v>315</v>
-      </c>
-      <c r="D87" s="79" t="s">
-        <v>372</v>
+      <c r="C87" s="72" t="s">
+        <v>311</v>
+      </c>
+      <c r="D87" s="78" t="s">
+        <v>368</v>
       </c>
       <c r="E87" s="24"/>
       <c r="F87" s="50"/>
       <c r="G87" s="51"/>
       <c r="L87" s="40"/>
-      <c r="M87" s="59">
-        <v>142</v>
-      </c>
-      <c r="N87" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O87" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="P87" s="31" t="s">
+      <c r="M87" s="44">
+        <v>142</v>
+      </c>
+      <c r="N87" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O87" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="P87" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q87" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R87" s="34"/>
+      <c r="Q87" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R87" s="80"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B88" s="49">
         <v>80</v>
       </c>
-      <c r="C88" s="73" t="s">
-        <v>316</v>
-      </c>
-      <c r="D88" s="79" t="s">
+      <c r="C88" s="72" t="s">
+        <v>312</v>
+      </c>
+      <c r="D88" s="78" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="24"/>
       <c r="F88" s="50"/>
       <c r="G88" s="51"/>
       <c r="L88" s="40"/>
-      <c r="M88" s="33">
+      <c r="M88" s="49">
         <v>141</v>
       </c>
-      <c r="N88" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O88" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="P88" s="31" t="s">
+      <c r="N88" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O88" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="P88" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q88" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R88" s="36"/>
+      <c r="Q88" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R88" s="56"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B89" s="44">
         <v>81</v>
       </c>
-      <c r="C89" s="73" t="s">
-        <v>317</v>
-      </c>
-      <c r="D89" s="79" t="s">
-        <v>393</v>
+      <c r="C89" s="72" t="s">
+        <v>313</v>
+      </c>
+      <c r="D89" s="78" t="s">
+        <v>389</v>
       </c>
       <c r="E89" s="24"/>
       <c r="F89" s="50"/>
       <c r="G89" s="51"/>
       <c r="L89" s="40"/>
-      <c r="M89" s="59">
-        <v>142</v>
-      </c>
-      <c r="N89" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O89" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="P89" s="31" t="s">
+      <c r="M89" s="44">
+        <v>142</v>
+      </c>
+      <c r="N89" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O89" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="P89" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q89" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R89" s="36"/>
+      <c r="Q89" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R89" s="56"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B90" s="44">
         <v>82</v>
       </c>
-      <c r="C90" s="73" t="s">
-        <v>318</v>
-      </c>
-      <c r="D90" s="79" t="s">
-        <v>380</v>
+      <c r="C90" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="D90" s="78" t="s">
+        <v>376</v>
       </c>
       <c r="E90" s="24"/>
       <c r="F90" s="50"/>
       <c r="G90" s="51"/>
       <c r="L90" s="40"/>
-      <c r="M90" s="33">
+      <c r="M90" s="49">
         <v>141</v>
       </c>
-      <c r="N90" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O90" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="P90" s="31" t="s">
+      <c r="N90" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O90" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P90" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q90" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R90" s="34"/>
+      <c r="Q90" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R90" s="80"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B91" s="49">
         <v>83</v>
       </c>
-      <c r="C91" s="70" t="s">
-        <v>319</v>
-      </c>
-      <c r="D91" s="70" t="s">
-        <v>393</v>
+      <c r="C91" s="69" t="s">
+        <v>315</v>
+      </c>
+      <c r="D91" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E91" s="24"/>
       <c r="F91" s="50"/>
       <c r="G91" s="51"/>
       <c r="L91" s="40"/>
-      <c r="M91" s="59">
-        <v>142</v>
-      </c>
-      <c r="N91" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O91" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="P91" s="31" t="s">
+      <c r="M91" s="44">
+        <v>142</v>
+      </c>
+      <c r="N91" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O91" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="P91" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R91" s="34"/>
+      <c r="Q91" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R91" s="80"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B92" s="44">
         <v>84</v>
       </c>
-      <c r="C92" s="70" t="s">
-        <v>320</v>
-      </c>
-      <c r="D92" s="70" t="s">
-        <v>371</v>
+      <c r="C92" s="69" t="s">
+        <v>316</v>
+      </c>
+      <c r="D92" s="69" t="s">
+        <v>367</v>
       </c>
       <c r="E92" s="24"/>
       <c r="F92" s="50"/>
       <c r="G92" s="51"/>
       <c r="L92" s="40"/>
-      <c r="M92" s="33">
+      <c r="M92" s="49">
         <v>141</v>
       </c>
-      <c r="N92" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O92" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="P92" s="31" t="s">
+      <c r="N92" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O92" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="P92" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="Q92" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R92" s="34"/>
+      <c r="Q92" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R92" s="80"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B93" s="44">
         <v>85</v>
       </c>
-      <c r="C93" s="70" t="s">
-        <v>321</v>
-      </c>
-      <c r="D93" s="70" t="s">
-        <v>393</v>
+      <c r="C93" s="69" t="s">
+        <v>317</v>
+      </c>
+      <c r="D93" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E93" s="24"/>
       <c r="F93" s="50"/>
       <c r="G93" s="51"/>
       <c r="L93" s="40"/>
-      <c r="M93" s="59">
-        <v>142</v>
-      </c>
-      <c r="N93" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O93" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="P93" s="31" t="s">
+      <c r="M93" s="44">
+        <v>142</v>
+      </c>
+      <c r="N93" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O93" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="P93" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q93" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R93" s="34"/>
+      <c r="Q93" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R93" s="80"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B94" s="49">
         <v>86</v>
       </c>
-      <c r="C94" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="D94" s="70" t="s">
-        <v>390</v>
+      <c r="C94" s="69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" s="69" t="s">
+        <v>386</v>
       </c>
       <c r="E94" s="24"/>
       <c r="F94" s="50"/>
       <c r="G94" s="51"/>
       <c r="L94" s="40"/>
-      <c r="M94" s="59">
-        <v>142</v>
-      </c>
-      <c r="N94" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O94" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="P94" s="31" t="s">
+      <c r="M94" s="44">
+        <v>142</v>
+      </c>
+      <c r="N94" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O94" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="P94" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q94" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R94" s="34"/>
+      <c r="Q94" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R94" s="80"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B95" s="44">
         <v>87</v>
       </c>
-      <c r="C95" s="70" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95" s="70" t="s">
-        <v>387</v>
+      <c r="C95" s="69" t="s">
+        <v>319</v>
+      </c>
+      <c r="D95" s="69" t="s">
+        <v>383</v>
       </c>
       <c r="E95" s="24"/>
       <c r="F95" s="50"/>
       <c r="G95" s="51"/>
       <c r="L95" s="40"/>
-      <c r="M95" s="33">
+      <c r="M95" s="49">
         <v>141</v>
       </c>
-      <c r="N95" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O95" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="P95" s="31" t="s">
+      <c r="N95" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O95" s="37" t="s">
+        <v>423</v>
+      </c>
+      <c r="P95" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q95" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R95" s="34"/>
+      <c r="Q95" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R95" s="80"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B96" s="44">
         <v>88</v>
       </c>
-      <c r="C96" s="70" t="s">
-        <v>324</v>
-      </c>
-      <c r="D96" s="70" t="s">
-        <v>371</v>
+      <c r="C96" s="69" t="s">
+        <v>320</v>
+      </c>
+      <c r="D96" s="69" t="s">
+        <v>367</v>
       </c>
       <c r="E96" s="24"/>
       <c r="F96" s="50"/>
       <c r="G96" s="51"/>
       <c r="L96" s="40"/>
-      <c r="M96" s="59">
-        <v>142</v>
-      </c>
-      <c r="N96" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O96" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="P96" s="31" t="s">
+      <c r="M96" s="44">
+        <v>142</v>
+      </c>
+      <c r="N96" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O96" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="P96" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="Q96" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R96" s="34"/>
+      <c r="Q96" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R96" s="80"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B97" s="49">
         <v>89</v>
       </c>
-      <c r="C97" s="70" t="s">
-        <v>325</v>
-      </c>
-      <c r="D97" s="70" t="s">
+      <c r="C97" s="69" t="s">
+        <v>321</v>
+      </c>
+      <c r="D97" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="24"/>
       <c r="F97" s="50"/>
       <c r="G97" s="51"/>
       <c r="L97" s="40"/>
-      <c r="M97" s="59">
-        <v>142</v>
-      </c>
-      <c r="N97" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O97" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="P97" s="31" t="s">
+      <c r="M97" s="44">
+        <v>142</v>
+      </c>
+      <c r="N97" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O97" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="P97" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q97" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R97" s="34"/>
+      <c r="Q97" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R97" s="80"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B98" s="44">
         <v>90</v>
       </c>
-      <c r="C98" s="70" t="s">
-        <v>326</v>
-      </c>
-      <c r="D98" s="70" t="s">
+      <c r="C98" s="69" t="s">
+        <v>322</v>
+      </c>
+      <c r="D98" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="24"/>
       <c r="F98" s="50"/>
       <c r="G98" s="51"/>
       <c r="L98" s="40"/>
-      <c r="M98" s="59">
-        <v>142</v>
-      </c>
-      <c r="N98" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O98" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="P98" s="31" t="s">
+      <c r="M98" s="44">
+        <v>142</v>
+      </c>
+      <c r="N98" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O98" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="P98" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q98" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R98" s="34"/>
+      <c r="Q98" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R98" s="80"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B99" s="44">
         <v>91</v>
       </c>
-      <c r="C99" s="70" t="s">
-        <v>327</v>
-      </c>
-      <c r="D99" s="70" t="s">
-        <v>391</v>
+      <c r="C99" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="D99" s="69" t="s">
+        <v>387</v>
       </c>
       <c r="E99" s="24"/>
       <c r="F99" s="50"/>
@@ -6236,29 +6355,29 @@
       <c r="M99" s="49">
         <v>9</v>
       </c>
-      <c r="N99" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O99" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="P99" s="31" t="s">
+      <c r="N99" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O99" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P99" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q99" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R99" s="34"/>
+      <c r="Q99" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R99" s="80"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B100" s="49">
         <v>92</v>
       </c>
-      <c r="C100" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="D100" s="70" t="s">
-        <v>393</v>
+      <c r="C100" s="69" t="s">
+        <v>324</v>
+      </c>
+      <c r="D100" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E100" s="24"/>
       <c r="F100" s="50"/>
@@ -6267,1209 +6386,1209 @@
       <c r="M100" s="49">
         <v>4</v>
       </c>
-      <c r="N100" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O100" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="P100" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q100" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R100" s="34"/>
+      <c r="N100" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O100" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="P100" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q100" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R100" s="80"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B101" s="44">
         <v>93</v>
       </c>
-      <c r="C101" s="70" t="s">
-        <v>329</v>
-      </c>
-      <c r="D101" s="70" t="s">
-        <v>372</v>
+      <c r="C101" s="69" t="s">
+        <v>325</v>
+      </c>
+      <c r="D101" s="69" t="s">
+        <v>368</v>
       </c>
       <c r="E101" s="24"/>
       <c r="F101" s="50"/>
       <c r="G101" s="51"/>
       <c r="L101" s="40"/>
-      <c r="M101" s="59">
-        <v>142</v>
-      </c>
-      <c r="N101" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O101" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="P101" s="31" t="s">
+      <c r="M101" s="44">
+        <v>142</v>
+      </c>
+      <c r="N101" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O101" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="P101" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="Q101" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R101" s="34"/>
+      <c r="Q101" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R101" s="80"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B102" s="44">
         <v>94</v>
       </c>
-      <c r="C102" s="70" t="s">
-        <v>330</v>
-      </c>
-      <c r="D102" s="70" t="s">
-        <v>378</v>
+      <c r="C102" s="69" t="s">
+        <v>326</v>
+      </c>
+      <c r="D102" s="69" t="s">
+        <v>374</v>
       </c>
       <c r="E102" s="24"/>
       <c r="F102" s="50"/>
       <c r="G102" s="51"/>
       <c r="L102" s="40"/>
-      <c r="M102" s="59">
-        <v>142</v>
-      </c>
-      <c r="N102" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O102" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="P102" s="31" t="s">
+      <c r="M102" s="44">
+        <v>142</v>
+      </c>
+      <c r="N102" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O102" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="P102" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Q102" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R102" s="34"/>
+      <c r="Q102" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R102" s="80"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B103" s="49">
         <v>95</v>
       </c>
-      <c r="C103" s="70" t="s">
-        <v>331</v>
-      </c>
-      <c r="D103" s="70" t="s">
-        <v>378</v>
+      <c r="C103" s="69" t="s">
+        <v>327</v>
+      </c>
+      <c r="D103" s="69" t="s">
+        <v>374</v>
       </c>
       <c r="E103" s="24"/>
       <c r="F103" s="50"/>
       <c r="G103" s="51"/>
       <c r="L103" s="40"/>
-      <c r="M103" s="59">
-        <v>142</v>
-      </c>
-      <c r="N103" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O103" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="P103" s="31" t="s">
+      <c r="M103" s="44">
+        <v>142</v>
+      </c>
+      <c r="N103" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O103" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="P103" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="Q103" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R103" s="34"/>
+      <c r="Q103" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R103" s="80"/>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B104" s="44">
         <v>96</v>
       </c>
-      <c r="C104" s="70" t="s">
-        <v>332</v>
-      </c>
-      <c r="D104" s="70" t="s">
-        <v>378</v>
+      <c r="C104" s="69" t="s">
+        <v>328</v>
+      </c>
+      <c r="D104" s="69" t="s">
+        <v>374</v>
       </c>
       <c r="E104" s="24"/>
       <c r="F104" s="50"/>
       <c r="G104" s="51"/>
       <c r="L104" s="40"/>
-      <c r="M104" s="33">
+      <c r="M104" s="49">
         <v>7</v>
       </c>
-      <c r="N104" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O104" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="P104" s="31" t="s">
+      <c r="N104" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O104" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P104" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Q104" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R104" s="34"/>
+      <c r="Q104" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R104" s="80"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B105" s="44">
         <v>97</v>
       </c>
-      <c r="C105" s="70" t="s">
-        <v>333</v>
-      </c>
-      <c r="D105" s="70" t="s">
-        <v>378</v>
+      <c r="C105" s="69" t="s">
+        <v>329</v>
+      </c>
+      <c r="D105" s="69" t="s">
+        <v>374</v>
       </c>
       <c r="E105" s="24"/>
       <c r="F105" s="50"/>
       <c r="G105" s="51"/>
       <c r="L105" s="40"/>
-      <c r="M105" s="59">
-        <v>142</v>
-      </c>
-      <c r="N105" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O105" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="P105" s="31" t="s">
+      <c r="M105" s="44">
+        <v>142</v>
+      </c>
+      <c r="N105" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O105" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="P105" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Q105" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R105" s="34"/>
+      <c r="Q105" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R105" s="80"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B106" s="49">
         <v>98</v>
       </c>
-      <c r="C106" s="70" t="s">
-        <v>334</v>
-      </c>
-      <c r="D106" s="70" t="s">
+      <c r="C106" s="69" t="s">
+        <v>330</v>
+      </c>
+      <c r="D106" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="24"/>
       <c r="F106" s="50"/>
       <c r="G106" s="51"/>
       <c r="L106" s="40"/>
-      <c r="M106" s="33">
+      <c r="M106" s="49">
         <v>5</v>
       </c>
-      <c r="N106" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O106" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="P106" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q106" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R106" s="34"/>
+      <c r="N106" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O106" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="P106" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q106" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R106" s="80"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B107" s="44">
         <v>99</v>
       </c>
-      <c r="C107" s="70" t="s">
-        <v>335</v>
-      </c>
-      <c r="D107" s="70" t="s">
+      <c r="C107" s="69" t="s">
+        <v>331</v>
+      </c>
+      <c r="D107" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="24"/>
       <c r="F107" s="50"/>
       <c r="G107" s="51"/>
       <c r="L107" s="40"/>
-      <c r="M107" s="33">
+      <c r="M107" s="49">
         <v>6</v>
       </c>
-      <c r="N107" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O107" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="P107" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q107" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R107" s="34"/>
+      <c r="N107" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O107" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="P107" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q107" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R107" s="80"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B108" s="44">
         <v>100</v>
       </c>
-      <c r="C108" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="D108" s="70" t="s">
-        <v>370</v>
+      <c r="C108" s="69" t="s">
+        <v>332</v>
+      </c>
+      <c r="D108" s="69" t="s">
+        <v>366</v>
       </c>
       <c r="E108" s="24"/>
       <c r="F108" s="50"/>
       <c r="G108" s="51"/>
       <c r="L108" s="40"/>
-      <c r="M108" s="59">
-        <v>142</v>
-      </c>
-      <c r="N108" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O108" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="P108" s="31" t="s">
+      <c r="M108" s="44">
+        <v>142</v>
+      </c>
+      <c r="N108" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O108" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="P108" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="Q108" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R108" s="34"/>
+      <c r="Q108" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R108" s="80"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B109" s="49">
         <v>101</v>
       </c>
-      <c r="C109" s="71" t="s">
-        <v>337</v>
-      </c>
-      <c r="D109" s="70" t="s">
-        <v>374</v>
+      <c r="C109" s="70" t="s">
+        <v>333</v>
+      </c>
+      <c r="D109" s="69" t="s">
+        <v>370</v>
       </c>
       <c r="E109" s="24"/>
       <c r="F109" s="50"/>
       <c r="G109" s="51"/>
       <c r="L109" s="40"/>
-      <c r="M109" s="59">
-        <v>142</v>
-      </c>
-      <c r="N109" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O109" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="P109" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q109" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R109" s="34"/>
+      <c r="M109" s="44">
+        <v>142</v>
+      </c>
+      <c r="N109" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O109" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="P109" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q109" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R109" s="80"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B110" s="44">
         <v>102</v>
       </c>
-      <c r="C110" s="71" t="s">
-        <v>338</v>
-      </c>
-      <c r="D110" s="70" t="s">
-        <v>393</v>
+      <c r="C110" s="70" t="s">
+        <v>334</v>
+      </c>
+      <c r="D110" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E110" s="24"/>
       <c r="F110" s="50"/>
       <c r="G110" s="51"/>
       <c r="L110" s="40"/>
-      <c r="M110" s="59">
-        <v>142</v>
-      </c>
-      <c r="N110" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O110" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="P110" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q110" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R110" s="34"/>
+      <c r="M110" s="44">
+        <v>142</v>
+      </c>
+      <c r="N110" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O110" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="P110" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q110" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R110" s="80"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B111" s="44">
         <v>103</v>
       </c>
-      <c r="C111" s="71" t="s">
-        <v>339</v>
-      </c>
-      <c r="D111" s="70" t="s">
-        <v>393</v>
+      <c r="C111" s="70" t="s">
+        <v>335</v>
+      </c>
+      <c r="D111" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E111" s="24"/>
       <c r="F111" s="50"/>
       <c r="G111" s="51"/>
       <c r="L111" s="40"/>
-      <c r="M111" s="59">
-        <v>142</v>
-      </c>
-      <c r="N111" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O111" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="P111" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q111" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R111" s="34"/>
+      <c r="M111" s="44">
+        <v>142</v>
+      </c>
+      <c r="N111" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O111" s="119" t="s">
+        <v>425</v>
+      </c>
+      <c r="P111" s="119" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q111" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R111" s="80"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B112" s="49">
         <v>104</v>
       </c>
-      <c r="C112" s="71" t="s">
-        <v>340</v>
-      </c>
-      <c r="D112" s="70" t="s">
-        <v>393</v>
+      <c r="C112" s="70" t="s">
+        <v>336</v>
+      </c>
+      <c r="D112" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E112" s="24"/>
       <c r="F112" s="50"/>
       <c r="G112" s="51"/>
       <c r="L112" s="40"/>
-      <c r="M112" s="59">
-        <v>142</v>
-      </c>
-      <c r="N112" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O112" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="P112" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q112" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R112" s="34"/>
+      <c r="M112" s="44">
+        <v>141</v>
+      </c>
+      <c r="N112" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O112" s="118" t="s">
+        <v>426</v>
+      </c>
+      <c r="P112" s="118" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q112" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R112" s="80"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B113" s="44">
         <v>105</v>
       </c>
-      <c r="C113" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="D113" s="70" t="s">
-        <v>396</v>
+      <c r="C113" s="70" t="s">
+        <v>337</v>
+      </c>
+      <c r="D113" s="69" t="s">
+        <v>392</v>
       </c>
       <c r="E113" s="24"/>
       <c r="F113" s="50"/>
       <c r="G113" s="51"/>
       <c r="L113" s="40"/>
-      <c r="M113" s="59">
-        <v>142</v>
-      </c>
-      <c r="N113" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O113" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="P113" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q113" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R113" s="34"/>
+      <c r="M113" s="44">
+        <v>142</v>
+      </c>
+      <c r="N113" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O113" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="P113" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q113" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R113" s="80"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B114" s="44">
         <v>106</v>
       </c>
-      <c r="C114" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="D114" s="70" t="s">
-        <v>396</v>
+      <c r="C114" s="71" t="s">
+        <v>338</v>
+      </c>
+      <c r="D114" s="69" t="s">
+        <v>392</v>
       </c>
       <c r="E114" s="24"/>
       <c r="F114" s="50"/>
       <c r="G114" s="51"/>
       <c r="L114" s="40"/>
-      <c r="M114" s="59">
-        <v>142</v>
-      </c>
-      <c r="N114" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O114" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="P114" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q114" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R114" s="34"/>
+      <c r="M114" s="44">
+        <v>142</v>
+      </c>
+      <c r="N114" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O114" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="P114" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q114" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R114" s="80"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B115" s="49">
         <v>107</v>
       </c>
-      <c r="C115" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="D115" s="70" t="s">
-        <v>393</v>
+      <c r="C115" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="D115" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E115" s="24"/>
       <c r="F115" s="50"/>
       <c r="G115" s="51"/>
       <c r="L115" s="40"/>
-      <c r="M115" s="59">
-        <v>142</v>
-      </c>
-      <c r="N115" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O115" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="P115" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q115" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R115" s="34"/>
+      <c r="M115" s="44">
+        <v>142</v>
+      </c>
+      <c r="N115" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O115" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="P115" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q115" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R115" s="80"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B116" s="44">
         <v>108</v>
       </c>
-      <c r="C116" s="71" t="s">
-        <v>344</v>
-      </c>
-      <c r="D116" s="70" t="s">
-        <v>393</v>
+      <c r="C116" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="D116" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E116" s="24"/>
       <c r="F116" s="50"/>
       <c r="G116" s="51"/>
       <c r="L116" s="40"/>
-      <c r="M116" s="33">
-        <v>141</v>
-      </c>
-      <c r="N116" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O116" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="P116" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q116" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R116" s="34"/>
+      <c r="M116" s="44">
+        <v>142</v>
+      </c>
+      <c r="N116" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O116" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="P116" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q116" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R116" s="80"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B117" s="44">
         <v>109</v>
       </c>
-      <c r="C117" s="71" t="s">
-        <v>345</v>
-      </c>
-      <c r="D117" s="70" t="s">
-        <v>394</v>
+      <c r="C117" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="D117" s="69" t="s">
+        <v>390</v>
       </c>
       <c r="E117" s="24"/>
       <c r="F117" s="50"/>
       <c r="G117" s="51"/>
       <c r="L117" s="40"/>
-      <c r="M117" s="59">
-        <v>142</v>
-      </c>
-      <c r="N117" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O117" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="P117" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q117" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R117" s="34"/>
+      <c r="M117" s="44">
+        <v>142</v>
+      </c>
+      <c r="N117" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O117" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="P117" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q117" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R117" s="80"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B118" s="49">
         <v>110</v>
       </c>
-      <c r="C118" s="71" t="s">
-        <v>346</v>
-      </c>
-      <c r="D118" s="70" t="s">
-        <v>393</v>
+      <c r="C118" s="70" t="s">
+        <v>342</v>
+      </c>
+      <c r="D118" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E118" s="24"/>
       <c r="F118" s="50"/>
       <c r="G118" s="51"/>
       <c r="L118" s="40"/>
-      <c r="M118" s="33">
+      <c r="M118" s="49">
         <v>141</v>
       </c>
-      <c r="N118" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O118" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="P118" s="31" t="s">
+      <c r="N118" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O118" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P118" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q118" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R118" s="36"/>
+      <c r="Q118" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R118" s="80"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B119" s="44">
         <v>111</v>
       </c>
-      <c r="C119" s="71" t="s">
-        <v>347</v>
-      </c>
-      <c r="D119" s="70" t="s">
-        <v>370</v>
+      <c r="C119" s="70" t="s">
+        <v>343</v>
+      </c>
+      <c r="D119" s="69" t="s">
+        <v>366</v>
       </c>
       <c r="E119" s="24"/>
       <c r="F119" s="50"/>
       <c r="G119" s="51"/>
       <c r="L119" s="40"/>
-      <c r="M119" s="59">
-        <v>142</v>
-      </c>
-      <c r="N119" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O119" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="P119" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q119" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R119" s="36"/>
+      <c r="M119" s="44">
+        <v>142</v>
+      </c>
+      <c r="N119" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O119" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="P119" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q119" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R119" s="80"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B120" s="44">
         <v>112</v>
       </c>
-      <c r="C120" s="71" t="s">
-        <v>348</v>
-      </c>
-      <c r="D120" s="70" t="s">
-        <v>392</v>
+      <c r="C120" s="70" t="s">
+        <v>344</v>
+      </c>
+      <c r="D120" s="69" t="s">
+        <v>388</v>
       </c>
       <c r="E120" s="24"/>
       <c r="F120" s="50"/>
       <c r="G120" s="51"/>
       <c r="L120" s="40"/>
-      <c r="M120" s="59">
-        <v>142</v>
-      </c>
-      <c r="N120" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O120" s="31" t="s">
-        <v>147</v>
-      </c>
-      <c r="P120" s="31" t="s">
+      <c r="M120" s="49">
+        <v>141</v>
+      </c>
+      <c r="N120" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O120" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="P120" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q120" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R120" s="36"/>
+      <c r="Q120" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R120" s="56"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B121" s="49">
         <v>113</v>
       </c>
-      <c r="C121" s="71" t="s">
-        <v>349</v>
-      </c>
-      <c r="D121" s="70" t="s">
+      <c r="C121" s="70" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E121" s="24"/>
       <c r="F121" s="50"/>
       <c r="G121" s="51"/>
       <c r="L121" s="40"/>
-      <c r="M121" s="33">
-        <v>141</v>
-      </c>
-      <c r="N121" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O121" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="P121" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q121" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R121" s="34"/>
+      <c r="M121" s="44">
+        <v>142</v>
+      </c>
+      <c r="N121" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O121" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="P121" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q121" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R121" s="56"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B122" s="44">
         <v>114</v>
       </c>
-      <c r="C122" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="70" t="s">
-        <v>374</v>
+      <c r="C122" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="D122" s="69" t="s">
+        <v>370</v>
       </c>
       <c r="E122" s="24"/>
       <c r="F122" s="50"/>
       <c r="G122" s="51"/>
       <c r="L122" s="40"/>
-      <c r="M122" s="59">
-        <v>142</v>
-      </c>
-      <c r="N122" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O122" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="P122" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q122" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R122" s="34"/>
+      <c r="M122" s="44">
+        <v>142</v>
+      </c>
+      <c r="N122" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O122" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="P122" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q122" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R122" s="56"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B123" s="44">
         <v>115</v>
       </c>
-      <c r="C123" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="D123" s="70" t="s">
-        <v>393</v>
+      <c r="C123" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="D123" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E123" s="24"/>
       <c r="F123" s="50"/>
       <c r="G123" s="51"/>
       <c r="L123" s="40"/>
-      <c r="M123" s="59">
-        <v>142</v>
-      </c>
-      <c r="N123" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O123" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="P123" s="31" t="s">
+      <c r="M123" s="49">
+        <v>141</v>
+      </c>
+      <c r="N123" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O123" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="P123" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q123" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R123" s="34"/>
+      <c r="Q123" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R123" s="80"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B124" s="49">
         <v>116</v>
       </c>
-      <c r="C124" s="71" t="s">
-        <v>352</v>
-      </c>
-      <c r="D124" s="70" t="s">
-        <v>374</v>
+      <c r="C124" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="D124" s="69" t="s">
+        <v>370</v>
       </c>
       <c r="E124" s="24"/>
       <c r="F124" s="50"/>
       <c r="G124" s="51"/>
       <c r="L124" s="40"/>
-      <c r="M124" s="33">
-        <v>141</v>
-      </c>
-      <c r="N124" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O124" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="P124" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q124" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R124" s="34"/>
+      <c r="M124" s="44">
+        <v>142</v>
+      </c>
+      <c r="N124" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O124" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="P124" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q124" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R124" s="80"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B125" s="44">
         <v>117</v>
       </c>
-      <c r="C125" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="D125" s="70" t="s">
-        <v>393</v>
+      <c r="C125" s="69" t="s">
+        <v>349</v>
+      </c>
+      <c r="D125" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E125" s="24"/>
       <c r="F125" s="50"/>
       <c r="G125" s="51"/>
       <c r="L125" s="40"/>
-      <c r="M125" s="33">
-        <v>141</v>
-      </c>
-      <c r="N125" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O125" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="P125" s="31" t="s">
+      <c r="M125" s="44">
+        <v>142</v>
+      </c>
+      <c r="N125" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O125" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="P125" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q125" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R125" s="34"/>
+      <c r="Q125" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R125" s="80"/>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B126" s="44">
         <v>118</v>
       </c>
-      <c r="C126" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="D126" s="70" t="s">
-        <v>393</v>
+      <c r="C126" s="69" t="s">
+        <v>350</v>
+      </c>
+      <c r="D126" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E126" s="24"/>
       <c r="F126" s="50"/>
       <c r="G126" s="51"/>
       <c r="L126" s="40"/>
-      <c r="M126" s="33">
+      <c r="M126" s="49">
         <v>141</v>
       </c>
-      <c r="N126" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O126" s="31" t="s">
-        <v>153</v>
-      </c>
-      <c r="P126" s="31" t="s">
+      <c r="N126" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O126" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="P126" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q126" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R126" s="34"/>
+      <c r="Q126" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R126" s="80"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B127" s="49">
         <v>119</v>
       </c>
-      <c r="C127" s="70" t="s">
-        <v>355</v>
-      </c>
-      <c r="D127" s="70" t="s">
-        <v>393</v>
+      <c r="C127" s="69" t="s">
+        <v>351</v>
+      </c>
+      <c r="D127" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E127" s="24"/>
       <c r="F127" s="50"/>
       <c r="G127" s="51"/>
       <c r="L127" s="40"/>
-      <c r="M127" s="33">
+      <c r="M127" s="49">
         <v>141</v>
       </c>
-      <c r="N127" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O127" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="P127" s="31" t="s">
+      <c r="N127" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O127" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="P127" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q127" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R127" s="34"/>
+      <c r="Q127" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R127" s="80"/>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B128" s="44">
         <v>120</v>
       </c>
-      <c r="C128" s="70" t="s">
-        <v>356</v>
-      </c>
-      <c r="D128" s="70" t="s">
-        <v>376</v>
+      <c r="C128" s="69" t="s">
+        <v>352</v>
+      </c>
+      <c r="D128" s="69" t="s">
+        <v>372</v>
       </c>
       <c r="E128" s="24"/>
       <c r="F128" s="50"/>
       <c r="G128" s="51"/>
       <c r="L128" s="40"/>
-      <c r="M128" s="59">
-        <v>142</v>
-      </c>
-      <c r="N128" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O128" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="P128" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q128" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R128" s="34"/>
+      <c r="M128" s="49">
+        <v>141</v>
+      </c>
+      <c r="N128" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O128" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="P128" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q128" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R128" s="80"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B129" s="44">
         <v>121</v>
       </c>
-      <c r="C129" s="70" t="s">
-        <v>357</v>
-      </c>
-      <c r="D129" s="70" t="s">
-        <v>395</v>
+      <c r="C129" s="69" t="s">
+        <v>353</v>
+      </c>
+      <c r="D129" s="69" t="s">
+        <v>391</v>
       </c>
       <c r="E129" s="24"/>
       <c r="F129" s="50"/>
       <c r="G129" s="51"/>
       <c r="L129" s="40"/>
-      <c r="M129" s="33">
+      <c r="M129" s="49">
         <v>141</v>
       </c>
-      <c r="N129" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O129" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="P129" s="31" t="s">
+      <c r="N129" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O129" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="P129" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q129" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R129" s="34"/>
+      <c r="Q129" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R129" s="80"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B130" s="49">
         <v>122</v>
       </c>
-      <c r="C130" s="70" t="s">
-        <v>358</v>
-      </c>
-      <c r="D130" s="70" t="s">
-        <v>376</v>
+      <c r="C130" s="69" t="s">
+        <v>354</v>
+      </c>
+      <c r="D130" s="69" t="s">
+        <v>372</v>
       </c>
       <c r="E130" s="24"/>
       <c r="F130" s="50"/>
       <c r="G130" s="51"/>
       <c r="L130" s="40"/>
-      <c r="M130" s="59">
-        <v>142</v>
-      </c>
-      <c r="N130" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O130" s="31" t="s">
-        <v>157</v>
-      </c>
-      <c r="P130" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q130" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R130" s="34"/>
+      <c r="M130" s="44">
+        <v>142</v>
+      </c>
+      <c r="N130" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O130" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="P130" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q130" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R130" s="80"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B131" s="44">
         <v>123</v>
       </c>
-      <c r="C131" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="D131" s="70" t="s">
-        <v>393</v>
+      <c r="C131" s="69" t="s">
+        <v>355</v>
+      </c>
+      <c r="D131" s="69" t="s">
+        <v>389</v>
       </c>
       <c r="E131" s="24"/>
       <c r="F131" s="50"/>
       <c r="G131" s="51"/>
       <c r="L131" s="40"/>
-      <c r="M131" s="59">
-        <v>142</v>
-      </c>
-      <c r="N131" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O131" s="31" t="s">
-        <v>158</v>
-      </c>
-      <c r="P131" s="31" t="s">
+      <c r="M131" s="49">
+        <v>141</v>
+      </c>
+      <c r="N131" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O131" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="P131" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="Q131" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R131" s="34"/>
+      <c r="Q131" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R131" s="80"/>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B132" s="44">
         <v>124</v>
       </c>
-      <c r="C132" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="D132" s="70" t="s">
+      <c r="C132" s="69" t="s">
+        <v>356</v>
+      </c>
+      <c r="D132" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="24"/>
       <c r="F132" s="50"/>
       <c r="G132" s="51"/>
       <c r="L132" s="40"/>
-      <c r="M132" s="59">
-        <v>142</v>
-      </c>
-      <c r="N132" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O132" s="31" t="s">
+      <c r="M132" s="44">
+        <v>142</v>
+      </c>
+      <c r="N132" s="37" t="s">
         <v>159</v>
       </c>
-      <c r="P132" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q132" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R132" s="34"/>
+      <c r="O132" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="P132" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q132" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R132" s="80"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B133" s="49">
         <v>125</v>
       </c>
-      <c r="C133" s="70" t="s">
-        <v>361</v>
-      </c>
-      <c r="D133" s="70" t="s">
+      <c r="C133" s="69" t="s">
+        <v>357</v>
+      </c>
+      <c r="D133" s="69" t="s">
         <v>19</v>
       </c>
       <c r="E133" s="24"/>
       <c r="F133" s="50"/>
       <c r="G133" s="51"/>
       <c r="L133" s="40"/>
-      <c r="M133" s="59">
-        <v>142</v>
-      </c>
-      <c r="N133" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O133" s="31" t="s">
-        <v>417</v>
-      </c>
-      <c r="P133" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q133" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="34"/>
+      <c r="M133" s="44">
+        <v>142</v>
+      </c>
+      <c r="N133" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O133" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="P133" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q133" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="80"/>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B134" s="44">
         <v>126</v>
       </c>
-      <c r="C134" s="70" t="s">
-        <v>410</v>
-      </c>
-      <c r="D134" s="70" t="s">
-        <v>387</v>
+      <c r="C134" s="69" t="s">
+        <v>406</v>
+      </c>
+      <c r="D134" s="69" t="s">
+        <v>383</v>
       </c>
       <c r="E134" s="24"/>
       <c r="F134" s="50"/>
       <c r="G134" s="51"/>
       <c r="L134" s="40"/>
-      <c r="M134" s="59">
-        <v>142</v>
-      </c>
-      <c r="N134" s="31" t="s">
-        <v>163</v>
-      </c>
-      <c r="O134" s="31" t="s">
-        <v>160</v>
-      </c>
-      <c r="P134" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q134" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="34"/>
-    </row>
-    <row r="135" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M134" s="44">
+        <v>142</v>
+      </c>
+      <c r="N134" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O134" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="P134" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q134" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="80"/>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B135" s="44">
         <v>127</v>
       </c>
-      <c r="C135" s="70" t="s">
-        <v>362</v>
-      </c>
-      <c r="D135" s="70" t="s">
-        <v>387</v>
+      <c r="C135" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="D135" s="69" t="s">
+        <v>383</v>
       </c>
       <c r="E135" s="24"/>
       <c r="F135" s="50"/>
       <c r="G135" s="51"/>
-      <c r="L135" s="41"/>
-      <c r="M135" s="59">
-        <v>142</v>
-      </c>
-      <c r="N135" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="O135" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="P135" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q135" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="56"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="44">
+        <v>142</v>
+      </c>
+      <c r="N135" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O135" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="P135" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q135" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="80"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B136" s="49">
         <v>128</v>
       </c>
-      <c r="C136" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="D136" s="70" t="s">
-        <v>397</v>
+      <c r="C136" s="69" t="s">
+        <v>359</v>
+      </c>
+      <c r="D136" s="69" t="s">
+        <v>393</v>
       </c>
       <c r="E136" s="24"/>
       <c r="F136" s="50"/>
       <c r="G136" s="51"/>
-      <c r="L136" s="55"/>
-      <c r="M136" s="46">
-        <v>135</v>
-      </c>
-      <c r="N136" s="60" t="s">
-        <v>235</v>
-      </c>
-      <c r="O136" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="P136" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q136" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="R136" s="53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L136" s="40"/>
+      <c r="M136" s="44">
+        <v>142</v>
+      </c>
+      <c r="N136" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="O136" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="P136" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q136" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="R136" s="80"/>
+    </row>
+    <row r="137" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B137" s="44">
         <v>129</v>
       </c>
-      <c r="C137" s="70" t="s">
-        <v>364</v>
-      </c>
-      <c r="D137" s="70" t="s">
-        <v>397</v>
+      <c r="C137" s="69" t="s">
+        <v>360</v>
+      </c>
+      <c r="D137" s="69" t="s">
+        <v>393</v>
       </c>
       <c r="E137" s="24"/>
       <c r="F137" s="50"/>
       <c r="G137" s="51"/>
-      <c r="L137" s="40"/>
-      <c r="M137" s="33">
-        <v>141</v>
-      </c>
-      <c r="N137" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="O137" s="31" t="s">
-        <v>164</v>
-      </c>
-      <c r="P137" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q137" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R137" s="36"/>
+      <c r="L137" s="41"/>
+      <c r="M137" s="44">
+        <v>142</v>
+      </c>
+      <c r="N137" s="121" t="s">
+        <v>159</v>
+      </c>
+      <c r="O137" s="121" t="s">
+        <v>157</v>
+      </c>
+      <c r="P137" s="121" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q137" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="R137" s="120"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B138" s="44">
         <v>130</v>
       </c>
-      <c r="C138" s="70" t="s">
-        <v>365</v>
-      </c>
-      <c r="D138" s="70" t="s">
-        <v>398</v>
+      <c r="C138" s="69" t="s">
+        <v>361</v>
+      </c>
+      <c r="D138" s="69" t="s">
+        <v>394</v>
       </c>
       <c r="E138" s="24"/>
       <c r="F138" s="50"/>
       <c r="G138" s="51"/>
-      <c r="L138" s="40"/>
-      <c r="M138" s="59">
-        <v>142</v>
-      </c>
-      <c r="N138" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="O138" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="P138" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q138" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R138" s="34"/>
+      <c r="L138" s="55"/>
+      <c r="M138" s="46">
+        <v>135</v>
+      </c>
+      <c r="N138" s="59" t="s">
+        <v>231</v>
+      </c>
+      <c r="O138" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="P138" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q138" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="R138" s="53" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B139" s="49">
         <v>131</v>
       </c>
-      <c r="C139" s="70" t="s">
-        <v>366</v>
-      </c>
-      <c r="D139" s="70" t="s">
-        <v>371</v>
+      <c r="C139" s="69" t="s">
+        <v>362</v>
+      </c>
+      <c r="D139" s="69" t="s">
+        <v>367</v>
       </c>
       <c r="E139" s="24"/>
       <c r="F139" s="50"/>
@@ -7479,10 +7598,10 @@
         <v>141</v>
       </c>
       <c r="N139" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O139" s="31" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P139" s="31" t="s">
         <v>24</v>
@@ -7490,30 +7609,30 @@
       <c r="Q139" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R139" s="34"/>
+      <c r="R139" s="36"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B140" s="44">
         <v>132</v>
       </c>
-      <c r="C140" s="70" t="s">
-        <v>367</v>
-      </c>
-      <c r="D140" s="70" t="s">
+      <c r="C140" s="69" t="s">
+        <v>363</v>
+      </c>
+      <c r="D140" s="69" t="s">
         <v>38</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="50"/>
       <c r="G140" s="51"/>
       <c r="L140" s="40"/>
-      <c r="M140" s="59">
+      <c r="M140" s="58">
         <v>142</v>
       </c>
       <c r="N140" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O140" s="31" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="P140" s="31" t="s">
         <v>19</v>
@@ -7527,11 +7646,11 @@
       <c r="B141" s="44">
         <v>133</v>
       </c>
-      <c r="C141" s="70" t="s">
-        <v>368</v>
-      </c>
-      <c r="D141" s="70" t="s">
-        <v>370</v>
+      <c r="C141" s="69" t="s">
+        <v>364</v>
+      </c>
+      <c r="D141" s="69" t="s">
+        <v>366</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="50"/>
@@ -7541,10 +7660,10 @@
         <v>141</v>
       </c>
       <c r="N141" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O141" s="31" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="P141" s="31" t="s">
         <v>24</v>
@@ -7558,24 +7677,24 @@
       <c r="B142" s="49">
         <v>134</v>
       </c>
-      <c r="C142" s="75" t="s">
-        <v>369</v>
-      </c>
-      <c r="D142" s="75" t="s">
-        <v>370</v>
+      <c r="C142" s="74" t="s">
+        <v>365</v>
+      </c>
+      <c r="D142" s="74" t="s">
+        <v>366</v>
       </c>
       <c r="E142" s="42"/>
-      <c r="F142" s="68"/>
-      <c r="G142" s="69"/>
+      <c r="F142" s="67"/>
+      <c r="G142" s="68"/>
       <c r="L142" s="40"/>
-      <c r="M142" s="59">
+      <c r="M142" s="58">
         <v>142</v>
       </c>
       <c r="N142" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O142" s="31" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="P142" s="31" t="s">
         <v>19</v>
@@ -7591,10 +7710,10 @@
         <v>141</v>
       </c>
       <c r="N143" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O143" s="31" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="P143" s="31" t="s">
         <v>24</v>
@@ -7606,14 +7725,14 @@
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L144" s="40"/>
-      <c r="M144" s="59">
+      <c r="M144" s="58">
         <v>142</v>
       </c>
       <c r="N144" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O144" s="31" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P144" s="31" t="s">
         <v>19</v>
@@ -7625,17 +7744,17 @@
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L145" s="40"/>
-      <c r="M145" s="59">
-        <v>142</v>
+      <c r="M145" s="33">
+        <v>141</v>
       </c>
       <c r="N145" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O145" s="31" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P145" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q145" s="31" t="s">
         <v>20</v>
@@ -7644,17 +7763,17 @@
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L146" s="40"/>
-      <c r="M146" s="33">
-        <v>141</v>
+      <c r="M146" s="58">
+        <v>142</v>
       </c>
       <c r="N146" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O146" s="31" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="P146" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q146" s="31" t="s">
         <v>20</v>
@@ -7663,17 +7782,17 @@
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L147" s="40"/>
-      <c r="M147" s="59">
+      <c r="M147" s="58">
         <v>142</v>
       </c>
       <c r="N147" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O147" s="31" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P147" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q147" s="31" t="s">
         <v>20</v>
@@ -7686,10 +7805,10 @@
         <v>141</v>
       </c>
       <c r="N148" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O148" s="31" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P148" s="31" t="s">
         <v>24</v>
@@ -7701,14 +7820,14 @@
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L149" s="40"/>
-      <c r="M149" s="59">
+      <c r="M149" s="58">
         <v>142</v>
       </c>
       <c r="N149" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O149" s="31" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="P149" s="31" t="s">
         <v>19</v>
@@ -7724,10 +7843,10 @@
         <v>141</v>
       </c>
       <c r="N150" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O150" s="31" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="P150" s="31" t="s">
         <v>24</v>
@@ -7739,14 +7858,14 @@
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L151" s="40"/>
-      <c r="M151" s="59">
+      <c r="M151" s="58">
         <v>142</v>
       </c>
       <c r="N151" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O151" s="31" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P151" s="31" t="s">
         <v>19</v>
@@ -7762,10 +7881,10 @@
         <v>141</v>
       </c>
       <c r="N152" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O152" s="31" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="P152" s="31" t="s">
         <v>24</v>
@@ -7777,14 +7896,14 @@
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L153" s="40"/>
-      <c r="M153" s="59">
+      <c r="M153" s="58">
         <v>142</v>
       </c>
       <c r="N153" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O153" s="31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="P153" s="31" t="s">
         <v>19</v>
@@ -7800,10 +7919,10 @@
         <v>141</v>
       </c>
       <c r="N154" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O154" s="31" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P154" s="31" t="s">
         <v>24</v>
@@ -7815,14 +7934,14 @@
     </row>
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L155" s="40"/>
-      <c r="M155" s="59">
+      <c r="M155" s="58">
         <v>142</v>
       </c>
       <c r="N155" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O155" s="31" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P155" s="31" t="s">
         <v>19</v>
@@ -7838,10 +7957,10 @@
         <v>141</v>
       </c>
       <c r="N156" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O156" s="31" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="P156" s="31" t="s">
         <v>24</v>
@@ -7853,14 +7972,14 @@
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L157" s="40"/>
-      <c r="M157" s="59">
+      <c r="M157" s="58">
         <v>142</v>
       </c>
       <c r="N157" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O157" s="31" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P157" s="31" t="s">
         <v>19</v>
@@ -7872,17 +7991,17 @@
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L158" s="40"/>
-      <c r="M158" s="49">
-        <v>8</v>
+      <c r="M158" s="33">
+        <v>141</v>
       </c>
       <c r="N158" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O158" s="31" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="P158" s="31" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q158" s="31" t="s">
         <v>20</v>
@@ -7891,14 +8010,14 @@
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L159" s="40"/>
-      <c r="M159" s="59">
+      <c r="M159" s="58">
         <v>142</v>
       </c>
       <c r="N159" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O159" s="31" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P159" s="31" t="s">
         <v>19</v>
@@ -7910,55 +8029,55 @@
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L160" s="40"/>
-      <c r="M160" s="44">
-        <v>143</v>
+      <c r="M160" s="49">
+        <v>8</v>
       </c>
       <c r="N160" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O160" s="31" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="P160" s="31" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q160" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R160" s="36"/>
+      <c r="R160" s="34"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L161" s="40"/>
-      <c r="M161" s="33">
-        <v>141</v>
+      <c r="M161" s="58">
+        <v>142</v>
       </c>
       <c r="N161" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O161" s="31" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="P161" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q161" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R161" s="36"/>
+      <c r="R161" s="34"/>
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L162" s="40"/>
-      <c r="M162" s="59">
-        <v>142</v>
+      <c r="M162" s="44">
+        <v>143</v>
       </c>
       <c r="N162" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O162" s="31" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P162" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q162" s="31" t="s">
         <v>20</v>
@@ -7967,17 +8086,17 @@
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L163" s="40"/>
-      <c r="M163" s="59">
-        <v>142</v>
+      <c r="M163" s="33">
+        <v>141</v>
       </c>
       <c r="N163" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O163" s="31" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P163" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q163" s="31" t="s">
         <v>20</v>
@@ -7986,17 +8105,17 @@
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L164" s="40"/>
-      <c r="M164" s="33">
-        <v>141</v>
+      <c r="M164" s="58">
+        <v>142</v>
       </c>
       <c r="N164" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O164" s="31" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P164" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q164" s="31" t="s">
         <v>20</v>
@@ -8005,111 +8124,111 @@
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L165" s="40"/>
-      <c r="M165" s="33">
-        <v>141</v>
+      <c r="M165" s="58">
+        <v>142</v>
       </c>
       <c r="N165" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O165" s="31" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P165" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q165" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="R165" s="34"/>
+      <c r="R165" s="36"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L166" s="40"/>
-      <c r="M166" s="99">
-        <v>144</v>
-      </c>
-      <c r="N166" s="97" t="s">
-        <v>235</v>
-      </c>
-      <c r="O166" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="P166" s="97" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q166" s="97" t="s">
-        <v>17</v>
-      </c>
-      <c r="R166" s="98" t="s">
-        <v>37</v>
-      </c>
+      <c r="M166" s="33">
+        <v>141</v>
+      </c>
+      <c r="N166" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O166" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="P166" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q166" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R166" s="36"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L167" s="40"/>
-      <c r="M167" s="54">
-        <v>145</v>
-      </c>
-      <c r="N167" s="65" t="s">
-        <v>235</v>
-      </c>
-      <c r="O167" s="65" t="s">
-        <v>25</v>
-      </c>
-      <c r="P167" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q167" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="R167" s="47"/>
+      <c r="M167" s="33">
+        <v>141</v>
+      </c>
+      <c r="N167" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O167" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="P167" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q167" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R167" s="34"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L168" s="40"/>
-      <c r="M168" s="59">
-        <v>142</v>
-      </c>
-      <c r="N168" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="O168" s="31" t="s">
-        <v>193</v>
-      </c>
-      <c r="P168" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q168" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R168" s="34"/>
+      <c r="M168" s="98">
+        <v>144</v>
+      </c>
+      <c r="N168" s="96" t="s">
+        <v>231</v>
+      </c>
+      <c r="O168" s="96" t="s">
+        <v>31</v>
+      </c>
+      <c r="P168" s="96" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q168" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="R168" s="97" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L169" s="40"/>
-      <c r="M169" s="33">
-        <v>141</v>
-      </c>
-      <c r="N169" s="31" t="s">
-        <v>235</v>
-      </c>
-      <c r="O169" s="31" t="s">
-        <v>194</v>
-      </c>
-      <c r="P169" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q169" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R169" s="34"/>
+      <c r="M169" s="54">
+        <v>145</v>
+      </c>
+      <c r="N169" s="64" t="s">
+        <v>231</v>
+      </c>
+      <c r="O169" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="P169" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q169" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="R169" s="47"/>
     </row>
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L170" s="40"/>
-      <c r="M170" s="59">
+      <c r="M170" s="58">
         <v>142</v>
       </c>
       <c r="N170" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O170" s="31" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P170" s="31" t="s">
         <v>24</v>
@@ -8121,17 +8240,17 @@
     </row>
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L171" s="40"/>
-      <c r="M171" s="59">
-        <v>142</v>
+      <c r="M171" s="33">
+        <v>141</v>
       </c>
       <c r="N171" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O171" s="31" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P171" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q171" s="31" t="s">
         <v>20</v>
@@ -8140,14 +8259,14 @@
     </row>
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L172" s="40"/>
-      <c r="M172" s="59">
+      <c r="M172" s="58">
         <v>142</v>
       </c>
       <c r="N172" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O172" s="31" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P172" s="31" t="s">
         <v>24</v>
@@ -8159,17 +8278,17 @@
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L173" s="40"/>
-      <c r="M173" s="33">
-        <v>141</v>
+      <c r="M173" s="58">
+        <v>142</v>
       </c>
       <c r="N173" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O173" s="31" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P173" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q173" s="31" t="s">
         <v>20</v>
@@ -8178,14 +8297,14 @@
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L174" s="40"/>
-      <c r="M174" s="59">
+      <c r="M174" s="58">
         <v>142</v>
       </c>
       <c r="N174" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O174" s="31" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P174" s="31" t="s">
         <v>24</v>
@@ -8197,17 +8316,17 @@
     </row>
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L175" s="40"/>
-      <c r="M175" s="59">
-        <v>142</v>
+      <c r="M175" s="33">
+        <v>141</v>
       </c>
       <c r="N175" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O175" s="31" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P175" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q175" s="31" t="s">
         <v>20</v>
@@ -8216,14 +8335,14 @@
     </row>
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L176" s="40"/>
-      <c r="M176" s="59">
+      <c r="M176" s="58">
         <v>142</v>
       </c>
       <c r="N176" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O176" s="31" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P176" s="31" t="s">
         <v>24</v>
@@ -8235,17 +8354,17 @@
     </row>
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L177" s="40"/>
-      <c r="M177" s="59">
+      <c r="M177" s="58">
         <v>142</v>
       </c>
       <c r="N177" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O177" s="31" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="P177" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q177" s="31" t="s">
         <v>20</v>
@@ -8254,14 +8373,14 @@
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L178" s="40"/>
-      <c r="M178" s="59">
+      <c r="M178" s="58">
         <v>142</v>
       </c>
       <c r="N178" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O178" s="31" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P178" s="31" t="s">
         <v>24</v>
@@ -8273,17 +8392,17 @@
     </row>
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L179" s="40"/>
-      <c r="M179" s="59">
+      <c r="M179" s="58">
         <v>142</v>
       </c>
       <c r="N179" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O179" s="31" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P179" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q179" s="31" t="s">
         <v>20</v>
@@ -8292,14 +8411,14 @@
     </row>
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L180" s="40"/>
-      <c r="M180" s="59">
+      <c r="M180" s="58">
         <v>142</v>
       </c>
       <c r="N180" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O180" s="31" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="P180" s="31" t="s">
         <v>24</v>
@@ -8311,14 +8430,14 @@
     </row>
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L181" s="40"/>
-      <c r="M181" s="59">
+      <c r="M181" s="58">
         <v>142</v>
       </c>
       <c r="N181" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O181" s="31" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P181" s="31" t="s">
         <v>24</v>
@@ -8330,17 +8449,17 @@
     </row>
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L182" s="40"/>
-      <c r="M182" s="59">
+      <c r="M182" s="58">
         <v>142</v>
       </c>
       <c r="N182" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O182" s="31" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P182" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q182" s="31" t="s">
         <v>20</v>
@@ -8349,17 +8468,17 @@
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L183" s="40"/>
-      <c r="M183" s="33">
-        <v>141</v>
+      <c r="M183" s="58">
+        <v>142</v>
       </c>
       <c r="N183" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O183" s="31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="P183" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q183" s="31" t="s">
         <v>20</v>
@@ -8368,14 +8487,14 @@
     </row>
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L184" s="40"/>
-      <c r="M184" s="59">
+      <c r="M184" s="58">
         <v>142</v>
       </c>
       <c r="N184" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O184" s="31" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="P184" s="31" t="s">
         <v>19</v>
@@ -8387,17 +8506,17 @@
     </row>
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L185" s="40"/>
-      <c r="M185" s="59">
-        <v>142</v>
+      <c r="M185" s="33">
+        <v>141</v>
       </c>
       <c r="N185" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O185" s="31" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P185" s="31" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q185" s="31" t="s">
         <v>20</v>
@@ -8406,17 +8525,17 @@
     </row>
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L186" s="40"/>
-      <c r="M186" s="59">
+      <c r="M186" s="58">
         <v>142</v>
       </c>
       <c r="N186" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O186" s="31" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="P186" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q186" s="31" t="s">
         <v>20</v>
@@ -8425,17 +8544,17 @@
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L187" s="40"/>
-      <c r="M187" s="59">
+      <c r="M187" s="58">
         <v>142</v>
       </c>
       <c r="N187" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O187" s="31" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P187" s="31" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="Q187" s="31" t="s">
         <v>20</v>
@@ -8444,17 +8563,17 @@
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L188" s="40"/>
-      <c r="M188" s="59">
+      <c r="M188" s="58">
         <v>142</v>
       </c>
       <c r="N188" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O188" s="31" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P188" s="31" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q188" s="31" t="s">
         <v>20</v>
@@ -8463,17 +8582,17 @@
     </row>
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L189" s="40"/>
-      <c r="M189" s="59">
+      <c r="M189" s="58">
         <v>142</v>
       </c>
       <c r="N189" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O189" s="31" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P189" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q189" s="31" t="s">
         <v>20</v>
@@ -8482,17 +8601,17 @@
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L190" s="40"/>
-      <c r="M190" s="33">
-        <v>141</v>
+      <c r="M190" s="58">
+        <v>142</v>
       </c>
       <c r="N190" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O190" s="31" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P190" s="31" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q190" s="31" t="s">
         <v>20</v>
@@ -8501,17 +8620,17 @@
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L191" s="40"/>
-      <c r="M191" s="33">
-        <v>141</v>
+      <c r="M191" s="58">
+        <v>142</v>
       </c>
       <c r="N191" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O191" s="31" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P191" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q191" s="31" t="s">
         <v>20</v>
@@ -8524,10 +8643,10 @@
         <v>141</v>
       </c>
       <c r="N192" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O192" s="31" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P192" s="31" t="s">
         <v>16</v>
@@ -8543,13 +8662,13 @@
         <v>141</v>
       </c>
       <c r="N193" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O193" s="31" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P193" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q193" s="31" t="s">
         <v>20</v>
@@ -8558,17 +8677,17 @@
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L194" s="40"/>
-      <c r="M194" s="59">
-        <v>142</v>
+      <c r="M194" s="33">
+        <v>141</v>
       </c>
       <c r="N194" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O194" s="31" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P194" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q194" s="31" t="s">
         <v>20</v>
@@ -8581,13 +8700,13 @@
         <v>141</v>
       </c>
       <c r="N195" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O195" s="31" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P195" s="31" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="Q195" s="31" t="s">
         <v>20</v>
@@ -8596,17 +8715,17 @@
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L196" s="40"/>
-      <c r="M196" s="59">
+      <c r="M196" s="58">
         <v>142</v>
       </c>
       <c r="N196" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O196" s="31" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P196" s="31" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="Q196" s="31" t="s">
         <v>20</v>
@@ -8615,17 +8734,17 @@
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L197" s="40"/>
-      <c r="M197" s="59">
-        <v>142</v>
+      <c r="M197" s="33">
+        <v>141</v>
       </c>
       <c r="N197" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O197" s="31" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P197" s="31" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="Q197" s="31" t="s">
         <v>20</v>
@@ -8634,17 +8753,17 @@
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L198" s="40"/>
-      <c r="M198" s="59">
+      <c r="M198" s="58">
         <v>142</v>
       </c>
       <c r="N198" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O198" s="31" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P198" s="31" t="s">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="Q198" s="31" t="s">
         <v>20</v>
@@ -8653,17 +8772,17 @@
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L199" s="40"/>
-      <c r="M199" s="33">
-        <v>141</v>
+      <c r="M199" s="58">
+        <v>142</v>
       </c>
       <c r="N199" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O199" s="31" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P199" s="31" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="Q199" s="31" t="s">
         <v>20</v>
@@ -8672,17 +8791,17 @@
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L200" s="40"/>
-      <c r="M200" s="33">
-        <v>141</v>
+      <c r="M200" s="58">
+        <v>142</v>
       </c>
       <c r="N200" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O200" s="31" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P200" s="31" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="Q200" s="31" t="s">
         <v>20</v>
@@ -8691,17 +8810,17 @@
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L201" s="40"/>
-      <c r="M201" s="59">
-        <v>142</v>
+      <c r="M201" s="33">
+        <v>141</v>
       </c>
       <c r="N201" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O201" s="31" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P201" s="31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Q201" s="31" t="s">
         <v>20</v>
@@ -8714,10 +8833,10 @@
         <v>141</v>
       </c>
       <c r="N202" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O202" s="31" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P202" s="31" t="s">
         <v>16</v>
@@ -8729,17 +8848,17 @@
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L203" s="40"/>
-      <c r="M203" s="59">
+      <c r="M203" s="58">
         <v>142</v>
       </c>
       <c r="N203" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O203" s="31" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P203" s="31" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="Q203" s="31" t="s">
         <v>20</v>
@@ -8748,17 +8867,17 @@
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L204" s="40"/>
-      <c r="M204" s="59">
-        <v>142</v>
+      <c r="M204" s="33">
+        <v>141</v>
       </c>
       <c r="N204" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O204" s="31" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P204" s="31" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q204" s="31" t="s">
         <v>20</v>
@@ -8767,14 +8886,14 @@
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L205" s="40"/>
-      <c r="M205" s="59">
+      <c r="M205" s="58">
         <v>142</v>
       </c>
       <c r="N205" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O205" s="31" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P205" s="31" t="s">
         <v>24</v>
@@ -8786,14 +8905,14 @@
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L206" s="40"/>
-      <c r="M206" s="59">
+      <c r="M206" s="58">
         <v>142</v>
       </c>
       <c r="N206" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O206" s="31" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P206" s="31" t="s">
         <v>24</v>
@@ -8805,17 +8924,17 @@
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L207" s="40"/>
-      <c r="M207" s="59">
+      <c r="M207" s="58">
         <v>142</v>
       </c>
       <c r="N207" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O207" s="31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P207" s="31" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="Q207" s="31" t="s">
         <v>20</v>
@@ -8824,41 +8943,79 @@
     </row>
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L208" s="40"/>
-      <c r="M208" s="59">
+      <c r="M208" s="58">
         <v>142</v>
       </c>
       <c r="N208" s="31" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="O208" s="31" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P208" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q208" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="34"/>
+    </row>
+    <row r="209" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L209" s="40"/>
+      <c r="M209" s="58">
+        <v>142</v>
+      </c>
+      <c r="N209" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O209" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="P209" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q209" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R209" s="34"/>
+    </row>
+    <row r="210" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L210" s="40"/>
+      <c r="M210" s="58">
+        <v>142</v>
+      </c>
+      <c r="N210" s="31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O210" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="P210" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="Q208" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R208" s="34"/>
-    </row>
-    <row r="209" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L209" s="41"/>
-      <c r="M209" s="83">
-        <v>142</v>
-      </c>
-      <c r="N209" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="O209" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="P209" s="38" t="s">
+      <c r="Q210" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="R210" s="34"/>
+    </row>
+    <row r="211" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L211" s="41"/>
+      <c r="M211" s="82">
+        <v>142</v>
+      </c>
+      <c r="N211" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="O211" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="P211" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="Q209" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="R209" s="35"/>
+      <c r="Q211" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="R211" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
+++ b/Compra Cartera/Mapeos_INV_CompraCartera_V1.xlsx
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="431">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1486,16 +1486,32 @@
   </si>
   <si>
     <t>DECIMAL(20)</t>
+  </si>
+  <si>
+    <t>ID_CLI</t>
+  </si>
+  <si>
+    <t>ID_SUC_PRI</t>
+  </si>
+  <si>
+    <t>ID_REL_AGTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2342,321 +2358,358 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="130">
+  <cellStyleXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="71" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="17" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="22" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="23" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="19" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="24" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="29" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" xfId="69" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="20" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="27" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="86" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2665,60 +2718,68 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="25" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="26" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="32" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="31" xfId="69" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="10" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="26" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="28" borderId="14" xfId="69" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="18" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="21" xfId="70" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="129" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="130" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="86" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="175" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="130">
+  <cellStyles count="176">
     <cellStyle name="20% - Accent1" xfId="1"/>
     <cellStyle name="20% - Accent2" xfId="2"/>
     <cellStyle name="20% - Accent3" xfId="3"/>
@@ -2727,16 +2788,22 @@
     <cellStyle name="20% - Accent6" xfId="6"/>
     <cellStyle name="20% - Énfasis1" xfId="7" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis1 2" xfId="88"/>
+    <cellStyle name="20% - Énfasis1 3" xfId="132"/>
     <cellStyle name="20% - Énfasis2" xfId="8" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2 2" xfId="89"/>
+    <cellStyle name="20% - Énfasis2 3" xfId="133"/>
     <cellStyle name="20% - Énfasis3" xfId="9" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3 2" xfId="90"/>
+    <cellStyle name="20% - Énfasis3 3" xfId="134"/>
     <cellStyle name="20% - Énfasis4" xfId="10" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis4 2" xfId="91"/>
+    <cellStyle name="20% - Énfasis4 3" xfId="135"/>
     <cellStyle name="20% - Énfasis5" xfId="11" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis5 2" xfId="92"/>
+    <cellStyle name="20% - Énfasis5 3" xfId="136"/>
     <cellStyle name="20% - Énfasis6" xfId="12" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis6 2" xfId="93"/>
+    <cellStyle name="20% - Énfasis6 3" xfId="137"/>
     <cellStyle name="40% - Accent1" xfId="13"/>
     <cellStyle name="40% - Accent2" xfId="14"/>
     <cellStyle name="40% - Accent3" xfId="15"/>
@@ -2745,16 +2812,22 @@
     <cellStyle name="40% - Accent6" xfId="18"/>
     <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis1 2" xfId="94"/>
+    <cellStyle name="40% - Énfasis1 3" xfId="138"/>
     <cellStyle name="40% - Énfasis2" xfId="20" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis2 2" xfId="95"/>
+    <cellStyle name="40% - Énfasis2 3" xfId="139"/>
     <cellStyle name="40% - Énfasis3" xfId="21" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis3 2" xfId="96"/>
+    <cellStyle name="40% - Énfasis3 3" xfId="140"/>
     <cellStyle name="40% - Énfasis4" xfId="22" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis4 2" xfId="97"/>
+    <cellStyle name="40% - Énfasis4 3" xfId="141"/>
     <cellStyle name="40% - Énfasis5" xfId="23" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis5 2" xfId="98"/>
+    <cellStyle name="40% - Énfasis5 3" xfId="142"/>
     <cellStyle name="40% - Énfasis6" xfId="24" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Énfasis6 2" xfId="99"/>
+    <cellStyle name="40% - Énfasis6 3" xfId="143"/>
     <cellStyle name="60% - Accent1" xfId="25"/>
     <cellStyle name="60% - Accent2" xfId="26"/>
     <cellStyle name="60% - Accent3" xfId="27"/>
@@ -2763,16 +2836,22 @@
     <cellStyle name="60% - Accent6" xfId="30"/>
     <cellStyle name="60% - Énfasis1" xfId="31" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis1 2" xfId="100"/>
+    <cellStyle name="60% - Énfasis1 3" xfId="144"/>
     <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis2 2" xfId="101"/>
+    <cellStyle name="60% - Énfasis2 3" xfId="145"/>
     <cellStyle name="60% - Énfasis3" xfId="33" builtinId="40" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis3 2" xfId="102"/>
+    <cellStyle name="60% - Énfasis3 3" xfId="146"/>
     <cellStyle name="60% - Énfasis4" xfId="34" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis4 2" xfId="103"/>
+    <cellStyle name="60% - Énfasis4 3" xfId="147"/>
     <cellStyle name="60% - Énfasis5" xfId="35" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5 2" xfId="104"/>
+    <cellStyle name="60% - Énfasis5 3" xfId="148"/>
     <cellStyle name="60% - Énfasis6" xfId="36" builtinId="52" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6 2" xfId="105"/>
+    <cellStyle name="60% - Énfasis6 3" xfId="149"/>
     <cellStyle name="Accent1" xfId="37"/>
     <cellStyle name="Accent2" xfId="38"/>
     <cellStyle name="Accent3" xfId="39"/>
@@ -2782,30 +2861,42 @@
     <cellStyle name="Bad" xfId="43"/>
     <cellStyle name="Buena" xfId="44" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Buena 2" xfId="106"/>
+    <cellStyle name="Buena 3" xfId="150"/>
     <cellStyle name="Calculation" xfId="45"/>
     <cellStyle name="Cálculo" xfId="46" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Cálculo 2" xfId="107"/>
+    <cellStyle name="Cálculo 3" xfId="151"/>
     <cellStyle name="Celda de comprobación" xfId="47" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación 2" xfId="108"/>
+    <cellStyle name="Celda de comprobación 3" xfId="152"/>
     <cellStyle name="Celda vinculada" xfId="48" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Celda vinculada 2" xfId="109"/>
+    <cellStyle name="Celda vinculada 3" xfId="153"/>
     <cellStyle name="Check Cell" xfId="49"/>
     <cellStyle name="Encabezado 4" xfId="50" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Encabezado 4 2" xfId="110"/>
+    <cellStyle name="Encabezado 4 3" xfId="154"/>
     <cellStyle name="Énfasis1" xfId="51" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Énfasis1 2" xfId="111"/>
+    <cellStyle name="Énfasis1 3" xfId="155"/>
     <cellStyle name="Énfasis2" xfId="52" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Énfasis2 2" xfId="112"/>
+    <cellStyle name="Énfasis2 3" xfId="156"/>
     <cellStyle name="Énfasis3" xfId="53" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Énfasis3 2" xfId="113"/>
+    <cellStyle name="Énfasis3 3" xfId="157"/>
     <cellStyle name="Énfasis4" xfId="54" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Énfasis4 2" xfId="114"/>
+    <cellStyle name="Énfasis4 3" xfId="158"/>
     <cellStyle name="Énfasis5" xfId="55" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis5 2" xfId="115"/>
+    <cellStyle name="Énfasis5 3" xfId="159"/>
     <cellStyle name="Énfasis6" xfId="56" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Énfasis6 2" xfId="116"/>
+    <cellStyle name="Énfasis6 3" xfId="160"/>
     <cellStyle name="Entrada" xfId="57" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Entrada 2" xfId="117"/>
+    <cellStyle name="Entrada 3" xfId="161"/>
     <cellStyle name="Explanatory Text" xfId="58"/>
     <cellStyle name="Good" xfId="59"/>
     <cellStyle name="Heading 1" xfId="60"/>
@@ -2814,40 +2905,56 @@
     <cellStyle name="Heading 4" xfId="63"/>
     <cellStyle name="Incorrecto" xfId="64" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Incorrecto 2" xfId="118"/>
+    <cellStyle name="Incorrecto 3" xfId="162"/>
     <cellStyle name="Input" xfId="65"/>
     <cellStyle name="l]_x000d__x000a_MultiplesUnidades=True_x000d__x000a_log=2_x000d__x000a_DistribucionForm=False_x000d__x000a_Novedades=proxy:8080/data/sim/sim44htm" xfId="66"/>
     <cellStyle name="Linked Cell" xfId="67"/>
     <cellStyle name="Neutral" xfId="68" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="119"/>
+    <cellStyle name="Neutral 3" xfId="163"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="69"/>
     <cellStyle name="Normal 3" xfId="85"/>
     <cellStyle name="Normal 4" xfId="87"/>
     <cellStyle name="Normal 5" xfId="129"/>
+    <cellStyle name="Normal 5 2" xfId="175"/>
+    <cellStyle name="Normal 5 3" xfId="173"/>
     <cellStyle name="Normal 6" xfId="86"/>
+    <cellStyle name="Normal 6 2" xfId="174"/>
+    <cellStyle name="Normal 7" xfId="131"/>
+    <cellStyle name="Normal 8" xfId="130"/>
     <cellStyle name="Normal_Libro1" xfId="70"/>
     <cellStyle name="Normal_Planilla_Mapeo_CCCLTEMT" xfId="71"/>
     <cellStyle name="Notas" xfId="72" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Notas 2" xfId="120"/>
+    <cellStyle name="Notas 3" xfId="164"/>
     <cellStyle name="Note" xfId="73"/>
     <cellStyle name="Output" xfId="74"/>
     <cellStyle name="Salida" xfId="75" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Salida 2" xfId="121"/>
+    <cellStyle name="Salida 3" xfId="165"/>
     <cellStyle name="Texto de advertencia" xfId="76" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto de advertencia 2" xfId="122"/>
+    <cellStyle name="Texto de advertencia 3" xfId="166"/>
     <cellStyle name="Texto explicativo" xfId="77" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Texto explicativo 2" xfId="123"/>
+    <cellStyle name="Texto explicativo 3" xfId="167"/>
     <cellStyle name="Title" xfId="78"/>
     <cellStyle name="Título" xfId="79" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Título 1" xfId="80"/>
     <cellStyle name="Título 1 2" xfId="125"/>
+    <cellStyle name="Título 1 3" xfId="169"/>
     <cellStyle name="Título 2" xfId="81" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Título 2 2" xfId="126"/>
+    <cellStyle name="Título 2 3" xfId="170"/>
     <cellStyle name="Título 3" xfId="82" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Título 3 2" xfId="127"/>
+    <cellStyle name="Título 3 3" xfId="171"/>
     <cellStyle name="Título 4" xfId="124"/>
+    <cellStyle name="Título 5" xfId="168"/>
     <cellStyle name="Total" xfId="83" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Total 2" xfId="128"/>
+    <cellStyle name="Total 3" xfId="172"/>
     <cellStyle name="Warning Text" xfId="84"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3239,7 +3346,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3247,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R211"/>
+  <dimension ref="B1:R213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L116" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59:O137"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:R213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3258,7 +3365,7 @@
     <col min="1" max="1" width="2.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="43.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -3279,7 +3386,7 @@
     <row r="1" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-      <c r="D1" s="75"/>
+      <c r="D1" s="61"/>
       <c r="E1" s="5"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -3289,28 +3396,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="26"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="91" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="105"/>
-      <c r="F2" s="106"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="29" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="30"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="109"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="96"/>
       <c r="G3" s="10"/>
-      <c r="H3" s="92"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="24" t="s">
         <v>34</v>
       </c>
@@ -3321,13 +3428,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="111"/>
-      <c r="F4" s="112"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="99"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="93"/>
+      <c r="H4" s="78"/>
       <c r="I4" s="24" t="s">
         <v>418</v>
       </c>
@@ -3338,13 +3445,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="8"/>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="111"/>
-      <c r="F5" s="112"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="99"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="94"/>
+      <c r="H5" s="79"/>
       <c r="I5" s="28" t="s">
         <v>419</v>
       </c>
@@ -3353,35 +3460,35 @@
     <row r="6" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="75"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
-      <c r="G7" s="114"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="101"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="115" t="s">
+      <c r="I7" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="116"/>
-      <c r="K7" s="117"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="99" t="s">
+      <c r="M7" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100"/>
-      <c r="P7" s="100"/>
-      <c r="Q7" s="100"/>
-      <c r="R7" s="100"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
@@ -3390,7 +3497,7 @@
       <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="76" t="s">
+      <c r="D8" s="62" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="16" t="s">
@@ -3433,5589 +3540,5627 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B9" s="43">
+      <c r="B9" s="39">
         <v>1</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="46">
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="42">
         <v>135</v>
       </c>
       <c r="J9" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="81" t="s">
+      <c r="K9" s="67" t="s">
         <v>408</v>
       </c>
-      <c r="L9" s="90"/>
-      <c r="M9" s="60">
+      <c r="L9" s="75"/>
+      <c r="M9" s="105">
         <v>135</v>
       </c>
-      <c r="N9" s="59" t="s">
+      <c r="N9" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="O9" s="59" t="s">
+      <c r="O9" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="59" t="s">
+      <c r="P9" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="59" t="s">
+      <c r="Q9" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R9" s="39" t="s">
+      <c r="R9" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B10" s="44">
+      <c r="B10" s="40">
         <v>2</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="58" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="78" t="s">
+      <c r="D10" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="33">
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="32">
         <v>136</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="33" t="s">
         <v>396</v>
       </c>
-      <c r="L10" s="90"/>
-      <c r="M10" s="33">
+      <c r="L10" s="75"/>
+      <c r="M10" s="44">
         <v>136</v>
       </c>
-      <c r="N10" s="31" t="s">
+      <c r="N10" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="31" t="s">
+      <c r="P10" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="56"/>
+      <c r="Q10" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="48"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B11" s="44">
+      <c r="B11" s="40">
         <v>3</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="64" t="s">
         <v>369</v>
       </c>
-      <c r="E11" s="37"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="86" t="s">
+      <c r="E11" s="34"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="33">
+      <c r="H11" s="73"/>
+      <c r="I11" s="32">
         <v>137</v>
       </c>
       <c r="J11" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="K11" s="33" t="s">
         <v>398</v>
       </c>
-      <c r="L11" s="90"/>
-      <c r="M11" s="33">
+      <c r="L11" s="75"/>
+      <c r="M11" s="44">
         <v>137</v>
       </c>
-      <c r="N11" s="31" t="s">
+      <c r="N11" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O11" s="31" t="s">
+      <c r="O11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="P11" s="31" t="s">
+      <c r="P11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R11" s="36"/>
+      <c r="Q11" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="48"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B12" s="44">
+      <c r="B12" s="40">
         <v>4</v>
       </c>
-      <c r="C12" s="72" t="s">
+      <c r="C12" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="64" t="s">
         <v>370</v>
       </c>
-      <c r="E12" s="37"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="33">
+      <c r="E12" s="34"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="32">
         <v>138</v>
       </c>
-      <c r="J12" s="37" t="s">
+      <c r="J12" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="K12" s="80" t="s">
+      <c r="K12" s="66" t="s">
         <v>409</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="62">
+      <c r="L12" s="75"/>
+      <c r="M12" s="50">
         <v>138</v>
       </c>
-      <c r="N12" s="31" t="s">
+      <c r="N12" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P12" s="31" t="s">
+      <c r="P12" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q12" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R12" s="36"/>
+      <c r="Q12" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="48"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B13" s="49">
+      <c r="B13" s="44">
         <v>5</v>
       </c>
-      <c r="C13" s="72" t="s">
+      <c r="C13" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="D13" s="78" t="s">
+      <c r="D13" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="33">
+      <c r="E13" s="34"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="32">
         <v>139</v>
       </c>
       <c r="J13" s="24" t="s">
         <v>400</v>
       </c>
-      <c r="K13" s="80" t="s">
+      <c r="K13" s="66" t="s">
         <v>410</v>
       </c>
-      <c r="L13" s="91"/>
-      <c r="M13" s="62">
+      <c r="L13" s="76"/>
+      <c r="M13" s="50">
         <v>4</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q13" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="36"/>
+      <c r="Q13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" s="48"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B14" s="44">
+      <c r="B14" s="40">
         <v>6</v>
       </c>
-      <c r="C14" s="72" t="s">
+      <c r="C14" s="58" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="64" t="s">
         <v>371</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="58">
+      <c r="E14" s="34"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="49">
         <v>140</v>
       </c>
-      <c r="J14" s="37" t="s">
+      <c r="J14" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="K14" s="56" t="s">
+      <c r="K14" s="48" t="s">
         <v>411</v>
       </c>
-      <c r="L14" s="91"/>
-      <c r="M14" s="62">
+      <c r="L14" s="76"/>
+      <c r="M14" s="50">
         <v>139</v>
       </c>
-      <c r="N14" s="31" t="s">
+      <c r="N14" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O14" s="31" t="s">
+      <c r="O14" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="P14" s="31" t="s">
+      <c r="P14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R14" s="36"/>
+      <c r="Q14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R14" s="48"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B15" s="44">
+      <c r="B15" s="40">
         <v>7</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="58" t="s">
         <v>239</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="33">
+      <c r="E15" s="34"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="32">
         <v>141</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="K15" s="80" t="s">
+      <c r="K15" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="L15" s="91"/>
-      <c r="M15" s="33">
+      <c r="L15" s="76"/>
+      <c r="M15" s="44">
         <v>141</v>
       </c>
-      <c r="N15" s="31" t="s">
+      <c r="N15" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O15" s="31" t="s">
+      <c r="O15" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="P15" s="31" t="s">
+      <c r="P15" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q15" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="36"/>
+      <c r="Q15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="48"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B16" s="49">
+      <c r="B16" s="44">
         <v>8</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="58" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="64" t="s">
         <v>366</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="88"/>
-      <c r="I16" s="58">
+      <c r="E16" s="34"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="49">
         <v>142</v>
       </c>
       <c r="J16" s="28" t="s">
         <v>404</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="L16" s="91"/>
-      <c r="M16" s="58">
+      <c r="L16" s="76"/>
+      <c r="M16" s="40">
         <v>141</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O16" s="31" t="s">
+      <c r="O16" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="31" t="s">
+      <c r="P16" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q16" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R16" s="36"/>
+      <c r="Q16" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R16" s="48"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B17" s="44">
+      <c r="B17" s="40">
         <v>9</v>
       </c>
-      <c r="C17" s="72" t="s">
+      <c r="C17" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="33">
+      <c r="E17" s="34"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="32">
         <v>143</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="K17" s="80" t="s">
+      <c r="K17" s="66" t="s">
         <v>412</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="58">
-        <v>142</v>
-      </c>
-      <c r="N17" s="31" t="s">
+      <c r="L17" s="76"/>
+      <c r="M17" s="40">
+        <v>142</v>
+      </c>
+      <c r="N17" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R17" s="56"/>
+      <c r="Q17" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="48"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B18" s="44">
+      <c r="B18" s="40">
         <v>10</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="58" t="s">
         <v>242</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="33">
+      <c r="E18" s="34"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="32">
         <v>144</v>
       </c>
       <c r="J18" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="33" t="s">
         <v>415</v>
       </c>
-      <c r="L18" s="91"/>
-      <c r="M18" s="33">
+      <c r="L18" s="76"/>
+      <c r="M18" s="44">
         <v>141</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="P18" s="31" t="s">
+      <c r="P18" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q18" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" s="36"/>
+      <c r="Q18" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" s="48"/>
     </row>
     <row r="19" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="49">
+      <c r="B19" s="44">
         <v>11</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="58" t="s">
         <v>243</v>
       </c>
-      <c r="D19" s="78" t="s">
+      <c r="D19" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="32">
+      <c r="E19" s="34"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="31">
         <v>145</v>
       </c>
-      <c r="J19" s="84" t="s">
+      <c r="J19" s="69" t="s">
         <v>416</v>
       </c>
-      <c r="K19" s="83" t="s">
+      <c r="K19" s="68" t="s">
         <v>417</v>
       </c>
-      <c r="L19" s="91"/>
-      <c r="M19" s="58">
-        <v>142</v>
-      </c>
-      <c r="N19" s="31" t="s">
+      <c r="L19" s="76"/>
+      <c r="M19" s="40">
+        <v>142</v>
+      </c>
+      <c r="N19" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O19" s="31" t="s">
+      <c r="O19" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="P19" s="31" t="s">
+      <c r="P19" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R19" s="36"/>
+      <c r="Q19" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" s="48"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B20" s="44">
+      <c r="B20" s="40">
         <v>12</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="58" t="s">
         <v>244</v>
       </c>
-      <c r="D20" s="78" t="s">
+      <c r="D20" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="33">
+      <c r="E20" s="34"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="44">
         <v>141</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O20" s="31" t="s">
+      <c r="O20" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="P20" s="31" t="s">
+      <c r="P20" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q20" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" s="56"/>
+      <c r="Q20" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" s="48"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B21" s="44">
+      <c r="B21" s="40">
         <v>13</v>
       </c>
-      <c r="C21" s="72" t="s">
+      <c r="C21" s="58" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="58">
-        <v>142</v>
-      </c>
-      <c r="N21" s="31" t="s">
+      <c r="E21" s="34"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="46"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="40">
+        <v>142</v>
+      </c>
+      <c r="N21" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R21" s="56"/>
+      <c r="Q21" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R21" s="48"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B22" s="49">
+      <c r="B22" s="44">
         <v>14</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="58" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="78" t="s">
+      <c r="D22" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="33">
+      <c r="E22" s="34"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="44">
         <v>141</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O22" s="31" t="s">
+      <c r="O22" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="P22" s="31" t="s">
+      <c r="P22" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q22" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="36"/>
+      <c r="Q22" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" s="48"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B23" s="44">
+      <c r="B23" s="40">
         <v>15</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="D23" s="78" t="s">
+      <c r="D23" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="58">
-        <v>142</v>
-      </c>
-      <c r="N23" s="31" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="40">
+        <v>142</v>
+      </c>
+      <c r="N23" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O23" s="31" t="s">
+      <c r="O23" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q23" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="36"/>
+      <c r="Q23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R23" s="48"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B24" s="44">
+      <c r="B24" s="40">
         <v>16</v>
       </c>
-      <c r="C24" s="72" t="s">
+      <c r="C24" s="58" t="s">
         <v>248</v>
       </c>
-      <c r="D24" s="78" t="s">
+      <c r="D24" s="64" t="s">
         <v>368</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="51"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="33">
+      <c r="E24" s="51"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="44">
         <v>141</v>
       </c>
-      <c r="N24" s="31" t="s">
+      <c r="N24" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O24" s="31" t="s">
+      <c r="O24" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="P24" s="31" t="s">
+      <c r="P24" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q24" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R24" s="36"/>
+      <c r="Q24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R24" s="48"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B25" s="49">
+      <c r="B25" s="44">
         <v>17</v>
       </c>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="58" t="s">
         <v>249</v>
       </c>
-      <c r="D25" s="78" t="s">
+      <c r="D25" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="51"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="58">
-        <v>142</v>
-      </c>
-      <c r="N25" s="31" t="s">
+      <c r="E25" s="52"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="40">
+        <v>142</v>
+      </c>
+      <c r="N25" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O25" s="31" t="s">
+      <c r="O25" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="P25" s="31" t="s">
+      <c r="P25" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q25" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="36"/>
+      <c r="Q25" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R25" s="48"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="44">
+      <c r="B26" s="40">
         <v>18</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="D26" s="78" t="s">
+      <c r="D26" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="51"/>
-      <c r="L26" s="40"/>
-      <c r="M26" s="33">
+      <c r="E26" s="52"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="44">
         <v>141</v>
       </c>
-      <c r="N26" s="31" t="s">
+      <c r="N26" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O26" s="31" t="s">
+      <c r="O26" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="P26" s="31" t="s">
+      <c r="P26" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="36"/>
+      <c r="Q26" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R26" s="48"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B27" s="44">
+      <c r="B27" s="40">
         <v>19</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="51"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="58">
-        <v>142</v>
-      </c>
-      <c r="N27" s="31" t="s">
+      <c r="E27" s="52"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="40">
+        <v>142</v>
+      </c>
+      <c r="N27" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O27" s="31" t="s">
+      <c r="O27" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="P27" s="31" t="s">
+      <c r="P27" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q27" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="36"/>
+      <c r="Q27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R27" s="48"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B28" s="49">
-        <v>20</v>
-      </c>
-      <c r="C28" s="72" t="s">
+      <c r="B28" s="44">
+        <v>20</v>
+      </c>
+      <c r="C28" s="58" t="s">
         <v>252</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="51"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="33">
+      <c r="E28" s="52"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="44">
         <v>141</v>
       </c>
-      <c r="N28" s="31" t="s">
+      <c r="N28" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O28" s="31" t="s">
+      <c r="O28" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="P28" s="31" t="s">
+      <c r="P28" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q28" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="56"/>
+      <c r="Q28" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R28" s="48"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B29" s="44">
+      <c r="B29" s="40">
         <v>21</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="58" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="58">
-        <v>142</v>
-      </c>
-      <c r="N29" s="31" t="s">
+      <c r="E29" s="52"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="46"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="40">
+        <v>142</v>
+      </c>
+      <c r="N29" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O29" s="31" t="s">
+      <c r="O29" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="31" t="s">
+      <c r="P29" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="36"/>
+      <c r="Q29" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="48"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B30" s="44">
+      <c r="B30" s="40">
         <v>22</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="58" t="s">
         <v>254</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="64" t="s">
         <v>367</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="33">
+      <c r="E30" s="52"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="44">
         <v>141</v>
       </c>
-      <c r="N30" s="31" t="s">
+      <c r="N30" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O30" s="31" t="s">
+      <c r="O30" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="P30" s="31" t="s">
+      <c r="P30" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q30" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="36"/>
+      <c r="Q30" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R30" s="48"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B31" s="49">
+      <c r="B31" s="44">
         <v>23</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="58" t="s">
         <v>255</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="51"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="58">
-        <v>142</v>
-      </c>
-      <c r="N31" s="31" t="s">
+      <c r="E31" s="52"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="46"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="40">
+        <v>142</v>
+      </c>
+      <c r="N31" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="P31" s="31" t="s">
+      <c r="P31" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q31" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="56"/>
+      <c r="Q31" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R31" s="48"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B32" s="44">
+      <c r="B32" s="40">
         <v>24</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="58" t="s">
         <v>256</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="51"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="33">
+      <c r="E32" s="52"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="46"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="44">
         <v>141</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="N32" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O32" s="31" t="s">
+      <c r="O32" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="P32" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q32" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="56"/>
+      <c r="Q32" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R32" s="48"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B33" s="44">
+      <c r="B33" s="40">
         <v>25</v>
       </c>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="51"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="58">
-        <v>142</v>
-      </c>
-      <c r="N33" s="31" t="s">
+      <c r="E33" s="52"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="46"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="40">
+        <v>142</v>
+      </c>
+      <c r="N33" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O33" s="31" t="s">
+      <c r="O33" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="P33" s="31" t="s">
+      <c r="P33" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q33" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R33" s="36"/>
+      <c r="Q33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33" s="48"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B34" s="49">
+      <c r="B34" s="44">
         <v>26</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="58" t="s">
         <v>258</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="64" t="s">
         <v>372</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="51"/>
-      <c r="L34" s="40"/>
-      <c r="M34" s="61">
+      <c r="E34" s="52"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="50">
         <v>7</v>
       </c>
-      <c r="N34" s="31" t="s">
+      <c r="N34" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O34" s="31" t="s">
+      <c r="O34" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="P34" s="31" t="s">
+      <c r="P34" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q34" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R34" s="36"/>
+      <c r="Q34" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R34" s="48"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B35" s="44">
+      <c r="B35" s="40">
         <v>27</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="58" t="s">
         <v>259</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="D35" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E35" s="66"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="51"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="58">
-        <v>142</v>
-      </c>
-      <c r="N35" s="31" t="s">
+      <c r="E35" s="52"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="46"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="40">
+        <v>142</v>
+      </c>
+      <c r="N35" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O35" s="31" t="s">
+      <c r="O35" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="P35" s="31" t="s">
+      <c r="P35" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q35" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R35" s="36"/>
+      <c r="Q35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R35" s="48"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B36" s="44">
+      <c r="B36" s="40">
         <v>28</v>
       </c>
-      <c r="C36" s="72" t="s">
+      <c r="C36" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="D36" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E36" s="66"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="51"/>
-      <c r="L36" s="40"/>
-      <c r="M36" s="58">
-        <v>142</v>
-      </c>
-      <c r="N36" s="31" t="s">
+      <c r="E36" s="52"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="46"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="40">
+        <v>142</v>
+      </c>
+      <c r="N36" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O36" s="31" t="s">
+      <c r="O36" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="P36" s="31" t="s">
+      <c r="P36" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q36" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R36" s="36"/>
+      <c r="Q36" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R36" s="48"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B37" s="49">
+      <c r="B37" s="44">
         <v>29</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="58" t="s">
         <v>261</v>
       </c>
-      <c r="D37" s="78" t="s">
+      <c r="D37" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="51"/>
-      <c r="L37" s="40"/>
-      <c r="M37" s="58">
-        <v>142</v>
-      </c>
-      <c r="N37" s="31" t="s">
+      <c r="E37" s="52"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="46"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="40">
+        <v>142</v>
+      </c>
+      <c r="N37" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O37" s="31" t="s">
+      <c r="O37" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="P37" s="31" t="s">
+      <c r="P37" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q37" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R37" s="36"/>
+      <c r="Q37" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R37" s="48"/>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B38" s="44">
+      <c r="B38" s="40">
         <v>30</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="58" t="s">
         <v>262</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="51"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="58">
-        <v>142</v>
-      </c>
-      <c r="N38" s="31" t="s">
+      <c r="E38" s="52"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="46"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="40">
+        <v>142</v>
+      </c>
+      <c r="N38" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O38" s="31" t="s">
+      <c r="O38" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="P38" s="31" t="s">
+      <c r="P38" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R38" s="36"/>
+      <c r="Q38" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R38" s="48"/>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B39" s="44">
+      <c r="B39" s="40">
         <v>31</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="58" t="s">
         <v>263</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E39" s="66"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="51"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="58">
-        <v>142</v>
-      </c>
-      <c r="N39" s="31" t="s">
+      <c r="E39" s="52"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="40">
+        <v>142</v>
+      </c>
+      <c r="N39" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O39" s="31" t="s">
+      <c r="O39" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="P39" s="31" t="s">
+      <c r="P39" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q39" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R39" s="56"/>
+      <c r="Q39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R39" s="48"/>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B40" s="49">
+      <c r="B40" s="44">
         <v>32</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="51"/>
-      <c r="L40" s="40"/>
-      <c r="M40" s="58">
-        <v>142</v>
-      </c>
-      <c r="N40" s="31" t="s">
+      <c r="E40" s="34"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="46"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="40">
+        <v>142</v>
+      </c>
+      <c r="N40" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O40" s="31" t="s">
+      <c r="O40" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="P40" s="31" t="s">
+      <c r="P40" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q40" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R40" s="36"/>
+      <c r="Q40" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R40" s="48"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B41" s="44">
+      <c r="B41" s="40">
         <v>33</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="58" t="s">
         <v>265</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="50"/>
-      <c r="G41" s="51"/>
-      <c r="L41" s="40"/>
-      <c r="M41" s="33">
+      <c r="E41" s="34"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="46"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="44">
         <v>141</v>
       </c>
-      <c r="N41" s="31" t="s">
+      <c r="N41" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O41" s="31" t="s">
+      <c r="O41" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="P41" s="31" t="s">
+      <c r="P41" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q41" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R41" s="36"/>
+      <c r="Q41" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="48"/>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B42" s="44">
+      <c r="B42" s="40">
         <v>34</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="50"/>
-      <c r="G42" s="51"/>
-      <c r="L42" s="40"/>
-      <c r="M42" s="58">
-        <v>142</v>
-      </c>
-      <c r="N42" s="31" t="s">
+      <c r="E42" s="34"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="46"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="40">
+        <v>142</v>
+      </c>
+      <c r="N42" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O42" s="31" t="s">
+      <c r="O42" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="P42" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R42" s="56"/>
+      <c r="Q42" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R42" s="48"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B43" s="49">
+      <c r="B43" s="44">
         <v>35</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="D43" s="78" t="s">
+      <c r="D43" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="51"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="58">
-        <v>142</v>
-      </c>
-      <c r="N43" s="31" t="s">
+      <c r="E43" s="34"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="46"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="40">
+        <v>142</v>
+      </c>
+      <c r="N43" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O43" s="31" t="s">
+      <c r="O43" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="P43" s="31" t="s">
+      <c r="P43" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q43" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="56"/>
+      <c r="Q43" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="48"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B44" s="44">
+      <c r="B44" s="40">
         <v>36</v>
       </c>
-      <c r="C44" s="72" t="s">
+      <c r="C44" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D44" s="78" t="s">
+      <c r="D44" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="51"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="58">
-        <v>142</v>
-      </c>
-      <c r="N44" s="31" t="s">
+      <c r="E44" s="34"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="46"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="40">
+        <v>142</v>
+      </c>
+      <c r="N44" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O44" s="31" t="s">
+      <c r="O44" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="P44" s="31" t="s">
+      <c r="P44" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q44" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R44" s="36"/>
+      <c r="Q44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="48"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B45" s="44">
+      <c r="B45" s="40">
         <v>37</v>
       </c>
-      <c r="C45" s="72" t="s">
+      <c r="C45" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="D45" s="78" t="s">
+      <c r="D45" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="51"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="58">
-        <v>142</v>
-      </c>
-      <c r="N45" s="31" t="s">
+      <c r="E45" s="34"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="40">
+        <v>142</v>
+      </c>
+      <c r="N45" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O45" s="31" t="s">
+      <c r="O45" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="P45" s="31" t="s">
+      <c r="P45" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q45" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R45" s="36"/>
+      <c r="Q45" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="48"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B46" s="49">
+      <c r="B46" s="44">
         <v>38</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="58" t="s">
         <v>270</v>
       </c>
-      <c r="D46" s="78" t="s">
+      <c r="D46" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="51"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="58">
-        <v>142</v>
-      </c>
-      <c r="N46" s="31" t="s">
+      <c r="E46" s="34"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="46"/>
+      <c r="L46" s="36"/>
+      <c r="M46" s="40">
+        <v>142</v>
+      </c>
+      <c r="N46" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O46" s="31" t="s">
+      <c r="O46" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P46" s="31" t="s">
+      <c r="P46" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q46" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R46" s="36"/>
+      <c r="Q46" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="48"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B47" s="44">
+      <c r="B47" s="40">
         <v>39</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="D47" s="78" t="s">
+      <c r="D47" s="64" t="s">
         <v>374</v>
       </c>
       <c r="E47" s="24"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="51"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="58">
-        <v>142</v>
-      </c>
-      <c r="N47" s="31" t="s">
+      <c r="F47" s="45"/>
+      <c r="G47" s="46"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="40">
+        <v>142</v>
+      </c>
+      <c r="N47" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O47" s="31" t="s">
+      <c r="O47" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="P47" s="31" t="s">
+      <c r="P47" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q47" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R47" s="36"/>
+      <c r="Q47" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="48"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B48" s="44">
+      <c r="B48" s="40">
         <v>40</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="58" t="s">
         <v>272</v>
       </c>
-      <c r="D48" s="78" t="s">
+      <c r="D48" s="64" t="s">
         <v>374</v>
       </c>
       <c r="E48" s="24"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="51"/>
-      <c r="L48" s="40"/>
-      <c r="M48" s="58">
-        <v>142</v>
-      </c>
-      <c r="N48" s="31" t="s">
+      <c r="F48" s="45"/>
+      <c r="G48" s="46"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="40">
+        <v>142</v>
+      </c>
+      <c r="N48" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O48" s="31" t="s">
+      <c r="O48" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="P48" s="31" t="s">
+      <c r="P48" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q48" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R48" s="36"/>
+      <c r="Q48" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="48"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B49" s="49">
+      <c r="B49" s="44">
         <v>41</v>
       </c>
-      <c r="C49" s="72" t="s">
+      <c r="C49" s="58" t="s">
         <v>273</v>
       </c>
-      <c r="D49" s="78" t="s">
+      <c r="D49" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E49" s="24"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="51"/>
-      <c r="L49" s="40"/>
-      <c r="M49" s="58">
-        <v>142</v>
-      </c>
-      <c r="N49" s="31" t="s">
+      <c r="F49" s="45"/>
+      <c r="G49" s="46"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="40">
+        <v>142</v>
+      </c>
+      <c r="N49" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O49" s="31" t="s">
+      <c r="O49" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="P49" s="31" t="s">
+      <c r="P49" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q49" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="36"/>
+      <c r="Q49" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="48"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B50" s="44">
+      <c r="B50" s="40">
         <v>42</v>
       </c>
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="58" t="s">
         <v>274</v>
       </c>
-      <c r="D50" s="78" t="s">
+      <c r="D50" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E50" s="24"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="51"/>
-      <c r="L50" s="40"/>
-      <c r="M50" s="58">
-        <v>142</v>
-      </c>
-      <c r="N50" s="31" t="s">
+      <c r="F50" s="45"/>
+      <c r="G50" s="46"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="40">
+        <v>142</v>
+      </c>
+      <c r="N50" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O50" s="31" t="s">
+      <c r="O50" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="P50" s="31" t="s">
+      <c r="P50" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q50" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="56"/>
+      <c r="Q50" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="48"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B51" s="44">
+      <c r="B51" s="40">
         <v>43</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="D51" s="78" t="s">
+      <c r="D51" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E51" s="24"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="95">
+      <c r="F51" s="45"/>
+      <c r="G51" s="46"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="106">
         <v>144</v>
       </c>
-      <c r="N51" s="96" t="s">
+      <c r="N51" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="O51" s="96" t="s">
+      <c r="O51" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="P51" s="96" t="s">
+      <c r="P51" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="Q51" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="97"/>
+      <c r="Q51" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="110"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B52" s="49">
+      <c r="B52" s="44">
         <v>44</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="58" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="78" t="s">
+      <c r="D52" s="64" t="s">
         <v>375</v>
       </c>
       <c r="E52" s="24"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="51"/>
-      <c r="L52" s="40"/>
-      <c r="M52" s="63">
+      <c r="F52" s="45"/>
+      <c r="G52" s="46"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="115">
         <v>145</v>
       </c>
-      <c r="N52" s="64" t="s">
+      <c r="N52" s="107" t="s">
         <v>158</v>
       </c>
-      <c r="O52" s="64" t="s">
+      <c r="O52" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="P52" s="64" t="s">
+      <c r="P52" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="Q52" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="47"/>
+      <c r="Q52" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="117"/>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B53" s="44">
+      <c r="B53" s="40">
         <v>45</v>
       </c>
-      <c r="C53" s="72" t="s">
+      <c r="C53" s="58" t="s">
         <v>277</v>
       </c>
-      <c r="D53" s="78" t="s">
+      <c r="D53" s="64" t="s">
         <v>376</v>
       </c>
       <c r="E53" s="24"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="51"/>
-      <c r="L53" s="40"/>
-      <c r="M53" s="58">
-        <v>142</v>
-      </c>
-      <c r="N53" s="31" t="s">
+      <c r="F53" s="45"/>
+      <c r="G53" s="46"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="40">
+        <v>142</v>
+      </c>
+      <c r="N53" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O53" s="31" t="s">
+      <c r="O53" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="P53" s="31" t="s">
+      <c r="P53" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q53" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="56"/>
+      <c r="Q53" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="48"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B54" s="44">
+      <c r="B54" s="40">
         <v>46</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D54" s="78" t="s">
+      <c r="D54" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E54" s="24"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="51"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="61">
+      <c r="F54" s="45"/>
+      <c r="G54" s="46"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="50">
         <v>140</v>
       </c>
-      <c r="N54" s="31" t="s">
+      <c r="N54" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O54" s="31" t="s">
+      <c r="O54" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="P54" s="31" t="s">
+      <c r="P54" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R54" s="56"/>
+      <c r="Q54" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="48"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B55" s="49">
+      <c r="B55" s="44">
         <v>47</v>
       </c>
-      <c r="C55" s="72" t="s">
+      <c r="C55" s="58" t="s">
         <v>279</v>
       </c>
-      <c r="D55" s="78" t="s">
+      <c r="D55" s="64" t="s">
         <v>376</v>
       </c>
       <c r="E55" s="24"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="51"/>
-      <c r="L55" s="40"/>
-      <c r="M55" s="61">
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="50">
         <v>4</v>
       </c>
-      <c r="N55" s="31" t="s">
+      <c r="N55" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O55" s="31" t="s">
+      <c r="O55" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="P55" s="31" t="s">
+      <c r="P55" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q55" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R55" s="36"/>
+      <c r="Q55" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="48"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B56" s="44">
+      <c r="B56" s="40">
         <v>48</v>
       </c>
-      <c r="C56" s="72" t="s">
+      <c r="C56" s="58" t="s">
         <v>280</v>
       </c>
-      <c r="D56" s="78" t="s">
+      <c r="D56" s="64" t="s">
         <v>377</v>
       </c>
       <c r="E56" s="24"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="51"/>
-      <c r="L56" s="40"/>
-      <c r="M56" s="61">
-        <v>142</v>
-      </c>
-      <c r="N56" s="31" t="s">
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="50">
+        <v>142</v>
+      </c>
+      <c r="N56" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O56" s="31" t="s">
+      <c r="O56" s="34" t="s">
         <v>420</v>
       </c>
-      <c r="P56" s="31" t="s">
+      <c r="P56" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q56" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R56" s="36"/>
+      <c r="Q56" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="48"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B57" s="44">
+      <c r="B57" s="40">
         <v>49</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C57" s="58" t="s">
         <v>281</v>
       </c>
-      <c r="D57" s="78" t="s">
+      <c r="D57" s="64" t="s">
         <v>373</v>
       </c>
       <c r="E57" s="24"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="51"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="58">
-        <v>142</v>
-      </c>
-      <c r="N57" s="31" t="s">
+      <c r="F57" s="45"/>
+      <c r="G57" s="46"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="40">
+        <v>142</v>
+      </c>
+      <c r="N57" s="34" t="s">
         <v>158</v>
       </c>
-      <c r="O57" s="31" t="s">
+      <c r="O57" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="P57" s="31" t="s">
+      <c r="P57" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q57" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R57" s="36"/>
+      <c r="Q57" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="48"/>
     </row>
     <row r="58" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="49">
+      <c r="B58" s="44">
         <v>50</v>
       </c>
-      <c r="C58" s="72" t="s">
+      <c r="C58" s="58" t="s">
         <v>282</v>
       </c>
-      <c r="D58" s="78" t="s">
+      <c r="D58" s="64" t="s">
         <v>378</v>
       </c>
       <c r="E58" s="24"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="51"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="58">
-        <v>142</v>
-      </c>
-      <c r="N58" s="57" t="s">
+      <c r="F58" s="45"/>
+      <c r="G58" s="46"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="40">
+        <v>142</v>
+      </c>
+      <c r="N58" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="O58" s="57" t="s">
+      <c r="O58" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="P58" s="57" t="s">
+      <c r="P58" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="Q58" s="57" t="s">
-        <v>20</v>
-      </c>
-      <c r="R58" s="52"/>
+      <c r="Q58" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="108"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B59" s="44">
+      <c r="B59" s="40">
         <v>51</v>
       </c>
-      <c r="C59" s="72" t="s">
+      <c r="C59" s="58" t="s">
         <v>283</v>
       </c>
-      <c r="D59" s="78" t="s">
+      <c r="D59" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E59" s="24"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="51"/>
-      <c r="L59" s="55"/>
-      <c r="M59" s="123">
+      <c r="F59" s="45"/>
+      <c r="G59" s="46"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="85">
         <v>135</v>
       </c>
-      <c r="N59" s="45" t="s">
+      <c r="N59" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="O59" s="45" t="s">
+      <c r="O59" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="P59" s="45" t="s">
+      <c r="P59" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="45" t="s">
+      <c r="Q59" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R59" s="122" t="s">
+      <c r="R59" s="84" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B60" s="44">
+      <c r="B60" s="40">
         <v>52</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="58" t="s">
         <v>284</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E60" s="24"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="51"/>
-      <c r="L60" s="40"/>
-      <c r="M60" s="49">
+      <c r="F60" s="45"/>
+      <c r="G60" s="46"/>
+      <c r="L60" s="36"/>
+      <c r="M60" s="44">
         <v>141</v>
       </c>
-      <c r="N60" s="37" t="s">
+      <c r="N60" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O60" s="37" t="s">
+      <c r="O60" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="P60" s="37" t="s">
+      <c r="P60" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q60" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="80"/>
+      <c r="Q60" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="66"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B61" s="49">
+      <c r="B61" s="44">
         <v>53</v>
       </c>
-      <c r="C61" s="72" t="s">
+      <c r="C61" s="58" t="s">
         <v>285</v>
       </c>
-      <c r="D61" s="78" t="s">
+      <c r="D61" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E61" s="24"/>
-      <c r="F61" s="50"/>
-      <c r="G61" s="51"/>
-      <c r="L61" s="40"/>
-      <c r="M61" s="49">
+      <c r="F61" s="45"/>
+      <c r="G61" s="46"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="44">
         <v>141</v>
       </c>
-      <c r="N61" s="37" t="s">
+      <c r="N61" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O61" s="37" t="s">
+      <c r="O61" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="P61" s="37" t="s">
+      <c r="P61" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q61" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="80"/>
+      <c r="Q61" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="66"/>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B62" s="44">
+      <c r="B62" s="40">
         <v>54</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="58" t="s">
         <v>286</v>
       </c>
-      <c r="D62" s="78" t="s">
+      <c r="D62" s="64" t="s">
         <v>379</v>
       </c>
       <c r="E62" s="24"/>
-      <c r="F62" s="50"/>
-      <c r="G62" s="51"/>
-      <c r="L62" s="40"/>
-      <c r="M62" s="49">
+      <c r="F62" s="45"/>
+      <c r="G62" s="46"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="44">
         <v>67</v>
       </c>
-      <c r="N62" s="37" t="s">
+      <c r="N62" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O62" s="37" t="s">
+      <c r="O62" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="P62" s="37" t="s">
+      <c r="P62" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="80"/>
+      <c r="Q62" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="66"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B63" s="44">
+      <c r="B63" s="40">
         <v>55</v>
       </c>
-      <c r="C63" s="72" t="s">
+      <c r="C63" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="D63" s="78" t="s">
+      <c r="D63" s="64" t="s">
         <v>375</v>
       </c>
       <c r="E63" s="24"/>
-      <c r="F63" s="50"/>
-      <c r="G63" s="51"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="44">
-        <v>142</v>
-      </c>
-      <c r="N63" s="37" t="s">
+      <c r="F63" s="45"/>
+      <c r="G63" s="46"/>
+      <c r="L63" s="36"/>
+      <c r="M63" s="40">
+        <v>142</v>
+      </c>
+      <c r="N63" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O63" s="37" t="s">
+      <c r="O63" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="P63" s="37" t="s">
+      <c r="P63" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q63" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R63" s="80"/>
+      <c r="Q63" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="66"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B64" s="49">
+      <c r="B64" s="44">
         <v>56</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="58" t="s">
         <v>288</v>
       </c>
-      <c r="D64" s="78" t="s">
+      <c r="D64" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E64" s="24"/>
-      <c r="F64" s="50"/>
-      <c r="G64" s="51"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="44">
-        <v>142</v>
-      </c>
-      <c r="N64" s="37" t="s">
+      <c r="F64" s="45"/>
+      <c r="G64" s="46"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="40">
+        <v>142</v>
+      </c>
+      <c r="N64" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O64" s="37" t="s">
+      <c r="O64" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="P64" s="37" t="s">
+      <c r="P64" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q64" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R64" s="80"/>
+      <c r="Q64" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="66"/>
     </row>
     <row r="65" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B65" s="44">
+      <c r="B65" s="40">
         <v>57</v>
       </c>
-      <c r="C65" s="72" t="s">
+      <c r="C65" s="58" t="s">
         <v>289</v>
       </c>
-      <c r="D65" s="78" t="s">
+      <c r="D65" s="64" t="s">
         <v>380</v>
       </c>
       <c r="E65" s="24"/>
-      <c r="F65" s="50"/>
-      <c r="G65" s="51"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="49">
+      <c r="F65" s="45"/>
+      <c r="G65" s="46"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="44">
         <v>141</v>
       </c>
-      <c r="N65" s="37" t="s">
+      <c r="N65" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O65" s="37" t="s">
+      <c r="O65" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="P65" s="37" t="s">
+      <c r="P65" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q65" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="80"/>
+      <c r="Q65" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="66"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B66" s="44">
+      <c r="B66" s="40">
         <v>58</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="58" t="s">
         <v>290</v>
       </c>
-      <c r="D66" s="78" t="s">
+      <c r="D66" s="64" t="s">
         <v>372</v>
       </c>
       <c r="E66" s="24"/>
-      <c r="F66" s="50"/>
-      <c r="G66" s="51"/>
-      <c r="L66" s="40"/>
-      <c r="M66" s="44">
-        <v>142</v>
-      </c>
-      <c r="N66" s="37" t="s">
+      <c r="F66" s="45"/>
+      <c r="G66" s="46"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="40">
+        <v>142</v>
+      </c>
+      <c r="N66" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O66" s="37" t="s">
+      <c r="O66" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="P66" s="37" t="s">
+      <c r="P66" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q66" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="80"/>
+      <c r="Q66" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="66"/>
     </row>
     <row r="67" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B67" s="49">
+      <c r="B67" s="44">
         <v>59</v>
       </c>
-      <c r="C67" s="72" t="s">
+      <c r="C67" s="58" t="s">
         <v>291</v>
       </c>
-      <c r="D67" s="78" t="s">
+      <c r="D67" s="64" t="s">
         <v>381</v>
       </c>
       <c r="E67" s="24"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="51"/>
-      <c r="L67" s="40"/>
-      <c r="M67" s="49">
+      <c r="F67" s="45"/>
+      <c r="G67" s="46"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="44">
         <v>141</v>
       </c>
-      <c r="N67" s="37" t="s">
+      <c r="N67" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O67" s="37" t="s">
+      <c r="O67" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="P67" s="37" t="s">
+      <c r="P67" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q67" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="80"/>
+      <c r="Q67" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="66"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B68" s="44">
+      <c r="B68" s="40">
         <v>60</v>
       </c>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="58" t="s">
         <v>292</v>
       </c>
-      <c r="D68" s="78" t="s">
+      <c r="D68" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E68" s="24"/>
-      <c r="F68" s="50"/>
-      <c r="G68" s="51"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="44">
-        <v>142</v>
-      </c>
-      <c r="N68" s="37" t="s">
+      <c r="F68" s="45"/>
+      <c r="G68" s="46"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="40">
+        <v>142</v>
+      </c>
+      <c r="N68" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O68" s="37" t="s">
+      <c r="O68" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="P68" s="37" t="s">
+      <c r="P68" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q68" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R68" s="80"/>
+      <c r="Q68" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="66"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B69" s="44">
+      <c r="B69" s="40">
         <v>61</v>
       </c>
-      <c r="C69" s="72" t="s">
+      <c r="C69" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="D69" s="78" t="s">
+      <c r="D69" s="64" t="s">
         <v>382</v>
       </c>
       <c r="E69" s="24"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="49">
+      <c r="F69" s="45"/>
+      <c r="G69" s="46"/>
+      <c r="L69" s="36"/>
+      <c r="M69" s="44">
         <v>141</v>
       </c>
-      <c r="N69" s="37" t="s">
+      <c r="N69" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O69" s="37" t="s">
+      <c r="O69" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="P69" s="37" t="s">
+      <c r="P69" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q69" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="80"/>
+      <c r="Q69" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R69" s="66"/>
     </row>
     <row r="70" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B70" s="49">
+      <c r="B70" s="44">
         <v>62</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="D70" s="78" t="s">
+      <c r="D70" s="64" t="s">
         <v>383</v>
       </c>
       <c r="E70" s="24"/>
-      <c r="F70" s="50"/>
-      <c r="G70" s="51"/>
-      <c r="L70" s="40"/>
-      <c r="M70" s="44">
-        <v>142</v>
-      </c>
-      <c r="N70" s="37" t="s">
+      <c r="F70" s="45"/>
+      <c r="G70" s="46"/>
+      <c r="L70" s="36"/>
+      <c r="M70" s="40">
+        <v>142</v>
+      </c>
+      <c r="N70" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O70" s="37" t="s">
+      <c r="O70" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="P70" s="37" t="s">
+      <c r="P70" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q70" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R70" s="80"/>
+      <c r="Q70" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R70" s="66"/>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B71" s="44">
+      <c r="B71" s="40">
         <v>63</v>
       </c>
-      <c r="C71" s="72" t="s">
+      <c r="C71" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="D71" s="78" t="s">
+      <c r="D71" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E71" s="24"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="51"/>
-      <c r="L71" s="40"/>
-      <c r="M71" s="49">
+      <c r="F71" s="45"/>
+      <c r="G71" s="46"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="44">
         <v>141</v>
       </c>
-      <c r="N71" s="37" t="s">
+      <c r="N71" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O71" s="37" t="s">
+      <c r="O71" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="P71" s="37" t="s">
+      <c r="P71" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q71" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R71" s="80"/>
+      <c r="Q71" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R71" s="66"/>
     </row>
     <row r="72" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B72" s="44">
+      <c r="B72" s="40">
         <v>64</v>
       </c>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="D72" s="78" t="s">
+      <c r="D72" s="64" t="s">
         <v>383</v>
       </c>
       <c r="E72" s="24"/>
-      <c r="F72" s="50"/>
-      <c r="G72" s="51"/>
-      <c r="L72" s="40"/>
-      <c r="M72" s="49">
+      <c r="F72" s="45"/>
+      <c r="G72" s="46"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="44">
         <v>141</v>
       </c>
-      <c r="N72" s="37" t="s">
+      <c r="N72" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O72" s="37" t="s">
+      <c r="O72" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="P72" s="37" t="s">
+      <c r="P72" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q72" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R72" s="80"/>
+      <c r="Q72" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="66"/>
     </row>
     <row r="73" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B73" s="49">
+      <c r="B73" s="44">
         <v>65</v>
       </c>
-      <c r="C73" s="72" t="s">
+      <c r="C73" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="D73" s="78" t="s">
+      <c r="D73" s="64" t="s">
         <v>383</v>
       </c>
       <c r="E73" s="24"/>
-      <c r="F73" s="50"/>
-      <c r="G73" s="51"/>
-      <c r="L73" s="40"/>
-      <c r="M73" s="44">
-        <v>142</v>
-      </c>
-      <c r="N73" s="37" t="s">
+      <c r="F73" s="45"/>
+      <c r="G73" s="46"/>
+      <c r="L73" s="36"/>
+      <c r="M73" s="40">
+        <v>142</v>
+      </c>
+      <c r="N73" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O73" s="37" t="s">
+      <c r="O73" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="P73" s="37" t="s">
+      <c r="P73" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q73" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R73" s="80"/>
+      <c r="Q73" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="66"/>
     </row>
     <row r="74" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B74" s="44">
+      <c r="B74" s="40">
         <v>66</v>
       </c>
-      <c r="C74" s="72" t="s">
+      <c r="C74" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="D74" s="78" t="s">
+      <c r="D74" s="64" t="s">
         <v>367</v>
       </c>
       <c r="E74" s="24"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="51"/>
-      <c r="L74" s="40"/>
-      <c r="M74" s="49">
+      <c r="F74" s="45"/>
+      <c r="G74" s="46"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="44">
         <v>141</v>
       </c>
-      <c r="N74" s="37" t="s">
+      <c r="N74" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O74" s="37" t="s">
+      <c r="O74" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="P74" s="37" t="s">
+      <c r="P74" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q74" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R74" s="80"/>
+      <c r="Q74" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="66"/>
     </row>
     <row r="75" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B75" s="44">
+      <c r="B75" s="40">
         <v>67</v>
       </c>
-      <c r="C75" s="72" t="s">
+      <c r="C75" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="D75" s="78" t="s">
+      <c r="D75" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E75" s="24"/>
-      <c r="F75" s="50"/>
-      <c r="G75" s="51"/>
-      <c r="L75" s="40"/>
-      <c r="M75" s="44">
-        <v>142</v>
-      </c>
-      <c r="N75" s="37" t="s">
+      <c r="F75" s="45"/>
+      <c r="G75" s="46"/>
+      <c r="L75" s="36"/>
+      <c r="M75" s="40">
+        <v>142</v>
+      </c>
+      <c r="N75" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O75" s="37" t="s">
+      <c r="O75" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="P75" s="37" t="s">
+      <c r="P75" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q75" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R75" s="80"/>
+      <c r="Q75" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="66"/>
     </row>
     <row r="76" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B76" s="49">
+      <c r="B76" s="44">
         <v>68</v>
       </c>
-      <c r="C76" s="72" t="s">
+      <c r="C76" s="58" t="s">
         <v>300</v>
       </c>
-      <c r="D76" s="78" t="s">
+      <c r="D76" s="64" t="s">
         <v>384</v>
       </c>
       <c r="E76" s="24"/>
-      <c r="F76" s="50"/>
-      <c r="G76" s="51"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="49">
+      <c r="F76" s="45"/>
+      <c r="G76" s="46"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="44">
         <v>141</v>
       </c>
-      <c r="N76" s="37" t="s">
+      <c r="N76" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O76" s="37" t="s">
+      <c r="O76" s="34" t="s">
         <v>421</v>
       </c>
-      <c r="P76" s="37" t="s">
+      <c r="P76" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q76" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="80"/>
+      <c r="Q76" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="66"/>
     </row>
     <row r="77" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B77" s="44">
+      <c r="B77" s="40">
         <v>69</v>
       </c>
-      <c r="C77" s="72" t="s">
+      <c r="C77" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D77" s="78" t="s">
+      <c r="D77" s="64" t="s">
         <v>385</v>
       </c>
       <c r="E77" s="24"/>
-      <c r="F77" s="50"/>
-      <c r="G77" s="51"/>
-      <c r="L77" s="40"/>
-      <c r="M77" s="44">
-        <v>142</v>
-      </c>
-      <c r="N77" s="37" t="s">
+      <c r="F77" s="45"/>
+      <c r="G77" s="46"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="40">
+        <v>142</v>
+      </c>
+      <c r="N77" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O77" s="37" t="s">
+      <c r="O77" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="P77" s="37" t="s">
+      <c r="P77" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q77" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R77" s="80"/>
+      <c r="Q77" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R77" s="66"/>
     </row>
     <row r="78" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B78" s="44">
+      <c r="B78" s="40">
         <v>70</v>
       </c>
-      <c r="C78" s="72" t="s">
+      <c r="C78" s="58" t="s">
         <v>302</v>
       </c>
-      <c r="D78" s="78" t="s">
+      <c r="D78" s="64" t="s">
         <v>38</v>
       </c>
       <c r="E78" s="24"/>
-      <c r="F78" s="50"/>
-      <c r="G78" s="51"/>
-      <c r="L78" s="40"/>
-      <c r="M78" s="49">
+      <c r="F78" s="45"/>
+      <c r="G78" s="46"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="44">
         <v>141</v>
       </c>
-      <c r="N78" s="37" t="s">
+      <c r="N78" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O78" s="37" t="s">
+      <c r="O78" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="P78" s="37" t="s">
+      <c r="P78" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q78" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R78" s="80"/>
+      <c r="Q78" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R78" s="66"/>
     </row>
     <row r="79" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B79" s="49">
+      <c r="B79" s="44">
         <v>71</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="58" t="s">
         <v>303</v>
       </c>
-      <c r="D79" s="78" t="s">
+      <c r="D79" s="64" t="s">
         <v>374</v>
       </c>
       <c r="E79" s="24"/>
-      <c r="F79" s="50"/>
-      <c r="G79" s="51"/>
-      <c r="L79" s="40"/>
-      <c r="M79" s="44">
-        <v>142</v>
-      </c>
-      <c r="N79" s="37" t="s">
+      <c r="F79" s="45"/>
+      <c r="G79" s="46"/>
+      <c r="L79" s="36"/>
+      <c r="M79" s="40">
+        <v>142</v>
+      </c>
+      <c r="N79" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O79" s="37" t="s">
+      <c r="O79" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="P79" s="37" t="s">
+      <c r="P79" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q79" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R79" s="80"/>
+      <c r="Q79" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R79" s="66"/>
     </row>
     <row r="80" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B80" s="44">
+      <c r="B80" s="40">
         <v>72</v>
       </c>
-      <c r="C80" s="72" t="s">
+      <c r="C80" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="D80" s="78" t="s">
+      <c r="D80" s="64" t="s">
         <v>374</v>
       </c>
       <c r="E80" s="24"/>
-      <c r="F80" s="50"/>
-      <c r="G80" s="51"/>
-      <c r="L80" s="40"/>
-      <c r="M80" s="49">
+      <c r="F80" s="45"/>
+      <c r="G80" s="46"/>
+      <c r="L80" s="36"/>
+      <c r="M80" s="44">
         <v>141</v>
       </c>
-      <c r="N80" s="37" t="s">
+      <c r="N80" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O80" s="37" t="s">
+      <c r="O80" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="P80" s="37" t="s">
+      <c r="P80" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q80" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R80" s="80"/>
+      <c r="Q80" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R80" s="66"/>
     </row>
     <row r="81" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B81" s="44">
+      <c r="B81" s="40">
         <v>73</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="58" t="s">
         <v>305</v>
       </c>
-      <c r="D81" s="78" t="s">
+      <c r="D81" s="64" t="s">
         <v>374</v>
       </c>
       <c r="E81" s="24"/>
-      <c r="F81" s="50"/>
-      <c r="G81" s="51"/>
-      <c r="L81" s="40"/>
-      <c r="M81" s="44">
-        <v>142</v>
-      </c>
-      <c r="N81" s="37" t="s">
+      <c r="F81" s="45"/>
+      <c r="G81" s="46"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="40">
+        <v>142</v>
+      </c>
+      <c r="N81" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O81" s="37" t="s">
+      <c r="O81" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="P81" s="37" t="s">
+      <c r="P81" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q81" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R81" s="80"/>
+      <c r="Q81" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R81" s="66"/>
     </row>
     <row r="82" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B82" s="49">
+      <c r="B82" s="44">
         <v>74</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="58" t="s">
         <v>306</v>
       </c>
-      <c r="D82" s="78" t="s">
+      <c r="D82" s="64" t="s">
         <v>374</v>
       </c>
       <c r="E82" s="24"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="51"/>
-      <c r="L82" s="40"/>
-      <c r="M82" s="49">
+      <c r="F82" s="45"/>
+      <c r="G82" s="46"/>
+      <c r="L82" s="36"/>
+      <c r="M82" s="44">
         <v>141</v>
       </c>
-      <c r="N82" s="37" t="s">
+      <c r="N82" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O82" s="37" t="s">
+      <c r="O82" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="P82" s="37" t="s">
+      <c r="P82" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q82" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R82" s="80"/>
+      <c r="Q82" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="66"/>
     </row>
     <row r="83" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B83" s="44">
+      <c r="B83" s="40">
         <v>75</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="58" t="s">
         <v>307</v>
       </c>
-      <c r="D83" s="78" t="s">
+      <c r="D83" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E83" s="24"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="51"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="44">
-        <v>142</v>
-      </c>
-      <c r="N83" s="37" t="s">
+      <c r="F83" s="45"/>
+      <c r="G83" s="46"/>
+      <c r="L83" s="36"/>
+      <c r="M83" s="40">
+        <v>142</v>
+      </c>
+      <c r="N83" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O83" s="37" t="s">
+      <c r="O83" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="P83" s="37" t="s">
+      <c r="P83" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q83" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R83" s="56"/>
+      <c r="Q83" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R83" s="48"/>
     </row>
     <row r="84" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B84" s="44">
+      <c r="B84" s="40">
         <v>76</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="58" t="s">
         <v>308</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="64" t="s">
         <v>383</v>
       </c>
       <c r="E84" s="24"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="51"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="49">
+      <c r="F84" s="45"/>
+      <c r="G84" s="46"/>
+      <c r="L84" s="36"/>
+      <c r="M84" s="44">
         <v>141</v>
       </c>
-      <c r="N84" s="37" t="s">
+      <c r="N84" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O84" s="37" t="s">
+      <c r="O84" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="P84" s="37" t="s">
+      <c r="P84" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q84" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R84" s="80"/>
+      <c r="Q84" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R84" s="66"/>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B85" s="49">
+      <c r="B85" s="44">
         <v>77</v>
       </c>
-      <c r="C85" s="72" t="s">
+      <c r="C85" s="58" t="s">
         <v>309</v>
       </c>
-      <c r="D85" s="78" t="s">
+      <c r="D85" s="64" t="s">
         <v>383</v>
       </c>
       <c r="E85" s="24"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="51"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="44">
-        <v>142</v>
-      </c>
-      <c r="N85" s="37" t="s">
+      <c r="F85" s="45"/>
+      <c r="G85" s="46"/>
+      <c r="L85" s="36"/>
+      <c r="M85" s="40">
+        <v>142</v>
+      </c>
+      <c r="N85" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O85" s="37" t="s">
+      <c r="O85" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="P85" s="37" t="s">
+      <c r="P85" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q85" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R85" s="80"/>
+      <c r="Q85" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R85" s="66"/>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B86" s="44">
+      <c r="B86" s="40">
         <v>78</v>
       </c>
-      <c r="C86" s="72" t="s">
+      <c r="C86" s="58" t="s">
         <v>310</v>
       </c>
-      <c r="D86" s="78" t="s">
+      <c r="D86" s="64" t="s">
         <v>383</v>
       </c>
       <c r="E86" s="24"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="51"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="49">
+      <c r="F86" s="45"/>
+      <c r="G86" s="46"/>
+      <c r="L86" s="36"/>
+      <c r="M86" s="44">
         <v>141</v>
       </c>
-      <c r="N86" s="37" t="s">
+      <c r="N86" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O86" s="37" t="s">
+      <c r="O86" s="34" t="s">
         <v>422</v>
       </c>
-      <c r="P86" s="37" t="s">
+      <c r="P86" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q86" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R86" s="56"/>
+      <c r="Q86" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R86" s="48"/>
     </row>
     <row r="87" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B87" s="44">
+      <c r="B87" s="40">
         <v>79</v>
       </c>
-      <c r="C87" s="72" t="s">
+      <c r="C87" s="58" t="s">
         <v>311</v>
       </c>
-      <c r="D87" s="78" t="s">
+      <c r="D87" s="64" t="s">
         <v>368</v>
       </c>
       <c r="E87" s="24"/>
-      <c r="F87" s="50"/>
-      <c r="G87" s="51"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="44">
-        <v>142</v>
-      </c>
-      <c r="N87" s="37" t="s">
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
+      <c r="L87" s="36"/>
+      <c r="M87" s="40">
+        <v>142</v>
+      </c>
+      <c r="N87" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O87" s="37" t="s">
+      <c r="O87" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="P87" s="37" t="s">
+      <c r="P87" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q87" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R87" s="80"/>
+      <c r="Q87" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R87" s="66"/>
     </row>
     <row r="88" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B88" s="49">
+      <c r="B88" s="44">
         <v>80</v>
       </c>
-      <c r="C88" s="72" t="s">
+      <c r="C88" s="58" t="s">
         <v>312</v>
       </c>
-      <c r="D88" s="78" t="s">
+      <c r="D88" s="64" t="s">
         <v>19</v>
       </c>
       <c r="E88" s="24"/>
-      <c r="F88" s="50"/>
-      <c r="G88" s="51"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="49">
+      <c r="F88" s="45"/>
+      <c r="G88" s="46"/>
+      <c r="L88" s="36"/>
+      <c r="M88" s="44">
         <v>141</v>
       </c>
-      <c r="N88" s="37" t="s">
+      <c r="N88" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O88" s="37" t="s">
+      <c r="O88" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="P88" s="37" t="s">
+      <c r="P88" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q88" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R88" s="56"/>
+      <c r="Q88" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R88" s="48"/>
     </row>
     <row r="89" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B89" s="44">
+      <c r="B89" s="40">
         <v>81</v>
       </c>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="D89" s="78" t="s">
+      <c r="D89" s="64" t="s">
         <v>389</v>
       </c>
       <c r="E89" s="24"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="51"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="44">
-        <v>142</v>
-      </c>
-      <c r="N89" s="37" t="s">
+      <c r="F89" s="45"/>
+      <c r="G89" s="46"/>
+      <c r="L89" s="36"/>
+      <c r="M89" s="40">
+        <v>142</v>
+      </c>
+      <c r="N89" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O89" s="37" t="s">
+      <c r="O89" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="P89" s="37" t="s">
+      <c r="P89" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q89" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R89" s="56"/>
+      <c r="Q89" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R89" s="48"/>
     </row>
     <row r="90" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B90" s="44">
+      <c r="B90" s="40">
         <v>82</v>
       </c>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="58" t="s">
         <v>314</v>
       </c>
-      <c r="D90" s="78" t="s">
+      <c r="D90" s="64" t="s">
         <v>376</v>
       </c>
       <c r="E90" s="24"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="51"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="49">
+      <c r="F90" s="45"/>
+      <c r="G90" s="46"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="44">
         <v>141</v>
       </c>
-      <c r="N90" s="37" t="s">
+      <c r="N90" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O90" s="37" t="s">
+      <c r="O90" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="P90" s="37" t="s">
+      <c r="P90" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q90" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R90" s="80"/>
+      <c r="Q90" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R90" s="66"/>
     </row>
     <row r="91" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B91" s="49">
+      <c r="B91" s="44">
         <v>83</v>
       </c>
-      <c r="C91" s="69" t="s">
+      <c r="C91" s="55" t="s">
         <v>315</v>
       </c>
-      <c r="D91" s="69" t="s">
+      <c r="D91" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E91" s="24"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="51"/>
-      <c r="L91" s="40"/>
-      <c r="M91" s="44">
-        <v>142</v>
-      </c>
-      <c r="N91" s="37" t="s">
+      <c r="F91" s="45"/>
+      <c r="G91" s="46"/>
+      <c r="L91" s="36"/>
+      <c r="M91" s="40">
+        <v>142</v>
+      </c>
+      <c r="N91" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O91" s="37" t="s">
+      <c r="O91" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="P91" s="37" t="s">
+      <c r="P91" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q91" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R91" s="80"/>
+      <c r="Q91" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R91" s="66"/>
     </row>
     <row r="92" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B92" s="44">
+      <c r="B92" s="40">
         <v>84</v>
       </c>
-      <c r="C92" s="69" t="s">
+      <c r="C92" s="55" t="s">
         <v>316</v>
       </c>
-      <c r="D92" s="69" t="s">
+      <c r="D92" s="55" t="s">
         <v>367</v>
       </c>
       <c r="E92" s="24"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="51"/>
-      <c r="L92" s="40"/>
-      <c r="M92" s="49">
+      <c r="F92" s="45"/>
+      <c r="G92" s="46"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="44">
         <v>141</v>
       </c>
-      <c r="N92" s="37" t="s">
+      <c r="N92" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O92" s="37" t="s">
+      <c r="O92" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="P92" s="37" t="s">
+      <c r="P92" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q92" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R92" s="80"/>
+      <c r="Q92" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R92" s="66"/>
     </row>
     <row r="93" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B93" s="44">
+      <c r="B93" s="40">
         <v>85</v>
       </c>
-      <c r="C93" s="69" t="s">
+      <c r="C93" s="55" t="s">
         <v>317</v>
       </c>
-      <c r="D93" s="69" t="s">
+      <c r="D93" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E93" s="24"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="51"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="44">
-        <v>142</v>
-      </c>
-      <c r="N93" s="37" t="s">
+      <c r="F93" s="45"/>
+      <c r="G93" s="46"/>
+      <c r="L93" s="36"/>
+      <c r="M93" s="40">
+        <v>142</v>
+      </c>
+      <c r="N93" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O93" s="37" t="s">
+      <c r="O93" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="P93" s="37" t="s">
+      <c r="P93" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q93" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R93" s="80"/>
+      <c r="Q93" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R93" s="66"/>
     </row>
     <row r="94" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B94" s="49">
+      <c r="B94" s="44">
         <v>86</v>
       </c>
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="D94" s="69" t="s">
+      <c r="D94" s="55" t="s">
         <v>386</v>
       </c>
       <c r="E94" s="24"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="51"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="44">
-        <v>142</v>
-      </c>
-      <c r="N94" s="37" t="s">
+      <c r="F94" s="45"/>
+      <c r="G94" s="46"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="40">
+        <v>142</v>
+      </c>
+      <c r="N94" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O94" s="37" t="s">
+      <c r="O94" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="P94" s="37" t="s">
+      <c r="P94" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q94" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R94" s="80"/>
+      <c r="Q94" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R94" s="66"/>
     </row>
     <row r="95" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B95" s="44">
+      <c r="B95" s="40">
         <v>87</v>
       </c>
-      <c r="C95" s="69" t="s">
+      <c r="C95" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="D95" s="69" t="s">
+      <c r="D95" s="55" t="s">
         <v>383</v>
       </c>
       <c r="E95" s="24"/>
-      <c r="F95" s="50"/>
-      <c r="G95" s="51"/>
-      <c r="L95" s="40"/>
-      <c r="M95" s="49">
+      <c r="F95" s="45"/>
+      <c r="G95" s="46"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="44">
         <v>141</v>
       </c>
-      <c r="N95" s="37" t="s">
+      <c r="N95" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O95" s="37" t="s">
+      <c r="O95" s="34" t="s">
         <v>423</v>
       </c>
-      <c r="P95" s="37" t="s">
+      <c r="P95" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q95" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R95" s="80"/>
+      <c r="Q95" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R95" s="66"/>
     </row>
     <row r="96" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B96" s="44">
+      <c r="B96" s="40">
         <v>88</v>
       </c>
-      <c r="C96" s="69" t="s">
+      <c r="C96" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="D96" s="69" t="s">
+      <c r="D96" s="55" t="s">
         <v>367</v>
       </c>
       <c r="E96" s="24"/>
-      <c r="F96" s="50"/>
-      <c r="G96" s="51"/>
-      <c r="L96" s="40"/>
-      <c r="M96" s="44">
-        <v>142</v>
-      </c>
-      <c r="N96" s="37" t="s">
+      <c r="F96" s="45"/>
+      <c r="G96" s="46"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="40">
+        <v>142</v>
+      </c>
+      <c r="N96" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O96" s="37" t="s">
+      <c r="O96" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="P96" s="37" t="s">
+      <c r="P96" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q96" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R96" s="80"/>
+      <c r="Q96" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R96" s="66"/>
     </row>
     <row r="97" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B97" s="49">
+      <c r="B97" s="44">
         <v>89</v>
       </c>
-      <c r="C97" s="69" t="s">
+      <c r="C97" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="D97" s="69" t="s">
+      <c r="D97" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E97" s="24"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="51"/>
-      <c r="L97" s="40"/>
-      <c r="M97" s="44">
-        <v>142</v>
-      </c>
-      <c r="N97" s="37" t="s">
+      <c r="F97" s="45"/>
+      <c r="G97" s="46"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="40">
+        <v>142</v>
+      </c>
+      <c r="N97" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O97" s="37" t="s">
+      <c r="O97" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="P97" s="37" t="s">
+      <c r="P97" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q97" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R97" s="80"/>
+      <c r="Q97" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R97" s="66"/>
     </row>
     <row r="98" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B98" s="44">
+      <c r="B98" s="40">
         <v>90</v>
       </c>
-      <c r="C98" s="69" t="s">
+      <c r="C98" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="D98" s="69" t="s">
+      <c r="D98" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E98" s="24"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="51"/>
-      <c r="L98" s="40"/>
-      <c r="M98" s="44">
-        <v>142</v>
-      </c>
-      <c r="N98" s="37" t="s">
+      <c r="F98" s="45"/>
+      <c r="G98" s="46"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="40">
+        <v>142</v>
+      </c>
+      <c r="N98" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O98" s="37" t="s">
+      <c r="O98" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="P98" s="37" t="s">
+      <c r="P98" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q98" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R98" s="80"/>
+      <c r="Q98" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R98" s="66"/>
     </row>
     <row r="99" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B99" s="44">
+      <c r="B99" s="40">
         <v>91</v>
       </c>
-      <c r="C99" s="69" t="s">
+      <c r="C99" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="D99" s="69" t="s">
+      <c r="D99" s="55" t="s">
         <v>387</v>
       </c>
       <c r="E99" s="24"/>
-      <c r="F99" s="50"/>
-      <c r="G99" s="51"/>
-      <c r="L99" s="40"/>
-      <c r="M99" s="49">
+      <c r="F99" s="45"/>
+      <c r="G99" s="46"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="44">
         <v>9</v>
       </c>
-      <c r="N99" s="37" t="s">
+      <c r="N99" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O99" s="37" t="s">
+      <c r="O99" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="P99" s="37" t="s">
+      <c r="P99" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q99" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R99" s="80"/>
+      <c r="Q99" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R99" s="66"/>
     </row>
     <row r="100" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B100" s="49">
+      <c r="B100" s="44">
         <v>92</v>
       </c>
-      <c r="C100" s="69" t="s">
+      <c r="C100" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="D100" s="69" t="s">
+      <c r="D100" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E100" s="24"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="51"/>
-      <c r="L100" s="40"/>
-      <c r="M100" s="49">
+      <c r="F100" s="45"/>
+      <c r="G100" s="46"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="44">
         <v>4</v>
       </c>
-      <c r="N100" s="37" t="s">
+      <c r="N100" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O100" s="37" t="s">
+      <c r="O100" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="P100" s="37" t="s">
+      <c r="P100" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Q100" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R100" s="80"/>
+      <c r="Q100" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R100" s="66"/>
     </row>
     <row r="101" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B101" s="44">
+      <c r="B101" s="40">
         <v>93</v>
       </c>
-      <c r="C101" s="69" t="s">
+      <c r="C101" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="D101" s="69" t="s">
+      <c r="D101" s="55" t="s">
         <v>368</v>
       </c>
       <c r="E101" s="24"/>
-      <c r="F101" s="50"/>
-      <c r="G101" s="51"/>
-      <c r="L101" s="40"/>
-      <c r="M101" s="44">
-        <v>142</v>
-      </c>
-      <c r="N101" s="37" t="s">
+      <c r="F101" s="45"/>
+      <c r="G101" s="46"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="40">
+        <v>142</v>
+      </c>
+      <c r="N101" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O101" s="37" t="s">
+      <c r="O101" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="P101" s="37" t="s">
+      <c r="P101" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q101" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R101" s="80"/>
+      <c r="Q101" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R101" s="66"/>
     </row>
     <row r="102" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B102" s="44">
+      <c r="B102" s="40">
         <v>94</v>
       </c>
-      <c r="C102" s="69" t="s">
+      <c r="C102" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="D102" s="69" t="s">
+      <c r="D102" s="55" t="s">
         <v>374</v>
       </c>
       <c r="E102" s="24"/>
-      <c r="F102" s="50"/>
-      <c r="G102" s="51"/>
-      <c r="L102" s="40"/>
-      <c r="M102" s="44">
-        <v>142</v>
-      </c>
-      <c r="N102" s="37" t="s">
+      <c r="F102" s="45"/>
+      <c r="G102" s="46"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="40">
+        <v>142</v>
+      </c>
+      <c r="N102" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O102" s="37" t="s">
+      <c r="O102" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="P102" s="37" t="s">
+      <c r="P102" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Q102" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R102" s="80"/>
+      <c r="Q102" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R102" s="66"/>
     </row>
     <row r="103" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B103" s="49">
+      <c r="B103" s="44">
         <v>95</v>
       </c>
-      <c r="C103" s="69" t="s">
+      <c r="C103" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="D103" s="69" t="s">
+      <c r="D103" s="55" t="s">
         <v>374</v>
       </c>
       <c r="E103" s="24"/>
-      <c r="F103" s="50"/>
-      <c r="G103" s="51"/>
-      <c r="L103" s="40"/>
-      <c r="M103" s="44">
-        <v>142</v>
-      </c>
-      <c r="N103" s="37" t="s">
+      <c r="F103" s="45"/>
+      <c r="G103" s="46"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="40">
+        <v>142</v>
+      </c>
+      <c r="N103" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O103" s="37" t="s">
+      <c r="O103" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="P103" s="37" t="s">
+      <c r="P103" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="Q103" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R103" s="80"/>
+      <c r="Q103" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R103" s="66"/>
     </row>
     <row r="104" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B104" s="44">
+      <c r="B104" s="40">
         <v>96</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C104" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="D104" s="69" t="s">
+      <c r="D104" s="55" t="s">
         <v>374</v>
       </c>
       <c r="E104" s="24"/>
-      <c r="F104" s="50"/>
-      <c r="G104" s="51"/>
-      <c r="L104" s="40"/>
-      <c r="M104" s="49">
+      <c r="F104" s="45"/>
+      <c r="G104" s="46"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="44">
         <v>7</v>
       </c>
-      <c r="N104" s="37" t="s">
+      <c r="N104" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O104" s="37" t="s">
+      <c r="O104" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="P104" s="37" t="s">
+      <c r="P104" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q104" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R104" s="80"/>
+      <c r="Q104" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R104" s="66"/>
     </row>
     <row r="105" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B105" s="44">
+      <c r="B105" s="40">
         <v>97</v>
       </c>
-      <c r="C105" s="69" t="s">
+      <c r="C105" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="D105" s="69" t="s">
+      <c r="D105" s="55" t="s">
         <v>374</v>
       </c>
       <c r="E105" s="24"/>
-      <c r="F105" s="50"/>
-      <c r="G105" s="51"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="44">
-        <v>142</v>
-      </c>
-      <c r="N105" s="37" t="s">
+      <c r="F105" s="45"/>
+      <c r="G105" s="46"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="40">
+        <v>142</v>
+      </c>
+      <c r="N105" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O105" s="37" t="s">
+      <c r="O105" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="P105" s="37" t="s">
+      <c r="P105" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q105" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R105" s="80"/>
+      <c r="Q105" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R105" s="66"/>
     </row>
     <row r="106" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B106" s="49">
+      <c r="B106" s="44">
         <v>98</v>
       </c>
-      <c r="C106" s="69" t="s">
+      <c r="C106" s="55" t="s">
         <v>330</v>
       </c>
-      <c r="D106" s="69" t="s">
+      <c r="D106" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E106" s="24"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="51"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="49">
+      <c r="F106" s="45"/>
+      <c r="G106" s="46"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="44">
         <v>5</v>
       </c>
-      <c r="N106" s="37" t="s">
+      <c r="N106" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O106" s="37" t="s">
+      <c r="O106" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="P106" s="37" t="s">
+      <c r="P106" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="Q106" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R106" s="80"/>
+      <c r="Q106" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R106" s="66"/>
     </row>
     <row r="107" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B107" s="44">
+      <c r="B107" s="40">
         <v>99</v>
       </c>
-      <c r="C107" s="69" t="s">
+      <c r="C107" s="55" t="s">
         <v>331</v>
       </c>
-      <c r="D107" s="69" t="s">
+      <c r="D107" s="55" t="s">
         <v>38</v>
       </c>
       <c r="E107" s="24"/>
-      <c r="F107" s="50"/>
-      <c r="G107" s="51"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="49">
+      <c r="F107" s="45"/>
+      <c r="G107" s="46"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="44">
         <v>6</v>
       </c>
-      <c r="N107" s="37" t="s">
+      <c r="N107" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O107" s="37" t="s">
+      <c r="O107" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="P107" s="37" t="s">
+      <c r="P107" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="Q107" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R107" s="80"/>
+      <c r="Q107" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R107" s="66"/>
     </row>
     <row r="108" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B108" s="44">
+      <c r="B108" s="40">
         <v>100</v>
       </c>
-      <c r="C108" s="69" t="s">
+      <c r="C108" s="55" t="s">
         <v>332</v>
       </c>
-      <c r="D108" s="69" t="s">
+      <c r="D108" s="55" t="s">
         <v>366</v>
       </c>
       <c r="E108" s="24"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="51"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="44">
-        <v>142</v>
-      </c>
-      <c r="N108" s="37" t="s">
+      <c r="F108" s="45"/>
+      <c r="G108" s="46"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="40">
+        <v>142</v>
+      </c>
+      <c r="N108" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O108" s="37" t="s">
+      <c r="O108" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="P108" s="37" t="s">
+      <c r="P108" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q108" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R108" s="80"/>
+      <c r="Q108" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R108" s="66"/>
     </row>
     <row r="109" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B109" s="49">
+      <c r="B109" s="44">
         <v>101</v>
       </c>
-      <c r="C109" s="70" t="s">
+      <c r="C109" s="56" t="s">
         <v>333</v>
       </c>
-      <c r="D109" s="69" t="s">
+      <c r="D109" s="55" t="s">
         <v>370</v>
       </c>
       <c r="E109" s="24"/>
-      <c r="F109" s="50"/>
-      <c r="G109" s="51"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="44">
-        <v>142</v>
-      </c>
-      <c r="N109" s="37" t="s">
+      <c r="F109" s="45"/>
+      <c r="G109" s="46"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="40">
+        <v>142</v>
+      </c>
+      <c r="N109" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O109" s="37" t="s">
+      <c r="O109" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="P109" s="37" t="s">
+      <c r="P109" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Q109" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R109" s="80"/>
+      <c r="Q109" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R109" s="66"/>
     </row>
     <row r="110" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B110" s="44">
+      <c r="B110" s="40">
         <v>102</v>
       </c>
-      <c r="C110" s="70" t="s">
+      <c r="C110" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="D110" s="69" t="s">
+      <c r="D110" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E110" s="24"/>
-      <c r="F110" s="50"/>
-      <c r="G110" s="51"/>
-      <c r="L110" s="40"/>
-      <c r="M110" s="44">
-        <v>142</v>
-      </c>
-      <c r="N110" s="37" t="s">
+      <c r="F110" s="45"/>
+      <c r="G110" s="46"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="40">
+        <v>142</v>
+      </c>
+      <c r="N110" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O110" s="37" t="s">
+      <c r="O110" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="P110" s="37" t="s">
+      <c r="P110" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Q110" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R110" s="80"/>
+      <c r="Q110" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R110" s="66"/>
     </row>
     <row r="111" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B111" s="44">
+      <c r="B111" s="40">
         <v>103</v>
       </c>
-      <c r="C111" s="70" t="s">
+      <c r="C111" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="D111" s="69" t="s">
+      <c r="D111" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E111" s="24"/>
-      <c r="F111" s="50"/>
-      <c r="G111" s="51"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="44">
-        <v>142</v>
-      </c>
-      <c r="N111" s="37" t="s">
+      <c r="F111" s="45"/>
+      <c r="G111" s="46"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="40">
+        <v>142</v>
+      </c>
+      <c r="N111" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O111" s="119" t="s">
+      <c r="O111" s="81" t="s">
         <v>425</v>
       </c>
-      <c r="P111" s="119" t="s">
+      <c r="P111" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="Q111" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R111" s="80"/>
+      <c r="Q111" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R111" s="66"/>
     </row>
     <row r="112" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B112" s="49">
+      <c r="B112" s="44">
         <v>104</v>
       </c>
-      <c r="C112" s="70" t="s">
+      <c r="C112" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="D112" s="69" t="s">
+      <c r="D112" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E112" s="24"/>
-      <c r="F112" s="50"/>
-      <c r="G112" s="51"/>
-      <c r="L112" s="40"/>
-      <c r="M112" s="44">
+      <c r="F112" s="45"/>
+      <c r="G112" s="46"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="40">
         <v>141</v>
       </c>
-      <c r="N112" s="37" t="s">
+      <c r="N112" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O112" s="118" t="s">
+      <c r="O112" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="P112" s="118" t="s">
+      <c r="P112" s="80" t="s">
         <v>427</v>
       </c>
-      <c r="Q112" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R112" s="80"/>
+      <c r="Q112" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R112" s="66"/>
     </row>
     <row r="113" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B113" s="44">
+      <c r="B113" s="40">
         <v>105</v>
       </c>
-      <c r="C113" s="70" t="s">
+      <c r="C113" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="D113" s="69" t="s">
+      <c r="D113" s="55" t="s">
         <v>392</v>
       </c>
       <c r="E113" s="24"/>
-      <c r="F113" s="50"/>
-      <c r="G113" s="51"/>
-      <c r="L113" s="40"/>
-      <c r="M113" s="44">
-        <v>142</v>
-      </c>
-      <c r="N113" s="37" t="s">
+      <c r="F113" s="45"/>
+      <c r="G113" s="46"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="40">
+        <v>142</v>
+      </c>
+      <c r="N113" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O113" s="37" t="s">
+      <c r="O113" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="P113" s="37" t="s">
+      <c r="P113" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Q113" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R113" s="80"/>
+      <c r="Q113" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R113" s="66"/>
     </row>
     <row r="114" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B114" s="44">
+      <c r="B114" s="40">
         <v>106</v>
       </c>
-      <c r="C114" s="71" t="s">
+      <c r="C114" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="D114" s="69" t="s">
+      <c r="D114" s="55" t="s">
         <v>392</v>
       </c>
       <c r="E114" s="24"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="51"/>
-      <c r="L114" s="40"/>
-      <c r="M114" s="44">
-        <v>142</v>
-      </c>
-      <c r="N114" s="37" t="s">
+      <c r="F114" s="45"/>
+      <c r="G114" s="46"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="40">
+        <v>142</v>
+      </c>
+      <c r="N114" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O114" s="37" t="s">
+      <c r="O114" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="P114" s="37" t="s">
+      <c r="P114" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Q114" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R114" s="80"/>
+      <c r="Q114" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R114" s="66"/>
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B115" s="49">
+      <c r="B115" s="44">
         <v>107</v>
       </c>
-      <c r="C115" s="70" t="s">
+      <c r="C115" s="56" t="s">
         <v>339</v>
       </c>
-      <c r="D115" s="69" t="s">
+      <c r="D115" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E115" s="24"/>
-      <c r="F115" s="50"/>
-      <c r="G115" s="51"/>
-      <c r="L115" s="40"/>
-      <c r="M115" s="44">
-        <v>142</v>
-      </c>
-      <c r="N115" s="37" t="s">
+      <c r="F115" s="45"/>
+      <c r="G115" s="46"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="40">
+        <v>142</v>
+      </c>
+      <c r="N115" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O115" s="37" t="s">
+      <c r="O115" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="P115" s="37" t="s">
+      <c r="P115" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Q115" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R115" s="80"/>
+      <c r="Q115" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R115" s="66"/>
     </row>
     <row r="116" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B116" s="44">
+      <c r="B116" s="40">
         <v>108</v>
       </c>
-      <c r="C116" s="70" t="s">
+      <c r="C116" s="56" t="s">
         <v>340</v>
       </c>
-      <c r="D116" s="69" t="s">
+      <c r="D116" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E116" s="24"/>
-      <c r="F116" s="50"/>
-      <c r="G116" s="51"/>
-      <c r="L116" s="40"/>
-      <c r="M116" s="44">
-        <v>142</v>
-      </c>
-      <c r="N116" s="37" t="s">
+      <c r="F116" s="45"/>
+      <c r="G116" s="46"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="40">
+        <v>142</v>
+      </c>
+      <c r="N116" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O116" s="37" t="s">
+      <c r="O116" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="P116" s="37" t="s">
+      <c r="P116" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="Q116" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R116" s="80"/>
+      <c r="Q116" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R116" s="66"/>
     </row>
     <row r="117" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B117" s="44">
+      <c r="B117" s="40">
         <v>109</v>
       </c>
-      <c r="C117" s="70" t="s">
+      <c r="C117" s="56" t="s">
         <v>341</v>
       </c>
-      <c r="D117" s="69" t="s">
+      <c r="D117" s="55" t="s">
         <v>390</v>
       </c>
       <c r="E117" s="24"/>
-      <c r="F117" s="50"/>
-      <c r="G117" s="51"/>
-      <c r="L117" s="40"/>
-      <c r="M117" s="44">
-        <v>142</v>
-      </c>
-      <c r="N117" s="37" t="s">
+      <c r="F117" s="45"/>
+      <c r="G117" s="46"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="40">
+        <v>142</v>
+      </c>
+      <c r="N117" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O117" s="37" t="s">
+      <c r="O117" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="P117" s="37" t="s">
+      <c r="P117" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q117" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R117" s="80"/>
+      <c r="Q117" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R117" s="66"/>
     </row>
     <row r="118" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B118" s="49">
+      <c r="B118" s="44">
         <v>110</v>
       </c>
-      <c r="C118" s="70" t="s">
+      <c r="C118" s="56" t="s">
         <v>342</v>
       </c>
-      <c r="D118" s="69" t="s">
+      <c r="D118" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E118" s="24"/>
-      <c r="F118" s="50"/>
-      <c r="G118" s="51"/>
-      <c r="L118" s="40"/>
-      <c r="M118" s="49">
+      <c r="F118" s="45"/>
+      <c r="G118" s="46"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="44">
         <v>141</v>
       </c>
-      <c r="N118" s="37" t="s">
+      <c r="N118" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O118" s="37" t="s">
+      <c r="O118" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="P118" s="37" t="s">
+      <c r="P118" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q118" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R118" s="80"/>
+      <c r="Q118" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R118" s="66"/>
     </row>
     <row r="119" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B119" s="44">
+      <c r="B119" s="40">
         <v>111</v>
       </c>
-      <c r="C119" s="70" t="s">
+      <c r="C119" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="D119" s="69" t="s">
+      <c r="D119" s="55" t="s">
         <v>366</v>
       </c>
       <c r="E119" s="24"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="51"/>
-      <c r="L119" s="40"/>
-      <c r="M119" s="44">
-        <v>142</v>
-      </c>
-      <c r="N119" s="37" t="s">
+      <c r="F119" s="45"/>
+      <c r="G119" s="46"/>
+      <c r="L119" s="36"/>
+      <c r="M119" s="40">
+        <v>142</v>
+      </c>
+      <c r="N119" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O119" s="37" t="s">
+      <c r="O119" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="P119" s="37" t="s">
+      <c r="P119" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q119" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R119" s="80"/>
+      <c r="Q119" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R119" s="66"/>
     </row>
     <row r="120" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B120" s="44">
+      <c r="B120" s="40">
         <v>112</v>
       </c>
-      <c r="C120" s="70" t="s">
+      <c r="C120" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="D120" s="69" t="s">
+      <c r="D120" s="55" t="s">
         <v>388</v>
       </c>
       <c r="E120" s="24"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="51"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="49">
+      <c r="F120" s="45"/>
+      <c r="G120" s="46"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="44">
         <v>141</v>
       </c>
-      <c r="N120" s="37" t="s">
+      <c r="N120" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O120" s="37" t="s">
+      <c r="O120" s="34" t="s">
         <v>424</v>
       </c>
-      <c r="P120" s="37" t="s">
+      <c r="P120" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q120" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R120" s="56"/>
+      <c r="Q120" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R120" s="48"/>
     </row>
     <row r="121" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B121" s="49">
+      <c r="B121" s="44">
         <v>113</v>
       </c>
-      <c r="C121" s="70" t="s">
+      <c r="C121" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="D121" s="69" t="s">
+      <c r="D121" s="55" t="s">
         <v>38</v>
       </c>
       <c r="E121" s="24"/>
-      <c r="F121" s="50"/>
-      <c r="G121" s="51"/>
-      <c r="L121" s="40"/>
-      <c r="M121" s="44">
-        <v>142</v>
-      </c>
-      <c r="N121" s="37" t="s">
+      <c r="F121" s="45"/>
+      <c r="G121" s="46"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="40">
+        <v>142</v>
+      </c>
+      <c r="N121" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O121" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="P121" s="37" t="s">
+      <c r="O121" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="P121" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q121" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R121" s="56"/>
+      <c r="Q121" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R121" s="48"/>
     </row>
     <row r="122" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B122" s="44">
+      <c r="B122" s="40">
         <v>114</v>
       </c>
-      <c r="C122" s="70" t="s">
+      <c r="C122" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="D122" s="69" t="s">
+      <c r="D122" s="55" t="s">
         <v>370</v>
       </c>
       <c r="E122" s="24"/>
-      <c r="F122" s="50"/>
-      <c r="G122" s="51"/>
-      <c r="L122" s="40"/>
-      <c r="M122" s="44">
-        <v>142</v>
-      </c>
-      <c r="N122" s="37" t="s">
+      <c r="F122" s="45"/>
+      <c r="G122" s="46"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="40">
+        <v>142</v>
+      </c>
+      <c r="N122" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O122" s="37" t="s">
+      <c r="O122" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="P122" s="37" t="s">
+      <c r="P122" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q122" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R122" s="56"/>
+      <c r="Q122" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R122" s="48"/>
     </row>
     <row r="123" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B123" s="44">
+      <c r="B123" s="40">
         <v>115</v>
       </c>
-      <c r="C123" s="70" t="s">
+      <c r="C123" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="D123" s="69" t="s">
+      <c r="D123" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E123" s="24"/>
-      <c r="F123" s="50"/>
-      <c r="G123" s="51"/>
-      <c r="L123" s="40"/>
-      <c r="M123" s="49">
+      <c r="F123" s="45"/>
+      <c r="G123" s="46"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="44">
         <v>141</v>
       </c>
-      <c r="N123" s="37" t="s">
+      <c r="N123" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O123" s="37" t="s">
+      <c r="O123" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="P123" s="37" t="s">
+      <c r="P123" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q123" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R123" s="80"/>
+      <c r="Q123" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R123" s="66"/>
     </row>
     <row r="124" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B124" s="49">
+      <c r="B124" s="44">
         <v>116</v>
       </c>
-      <c r="C124" s="70" t="s">
+      <c r="C124" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="D124" s="69" t="s">
+      <c r="D124" s="55" t="s">
         <v>370</v>
       </c>
       <c r="E124" s="24"/>
-      <c r="F124" s="50"/>
-      <c r="G124" s="51"/>
-      <c r="L124" s="40"/>
-      <c r="M124" s="44">
-        <v>142</v>
-      </c>
-      <c r="N124" s="37" t="s">
+      <c r="F124" s="45"/>
+      <c r="G124" s="46"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="40">
+        <v>142</v>
+      </c>
+      <c r="N124" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O124" s="37" t="s">
+      <c r="O124" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="P124" s="37" t="s">
+      <c r="P124" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q124" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R124" s="80"/>
+      <c r="Q124" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R124" s="66"/>
     </row>
     <row r="125" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B125" s="44">
+      <c r="B125" s="40">
         <v>117</v>
       </c>
-      <c r="C125" s="69" t="s">
+      <c r="C125" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="D125" s="69" t="s">
+      <c r="D125" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E125" s="24"/>
-      <c r="F125" s="50"/>
-      <c r="G125" s="51"/>
-      <c r="L125" s="40"/>
-      <c r="M125" s="44">
-        <v>142</v>
-      </c>
-      <c r="N125" s="37" t="s">
+      <c r="F125" s="45"/>
+      <c r="G125" s="46"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="40">
+        <v>142</v>
+      </c>
+      <c r="N125" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O125" s="37" t="s">
+      <c r="O125" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="P125" s="37" t="s">
+      <c r="P125" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q125" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R125" s="80"/>
+      <c r="Q125" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R125" s="66"/>
     </row>
     <row r="126" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B126" s="44">
+      <c r="B126" s="40">
         <v>118</v>
       </c>
-      <c r="C126" s="69" t="s">
+      <c r="C126" s="55" t="s">
         <v>350</v>
       </c>
-      <c r="D126" s="69" t="s">
+      <c r="D126" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E126" s="24"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="51"/>
-      <c r="L126" s="40"/>
-      <c r="M126" s="49">
+      <c r="F126" s="45"/>
+      <c r="G126" s="46"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="44">
         <v>141</v>
       </c>
-      <c r="N126" s="37" t="s">
+      <c r="N126" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O126" s="37" t="s">
+      <c r="O126" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="P126" s="37" t="s">
+      <c r="P126" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q126" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R126" s="80"/>
+      <c r="Q126" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R126" s="66"/>
     </row>
     <row r="127" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B127" s="49">
+      <c r="B127" s="44">
         <v>119</v>
       </c>
-      <c r="C127" s="69" t="s">
+      <c r="C127" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="D127" s="69" t="s">
+      <c r="D127" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E127" s="24"/>
-      <c r="F127" s="50"/>
-      <c r="G127" s="51"/>
-      <c r="L127" s="40"/>
-      <c r="M127" s="49">
+      <c r="F127" s="45"/>
+      <c r="G127" s="46"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="44">
         <v>141</v>
       </c>
-      <c r="N127" s="37" t="s">
+      <c r="N127" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O127" s="37" t="s">
+      <c r="O127" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="P127" s="37" t="s">
+      <c r="P127" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q127" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R127" s="80"/>
+      <c r="Q127" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R127" s="66"/>
     </row>
     <row r="128" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B128" s="44">
+      <c r="B128" s="40">
         <v>120</v>
       </c>
-      <c r="C128" s="69" t="s">
+      <c r="C128" s="55" t="s">
         <v>352</v>
       </c>
-      <c r="D128" s="69" t="s">
+      <c r="D128" s="55" t="s">
         <v>372</v>
       </c>
       <c r="E128" s="24"/>
-      <c r="F128" s="50"/>
-      <c r="G128" s="51"/>
-      <c r="L128" s="40"/>
-      <c r="M128" s="49">
+      <c r="F128" s="45"/>
+      <c r="G128" s="46"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="44">
         <v>141</v>
       </c>
-      <c r="N128" s="37" t="s">
+      <c r="N128" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O128" s="37" t="s">
+      <c r="O128" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="P128" s="37" t="s">
+      <c r="P128" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q128" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R128" s="80"/>
+      <c r="Q128" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R128" s="66"/>
     </row>
     <row r="129" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B129" s="44">
+      <c r="B129" s="40">
         <v>121</v>
       </c>
-      <c r="C129" s="69" t="s">
+      <c r="C129" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="D129" s="69" t="s">
+      <c r="D129" s="55" t="s">
         <v>391</v>
       </c>
       <c r="E129" s="24"/>
-      <c r="F129" s="50"/>
-      <c r="G129" s="51"/>
-      <c r="L129" s="40"/>
-      <c r="M129" s="49">
+      <c r="F129" s="45"/>
+      <c r="G129" s="46"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="44">
         <v>141</v>
       </c>
-      <c r="N129" s="37" t="s">
+      <c r="N129" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O129" s="37" t="s">
+      <c r="O129" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="P129" s="37" t="s">
+      <c r="P129" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q129" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R129" s="80"/>
+      <c r="Q129" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R129" s="66"/>
     </row>
     <row r="130" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B130" s="49">
+      <c r="B130" s="44">
         <v>122</v>
       </c>
-      <c r="C130" s="69" t="s">
+      <c r="C130" s="55" t="s">
         <v>354</v>
       </c>
-      <c r="D130" s="69" t="s">
+      <c r="D130" s="55" t="s">
         <v>372</v>
       </c>
       <c r="E130" s="24"/>
-      <c r="F130" s="50"/>
-      <c r="G130" s="51"/>
-      <c r="L130" s="40"/>
-      <c r="M130" s="44">
-        <v>142</v>
-      </c>
-      <c r="N130" s="37" t="s">
+      <c r="F130" s="45"/>
+      <c r="G130" s="46"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="40">
+        <v>142</v>
+      </c>
+      <c r="N130" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O130" s="37" t="s">
+      <c r="O130" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="P130" s="37" t="s">
+      <c r="P130" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q130" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R130" s="80"/>
+      <c r="Q130" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R130" s="66"/>
     </row>
     <row r="131" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B131" s="44">
+      <c r="B131" s="40">
         <v>123</v>
       </c>
-      <c r="C131" s="69" t="s">
+      <c r="C131" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="D131" s="69" t="s">
+      <c r="D131" s="55" t="s">
         <v>389</v>
       </c>
       <c r="E131" s="24"/>
-      <c r="F131" s="50"/>
-      <c r="G131" s="51"/>
-      <c r="L131" s="40"/>
-      <c r="M131" s="49">
+      <c r="F131" s="45"/>
+      <c r="G131" s="46"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="44">
         <v>141</v>
       </c>
-      <c r="N131" s="37" t="s">
+      <c r="N131" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O131" s="37" t="s">
+      <c r="O131" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="P131" s="37" t="s">
+      <c r="P131" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q131" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R131" s="80"/>
+      <c r="Q131" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R131" s="66"/>
     </row>
     <row r="132" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B132" s="44">
+      <c r="B132" s="40">
         <v>124</v>
       </c>
-      <c r="C132" s="69" t="s">
+      <c r="C132" s="55" t="s">
         <v>356</v>
       </c>
-      <c r="D132" s="69" t="s">
+      <c r="D132" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E132" s="24"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="51"/>
-      <c r="L132" s="40"/>
-      <c r="M132" s="44">
-        <v>142</v>
-      </c>
-      <c r="N132" s="37" t="s">
+      <c r="F132" s="45"/>
+      <c r="G132" s="46"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="40">
+        <v>142</v>
+      </c>
+      <c r="N132" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O132" s="37" t="s">
+      <c r="O132" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="P132" s="37" t="s">
+      <c r="P132" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q132" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R132" s="80"/>
+      <c r="Q132" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R132" s="66"/>
     </row>
     <row r="133" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B133" s="49">
+      <c r="B133" s="44">
         <v>125</v>
       </c>
-      <c r="C133" s="69" t="s">
+      <c r="C133" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="D133" s="69" t="s">
+      <c r="D133" s="55" t="s">
         <v>19</v>
       </c>
       <c r="E133" s="24"/>
-      <c r="F133" s="50"/>
-      <c r="G133" s="51"/>
-      <c r="L133" s="40"/>
-      <c r="M133" s="44">
-        <v>142</v>
-      </c>
-      <c r="N133" s="37" t="s">
+      <c r="F133" s="45"/>
+      <c r="G133" s="46"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="40">
+        <v>142</v>
+      </c>
+      <c r="N133" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O133" s="37" t="s">
+      <c r="O133" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="P133" s="37" t="s">
+      <c r="P133" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q133" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="80"/>
+      <c r="Q133" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R133" s="66"/>
     </row>
     <row r="134" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B134" s="44">
+      <c r="B134" s="40">
         <v>126</v>
       </c>
-      <c r="C134" s="69" t="s">
+      <c r="C134" s="55" t="s">
         <v>406</v>
       </c>
-      <c r="D134" s="69" t="s">
+      <c r="D134" s="55" t="s">
         <v>383</v>
       </c>
       <c r="E134" s="24"/>
-      <c r="F134" s="50"/>
-      <c r="G134" s="51"/>
-      <c r="L134" s="40"/>
-      <c r="M134" s="44">
-        <v>142</v>
-      </c>
-      <c r="N134" s="37" t="s">
+      <c r="F134" s="45"/>
+      <c r="G134" s="46"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="40">
+        <v>142</v>
+      </c>
+      <c r="N134" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O134" s="37" t="s">
+      <c r="O134" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="P134" s="37" t="s">
+      <c r="P134" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q134" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R134" s="80"/>
+      <c r="Q134" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R134" s="66"/>
     </row>
     <row r="135" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B135" s="44">
+      <c r="B135" s="40">
         <v>127</v>
       </c>
-      <c r="C135" s="69" t="s">
+      <c r="C135" s="55" t="s">
         <v>358</v>
       </c>
-      <c r="D135" s="69" t="s">
+      <c r="D135" s="55" t="s">
         <v>383</v>
       </c>
       <c r="E135" s="24"/>
-      <c r="F135" s="50"/>
-      <c r="G135" s="51"/>
-      <c r="L135" s="40"/>
-      <c r="M135" s="44">
-        <v>142</v>
-      </c>
-      <c r="N135" s="37" t="s">
+      <c r="F135" s="45"/>
+      <c r="G135" s="46"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="40">
+        <v>142</v>
+      </c>
+      <c r="N135" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O135" s="37" t="s">
+      <c r="O135" s="34" t="s">
         <v>413</v>
       </c>
-      <c r="P135" s="37" t="s">
+      <c r="P135" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q135" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="80"/>
+      <c r="Q135" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R135" s="66"/>
     </row>
     <row r="136" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B136" s="49">
+      <c r="B136" s="44">
         <v>128</v>
       </c>
-      <c r="C136" s="69" t="s">
+      <c r="C136" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="D136" s="69" t="s">
+      <c r="D136" s="55" t="s">
         <v>393</v>
       </c>
       <c r="E136" s="24"/>
-      <c r="F136" s="50"/>
-      <c r="G136" s="51"/>
-      <c r="L136" s="40"/>
-      <c r="M136" s="44">
-        <v>142</v>
-      </c>
-      <c r="N136" s="37" t="s">
+      <c r="F136" s="45"/>
+      <c r="G136" s="46"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="40">
+        <v>142</v>
+      </c>
+      <c r="N136" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="O136" s="37" t="s">
+      <c r="O136" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="P136" s="37" t="s">
+      <c r="P136" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="Q136" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="R136" s="80"/>
+      <c r="Q136" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R136" s="66"/>
     </row>
     <row r="137" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="44">
+      <c r="B137" s="40">
         <v>129</v>
       </c>
-      <c r="C137" s="69" t="s">
+      <c r="C137" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="D137" s="69" t="s">
+      <c r="D137" s="55" t="s">
         <v>393</v>
       </c>
       <c r="E137" s="24"/>
-      <c r="F137" s="50"/>
-      <c r="G137" s="51"/>
-      <c r="L137" s="41"/>
-      <c r="M137" s="44">
-        <v>142</v>
-      </c>
-      <c r="N137" s="121" t="s">
+      <c r="F137" s="45"/>
+      <c r="G137" s="46"/>
+      <c r="L137" s="37"/>
+      <c r="M137" s="40">
+        <v>142</v>
+      </c>
+      <c r="N137" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="O137" s="121" t="s">
+      <c r="O137" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="P137" s="121" t="s">
+      <c r="P137" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="Q137" s="121" t="s">
-        <v>20</v>
-      </c>
-      <c r="R137" s="120"/>
+      <c r="Q137" s="83" t="s">
+        <v>20</v>
+      </c>
+      <c r="R137" s="82"/>
     </row>
     <row r="138" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B138" s="44">
+      <c r="B138" s="40">
         <v>130</v>
       </c>
-      <c r="C138" s="69" t="s">
+      <c r="C138" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="D138" s="69" t="s">
+      <c r="D138" s="55" t="s">
         <v>394</v>
       </c>
       <c r="E138" s="24"/>
-      <c r="F138" s="50"/>
-      <c r="G138" s="51"/>
-      <c r="L138" s="55"/>
-      <c r="M138" s="46">
+      <c r="F138" s="45"/>
+      <c r="G138" s="46"/>
+      <c r="L138" s="47"/>
+      <c r="M138" s="85">
         <v>135</v>
       </c>
-      <c r="N138" s="59" t="s">
+      <c r="N138" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="O138" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="P138" s="59" t="s">
+      <c r="O138" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P138" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="Q138" s="59" t="s">
+      <c r="Q138" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="R138" s="53" t="s">
+      <c r="R138" s="84" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="139" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B139" s="49">
+      <c r="B139" s="44">
         <v>131</v>
       </c>
-      <c r="C139" s="69" t="s">
+      <c r="C139" s="55" t="s">
         <v>362</v>
       </c>
-      <c r="D139" s="69" t="s">
+      <c r="D139" s="55" t="s">
         <v>367</v>
       </c>
       <c r="E139" s="24"/>
-      <c r="F139" s="50"/>
-      <c r="G139" s="51"/>
-      <c r="L139" s="40"/>
-      <c r="M139" s="33">
+      <c r="F139" s="45"/>
+      <c r="G139" s="46"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="44">
         <v>141</v>
       </c>
-      <c r="N139" s="31" t="s">
+      <c r="N139" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O139" s="31" t="s">
+      <c r="O139" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="P139" s="31" t="s">
+      <c r="P139" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q139" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R139" s="36"/>
+      <c r="Q139" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R139" s="48"/>
     </row>
     <row r="140" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B140" s="44">
+      <c r="B140" s="40">
         <v>132</v>
       </c>
-      <c r="C140" s="69" t="s">
+      <c r="C140" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="D140" s="69" t="s">
+      <c r="D140" s="55" t="s">
         <v>38</v>
       </c>
       <c r="E140" s="24"/>
-      <c r="F140" s="50"/>
-      <c r="G140" s="51"/>
-      <c r="L140" s="40"/>
-      <c r="M140" s="58">
-        <v>142</v>
-      </c>
-      <c r="N140" s="31" t="s">
+      <c r="F140" s="45"/>
+      <c r="G140" s="46"/>
+      <c r="L140" s="36"/>
+      <c r="M140" s="40">
+        <v>142</v>
+      </c>
+      <c r="N140" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O140" s="31" t="s">
+      <c r="O140" s="34" t="s">
         <v>161</v>
       </c>
-      <c r="P140" s="31" t="s">
+      <c r="P140" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q140" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R140" s="34"/>
+      <c r="Q140" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R140" s="66"/>
     </row>
     <row r="141" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B141" s="44">
+      <c r="B141" s="40">
         <v>133</v>
       </c>
-      <c r="C141" s="69" t="s">
+      <c r="C141" s="55" t="s">
         <v>364</v>
       </c>
-      <c r="D141" s="69" t="s">
+      <c r="D141" s="55" t="s">
         <v>366</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="50"/>
-      <c r="G141" s="51"/>
-      <c r="L141" s="40"/>
-      <c r="M141" s="33">
+      <c r="F141" s="45"/>
+      <c r="G141" s="46"/>
+      <c r="L141" s="36"/>
+      <c r="M141" s="44">
         <v>141</v>
       </c>
-      <c r="N141" s="31" t="s">
+      <c r="N141" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O141" s="31" t="s">
+      <c r="O141" s="34" t="s">
         <v>162</v>
       </c>
-      <c r="P141" s="31" t="s">
+      <c r="P141" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q141" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R141" s="34"/>
+      <c r="Q141" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R141" s="66"/>
     </row>
     <row r="142" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="49">
+      <c r="B142" s="44">
         <v>134</v>
       </c>
-      <c r="C142" s="74" t="s">
+      <c r="C142" s="60" t="s">
         <v>365</v>
       </c>
-      <c r="D142" s="74" t="s">
+      <c r="D142" s="60" t="s">
         <v>366</v>
       </c>
-      <c r="E142" s="42"/>
-      <c r="F142" s="67"/>
-      <c r="G142" s="68"/>
-      <c r="L142" s="40"/>
-      <c r="M142" s="58">
-        <v>142</v>
-      </c>
-      <c r="N142" s="31" t="s">
+      <c r="E142" s="38"/>
+      <c r="F142" s="53"/>
+      <c r="G142" s="54"/>
+      <c r="L142" s="36"/>
+      <c r="M142" s="40">
+        <v>142</v>
+      </c>
+      <c r="N142" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O142" s="31" t="s">
+      <c r="O142" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="P142" s="31" t="s">
+      <c r="P142" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q142" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R142" s="34"/>
+      <c r="Q142" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R142" s="66"/>
     </row>
     <row r="143" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L143" s="40"/>
-      <c r="M143" s="33">
+      <c r="L143" s="36"/>
+      <c r="M143" s="44">
         <v>141</v>
       </c>
-      <c r="N143" s="31" t="s">
+      <c r="N143" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O143" s="31" t="s">
+      <c r="O143" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="P143" s="31" t="s">
+      <c r="P143" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q143" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R143" s="34"/>
+      <c r="Q143" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R143" s="66"/>
     </row>
     <row r="144" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L144" s="40"/>
-      <c r="M144" s="58">
-        <v>142</v>
-      </c>
-      <c r="N144" s="31" t="s">
+      <c r="L144" s="36"/>
+      <c r="M144" s="40">
+        <v>142</v>
+      </c>
+      <c r="N144" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O144" s="31" t="s">
+      <c r="O144" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="P144" s="31" t="s">
+      <c r="P144" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q144" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R144" s="34"/>
+      <c r="Q144" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R144" s="66"/>
     </row>
     <row r="145" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L145" s="40"/>
-      <c r="M145" s="33">
+      <c r="L145" s="36"/>
+      <c r="M145" s="44">
         <v>141</v>
       </c>
-      <c r="N145" s="31" t="s">
+      <c r="N145" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O145" s="31" t="s">
+      <c r="O145" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="P145" s="31" t="s">
+      <c r="P145" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q145" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R145" s="34"/>
+      <c r="Q145" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R145" s="66"/>
     </row>
     <row r="146" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L146" s="40"/>
-      <c r="M146" s="58">
-        <v>142</v>
-      </c>
-      <c r="N146" s="31" t="s">
+      <c r="L146" s="36"/>
+      <c r="M146" s="40">
+        <v>142</v>
+      </c>
+      <c r="N146" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O146" s="31" t="s">
+      <c r="O146" s="34" t="s">
         <v>167</v>
       </c>
-      <c r="P146" s="31" t="s">
+      <c r="P146" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q146" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R146" s="34"/>
+      <c r="Q146" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R146" s="66"/>
     </row>
     <row r="147" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L147" s="40"/>
-      <c r="M147" s="58">
-        <v>142</v>
-      </c>
-      <c r="N147" s="31" t="s">
+      <c r="L147" s="36"/>
+      <c r="M147" s="40">
+        <v>142</v>
+      </c>
+      <c r="N147" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O147" s="31" t="s">
+      <c r="O147" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="P147" s="31" t="s">
+      <c r="P147" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q147" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R147" s="34"/>
+      <c r="Q147" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R147" s="66"/>
     </row>
     <row r="148" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L148" s="40"/>
-      <c r="M148" s="33">
+      <c r="L148" s="36"/>
+      <c r="M148" s="44">
         <v>141</v>
       </c>
-      <c r="N148" s="31" t="s">
+      <c r="N148" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O148" s="31" t="s">
+      <c r="O148" s="34" t="s">
         <v>169</v>
       </c>
-      <c r="P148" s="31" t="s">
+      <c r="P148" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q148" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R148" s="34"/>
+      <c r="Q148" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R148" s="66"/>
     </row>
     <row r="149" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L149" s="40"/>
-      <c r="M149" s="58">
-        <v>142</v>
-      </c>
-      <c r="N149" s="31" t="s">
+      <c r="L149" s="36"/>
+      <c r="M149" s="40">
+        <v>142</v>
+      </c>
+      <c r="N149" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O149" s="31" t="s">
+      <c r="O149" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="P149" s="31" t="s">
+      <c r="P149" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q149" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R149" s="34"/>
+      <c r="Q149" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R149" s="66"/>
     </row>
     <row r="150" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L150" s="40"/>
-      <c r="M150" s="33">
+      <c r="L150" s="36"/>
+      <c r="M150" s="44">
         <v>141</v>
       </c>
-      <c r="N150" s="31" t="s">
+      <c r="N150" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O150" s="31" t="s">
+      <c r="O150" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="P150" s="31" t="s">
+      <c r="P150" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q150" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R150" s="34"/>
+      <c r="Q150" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R150" s="66"/>
     </row>
     <row r="151" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L151" s="40"/>
-      <c r="M151" s="58">
-        <v>142</v>
-      </c>
-      <c r="N151" s="31" t="s">
+      <c r="L151" s="36"/>
+      <c r="M151" s="40">
+        <v>142</v>
+      </c>
+      <c r="N151" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O151" s="31" t="s">
+      <c r="O151" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="P151" s="31" t="s">
+      <c r="P151" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q151" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R151" s="34"/>
+      <c r="Q151" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R151" s="66"/>
     </row>
     <row r="152" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L152" s="40"/>
-      <c r="M152" s="33">
+      <c r="L152" s="36"/>
+      <c r="M152" s="44">
         <v>141</v>
       </c>
-      <c r="N152" s="31" t="s">
+      <c r="N152" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O152" s="31" t="s">
+      <c r="O152" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="P152" s="31" t="s">
+      <c r="P152" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q152" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R152" s="34"/>
+      <c r="Q152" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R152" s="66"/>
     </row>
     <row r="153" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L153" s="40"/>
-      <c r="M153" s="58">
-        <v>142</v>
-      </c>
-      <c r="N153" s="31" t="s">
+      <c r="L153" s="36"/>
+      <c r="M153" s="40">
+        <v>142</v>
+      </c>
+      <c r="N153" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O153" s="31" t="s">
+      <c r="O153" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="P153" s="31" t="s">
+      <c r="P153" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q153" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R153" s="34"/>
+      <c r="Q153" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R153" s="66"/>
     </row>
     <row r="154" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L154" s="40"/>
-      <c r="M154" s="33">
+      <c r="L154" s="36"/>
+      <c r="M154" s="44">
         <v>141</v>
       </c>
-      <c r="N154" s="31" t="s">
+      <c r="N154" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O154" s="31" t="s">
+      <c r="O154" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="P154" s="31" t="s">
+      <c r="P154" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q154" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R154" s="34"/>
+      <c r="Q154" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R154" s="66"/>
     </row>
     <row r="155" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L155" s="40"/>
-      <c r="M155" s="58">
-        <v>142</v>
-      </c>
-      <c r="N155" s="31" t="s">
+      <c r="L155" s="36"/>
+      <c r="M155" s="40">
+        <v>142</v>
+      </c>
+      <c r="N155" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O155" s="31" t="s">
+      <c r="O155" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="P155" s="31" t="s">
+      <c r="P155" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q155" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R155" s="34"/>
+      <c r="Q155" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R155" s="66"/>
     </row>
     <row r="156" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L156" s="40"/>
-      <c r="M156" s="33">
+      <c r="L156" s="36"/>
+      <c r="M156" s="44">
         <v>141</v>
       </c>
-      <c r="N156" s="31" t="s">
+      <c r="N156" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O156" s="31" t="s">
+      <c r="O156" s="34" t="s">
         <v>177</v>
       </c>
-      <c r="P156" s="31" t="s">
+      <c r="P156" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q156" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R156" s="34"/>
+      <c r="Q156" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R156" s="66"/>
     </row>
     <row r="157" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L157" s="40"/>
-      <c r="M157" s="58">
-        <v>142</v>
-      </c>
-      <c r="N157" s="31" t="s">
+      <c r="L157" s="36"/>
+      <c r="M157" s="40">
+        <v>142</v>
+      </c>
+      <c r="N157" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O157" s="31" t="s">
+      <c r="O157" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="P157" s="31" t="s">
+      <c r="P157" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q157" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R157" s="34"/>
+      <c r="Q157" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R157" s="66"/>
     </row>
     <row r="158" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L158" s="40"/>
-      <c r="M158" s="33">
+      <c r="L158" s="36"/>
+      <c r="M158" s="44">
         <v>141</v>
       </c>
-      <c r="N158" s="31" t="s">
+      <c r="N158" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O158" s="31" t="s">
+      <c r="O158" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="P158" s="31" t="s">
+      <c r="P158" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q158" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R158" s="34"/>
+      <c r="Q158" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R158" s="66"/>
     </row>
     <row r="159" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L159" s="40"/>
-      <c r="M159" s="58">
-        <v>142</v>
-      </c>
-      <c r="N159" s="31" t="s">
+      <c r="L159" s="36"/>
+      <c r="M159" s="40">
+        <v>142</v>
+      </c>
+      <c r="N159" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O159" s="31" t="s">
+      <c r="O159" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="P159" s="31" t="s">
+      <c r="P159" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q159" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R159" s="34"/>
+      <c r="Q159" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R159" s="66"/>
     </row>
     <row r="160" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L160" s="40"/>
-      <c r="M160" s="49">
+      <c r="L160" s="36"/>
+      <c r="M160" s="44">
         <v>8</v>
       </c>
-      <c r="N160" s="31" t="s">
+      <c r="N160" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O160" s="31" t="s">
+      <c r="O160" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="P160" s="31" t="s">
+      <c r="P160" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q160" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R160" s="34"/>
+      <c r="Q160" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R160" s="66"/>
     </row>
     <row r="161" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L161" s="40"/>
-      <c r="M161" s="58">
-        <v>142</v>
-      </c>
-      <c r="N161" s="31" t="s">
+      <c r="L161" s="36"/>
+      <c r="M161" s="40">
+        <v>142</v>
+      </c>
+      <c r="N161" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O161" s="31" t="s">
+      <c r="O161" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="P161" s="31" t="s">
+      <c r="P161" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q161" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R161" s="34"/>
+      <c r="Q161" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R161" s="66"/>
     </row>
     <row r="162" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L162" s="40"/>
-      <c r="M162" s="44">
+      <c r="L162" s="36"/>
+      <c r="M162" s="40">
         <v>143</v>
       </c>
-      <c r="N162" s="31" t="s">
+      <c r="N162" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O162" s="31" t="s">
+      <c r="O162" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="P162" s="31" t="s">
+      <c r="P162" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q162" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R162" s="36"/>
+      <c r="Q162" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R162" s="48"/>
     </row>
     <row r="163" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L163" s="40"/>
-      <c r="M163" s="33">
+      <c r="L163" s="36"/>
+      <c r="M163" s="44">
         <v>141</v>
       </c>
-      <c r="N163" s="31" t="s">
+      <c r="N163" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O163" s="31" t="s">
+      <c r="O163" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="P163" s="31" t="s">
+      <c r="P163" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q163" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R163" s="36"/>
+      <c r="Q163" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R163" s="48"/>
     </row>
     <row r="164" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L164" s="40"/>
-      <c r="M164" s="58">
-        <v>142</v>
-      </c>
-      <c r="N164" s="31" t="s">
+      <c r="L164" s="36"/>
+      <c r="M164" s="40">
+        <v>142</v>
+      </c>
+      <c r="N164" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O164" s="31" t="s">
+      <c r="O164" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="P164" s="31" t="s">
+      <c r="P164" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q164" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R164" s="36"/>
+      <c r="Q164" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R164" s="48"/>
     </row>
     <row r="165" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L165" s="40"/>
-      <c r="M165" s="58">
-        <v>142</v>
-      </c>
-      <c r="N165" s="31" t="s">
+      <c r="L165" s="36"/>
+      <c r="M165" s="40">
+        <v>142</v>
+      </c>
+      <c r="N165" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O165" s="31" t="s">
+      <c r="O165" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="P165" s="31" t="s">
+      <c r="P165" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q165" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R165" s="36"/>
+      <c r="Q165" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R165" s="48"/>
     </row>
     <row r="166" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L166" s="40"/>
-      <c r="M166" s="33">
+      <c r="L166" s="36"/>
+      <c r="M166" s="44">
         <v>141</v>
       </c>
-      <c r="N166" s="31" t="s">
+      <c r="N166" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O166" s="31" t="s">
+      <c r="O166" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="P166" s="31" t="s">
+      <c r="P166" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q166" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R166" s="36"/>
+      <c r="Q166" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R166" s="48"/>
     </row>
     <row r="167" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L167" s="40"/>
-      <c r="M167" s="33">
+      <c r="L167" s="36"/>
+      <c r="M167" s="44">
         <v>141</v>
       </c>
-      <c r="N167" s="31" t="s">
+      <c r="N167" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O167" s="31" t="s">
+      <c r="O167" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="P167" s="31" t="s">
+      <c r="P167" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q167" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R167" s="34"/>
+      <c r="Q167" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R167" s="66"/>
     </row>
     <row r="168" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L168" s="40"/>
-      <c r="M168" s="98">
+      <c r="L168" s="36"/>
+      <c r="M168" s="116">
         <v>144</v>
       </c>
-      <c r="N168" s="96" t="s">
+      <c r="N168" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="O168" s="96" t="s">
+      <c r="O168" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="P168" s="96" t="s">
+      <c r="P168" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="Q168" s="96" t="s">
+      <c r="Q168" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="R168" s="97" t="s">
+      <c r="R168" s="110" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="169" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L169" s="40"/>
-      <c r="M169" s="54">
+      <c r="L169" s="36"/>
+      <c r="M169" s="109">
         <v>145</v>
       </c>
-      <c r="N169" s="64" t="s">
+      <c r="N169" s="107" t="s">
         <v>231</v>
       </c>
-      <c r="O169" s="64" t="s">
+      <c r="O169" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="P169" s="64" t="s">
+      <c r="P169" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="Q169" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="R169" s="47"/>
+      <c r="Q169" s="107" t="s">
+        <v>20</v>
+      </c>
+      <c r="R169" s="117"/>
     </row>
     <row r="170" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L170" s="40"/>
-      <c r="M170" s="58">
-        <v>142</v>
-      </c>
-      <c r="N170" s="31" t="s">
+      <c r="L170" s="36"/>
+      <c r="M170" s="40">
+        <v>142</v>
+      </c>
+      <c r="N170" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O170" s="31" t="s">
+      <c r="O170" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="P170" s="31" t="s">
+      <c r="P170" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q170" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R170" s="34"/>
+      <c r="Q170" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R170" s="66"/>
     </row>
     <row r="171" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L171" s="40"/>
-      <c r="M171" s="33">
+      <c r="L171" s="36"/>
+      <c r="M171" s="44">
         <v>141</v>
       </c>
-      <c r="N171" s="31" t="s">
+      <c r="N171" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O171" s="31" t="s">
+      <c r="O171" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="P171" s="31" t="s">
+      <c r="P171" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q171" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R171" s="34"/>
+      <c r="Q171" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R171" s="66"/>
     </row>
     <row r="172" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L172" s="40"/>
-      <c r="M172" s="58">
-        <v>142</v>
-      </c>
-      <c r="N172" s="31" t="s">
+      <c r="L172" s="36"/>
+      <c r="M172" s="40">
+        <v>142</v>
+      </c>
+      <c r="N172" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O172" s="31" t="s">
+      <c r="O172" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="P172" s="31" t="s">
+      <c r="P172" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q172" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R172" s="34"/>
+      <c r="Q172" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R172" s="66"/>
     </row>
     <row r="173" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L173" s="40"/>
-      <c r="M173" s="58">
-        <v>142</v>
-      </c>
-      <c r="N173" s="31" t="s">
+      <c r="L173" s="36"/>
+      <c r="M173" s="40">
+        <v>142</v>
+      </c>
+      <c r="N173" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O173" s="31" t="s">
+      <c r="O173" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="P173" s="31" t="s">
+      <c r="P173" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q173" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R173" s="34"/>
+      <c r="Q173" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R173" s="66"/>
     </row>
     <row r="174" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L174" s="40"/>
-      <c r="M174" s="58">
-        <v>142</v>
-      </c>
-      <c r="N174" s="31" t="s">
+      <c r="L174" s="36"/>
+      <c r="M174" s="40">
+        <v>142</v>
+      </c>
+      <c r="N174" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O174" s="31" t="s">
+      <c r="O174" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P174" s="31" t="s">
+      <c r="P174" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q174" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R174" s="34"/>
+      <c r="Q174" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R174" s="66"/>
     </row>
     <row r="175" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L175" s="40"/>
-      <c r="M175" s="33">
+      <c r="L175" s="36"/>
+      <c r="M175" s="44">
         <v>141</v>
       </c>
-      <c r="N175" s="31" t="s">
+      <c r="N175" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O175" s="31" t="s">
+      <c r="O175" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="P175" s="31" t="s">
+      <c r="P175" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q175" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R175" s="34"/>
+      <c r="Q175" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R175" s="66"/>
     </row>
     <row r="176" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L176" s="40"/>
-      <c r="M176" s="58">
-        <v>142</v>
-      </c>
-      <c r="N176" s="31" t="s">
+      <c r="L176" s="36"/>
+      <c r="M176" s="40">
+        <v>142</v>
+      </c>
+      <c r="N176" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O176" s="31" t="s">
+      <c r="O176" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="P176" s="31" t="s">
+      <c r="P176" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q176" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R176" s="34"/>
+      <c r="Q176" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R176" s="66"/>
     </row>
     <row r="177" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L177" s="40"/>
-      <c r="M177" s="58">
-        <v>142</v>
-      </c>
-      <c r="N177" s="31" t="s">
+      <c r="L177" s="36"/>
+      <c r="M177" s="40">
+        <v>142</v>
+      </c>
+      <c r="N177" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O177" s="31" t="s">
+      <c r="O177" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="P177" s="31" t="s">
+      <c r="P177" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q177" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R177" s="34"/>
+      <c r="Q177" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R177" s="66"/>
     </row>
     <row r="178" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L178" s="40"/>
-      <c r="M178" s="58">
-        <v>142</v>
-      </c>
-      <c r="N178" s="31" t="s">
+      <c r="L178" s="36"/>
+      <c r="M178" s="40">
+        <v>142</v>
+      </c>
+      <c r="N178" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O178" s="31" t="s">
+      <c r="O178" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="P178" s="31" t="s">
+      <c r="P178" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q178" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R178" s="34"/>
+      <c r="Q178" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R178" s="66"/>
     </row>
     <row r="179" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L179" s="40"/>
-      <c r="M179" s="58">
-        <v>142</v>
-      </c>
-      <c r="N179" s="31" t="s">
+      <c r="L179" s="36"/>
+      <c r="M179" s="40">
+        <v>142</v>
+      </c>
+      <c r="N179" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O179" s="31" t="s">
+      <c r="O179" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="P179" s="31" t="s">
+      <c r="P179" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q179" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R179" s="34"/>
+      <c r="Q179" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R179" s="66"/>
     </row>
     <row r="180" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L180" s="40"/>
-      <c r="M180" s="58">
-        <v>142</v>
-      </c>
-      <c r="N180" s="31" t="s">
+      <c r="L180" s="36"/>
+      <c r="M180" s="40">
+        <v>142</v>
+      </c>
+      <c r="N180" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O180" s="31" t="s">
+      <c r="O180" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="P180" s="31" t="s">
+      <c r="P180" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q180" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R180" s="34"/>
+      <c r="Q180" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R180" s="66"/>
     </row>
     <row r="181" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L181" s="40"/>
-      <c r="M181" s="58">
-        <v>142</v>
-      </c>
-      <c r="N181" s="31" t="s">
+      <c r="L181" s="36"/>
+      <c r="M181" s="40">
+        <v>142</v>
+      </c>
+      <c r="N181" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O181" s="31" t="s">
+      <c r="O181" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="P181" s="31" t="s">
+      <c r="P181" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q181" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R181" s="34"/>
+      <c r="Q181" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R181" s="66"/>
     </row>
     <row r="182" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L182" s="40"/>
-      <c r="M182" s="58">
-        <v>142</v>
-      </c>
-      <c r="N182" s="31" t="s">
+      <c r="L182" s="36"/>
+      <c r="M182" s="40">
+        <v>142</v>
+      </c>
+      <c r="N182" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O182" s="31" t="s">
+      <c r="O182" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="P182" s="31" t="s">
+      <c r="P182" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q182" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R182" s="34"/>
+      <c r="Q182" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R182" s="66"/>
     </row>
     <row r="183" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L183" s="40"/>
-      <c r="M183" s="58">
-        <v>142</v>
-      </c>
-      <c r="N183" s="31" t="s">
+      <c r="L183" s="36"/>
+      <c r="M183" s="40">
+        <v>142</v>
+      </c>
+      <c r="N183" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O183" s="31" t="s">
+      <c r="O183" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="P183" s="31" t="s">
+      <c r="P183" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q183" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R183" s="34"/>
+      <c r="Q183" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R183" s="66"/>
     </row>
     <row r="184" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L184" s="40"/>
-      <c r="M184" s="58">
-        <v>142</v>
-      </c>
-      <c r="N184" s="31" t="s">
+      <c r="L184" s="36"/>
+      <c r="M184" s="40">
+        <v>142</v>
+      </c>
+      <c r="N184" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O184" s="31" t="s">
+      <c r="O184" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="P184" s="31" t="s">
+      <c r="P184" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q184" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R184" s="34"/>
+      <c r="Q184" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R184" s="66"/>
     </row>
     <row r="185" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L185" s="40"/>
-      <c r="M185" s="33">
+      <c r="L185" s="36"/>
+      <c r="M185" s="44">
         <v>141</v>
       </c>
-      <c r="N185" s="31" t="s">
+      <c r="N185" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O185" s="31" t="s">
+      <c r="O185" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="P185" s="31" t="s">
+      <c r="P185" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q185" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R185" s="34"/>
+      <c r="Q185" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R185" s="66"/>
     </row>
     <row r="186" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L186" s="40"/>
-      <c r="M186" s="58">
-        <v>142</v>
-      </c>
-      <c r="N186" s="31" t="s">
+      <c r="L186" s="36"/>
+      <c r="M186" s="40">
+        <v>142</v>
+      </c>
+      <c r="N186" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O186" s="31" t="s">
+      <c r="O186" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="P186" s="31" t="s">
+      <c r="P186" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q186" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R186" s="34"/>
+      <c r="Q186" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R186" s="66"/>
     </row>
     <row r="187" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L187" s="40"/>
-      <c r="M187" s="58">
-        <v>142</v>
-      </c>
-      <c r="N187" s="31" t="s">
+      <c r="L187" s="36"/>
+      <c r="M187" s="40">
+        <v>142</v>
+      </c>
+      <c r="N187" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O187" s="31" t="s">
+      <c r="O187" s="34" t="s">
         <v>206</v>
       </c>
-      <c r="P187" s="31" t="s">
+      <c r="P187" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Q187" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R187" s="34"/>
+      <c r="Q187" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R187" s="66"/>
     </row>
     <row r="188" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L188" s="40"/>
-      <c r="M188" s="58">
-        <v>142</v>
-      </c>
-      <c r="N188" s="31" t="s">
+      <c r="L188" s="36"/>
+      <c r="M188" s="40">
+        <v>142</v>
+      </c>
+      <c r="N188" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O188" s="31" t="s">
+      <c r="O188" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="P188" s="31" t="s">
+      <c r="P188" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q188" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R188" s="34"/>
+      <c r="Q188" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R188" s="66"/>
     </row>
     <row r="189" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L189" s="40"/>
-      <c r="M189" s="58">
-        <v>142</v>
-      </c>
-      <c r="N189" s="31" t="s">
+      <c r="L189" s="36"/>
+      <c r="M189" s="40">
+        <v>142</v>
+      </c>
+      <c r="N189" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O189" s="31" t="s">
+      <c r="O189" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="P189" s="31" t="s">
+      <c r="P189" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q189" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R189" s="34"/>
+      <c r="Q189" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R189" s="66"/>
     </row>
     <row r="190" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L190" s="40"/>
-      <c r="M190" s="58">
-        <v>142</v>
-      </c>
-      <c r="N190" s="31" t="s">
+      <c r="L190" s="36"/>
+      <c r="M190" s="40">
+        <v>142</v>
+      </c>
+      <c r="N190" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O190" s="31" t="s">
+      <c r="O190" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="P190" s="31" t="s">
+      <c r="P190" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q190" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R190" s="34"/>
+      <c r="Q190" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R190" s="66"/>
     </row>
     <row r="191" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L191" s="40"/>
-      <c r="M191" s="58">
-        <v>142</v>
-      </c>
-      <c r="N191" s="31" t="s">
+      <c r="L191" s="36"/>
+      <c r="M191" s="40">
+        <v>142</v>
+      </c>
+      <c r="N191" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O191" s="31" t="s">
+      <c r="O191" s="34" t="s">
         <v>210</v>
       </c>
-      <c r="P191" s="31" t="s">
+      <c r="P191" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q191" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R191" s="34"/>
+      <c r="Q191" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R191" s="66"/>
     </row>
     <row r="192" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L192" s="40"/>
-      <c r="M192" s="33">
+      <c r="L192" s="36"/>
+      <c r="M192" s="44">
         <v>141</v>
       </c>
-      <c r="N192" s="31" t="s">
+      <c r="N192" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O192" s="31" t="s">
+      <c r="O192" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="P192" s="31" t="s">
+      <c r="P192" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q192" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R192" s="34"/>
+      <c r="Q192" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R192" s="66"/>
     </row>
     <row r="193" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L193" s="40"/>
-      <c r="M193" s="33">
+      <c r="L193" s="36"/>
+      <c r="M193" s="44">
         <v>141</v>
       </c>
-      <c r="N193" s="31" t="s">
+      <c r="N193" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O193" s="31" t="s">
+      <c r="O193" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="P193" s="31" t="s">
+      <c r="P193" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q193" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R193" s="34"/>
+      <c r="Q193" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R193" s="66"/>
     </row>
     <row r="194" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L194" s="40"/>
-      <c r="M194" s="33">
+      <c r="L194" s="36"/>
+      <c r="M194" s="44">
         <v>141</v>
       </c>
-      <c r="N194" s="31" t="s">
+      <c r="N194" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O194" s="31" t="s">
+      <c r="O194" s="34" t="s">
         <v>213</v>
       </c>
-      <c r="P194" s="31" t="s">
+      <c r="P194" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q194" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R194" s="34"/>
+      <c r="Q194" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R194" s="66"/>
     </row>
     <row r="195" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L195" s="40"/>
-      <c r="M195" s="33">
+      <c r="L195" s="36"/>
+      <c r="M195" s="44">
         <v>141</v>
       </c>
-      <c r="N195" s="31" t="s">
+      <c r="N195" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O195" s="31" t="s">
+      <c r="O195" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="P195" s="31" t="s">
+      <c r="P195" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q195" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R195" s="34"/>
+      <c r="Q195" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R195" s="66"/>
     </row>
     <row r="196" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L196" s="40"/>
-      <c r="M196" s="58">
-        <v>142</v>
-      </c>
-      <c r="N196" s="31" t="s">
+      <c r="L196" s="36"/>
+      <c r="M196" s="40">
+        <v>142</v>
+      </c>
+      <c r="N196" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O196" s="31" t="s">
+      <c r="O196" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="P196" s="31" t="s">
+      <c r="P196" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q196" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R196" s="34"/>
+      <c r="Q196" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R196" s="66"/>
     </row>
     <row r="197" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L197" s="40"/>
-      <c r="M197" s="33">
+      <c r="L197" s="36"/>
+      <c r="M197" s="44">
         <v>141</v>
       </c>
-      <c r="N197" s="31" t="s">
+      <c r="N197" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O197" s="31" t="s">
+      <c r="O197" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="P197" s="31" t="s">
+      <c r="P197" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q197" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R197" s="34"/>
+      <c r="Q197" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R197" s="66"/>
     </row>
     <row r="198" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L198" s="40"/>
-      <c r="M198" s="58">
-        <v>142</v>
-      </c>
-      <c r="N198" s="31" t="s">
+      <c r="L198" s="36"/>
+      <c r="M198" s="40">
+        <v>142</v>
+      </c>
+      <c r="N198" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O198" s="31" t="s">
+      <c r="O198" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="P198" s="31" t="s">
+      <c r="P198" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q198" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R198" s="34"/>
+      <c r="Q198" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R198" s="66"/>
     </row>
     <row r="199" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L199" s="40"/>
-      <c r="M199" s="58">
-        <v>142</v>
-      </c>
-      <c r="N199" s="31" t="s">
+      <c r="L199" s="36"/>
+      <c r="M199" s="40">
+        <v>142</v>
+      </c>
+      <c r="N199" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O199" s="31" t="s">
+      <c r="O199" s="34" t="s">
         <v>218</v>
       </c>
-      <c r="P199" s="31" t="s">
+      <c r="P199" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="Q199" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R199" s="34"/>
+      <c r="Q199" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R199" s="66"/>
     </row>
     <row r="200" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L200" s="40"/>
-      <c r="M200" s="58">
-        <v>142</v>
-      </c>
-      <c r="N200" s="31" t="s">
+      <c r="L200" s="36"/>
+      <c r="M200" s="40">
+        <v>142</v>
+      </c>
+      <c r="N200" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O200" s="31" t="s">
+      <c r="O200" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="P200" s="31" t="s">
+      <c r="P200" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="Q200" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R200" s="34"/>
+      <c r="Q200" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R200" s="66"/>
     </row>
     <row r="201" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L201" s="40"/>
-      <c r="M201" s="33">
+      <c r="L201" s="36"/>
+      <c r="M201" s="44">
         <v>141</v>
       </c>
-      <c r="N201" s="31" t="s">
+      <c r="N201" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O201" s="31" t="s">
+      <c r="O201" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="P201" s="31" t="s">
+      <c r="P201" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q201" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R201" s="34"/>
+      <c r="Q201" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R201" s="66"/>
     </row>
     <row r="202" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L202" s="40"/>
-      <c r="M202" s="33">
+      <c r="L202" s="36"/>
+      <c r="M202" s="44">
         <v>141</v>
       </c>
-      <c r="N202" s="31" t="s">
+      <c r="N202" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O202" s="31" t="s">
+      <c r="O202" s="34" t="s">
         <v>221</v>
       </c>
-      <c r="P202" s="31" t="s">
+      <c r="P202" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q202" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R202" s="34"/>
+      <c r="Q202" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R202" s="66"/>
     </row>
     <row r="203" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L203" s="40"/>
-      <c r="M203" s="58">
-        <v>142</v>
-      </c>
-      <c r="N203" s="31" t="s">
+      <c r="L203" s="36"/>
+      <c r="M203" s="40">
+        <v>142</v>
+      </c>
+      <c r="N203" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O203" s="31" t="s">
+      <c r="O203" s="34" t="s">
         <v>222</v>
       </c>
-      <c r="P203" s="31" t="s">
+      <c r="P203" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="Q203" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R203" s="34"/>
+      <c r="Q203" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R203" s="66"/>
     </row>
     <row r="204" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L204" s="40"/>
-      <c r="M204" s="33">
+      <c r="L204" s="36"/>
+      <c r="M204" s="44">
         <v>141</v>
       </c>
-      <c r="N204" s="31" t="s">
+      <c r="N204" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O204" s="31" t="s">
+      <c r="O204" s="34" t="s">
         <v>223</v>
       </c>
-      <c r="P204" s="31" t="s">
+      <c r="P204" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q204" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R204" s="34"/>
+      <c r="Q204" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R204" s="66"/>
     </row>
     <row r="205" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L205" s="40"/>
-      <c r="M205" s="58">
-        <v>142</v>
-      </c>
-      <c r="N205" s="31" t="s">
+      <c r="L205" s="36"/>
+      <c r="M205" s="40">
+        <v>142</v>
+      </c>
+      <c r="N205" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O205" s="31" t="s">
+      <c r="O205" s="34" t="s">
         <v>224</v>
       </c>
-      <c r="P205" s="31" t="s">
+      <c r="P205" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q205" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R205" s="34"/>
+      <c r="Q205" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R205" s="66"/>
     </row>
     <row r="206" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L206" s="40"/>
-      <c r="M206" s="58">
-        <v>142</v>
-      </c>
-      <c r="N206" s="31" t="s">
+      <c r="L206" s="36"/>
+      <c r="M206" s="40">
+        <v>142</v>
+      </c>
+      <c r="N206" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O206" s="31" t="s">
+      <c r="O206" s="34" t="s">
         <v>225</v>
       </c>
-      <c r="P206" s="31" t="s">
+      <c r="P206" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q206" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R206" s="34"/>
+      <c r="Q206" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R206" s="66"/>
     </row>
     <row r="207" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L207" s="40"/>
-      <c r="M207" s="58">
-        <v>142</v>
-      </c>
-      <c r="N207" s="31" t="s">
+      <c r="L207" s="36"/>
+      <c r="M207" s="40">
+        <v>142</v>
+      </c>
+      <c r="N207" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O207" s="31" t="s">
+      <c r="O207" s="34" t="s">
         <v>226</v>
       </c>
-      <c r="P207" s="31" t="s">
+      <c r="P207" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q207" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R207" s="34"/>
+      <c r="Q207" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R207" s="66"/>
     </row>
     <row r="208" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L208" s="40"/>
-      <c r="M208" s="58">
-        <v>142</v>
-      </c>
-      <c r="N208" s="31" t="s">
+      <c r="L208" s="36"/>
+      <c r="M208" s="40">
+        <v>142</v>
+      </c>
+      <c r="N208" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O208" s="31" t="s">
+      <c r="O208" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="P208" s="31" t="s">
+      <c r="P208" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="Q208" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R208" s="34"/>
+      <c r="Q208" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R208" s="66"/>
     </row>
     <row r="209" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L209" s="40"/>
-      <c r="M209" s="58">
-        <v>142</v>
-      </c>
-      <c r="N209" s="31" t="s">
+      <c r="L209" s="36"/>
+      <c r="M209" s="40">
+        <v>142</v>
+      </c>
+      <c r="N209" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O209" s="31" t="s">
+      <c r="O209" s="34" t="s">
         <v>228</v>
       </c>
-      <c r="P209" s="31" t="s">
+      <c r="P209" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="Q209" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R209" s="34"/>
+      <c r="Q209" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R209" s="66"/>
     </row>
     <row r="210" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L210" s="40"/>
-      <c r="M210" s="58">
-        <v>142</v>
-      </c>
-      <c r="N210" s="31" t="s">
+      <c r="L210" s="36"/>
+      <c r="M210" s="40">
+        <v>141</v>
+      </c>
+      <c r="N210" s="34" t="s">
         <v>231</v>
       </c>
-      <c r="O210" s="31" t="s">
+      <c r="O210" s="112" t="s">
+        <v>429</v>
+      </c>
+      <c r="P210" s="112" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q210" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R210" s="66"/>
+    </row>
+    <row r="211" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L211" s="36"/>
+      <c r="M211" s="40">
+        <v>141</v>
+      </c>
+      <c r="N211" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="O211" s="113" t="s">
+        <v>430</v>
+      </c>
+      <c r="P211" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q211" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R211" s="66"/>
+    </row>
+    <row r="212" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L212" s="36"/>
+      <c r="M212" s="40">
+        <v>142</v>
+      </c>
+      <c r="N212" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="O212" s="34" t="s">
         <v>229</v>
       </c>
-      <c r="P210" s="31" t="s">
+      <c r="P212" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q210" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="R210" s="34"/>
-    </row>
-    <row r="211" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L211" s="41"/>
-      <c r="M211" s="82">
-        <v>142</v>
-      </c>
-      <c r="N211" s="38" t="s">
+      <c r="Q212" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="R212" s="66"/>
+    </row>
+    <row r="213" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L213" s="37"/>
+      <c r="M213" s="111">
+        <v>142</v>
+      </c>
+      <c r="N213" s="114" t="s">
         <v>231</v>
       </c>
-      <c r="O211" s="38" t="s">
+      <c r="O213" s="114" t="s">
         <v>230</v>
       </c>
-      <c r="P211" s="38" t="s">
+      <c r="P213" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="Q211" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="R211" s="35"/>
+      <c r="Q213" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="R213" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">
